--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14700000</v>
+        <v>14537300</v>
       </c>
       <c r="E8" s="3">
-        <v>15176600</v>
+        <v>14848500</v>
       </c>
       <c r="F8" s="3">
-        <v>47861800</v>
+        <v>15309200</v>
       </c>
       <c r="G8" s="3">
-        <v>50341100</v>
+        <v>48280300</v>
       </c>
       <c r="H8" s="3">
-        <v>50671600</v>
+        <v>50781200</v>
       </c>
       <c r="I8" s="3">
-        <v>54624400</v>
+        <v>51114600</v>
       </c>
       <c r="J8" s="3">
+        <v>55102000</v>
+      </c>
+      <c r="K8" s="3">
         <v>55746600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>57696300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11190800</v>
+        <v>9947400</v>
       </c>
       <c r="E9" s="3">
-        <v>10943800</v>
+        <v>11023900</v>
       </c>
       <c r="F9" s="3">
-        <v>36381100</v>
+        <v>11039400</v>
       </c>
       <c r="G9" s="3">
-        <v>36781900</v>
+        <v>36699200</v>
       </c>
       <c r="H9" s="3">
-        <v>36680900</v>
+        <v>37103500</v>
       </c>
       <c r="I9" s="3">
-        <v>38740700</v>
+        <v>37001600</v>
       </c>
       <c r="J9" s="3">
+        <v>39079500</v>
+      </c>
+      <c r="K9" s="3">
         <v>37643800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39455300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3509200</v>
+        <v>4589900</v>
       </c>
       <c r="E10" s="3">
-        <v>4232800</v>
+        <v>3824500</v>
       </c>
       <c r="F10" s="3">
-        <v>11480700</v>
+        <v>4269800</v>
       </c>
       <c r="G10" s="3">
-        <v>13559200</v>
+        <v>11581100</v>
       </c>
       <c r="H10" s="3">
-        <v>13990700</v>
+        <v>13677800</v>
       </c>
       <c r="I10" s="3">
-        <v>15883700</v>
+        <v>14113000</v>
       </c>
       <c r="J10" s="3">
+        <v>16022500</v>
+      </c>
+      <c r="K10" s="3">
         <v>18102700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18241000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,69 +888,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>51600</v>
+        <v>2179800</v>
       </c>
       <c r="E14" s="3">
-        <v>931100</v>
+        <v>52100</v>
       </c>
       <c r="F14" s="3">
-        <v>4809200</v>
+        <v>939200</v>
       </c>
       <c r="G14" s="3">
-        <v>3240200</v>
+        <v>4851300</v>
       </c>
       <c r="H14" s="3">
-        <v>925600</v>
+        <v>3268500</v>
       </c>
       <c r="I14" s="3">
-        <v>5237500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>933700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5283300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>989300</v>
+        <v>1326900</v>
       </c>
       <c r="E15" s="3">
-        <v>1045300</v>
+        <v>1967100</v>
       </c>
       <c r="F15" s="3">
-        <v>2489200</v>
+        <v>1054400</v>
       </c>
       <c r="G15" s="3">
-        <v>2648400</v>
+        <v>2510900</v>
       </c>
       <c r="H15" s="3">
-        <v>2494700</v>
+        <v>2671500</v>
       </c>
       <c r="I15" s="3">
-        <v>2751600</v>
+        <v>2516500</v>
       </c>
       <c r="J15" s="3">
+        <v>2775600</v>
+      </c>
+      <c r="K15" s="3">
         <v>5568000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3995600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14382700</v>
+        <v>14695600</v>
       </c>
       <c r="E17" s="3">
-        <v>13022300</v>
+        <v>14528400</v>
       </c>
       <c r="F17" s="3">
-        <v>52384500</v>
+        <v>13136100</v>
       </c>
       <c r="G17" s="3">
-        <v>49827200</v>
+        <v>52842500</v>
       </c>
       <c r="H17" s="3">
-        <v>46773700</v>
+        <v>50262900</v>
       </c>
       <c r="I17" s="3">
-        <v>54972500</v>
+        <v>47182700</v>
       </c>
       <c r="J17" s="3">
+        <v>55453100</v>
+      </c>
+      <c r="K17" s="3">
         <v>51524700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52849600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>317300</v>
+        <v>-158400</v>
       </c>
       <c r="E18" s="3">
-        <v>2154300</v>
+        <v>320100</v>
       </c>
       <c r="F18" s="3">
-        <v>-4522700</v>
+        <v>2173100</v>
       </c>
       <c r="G18" s="3">
-        <v>513900</v>
+        <v>-4562200</v>
       </c>
       <c r="H18" s="3">
-        <v>3897900</v>
+        <v>518400</v>
       </c>
       <c r="I18" s="3">
-        <v>-348100</v>
+        <v>3932000</v>
       </c>
       <c r="J18" s="3">
+        <v>-351100</v>
+      </c>
+      <c r="K18" s="3">
         <v>4221800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4846700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-65900</v>
+        <v>-388800</v>
       </c>
       <c r="E20" s="3">
-        <v>430400</v>
+        <v>-66500</v>
       </c>
       <c r="F20" s="3">
-        <v>-849900</v>
+        <v>434200</v>
       </c>
       <c r="G20" s="3">
-        <v>-39500</v>
+        <v>-857300</v>
       </c>
       <c r="H20" s="3">
-        <v>-246000</v>
+        <v>-39900</v>
       </c>
       <c r="I20" s="3">
-        <v>523700</v>
+        <v>-248100</v>
       </c>
       <c r="J20" s="3">
+        <v>528300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-401900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-49300</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1305000</v>
+        <v>2483100</v>
       </c>
       <c r="E21" s="3">
-        <v>3649200</v>
+        <v>1307700</v>
       </c>
       <c r="F21" s="3">
-        <v>1962500</v>
+        <v>3672400</v>
       </c>
       <c r="G21" s="3">
-        <v>6663400</v>
+        <v>1919500</v>
       </c>
       <c r="H21" s="3">
-        <v>7042300</v>
+        <v>6671000</v>
       </c>
       <c r="I21" s="3">
-        <v>8215600</v>
+        <v>7076100</v>
       </c>
       <c r="J21" s="3">
+        <v>8221500</v>
+      </c>
+      <c r="K21" s="3">
         <v>9709900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8841500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>197600</v>
+        <v>285800</v>
       </c>
       <c r="E22" s="3">
-        <v>327200</v>
+        <v>199400</v>
       </c>
       <c r="F22" s="3">
-        <v>1003600</v>
+        <v>330100</v>
       </c>
       <c r="G22" s="3">
-        <v>1173800</v>
+        <v>1012300</v>
       </c>
       <c r="H22" s="3">
-        <v>1185800</v>
+        <v>1184000</v>
       </c>
       <c r="I22" s="3">
-        <v>2389200</v>
+        <v>1196200</v>
       </c>
       <c r="J22" s="3">
+        <v>2410100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1371400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1247800</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>53800</v>
+        <v>-832900</v>
       </c>
       <c r="E23" s="3">
-        <v>2257500</v>
+        <v>54300</v>
       </c>
       <c r="F23" s="3">
-        <v>-6376100</v>
+        <v>2277200</v>
       </c>
       <c r="G23" s="3">
-        <v>-699400</v>
+        <v>-6431800</v>
       </c>
       <c r="H23" s="3">
-        <v>2466100</v>
+        <v>-705500</v>
       </c>
       <c r="I23" s="3">
-        <v>-2213600</v>
+        <v>2487700</v>
       </c>
       <c r="J23" s="3">
+        <v>-2232900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2448500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3549600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>113100</v>
+        <v>-101900</v>
       </c>
       <c r="E24" s="3">
-        <v>365600</v>
+        <v>114100</v>
       </c>
       <c r="F24" s="3">
-        <v>-354700</v>
+        <v>368800</v>
       </c>
       <c r="G24" s="3">
-        <v>662100</v>
+        <v>-357800</v>
       </c>
       <c r="H24" s="3">
-        <v>607200</v>
+        <v>667900</v>
       </c>
       <c r="I24" s="3">
-        <v>811400</v>
+        <v>612500</v>
       </c>
       <c r="J24" s="3">
+        <v>818500</v>
+      </c>
+      <c r="K24" s="3">
         <v>577500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1002400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-59300</v>
+        <v>-731000</v>
       </c>
       <c r="E26" s="3">
-        <v>1891900</v>
+        <v>-59800</v>
       </c>
       <c r="F26" s="3">
-        <v>-6021400</v>
+        <v>1908400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1361500</v>
+        <v>-6074100</v>
       </c>
       <c r="H26" s="3">
-        <v>1858900</v>
+        <v>-1373400</v>
       </c>
       <c r="I26" s="3">
-        <v>-3025000</v>
+        <v>1875200</v>
       </c>
       <c r="J26" s="3">
+        <v>-3051400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1871000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2547200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-869600</v>
+        <v>-1459800</v>
       </c>
       <c r="E27" s="3">
-        <v>1436200</v>
+        <v>-877200</v>
       </c>
       <c r="F27" s="3">
-        <v>-6269600</v>
+        <v>1448700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1860000</v>
+        <v>-6324400</v>
       </c>
       <c r="H27" s="3">
-        <v>1471300</v>
+        <v>-1876300</v>
       </c>
       <c r="I27" s="3">
-        <v>-3369800</v>
+        <v>1484200</v>
       </c>
       <c r="J27" s="3">
+        <v>-3399200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1434000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2119900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,39 +1344,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1237400</v>
+        <v>10872200</v>
       </c>
       <c r="E29" s="3">
-        <v>650000</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>1248300</v>
+      </c>
+      <c r="F29" s="3">
+        <v>655700</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>1673400</v>
-      </c>
       <c r="H29" s="3">
-        <v>399700</v>
+        <v>1688000</v>
       </c>
       <c r="I29" s="3">
-        <v>342600</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>403200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>345600</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>65900</v>
+        <v>388800</v>
       </c>
       <c r="E32" s="3">
-        <v>-430400</v>
+        <v>66500</v>
       </c>
       <c r="F32" s="3">
-        <v>849900</v>
+        <v>-434200</v>
       </c>
       <c r="G32" s="3">
-        <v>39500</v>
+        <v>857300</v>
       </c>
       <c r="H32" s="3">
-        <v>246000</v>
+        <v>39900</v>
       </c>
       <c r="I32" s="3">
-        <v>-523700</v>
+        <v>248100</v>
       </c>
       <c r="J32" s="3">
+        <v>-528300</v>
+      </c>
+      <c r="K32" s="3">
         <v>401900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>49300</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>367800</v>
+        <v>9412400</v>
       </c>
       <c r="E33" s="3">
-        <v>2086200</v>
+        <v>371000</v>
       </c>
       <c r="F33" s="3">
-        <v>-6269600</v>
+        <v>2104400</v>
       </c>
       <c r="G33" s="3">
-        <v>-186700</v>
+        <v>-6324400</v>
       </c>
       <c r="H33" s="3">
-        <v>1871000</v>
+        <v>-188300</v>
       </c>
       <c r="I33" s="3">
-        <v>-3027200</v>
+        <v>1887400</v>
       </c>
       <c r="J33" s="3">
+        <v>-3053700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1434000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2119900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>367800</v>
+        <v>9412400</v>
       </c>
       <c r="E35" s="3">
-        <v>2086200</v>
+        <v>371000</v>
       </c>
       <c r="F35" s="3">
-        <v>-6269600</v>
+        <v>2104400</v>
       </c>
       <c r="G35" s="3">
-        <v>-186700</v>
+        <v>-6324400</v>
       </c>
       <c r="H35" s="3">
-        <v>1871000</v>
+        <v>-188300</v>
       </c>
       <c r="I35" s="3">
-        <v>-3027200</v>
+        <v>1887400</v>
       </c>
       <c r="J35" s="3">
+        <v>-3053700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1434000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2119900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,278 +1646,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3868300</v>
+        <v>3542500</v>
       </c>
       <c r="E41" s="3">
-        <v>4318400</v>
+        <v>3909800</v>
       </c>
       <c r="F41" s="3">
-        <v>5024400</v>
+        <v>4364800</v>
       </c>
       <c r="G41" s="3">
-        <v>2769200</v>
+        <v>5078400</v>
       </c>
       <c r="H41" s="3">
-        <v>3481800</v>
+        <v>2798900</v>
       </c>
       <c r="I41" s="3">
-        <v>8674200</v>
+        <v>3519200</v>
       </c>
       <c r="J41" s="3">
+        <v>8767400</v>
+      </c>
+      <c r="K41" s="3">
         <v>5662400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4307900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3962700</v>
+        <v>3615700</v>
       </c>
       <c r="E42" s="3">
-        <v>5372500</v>
+        <v>4005300</v>
       </c>
       <c r="F42" s="3">
-        <v>10787900</v>
+        <v>5430300</v>
       </c>
       <c r="G42" s="3">
-        <v>8165800</v>
+        <v>10903800</v>
       </c>
       <c r="H42" s="3">
-        <v>4842200</v>
+        <v>8253600</v>
       </c>
       <c r="I42" s="3">
-        <v>3088700</v>
+        <v>4894200</v>
       </c>
       <c r="J42" s="3">
+        <v>3121900</v>
+      </c>
+      <c r="K42" s="3">
         <v>6012600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12134800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5320900</v>
+        <v>6854100</v>
       </c>
       <c r="E43" s="3">
-        <v>8339300</v>
+        <v>5378100</v>
       </c>
       <c r="F43" s="3">
-        <v>7361000</v>
+        <v>8428900</v>
       </c>
       <c r="G43" s="3">
-        <v>7503700</v>
+        <v>7440100</v>
       </c>
       <c r="H43" s="3">
-        <v>9395600</v>
+        <v>7584400</v>
       </c>
       <c r="I43" s="3">
-        <v>18806500</v>
+        <v>9496600</v>
       </c>
       <c r="J43" s="3">
+        <v>19008700</v>
+      </c>
+      <c r="K43" s="3">
         <v>32414100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24880100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1790800</v>
+        <v>1759000</v>
       </c>
       <c r="E44" s="3">
-        <v>2112600</v>
+        <v>1810100</v>
       </c>
       <c r="F44" s="3">
-        <v>2160900</v>
+        <v>2135300</v>
       </c>
       <c r="G44" s="3">
-        <v>2151000</v>
+        <v>2184100</v>
       </c>
       <c r="H44" s="3">
-        <v>2450700</v>
+        <v>2174100</v>
       </c>
       <c r="I44" s="3">
-        <v>5241900</v>
+        <v>2477100</v>
       </c>
       <c r="J44" s="3">
+        <v>5298200</v>
+      </c>
+      <c r="K44" s="3">
         <v>10333300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7845700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52598600</v>
+        <v>15570500</v>
       </c>
       <c r="E45" s="3">
-        <v>5512000</v>
+        <v>53163900</v>
       </c>
       <c r="F45" s="3">
-        <v>8145000</v>
+        <v>5571200</v>
       </c>
       <c r="G45" s="3">
-        <v>10023600</v>
+        <v>8232500</v>
       </c>
       <c r="H45" s="3">
-        <v>15066800</v>
+        <v>10131400</v>
       </c>
       <c r="I45" s="3">
-        <v>15082100</v>
+        <v>15228700</v>
       </c>
       <c r="J45" s="3">
+        <v>15244200</v>
+      </c>
+      <c r="K45" s="3">
         <v>19849600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19187100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>67541300</v>
+        <v>31341900</v>
       </c>
       <c r="E46" s="3">
-        <v>25654800</v>
+        <v>68267100</v>
       </c>
       <c r="F46" s="3">
-        <v>33479100</v>
+        <v>25930500</v>
       </c>
       <c r="G46" s="3">
-        <v>30613300</v>
+        <v>33838900</v>
       </c>
       <c r="H46" s="3">
-        <v>35237000</v>
+        <v>30942300</v>
       </c>
       <c r="I46" s="3">
-        <v>26874600</v>
+        <v>35615700</v>
       </c>
       <c r="J46" s="3">
+        <v>27163500</v>
+      </c>
+      <c r="K46" s="3">
         <v>27423600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34177800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2440900</v>
+        <v>8899500</v>
       </c>
       <c r="E47" s="3">
-        <v>4995900</v>
+        <v>2467100</v>
       </c>
       <c r="F47" s="3">
-        <v>5034300</v>
+        <v>5049600</v>
       </c>
       <c r="G47" s="3">
-        <v>4977200</v>
+        <v>5088400</v>
       </c>
       <c r="H47" s="3">
-        <v>5572400</v>
+        <v>5030700</v>
       </c>
       <c r="I47" s="3">
-        <v>6328900</v>
+        <v>5632200</v>
       </c>
       <c r="J47" s="3">
+        <v>6396900</v>
+      </c>
+      <c r="K47" s="3">
         <v>13053000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16227900</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13625100</v>
+        <v>21193900</v>
       </c>
       <c r="E48" s="3">
-        <v>27391800</v>
+        <v>13771500</v>
       </c>
       <c r="F48" s="3">
-        <v>26920800</v>
+        <v>27686200</v>
       </c>
       <c r="G48" s="3">
-        <v>32313000</v>
+        <v>27210100</v>
       </c>
       <c r="H48" s="3">
-        <v>34193900</v>
+        <v>32660300</v>
       </c>
       <c r="I48" s="3">
-        <v>82297300</v>
+        <v>34561400</v>
       </c>
       <c r="J48" s="3">
+        <v>83181700</v>
+      </c>
+      <c r="K48" s="3">
         <v>120179000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82126800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2398000</v>
+        <v>5330400</v>
       </c>
       <c r="E49" s="3">
-        <v>13562500</v>
+        <v>2423800</v>
       </c>
       <c r="F49" s="3">
-        <v>13991800</v>
+        <v>13708200</v>
       </c>
       <c r="G49" s="3">
-        <v>14503500</v>
+        <v>14142200</v>
       </c>
       <c r="H49" s="3">
-        <v>14050000</v>
+        <v>14659300</v>
       </c>
       <c r="I49" s="3">
-        <v>41934800</v>
+        <v>14201000</v>
       </c>
       <c r="J49" s="3">
+        <v>42385500</v>
+      </c>
+      <c r="K49" s="3">
         <v>53012500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39782800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1953300</v>
+        <v>4474700</v>
       </c>
       <c r="E52" s="3">
-        <v>4221800</v>
+        <v>1974300</v>
       </c>
       <c r="F52" s="3">
-        <v>4463400</v>
+        <v>4267200</v>
       </c>
       <c r="G52" s="3">
-        <v>4701600</v>
+        <v>4511300</v>
       </c>
       <c r="H52" s="3">
-        <v>5721700</v>
+        <v>4752200</v>
       </c>
       <c r="I52" s="3">
-        <v>6693400</v>
+        <v>5783200</v>
       </c>
       <c r="J52" s="3">
+        <v>6765300</v>
+      </c>
+      <c r="K52" s="3">
         <v>12964100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10999800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>87958600</v>
+        <v>71240300</v>
       </c>
       <c r="E54" s="3">
-        <v>75826800</v>
+        <v>88903900</v>
       </c>
       <c r="F54" s="3">
-        <v>83889400</v>
+        <v>76641700</v>
       </c>
       <c r="G54" s="3">
-        <v>87108700</v>
+        <v>84790900</v>
       </c>
       <c r="H54" s="3">
-        <v>94775000</v>
+        <v>88044900</v>
       </c>
       <c r="I54" s="3">
-        <v>89356300</v>
+        <v>95793500</v>
       </c>
       <c r="J54" s="3">
+        <v>90316600</v>
+      </c>
+      <c r="K54" s="3">
         <v>97097200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108732000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2667000</v>
+        <v>3315000</v>
       </c>
       <c r="E57" s="3">
-        <v>5574500</v>
+        <v>2695700</v>
       </c>
       <c r="F57" s="3">
-        <v>5963200</v>
+        <v>5634500</v>
       </c>
       <c r="G57" s="3">
-        <v>6722000</v>
+        <v>6027300</v>
       </c>
       <c r="H57" s="3">
-        <v>6927300</v>
+        <v>6794200</v>
       </c>
       <c r="I57" s="3">
-        <v>7071100</v>
+        <v>7001700</v>
       </c>
       <c r="J57" s="3">
+        <v>7147100</v>
+      </c>
+      <c r="K57" s="3">
         <v>16086800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18513300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>99900</v>
+        <v>433900</v>
       </c>
       <c r="E58" s="3">
-        <v>1886400</v>
+        <v>101000</v>
       </c>
       <c r="F58" s="3">
-        <v>969500</v>
+        <v>1906600</v>
       </c>
       <c r="G58" s="3">
-        <v>1347200</v>
+        <v>980000</v>
       </c>
       <c r="H58" s="3">
-        <v>2406800</v>
+        <v>1361700</v>
       </c>
       <c r="I58" s="3">
-        <v>3456500</v>
+        <v>2432700</v>
       </c>
       <c r="J58" s="3">
+        <v>3493700</v>
+      </c>
+      <c r="K58" s="3">
         <v>12557800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15247800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47569800</v>
+        <v>18143000</v>
       </c>
       <c r="E59" s="3">
-        <v>14821900</v>
+        <v>48081000</v>
       </c>
       <c r="F59" s="3">
-        <v>24652300</v>
+        <v>14981200</v>
       </c>
       <c r="G59" s="3">
-        <v>19518000</v>
+        <v>24917200</v>
       </c>
       <c r="H59" s="3">
-        <v>21651500</v>
+        <v>19727800</v>
       </c>
       <c r="I59" s="3">
-        <v>31591700</v>
+        <v>21884100</v>
       </c>
       <c r="J59" s="3">
+        <v>31931200</v>
+      </c>
+      <c r="K59" s="3">
         <v>42894500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39444700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50336700</v>
+        <v>21891900</v>
       </c>
       <c r="E60" s="3">
-        <v>22282800</v>
+        <v>50877700</v>
       </c>
       <c r="F60" s="3">
-        <v>31585100</v>
+        <v>22522300</v>
       </c>
       <c r="G60" s="3">
-        <v>27587300</v>
+        <v>31924500</v>
       </c>
       <c r="H60" s="3">
-        <v>30985600</v>
+        <v>27883700</v>
       </c>
       <c r="I60" s="3">
-        <v>24003400</v>
+        <v>31318600</v>
       </c>
       <c r="J60" s="3">
+        <v>24261300</v>
+      </c>
+      <c r="K60" s="3">
         <v>26651800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36602900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1984100</v>
+        <v>2302800</v>
       </c>
       <c r="E61" s="3">
-        <v>14964600</v>
+        <v>2005400</v>
       </c>
       <c r="F61" s="3">
-        <v>16788400</v>
+        <v>15125500</v>
       </c>
       <c r="G61" s="3">
-        <v>17610800</v>
+        <v>16968800</v>
       </c>
       <c r="H61" s="3">
-        <v>15628900</v>
+        <v>17800100</v>
       </c>
       <c r="I61" s="3">
-        <v>17006900</v>
+        <v>15796900</v>
       </c>
       <c r="J61" s="3">
+        <v>17189700</v>
+      </c>
+      <c r="K61" s="3">
         <v>16927900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18109500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19983600</v>
+        <v>27681700</v>
       </c>
       <c r="E62" s="3">
-        <v>25413200</v>
+        <v>20198400</v>
       </c>
       <c r="F62" s="3">
-        <v>26742900</v>
+        <v>25686300</v>
       </c>
       <c r="G62" s="3">
-        <v>32145000</v>
+        <v>27030300</v>
       </c>
       <c r="H62" s="3">
-        <v>35234800</v>
+        <v>32490500</v>
       </c>
       <c r="I62" s="3">
-        <v>67502800</v>
+        <v>35613500</v>
       </c>
       <c r="J62" s="3">
+        <v>68228300</v>
+      </c>
+      <c r="K62" s="3">
         <v>104377000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>67904900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78366500</v>
+        <v>52434700</v>
       </c>
       <c r="E66" s="3">
-        <v>68405400</v>
+        <v>79208600</v>
       </c>
       <c r="F66" s="3">
-        <v>80865500</v>
+        <v>69140500</v>
       </c>
       <c r="G66" s="3">
-        <v>80688700</v>
+        <v>81734600</v>
       </c>
       <c r="H66" s="3">
-        <v>86662900</v>
+        <v>81555900</v>
       </c>
       <c r="I66" s="3">
-        <v>80860000</v>
+        <v>87594300</v>
       </c>
       <c r="J66" s="3">
+        <v>81729000</v>
+      </c>
+      <c r="K66" s="3">
         <v>83733500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92266200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2407,14 +2574,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>109800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>117400</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1250600</v>
+        <v>9886100</v>
       </c>
       <c r="E72" s="3">
-        <v>2599000</v>
+        <v>1264100</v>
       </c>
       <c r="F72" s="3">
-        <v>-715900</v>
+        <v>2626900</v>
       </c>
       <c r="G72" s="3">
-        <v>3966000</v>
+        <v>-723600</v>
       </c>
       <c r="H72" s="3">
-        <v>5498800</v>
+        <v>4008600</v>
       </c>
       <c r="I72" s="3">
-        <v>8176800</v>
+        <v>5557900</v>
       </c>
       <c r="J72" s="3">
+        <v>8264700</v>
+      </c>
+      <c r="K72" s="3">
         <v>24317400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15423900</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9592100</v>
+        <v>18805600</v>
       </c>
       <c r="E76" s="3">
-        <v>7421400</v>
+        <v>9695200</v>
       </c>
       <c r="F76" s="3">
-        <v>3023900</v>
+        <v>7501100</v>
       </c>
       <c r="G76" s="3">
-        <v>6420000</v>
+        <v>3056400</v>
       </c>
       <c r="H76" s="3">
-        <v>8112000</v>
+        <v>6489000</v>
       </c>
       <c r="I76" s="3">
-        <v>8496300</v>
+        <v>8199200</v>
       </c>
       <c r="J76" s="3">
+        <v>8587600</v>
+      </c>
+      <c r="K76" s="3">
         <v>13254000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16348800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>367800</v>
+        <v>9412400</v>
       </c>
       <c r="E81" s="3">
-        <v>2086200</v>
+        <v>371000</v>
       </c>
       <c r="F81" s="3">
-        <v>-6269600</v>
+        <v>2104400</v>
       </c>
       <c r="G81" s="3">
-        <v>-186700</v>
+        <v>-6324400</v>
       </c>
       <c r="H81" s="3">
-        <v>1871000</v>
+        <v>-188300</v>
       </c>
       <c r="I81" s="3">
-        <v>-3027200</v>
+        <v>1887400</v>
       </c>
       <c r="J81" s="3">
+        <v>-3053700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1434000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2119900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1051900</v>
+        <v>3050300</v>
       </c>
       <c r="E83" s="3">
-        <v>1062900</v>
+        <v>1061100</v>
       </c>
       <c r="F83" s="3">
-        <v>7323700</v>
+        <v>1072200</v>
       </c>
       <c r="G83" s="3">
-        <v>6179500</v>
+        <v>7387700</v>
       </c>
       <c r="H83" s="3">
-        <v>3385100</v>
+        <v>6233600</v>
       </c>
       <c r="I83" s="3">
-        <v>8027500</v>
+        <v>3414700</v>
       </c>
       <c r="J83" s="3">
+        <v>8097700</v>
+      </c>
+      <c r="K83" s="3">
         <v>5880900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4041400</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7299500</v>
+        <v>-1686900</v>
       </c>
       <c r="E89" s="3">
-        <v>-1925900</v>
+        <v>7363300</v>
       </c>
       <c r="F89" s="3">
-        <v>2582500</v>
+        <v>-1942700</v>
       </c>
       <c r="G89" s="3">
-        <v>3529000</v>
+        <v>2605100</v>
       </c>
       <c r="H89" s="3">
-        <v>6992100</v>
+        <v>3559800</v>
       </c>
       <c r="I89" s="3">
-        <v>6122400</v>
+        <v>7053200</v>
       </c>
       <c r="J89" s="3">
+        <v>6176000</v>
+      </c>
+      <c r="K89" s="3">
         <v>4825700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6467700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1368100</v>
+        <v>-1961600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3444400</v>
+        <v>-1380100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2534200</v>
+        <v>-3474500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3484000</v>
+        <v>-2556300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3678300</v>
+        <v>-3514400</v>
       </c>
       <c r="I91" s="3">
-        <v>-4310700</v>
+        <v>-3710500</v>
       </c>
       <c r="J91" s="3">
+        <v>-4348400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5578900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7457200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4835600</v>
+        <v>-807400</v>
       </c>
       <c r="E94" s="3">
-        <v>2954700</v>
+        <v>-4877900</v>
       </c>
       <c r="F94" s="3">
-        <v>-5017900</v>
+        <v>2980600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2092800</v>
+        <v>-5061700</v>
       </c>
       <c r="H94" s="3">
-        <v>-5346200</v>
+        <v>-2111100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2567100</v>
+        <v>-5392900</v>
       </c>
       <c r="J94" s="3">
+        <v>-2589600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1410900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9115800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1125500</v>
+        <v>-620300</v>
       </c>
       <c r="E96" s="3">
-        <v>-174600</v>
+        <v>-1135300</v>
       </c>
       <c r="F96" s="3">
-        <v>-446900</v>
+        <v>-176100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1174900</v>
+        <v>-450800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1165000</v>
+        <v>-1185100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1768900</v>
+        <v>-1175200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1784300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1708500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2700900</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1087000</v>
+        <v>248100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1686500</v>
+        <v>-1096500</v>
       </c>
       <c r="F100" s="3">
-        <v>4701600</v>
+        <v>-1701300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2243200</v>
+        <v>4742700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2415600</v>
+        <v>-2262800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2189400</v>
+        <v>-2436700</v>
       </c>
       <c r="J100" s="3">
+        <v>-2208600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2704400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2044800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14300</v>
+        <v>16600</v>
       </c>
       <c r="E101" s="3">
-        <v>-20900</v>
+        <v>14400</v>
       </c>
       <c r="F101" s="3">
-        <v>-26400</v>
+        <v>-21000</v>
       </c>
       <c r="G101" s="3">
-        <v>15400</v>
+        <v>-26600</v>
       </c>
       <c r="H101" s="3">
-        <v>8800</v>
+        <v>15500</v>
       </c>
       <c r="I101" s="3">
-        <v>-19800</v>
+        <v>8900</v>
       </c>
       <c r="J101" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="K101" s="3">
         <v>17600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1391200</v>
+        <v>-2229600</v>
       </c>
       <c r="E102" s="3">
-        <v>-678600</v>
+        <v>1403300</v>
       </c>
       <c r="F102" s="3">
-        <v>2239900</v>
+        <v>-684500</v>
       </c>
       <c r="G102" s="3">
-        <v>-791700</v>
+        <v>2259500</v>
       </c>
       <c r="H102" s="3">
-        <v>-760900</v>
+        <v>-798600</v>
       </c>
       <c r="I102" s="3">
-        <v>1346100</v>
+        <v>-767600</v>
       </c>
       <c r="J102" s="3">
+        <v>1357900</v>
+      </c>
+      <c r="K102" s="3">
         <v>728000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-617400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -665,7 +665,9 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -718,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14537300</v>
+        <v>15525600</v>
       </c>
       <c r="E8" s="3">
-        <v>14848500</v>
+        <v>15858000</v>
       </c>
       <c r="F8" s="3">
-        <v>15309200</v>
+        <v>16350000</v>
       </c>
       <c r="G8" s="3">
-        <v>48280300</v>
+        <v>51562600</v>
       </c>
       <c r="H8" s="3">
-        <v>50781200</v>
+        <v>54233600</v>
       </c>
       <c r="I8" s="3">
-        <v>51114600</v>
+        <v>54589700</v>
       </c>
       <c r="J8" s="3">
-        <v>55102000</v>
+        <v>58848100</v>
       </c>
       <c r="K8" s="3">
         <v>55746600</v>
@@ -751,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9947400</v>
+        <v>10623600</v>
       </c>
       <c r="E9" s="3">
-        <v>11023900</v>
+        <v>11773400</v>
       </c>
       <c r="F9" s="3">
-        <v>11039400</v>
+        <v>11790000</v>
       </c>
       <c r="G9" s="3">
-        <v>36699200</v>
+        <v>39194200</v>
       </c>
       <c r="H9" s="3">
-        <v>37103500</v>
+        <v>39626000</v>
       </c>
       <c r="I9" s="3">
-        <v>37001600</v>
+        <v>39517100</v>
       </c>
       <c r="J9" s="3">
-        <v>39079500</v>
+        <v>41736300</v>
       </c>
       <c r="K9" s="3">
         <v>37643800</v>
@@ -784,25 +786,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4589900</v>
+        <v>4901900</v>
       </c>
       <c r="E10" s="3">
-        <v>3824500</v>
+        <v>4084600</v>
       </c>
       <c r="F10" s="3">
-        <v>4269800</v>
+        <v>4560100</v>
       </c>
       <c r="G10" s="3">
-        <v>11581100</v>
+        <v>12368400</v>
       </c>
       <c r="H10" s="3">
-        <v>13677800</v>
+        <v>14607600</v>
       </c>
       <c r="I10" s="3">
-        <v>14113000</v>
+        <v>15072500</v>
       </c>
       <c r="J10" s="3">
-        <v>16022500</v>
+        <v>17111800</v>
       </c>
       <c r="K10" s="3">
         <v>18102700</v>
@@ -898,25 +900,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2179800</v>
+        <v>2327900</v>
       </c>
       <c r="E14" s="3">
-        <v>52100</v>
+        <v>55600</v>
       </c>
       <c r="F14" s="3">
-        <v>939200</v>
+        <v>1003100</v>
       </c>
       <c r="G14" s="3">
-        <v>4851300</v>
+        <v>5181100</v>
       </c>
       <c r="H14" s="3">
-        <v>3268500</v>
+        <v>3490700</v>
       </c>
       <c r="I14" s="3">
-        <v>933700</v>
+        <v>997200</v>
       </c>
       <c r="J14" s="3">
-        <v>5283300</v>
+        <v>5642400</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -931,25 +933,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1326900</v>
+        <v>1417100</v>
       </c>
       <c r="E15" s="3">
-        <v>1967100</v>
+        <v>2100800</v>
       </c>
       <c r="F15" s="3">
-        <v>1054400</v>
+        <v>1126100</v>
       </c>
       <c r="G15" s="3">
-        <v>2510900</v>
+        <v>2681600</v>
       </c>
       <c r="H15" s="3">
-        <v>2671500</v>
+        <v>2853200</v>
       </c>
       <c r="I15" s="3">
-        <v>2516500</v>
+        <v>2687500</v>
       </c>
       <c r="J15" s="3">
-        <v>2775600</v>
+        <v>2964300</v>
       </c>
       <c r="K15" s="3">
         <v>5568000</v>
@@ -976,25 +978,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14695600</v>
+        <v>15694700</v>
       </c>
       <c r="E17" s="3">
-        <v>14528400</v>
+        <v>15516100</v>
       </c>
       <c r="F17" s="3">
-        <v>13136100</v>
+        <v>14029200</v>
       </c>
       <c r="G17" s="3">
-        <v>52842500</v>
+        <v>56435000</v>
       </c>
       <c r="H17" s="3">
-        <v>50262900</v>
+        <v>53680000</v>
       </c>
       <c r="I17" s="3">
-        <v>47182700</v>
+        <v>50390400</v>
       </c>
       <c r="J17" s="3">
-        <v>55453100</v>
+        <v>59223100</v>
       </c>
       <c r="K17" s="3">
         <v>51524700</v>
@@ -1009,25 +1011,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-158400</v>
+        <v>-169200</v>
       </c>
       <c r="E18" s="3">
-        <v>320100</v>
+        <v>341900</v>
       </c>
       <c r="F18" s="3">
-        <v>2173100</v>
+        <v>2320800</v>
       </c>
       <c r="G18" s="3">
-        <v>-4562200</v>
+        <v>-4872400</v>
       </c>
       <c r="H18" s="3">
-        <v>518400</v>
+        <v>553600</v>
       </c>
       <c r="I18" s="3">
-        <v>3932000</v>
+        <v>4199300</v>
       </c>
       <c r="J18" s="3">
-        <v>-351100</v>
+        <v>-375000</v>
       </c>
       <c r="K18" s="3">
         <v>4221800</v>
@@ -1057,25 +1059,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-388800</v>
+        <v>-415200</v>
       </c>
       <c r="E20" s="3">
-        <v>-66500</v>
+        <v>-71000</v>
       </c>
       <c r="F20" s="3">
-        <v>434200</v>
+        <v>463700</v>
       </c>
       <c r="G20" s="3">
-        <v>-857300</v>
+        <v>-915600</v>
       </c>
       <c r="H20" s="3">
-        <v>-39900</v>
+        <v>-42600</v>
       </c>
       <c r="I20" s="3">
-        <v>-248100</v>
+        <v>-265000</v>
       </c>
       <c r="J20" s="3">
-        <v>528300</v>
+        <v>564200</v>
       </c>
       <c r="K20" s="3">
         <v>-401900</v>
@@ -1090,25 +1092,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2483100</v>
+        <v>2674500</v>
       </c>
       <c r="E21" s="3">
-        <v>1307700</v>
+        <v>1404500</v>
       </c>
       <c r="F21" s="3">
-        <v>3672400</v>
+        <v>3930000</v>
       </c>
       <c r="G21" s="3">
-        <v>1919500</v>
+        <v>2104700</v>
       </c>
       <c r="H21" s="3">
-        <v>6671000</v>
+        <v>7170700</v>
       </c>
       <c r="I21" s="3">
-        <v>7076100</v>
+        <v>7582500</v>
       </c>
       <c r="J21" s="3">
-        <v>8221500</v>
+        <v>8840400</v>
       </c>
       <c r="K21" s="3">
         <v>9709900</v>
@@ -1123,25 +1125,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>285800</v>
+        <v>305200</v>
       </c>
       <c r="E22" s="3">
-        <v>199400</v>
+        <v>212900</v>
       </c>
       <c r="F22" s="3">
-        <v>330100</v>
+        <v>352500</v>
       </c>
       <c r="G22" s="3">
-        <v>1012300</v>
+        <v>1081200</v>
       </c>
       <c r="H22" s="3">
-        <v>1184000</v>
+        <v>1264500</v>
       </c>
       <c r="I22" s="3">
-        <v>1196200</v>
+        <v>1277500</v>
       </c>
       <c r="J22" s="3">
-        <v>2410100</v>
+        <v>2574000</v>
       </c>
       <c r="K22" s="3">
         <v>1371400</v>
@@ -1156,25 +1158,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-832900</v>
+        <v>-889500</v>
       </c>
       <c r="E23" s="3">
-        <v>54300</v>
+        <v>58000</v>
       </c>
       <c r="F23" s="3">
-        <v>2277200</v>
+        <v>2432000</v>
       </c>
       <c r="G23" s="3">
-        <v>-6431800</v>
+        <v>-6869100</v>
       </c>
       <c r="H23" s="3">
-        <v>-705500</v>
+        <v>-753500</v>
       </c>
       <c r="I23" s="3">
-        <v>2487700</v>
+        <v>2656800</v>
       </c>
       <c r="J23" s="3">
-        <v>-2232900</v>
+        <v>-2384700</v>
       </c>
       <c r="K23" s="3">
         <v>2448500</v>
@@ -1189,25 +1191,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-101900</v>
+        <v>-108800</v>
       </c>
       <c r="E24" s="3">
-        <v>114100</v>
+        <v>121800</v>
       </c>
       <c r="F24" s="3">
-        <v>368800</v>
+        <v>393900</v>
       </c>
       <c r="G24" s="3">
-        <v>-357800</v>
+        <v>-382100</v>
       </c>
       <c r="H24" s="3">
-        <v>667900</v>
+        <v>713300</v>
       </c>
       <c r="I24" s="3">
-        <v>612500</v>
+        <v>654100</v>
       </c>
       <c r="J24" s="3">
-        <v>818500</v>
+        <v>874200</v>
       </c>
       <c r="K24" s="3">
         <v>577500</v>
@@ -1255,25 +1257,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-731000</v>
+        <v>-780700</v>
       </c>
       <c r="E26" s="3">
-        <v>-59800</v>
+        <v>-63900</v>
       </c>
       <c r="F26" s="3">
-        <v>1908400</v>
+        <v>2038100</v>
       </c>
       <c r="G26" s="3">
-        <v>-6074100</v>
+        <v>-6487000</v>
       </c>
       <c r="H26" s="3">
-        <v>-1373400</v>
+        <v>-1466800</v>
       </c>
       <c r="I26" s="3">
-        <v>1875200</v>
+        <v>2002600</v>
       </c>
       <c r="J26" s="3">
-        <v>-3051400</v>
+        <v>-3258900</v>
       </c>
       <c r="K26" s="3">
         <v>1871000</v>
@@ -1288,25 +1290,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1459800</v>
+        <v>-1559100</v>
       </c>
       <c r="E27" s="3">
-        <v>-877200</v>
+        <v>-936900</v>
       </c>
       <c r="F27" s="3">
-        <v>1448700</v>
+        <v>1547200</v>
       </c>
       <c r="G27" s="3">
-        <v>-6324400</v>
+        <v>-6754400</v>
       </c>
       <c r="H27" s="3">
-        <v>-1876300</v>
+        <v>-2003800</v>
       </c>
       <c r="I27" s="3">
-        <v>1484200</v>
+        <v>1585100</v>
       </c>
       <c r="J27" s="3">
-        <v>-3399200</v>
+        <v>-3630300</v>
       </c>
       <c r="K27" s="3">
         <v>1434000</v>
@@ -1354,25 +1356,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>10872200</v>
+        <v>11611300</v>
       </c>
       <c r="E29" s="3">
-        <v>1248300</v>
+        <v>1333100</v>
       </c>
       <c r="F29" s="3">
-        <v>655700</v>
+        <v>700300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>1688000</v>
+        <v>1802700</v>
       </c>
       <c r="I29" s="3">
-        <v>403200</v>
+        <v>430600</v>
       </c>
       <c r="J29" s="3">
-        <v>345600</v>
+        <v>369100</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1453,25 +1455,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>388800</v>
+        <v>415200</v>
       </c>
       <c r="E32" s="3">
-        <v>66500</v>
+        <v>71000</v>
       </c>
       <c r="F32" s="3">
-        <v>-434200</v>
+        <v>-463700</v>
       </c>
       <c r="G32" s="3">
-        <v>857300</v>
+        <v>915600</v>
       </c>
       <c r="H32" s="3">
-        <v>39900</v>
+        <v>42600</v>
       </c>
       <c r="I32" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="J32" s="3">
-        <v>-528300</v>
+        <v>-564200</v>
       </c>
       <c r="K32" s="3">
         <v>401900</v>
@@ -1486,25 +1488,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9412400</v>
+        <v>10052300</v>
       </c>
       <c r="E33" s="3">
-        <v>371000</v>
+        <v>396300</v>
       </c>
       <c r="F33" s="3">
-        <v>2104400</v>
+        <v>2247500</v>
       </c>
       <c r="G33" s="3">
-        <v>-6324400</v>
+        <v>-6754400</v>
       </c>
       <c r="H33" s="3">
-        <v>-188300</v>
+        <v>-201100</v>
       </c>
       <c r="I33" s="3">
-        <v>1887400</v>
+        <v>2015700</v>
       </c>
       <c r="J33" s="3">
-        <v>-3053700</v>
+        <v>-3261300</v>
       </c>
       <c r="K33" s="3">
         <v>1434000</v>
@@ -1552,25 +1554,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9412400</v>
+        <v>10052300</v>
       </c>
       <c r="E35" s="3">
-        <v>371000</v>
+        <v>396300</v>
       </c>
       <c r="F35" s="3">
-        <v>2104400</v>
+        <v>2247500</v>
       </c>
       <c r="G35" s="3">
-        <v>-6324400</v>
+        <v>-6754400</v>
       </c>
       <c r="H35" s="3">
-        <v>-188300</v>
+        <v>-201100</v>
       </c>
       <c r="I35" s="3">
-        <v>1887400</v>
+        <v>2015700</v>
       </c>
       <c r="J35" s="3">
-        <v>-3053700</v>
+        <v>-3261300</v>
       </c>
       <c r="K35" s="3">
         <v>1434000</v>
@@ -1653,25 +1655,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3542500</v>
+        <v>7551600</v>
       </c>
       <c r="E41" s="3">
-        <v>3909800</v>
+        <v>4167400</v>
       </c>
       <c r="F41" s="3">
-        <v>4364800</v>
+        <v>4652300</v>
       </c>
       <c r="G41" s="3">
-        <v>5078400</v>
+        <v>5413000</v>
       </c>
       <c r="H41" s="3">
-        <v>2798900</v>
+        <v>2983300</v>
       </c>
       <c r="I41" s="3">
-        <v>3519200</v>
+        <v>3751000</v>
       </c>
       <c r="J41" s="3">
-        <v>8767400</v>
+        <v>9344900</v>
       </c>
       <c r="K41" s="3">
         <v>5662400</v>
@@ -1686,25 +1688,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3615700</v>
+        <v>3853900</v>
       </c>
       <c r="E42" s="3">
-        <v>4005300</v>
+        <v>4269100</v>
       </c>
       <c r="F42" s="3">
-        <v>5430300</v>
+        <v>5787900</v>
       </c>
       <c r="G42" s="3">
-        <v>10903800</v>
+        <v>11622000</v>
       </c>
       <c r="H42" s="3">
-        <v>8253600</v>
+        <v>8797200</v>
       </c>
       <c r="I42" s="3">
-        <v>4894200</v>
+        <v>5216600</v>
       </c>
       <c r="J42" s="3">
-        <v>3121900</v>
+        <v>3327500</v>
       </c>
       <c r="K42" s="3">
         <v>6012600</v>
@@ -1719,25 +1721,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6854100</v>
+        <v>11588900</v>
       </c>
       <c r="E43" s="3">
-        <v>5378100</v>
+        <v>5732300</v>
       </c>
       <c r="F43" s="3">
-        <v>8428900</v>
+        <v>8984100</v>
       </c>
       <c r="G43" s="3">
-        <v>7440100</v>
+        <v>7930200</v>
       </c>
       <c r="H43" s="3">
-        <v>7584400</v>
+        <v>8083900</v>
       </c>
       <c r="I43" s="3">
-        <v>9496600</v>
+        <v>10122100</v>
       </c>
       <c r="J43" s="3">
-        <v>19008700</v>
+        <v>20260700</v>
       </c>
       <c r="K43" s="3">
         <v>32414100</v>
@@ -1752,25 +1754,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1759000</v>
+        <v>3749800</v>
       </c>
       <c r="E44" s="3">
-        <v>1810100</v>
+        <v>1929300</v>
       </c>
       <c r="F44" s="3">
-        <v>2135300</v>
+        <v>2275900</v>
       </c>
       <c r="G44" s="3">
-        <v>2184100</v>
+        <v>2327900</v>
       </c>
       <c r="H44" s="3">
-        <v>2174100</v>
+        <v>2317300</v>
       </c>
       <c r="I44" s="3">
-        <v>2477100</v>
+        <v>2640200</v>
       </c>
       <c r="J44" s="3">
-        <v>5298200</v>
+        <v>5647200</v>
       </c>
       <c r="K44" s="3">
         <v>10333300</v>
@@ -1785,25 +1787,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15570500</v>
+        <v>34707500</v>
       </c>
       <c r="E45" s="3">
-        <v>53163900</v>
+        <v>56665600</v>
       </c>
       <c r="F45" s="3">
-        <v>5571200</v>
+        <v>5938200</v>
       </c>
       <c r="G45" s="3">
-        <v>8232500</v>
+        <v>8774800</v>
       </c>
       <c r="H45" s="3">
-        <v>10131400</v>
+        <v>10798700</v>
       </c>
       <c r="I45" s="3">
-        <v>15228700</v>
+        <v>16231800</v>
       </c>
       <c r="J45" s="3">
-        <v>15244200</v>
+        <v>16248300</v>
       </c>
       <c r="K45" s="3">
         <v>19849600</v>
@@ -1818,25 +1820,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31341900</v>
+        <v>33406300</v>
       </c>
       <c r="E46" s="3">
-        <v>68267100</v>
+        <v>72763700</v>
       </c>
       <c r="F46" s="3">
-        <v>25930500</v>
+        <v>27638500</v>
       </c>
       <c r="G46" s="3">
-        <v>33838900</v>
+        <v>36067800</v>
       </c>
       <c r="H46" s="3">
-        <v>30942300</v>
+        <v>32980400</v>
       </c>
       <c r="I46" s="3">
-        <v>35615700</v>
+        <v>37961600</v>
       </c>
       <c r="J46" s="3">
-        <v>27163500</v>
+        <v>28952700</v>
       </c>
       <c r="K46" s="3">
         <v>27423600</v>
@@ -1851,25 +1853,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8899500</v>
+        <v>9424200</v>
       </c>
       <c r="E47" s="3">
-        <v>2467100</v>
+        <v>2629600</v>
       </c>
       <c r="F47" s="3">
-        <v>5049600</v>
+        <v>5382200</v>
       </c>
       <c r="G47" s="3">
-        <v>5088400</v>
+        <v>5423600</v>
       </c>
       <c r="H47" s="3">
-        <v>5030700</v>
+        <v>5362100</v>
       </c>
       <c r="I47" s="3">
-        <v>5632200</v>
+        <v>6003200</v>
       </c>
       <c r="J47" s="3">
-        <v>6396900</v>
+        <v>6818200</v>
       </c>
       <c r="K47" s="3">
         <v>13053000</v>
@@ -1884,25 +1886,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21193900</v>
+        <v>45022400</v>
       </c>
       <c r="E48" s="3">
-        <v>13771500</v>
+        <v>14678600</v>
       </c>
       <c r="F48" s="3">
-        <v>27686200</v>
+        <v>29509800</v>
       </c>
       <c r="G48" s="3">
-        <v>27210100</v>
+        <v>29002300</v>
       </c>
       <c r="H48" s="3">
-        <v>32660300</v>
+        <v>34811600</v>
       </c>
       <c r="I48" s="3">
-        <v>34561400</v>
+        <v>36837900</v>
       </c>
       <c r="J48" s="3">
-        <v>83181700</v>
+        <v>88660700</v>
       </c>
       <c r="K48" s="3">
         <v>120179000</v>
@@ -1917,25 +1919,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5330400</v>
+        <v>11432700</v>
       </c>
       <c r="E49" s="3">
-        <v>2423800</v>
+        <v>2583500</v>
       </c>
       <c r="F49" s="3">
-        <v>13708200</v>
+        <v>14611200</v>
       </c>
       <c r="G49" s="3">
-        <v>14142200</v>
+        <v>15073700</v>
       </c>
       <c r="H49" s="3">
-        <v>14659300</v>
+        <v>15624900</v>
       </c>
       <c r="I49" s="3">
-        <v>14201000</v>
+        <v>15136400</v>
       </c>
       <c r="J49" s="3">
-        <v>42385500</v>
+        <v>45177300</v>
       </c>
       <c r="K49" s="3">
         <v>53012500</v>
@@ -2016,25 +2018,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4474700</v>
+        <v>9109500</v>
       </c>
       <c r="E52" s="3">
-        <v>1974300</v>
+        <v>2104400</v>
       </c>
       <c r="F52" s="3">
-        <v>4267200</v>
+        <v>4548300</v>
       </c>
       <c r="G52" s="3">
-        <v>4511300</v>
+        <v>4808500</v>
       </c>
       <c r="H52" s="3">
-        <v>4752200</v>
+        <v>5065200</v>
       </c>
       <c r="I52" s="3">
-        <v>5783200</v>
+        <v>6164100</v>
       </c>
       <c r="J52" s="3">
-        <v>6765300</v>
+        <v>7211000</v>
       </c>
       <c r="K52" s="3">
         <v>12964100</v>
@@ -2082,25 +2084,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>71240300</v>
+        <v>75725700</v>
       </c>
       <c r="E54" s="3">
-        <v>88903900</v>
+        <v>94759800</v>
       </c>
       <c r="F54" s="3">
-        <v>76641700</v>
+        <v>81689900</v>
       </c>
       <c r="G54" s="3">
-        <v>84790900</v>
+        <v>90375900</v>
       </c>
       <c r="H54" s="3">
-        <v>88044900</v>
+        <v>93844200</v>
       </c>
       <c r="I54" s="3">
-        <v>95793500</v>
+        <v>102103000</v>
       </c>
       <c r="J54" s="3">
-        <v>90316600</v>
+        <v>96265600</v>
       </c>
       <c r="K54" s="3">
         <v>97097200</v>
@@ -2145,25 +2147,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3315000</v>
+        <v>3533300</v>
       </c>
       <c r="E57" s="3">
-        <v>2695700</v>
+        <v>2873300</v>
       </c>
       <c r="F57" s="3">
-        <v>5634500</v>
+        <v>6005600</v>
       </c>
       <c r="G57" s="3">
-        <v>6027300</v>
+        <v>6424300</v>
       </c>
       <c r="H57" s="3">
-        <v>6794200</v>
+        <v>7241700</v>
       </c>
       <c r="I57" s="3">
-        <v>7001700</v>
+        <v>7462900</v>
       </c>
       <c r="J57" s="3">
-        <v>7147100</v>
+        <v>7617900</v>
       </c>
       <c r="K57" s="3">
         <v>16086800</v>
@@ -2178,25 +2180,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>433900</v>
+        <v>2460400</v>
       </c>
       <c r="E58" s="3">
-        <v>101000</v>
+        <v>107600</v>
       </c>
       <c r="F58" s="3">
-        <v>1906600</v>
+        <v>2032200</v>
       </c>
       <c r="G58" s="3">
-        <v>980000</v>
+        <v>1044500</v>
       </c>
       <c r="H58" s="3">
-        <v>1361700</v>
+        <v>1451400</v>
       </c>
       <c r="I58" s="3">
-        <v>2432700</v>
+        <v>2592900</v>
       </c>
       <c r="J58" s="3">
-        <v>3493700</v>
+        <v>3723800</v>
       </c>
       <c r="K58" s="3">
         <v>12557800</v>
@@ -2211,25 +2213,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18143000</v>
+        <v>33275000</v>
       </c>
       <c r="E59" s="3">
-        <v>48081000</v>
+        <v>51248000</v>
       </c>
       <c r="F59" s="3">
-        <v>14981200</v>
+        <v>15968000</v>
       </c>
       <c r="G59" s="3">
-        <v>24917200</v>
+        <v>26558500</v>
       </c>
       <c r="H59" s="3">
-        <v>19727800</v>
+        <v>21027200</v>
       </c>
       <c r="I59" s="3">
-        <v>21884100</v>
+        <v>23325600</v>
       </c>
       <c r="J59" s="3">
-        <v>31931200</v>
+        <v>34034400</v>
       </c>
       <c r="K59" s="3">
         <v>42894500</v>
@@ -2244,25 +2246,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21891900</v>
+        <v>23191900</v>
       </c>
       <c r="E60" s="3">
-        <v>50877700</v>
+        <v>54228900</v>
       </c>
       <c r="F60" s="3">
-        <v>22522300</v>
+        <v>24005800</v>
       </c>
       <c r="G60" s="3">
-        <v>31924500</v>
+        <v>34027300</v>
       </c>
       <c r="H60" s="3">
-        <v>27883700</v>
+        <v>29720400</v>
       </c>
       <c r="I60" s="3">
-        <v>31318600</v>
+        <v>33381400</v>
       </c>
       <c r="J60" s="3">
-        <v>24261300</v>
+        <v>25859400</v>
       </c>
       <c r="K60" s="3">
         <v>26651800</v>
@@ -2277,25 +2279,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2302800</v>
+        <v>4641700</v>
       </c>
       <c r="E61" s="3">
-        <v>2005400</v>
+        <v>2137500</v>
       </c>
       <c r="F61" s="3">
-        <v>15125500</v>
+        <v>16121700</v>
       </c>
       <c r="G61" s="3">
-        <v>16968800</v>
+        <v>18086500</v>
       </c>
       <c r="H61" s="3">
-        <v>17800100</v>
+        <v>18972500</v>
       </c>
       <c r="I61" s="3">
-        <v>15796900</v>
+        <v>16837400</v>
       </c>
       <c r="J61" s="3">
-        <v>17189700</v>
+        <v>18321900</v>
       </c>
       <c r="K61" s="3">
         <v>16927900</v>
@@ -2310,25 +2312,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27681700</v>
+        <v>54055000</v>
       </c>
       <c r="E62" s="3">
-        <v>20198400</v>
+        <v>21528800</v>
       </c>
       <c r="F62" s="3">
-        <v>25686300</v>
+        <v>27378200</v>
       </c>
       <c r="G62" s="3">
-        <v>27030300</v>
+        <v>28810700</v>
       </c>
       <c r="H62" s="3">
-        <v>32490500</v>
+        <v>34630600</v>
       </c>
       <c r="I62" s="3">
-        <v>35613500</v>
+        <v>37959300</v>
       </c>
       <c r="J62" s="3">
-        <v>68228300</v>
+        <v>72722300</v>
       </c>
       <c r="K62" s="3">
         <v>104377000</v>
@@ -2442,25 +2444,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52434700</v>
+        <v>55650700</v>
       </c>
       <c r="E66" s="3">
-        <v>79208600</v>
+        <v>84425900</v>
       </c>
       <c r="F66" s="3">
-        <v>69140500</v>
+        <v>73694700</v>
       </c>
       <c r="G66" s="3">
-        <v>81734600</v>
+        <v>87118200</v>
       </c>
       <c r="H66" s="3">
-        <v>81555900</v>
+        <v>86927800</v>
       </c>
       <c r="I66" s="3">
-        <v>87594300</v>
+        <v>93363900</v>
       </c>
       <c r="J66" s="3">
-        <v>81729000</v>
+        <v>87112300</v>
       </c>
       <c r="K66" s="3">
         <v>83733500</v>
@@ -2622,25 +2624,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9886100</v>
+        <v>10537300</v>
       </c>
       <c r="E72" s="3">
-        <v>1264100</v>
+        <v>1347300</v>
       </c>
       <c r="F72" s="3">
-        <v>2626900</v>
+        <v>2799900</v>
       </c>
       <c r="G72" s="3">
-        <v>-723600</v>
+        <v>-771300</v>
       </c>
       <c r="H72" s="3">
-        <v>4008600</v>
+        <v>4272600</v>
       </c>
       <c r="I72" s="3">
-        <v>5557900</v>
+        <v>5924000</v>
       </c>
       <c r="J72" s="3">
-        <v>8264700</v>
+        <v>8809100</v>
       </c>
       <c r="K72" s="3">
         <v>24317400</v>
@@ -2754,25 +2756,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18805600</v>
+        <v>20075000</v>
       </c>
       <c r="E76" s="3">
-        <v>9695200</v>
+        <v>10333800</v>
       </c>
       <c r="F76" s="3">
-        <v>7501100</v>
+        <v>7995200</v>
       </c>
       <c r="G76" s="3">
-        <v>3056400</v>
+        <v>3257700</v>
       </c>
       <c r="H76" s="3">
-        <v>6489000</v>
+        <v>6916400</v>
       </c>
       <c r="I76" s="3">
-        <v>8199200</v>
+        <v>8739300</v>
       </c>
       <c r="J76" s="3">
-        <v>8587600</v>
+        <v>9153300</v>
       </c>
       <c r="K76" s="3">
         <v>13254000</v>
@@ -2858,25 +2860,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9412400</v>
+        <v>10052300</v>
       </c>
       <c r="E81" s="3">
-        <v>371000</v>
+        <v>396300</v>
       </c>
       <c r="F81" s="3">
-        <v>2104400</v>
+        <v>2247500</v>
       </c>
       <c r="G81" s="3">
-        <v>-6324400</v>
+        <v>-6754400</v>
       </c>
       <c r="H81" s="3">
-        <v>-188300</v>
+        <v>-201100</v>
       </c>
       <c r="I81" s="3">
-        <v>1887400</v>
+        <v>2015700</v>
       </c>
       <c r="J81" s="3">
-        <v>-3053700</v>
+        <v>-3261300</v>
       </c>
       <c r="K81" s="3">
         <v>1434000</v>
@@ -2906,25 +2908,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3050300</v>
+        <v>3257700</v>
       </c>
       <c r="E83" s="3">
-        <v>1061100</v>
+        <v>1133200</v>
       </c>
       <c r="F83" s="3">
-        <v>1072200</v>
+        <v>1145000</v>
       </c>
       <c r="G83" s="3">
-        <v>7387700</v>
+        <v>7889900</v>
       </c>
       <c r="H83" s="3">
-        <v>6233600</v>
+        <v>6657400</v>
       </c>
       <c r="I83" s="3">
-        <v>3414700</v>
+        <v>3646900</v>
       </c>
       <c r="J83" s="3">
-        <v>8097700</v>
+        <v>8648200</v>
       </c>
       <c r="K83" s="3">
         <v>5880900</v>
@@ -3104,25 +3106,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1686900</v>
+        <v>-1801600</v>
       </c>
       <c r="E89" s="3">
-        <v>7363300</v>
+        <v>7863900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1942700</v>
+        <v>-2074800</v>
       </c>
       <c r="G89" s="3">
-        <v>2605100</v>
+        <v>2782200</v>
       </c>
       <c r="H89" s="3">
-        <v>3559800</v>
+        <v>3801800</v>
       </c>
       <c r="I89" s="3">
-        <v>7053200</v>
+        <v>7532700</v>
       </c>
       <c r="J89" s="3">
-        <v>6176000</v>
+        <v>6595900</v>
       </c>
       <c r="K89" s="3">
         <v>4825700</v>
@@ -3152,25 +3154,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1961600</v>
+        <v>-2094900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1380100</v>
+        <v>-1473900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3474500</v>
+        <v>-3710800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2556300</v>
+        <v>-2730100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3514400</v>
+        <v>-3753300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3710500</v>
+        <v>-3962700</v>
       </c>
       <c r="J91" s="3">
-        <v>-4348400</v>
+        <v>-4644100</v>
       </c>
       <c r="K91" s="3">
         <v>-5578900</v>
@@ -3251,25 +3253,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-807400</v>
+        <v>-862300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4877900</v>
+        <v>-5209500</v>
       </c>
       <c r="F94" s="3">
-        <v>2980600</v>
+        <v>3183200</v>
       </c>
       <c r="G94" s="3">
-        <v>-5061700</v>
+        <v>-5405900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2111100</v>
+        <v>-2254600</v>
       </c>
       <c r="I94" s="3">
-        <v>-5392900</v>
+        <v>-5759500</v>
       </c>
       <c r="J94" s="3">
-        <v>-2589600</v>
+        <v>-2765600</v>
       </c>
       <c r="K94" s="3">
         <v>-1410900</v>
@@ -3299,25 +3301,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-620300</v>
+        <v>-662400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1135300</v>
+        <v>-1212500</v>
       </c>
       <c r="F96" s="3">
-        <v>-176100</v>
+        <v>-188100</v>
       </c>
       <c r="G96" s="3">
-        <v>-450800</v>
+        <v>-481400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1185100</v>
+        <v>-1265700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1175200</v>
+        <v>-1255100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1784300</v>
+        <v>-1905700</v>
       </c>
       <c r="K96" s="3">
         <v>-1708500</v>
@@ -3431,25 +3433,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1096500</v>
+        <v>-1171100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1701300</v>
+        <v>-1816900</v>
       </c>
       <c r="G100" s="3">
-        <v>4742700</v>
+        <v>5065200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2262800</v>
+        <v>-2416700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2436700</v>
+        <v>-2602400</v>
       </c>
       <c r="J100" s="3">
-        <v>-2208600</v>
+        <v>-2358700</v>
       </c>
       <c r="K100" s="3">
         <v>-2704400</v>
@@ -3464,25 +3466,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="H101" s="3">
         <v>16600</v>
       </c>
-      <c r="E101" s="3">
-        <v>14400</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-21000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-26600</v>
-      </c>
-      <c r="H101" s="3">
-        <v>15500</v>
-      </c>
       <c r="I101" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="J101" s="3">
-        <v>-19900</v>
+        <v>-21300</v>
       </c>
       <c r="K101" s="3">
         <v>17600</v>
@@ -3497,25 +3499,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2229600</v>
+        <v>-2381200</v>
       </c>
       <c r="E102" s="3">
-        <v>1403300</v>
+        <v>1498700</v>
       </c>
       <c r="F102" s="3">
-        <v>-684500</v>
+        <v>-731000</v>
       </c>
       <c r="G102" s="3">
-        <v>2259500</v>
+        <v>2413100</v>
       </c>
       <c r="H102" s="3">
-        <v>-798600</v>
+        <v>-852900</v>
       </c>
       <c r="I102" s="3">
-        <v>-767600</v>
+        <v>-819700</v>
       </c>
       <c r="J102" s="3">
-        <v>1357900</v>
+        <v>1450200</v>
       </c>
       <c r="K102" s="3">
         <v>728000</v>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15525600</v>
+        <v>15700100</v>
       </c>
       <c r="E8" s="3">
-        <v>15858000</v>
+        <v>16036300</v>
       </c>
       <c r="F8" s="3">
-        <v>16350000</v>
+        <v>16533900</v>
       </c>
       <c r="G8" s="3">
-        <v>51562600</v>
+        <v>52142400</v>
       </c>
       <c r="H8" s="3">
-        <v>54233600</v>
+        <v>54843400</v>
       </c>
       <c r="I8" s="3">
-        <v>54589700</v>
+        <v>55203400</v>
       </c>
       <c r="J8" s="3">
-        <v>58848100</v>
+        <v>59509800</v>
       </c>
       <c r="K8" s="3">
         <v>55746600</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10623600</v>
+        <v>10743100</v>
       </c>
       <c r="E9" s="3">
-        <v>11773400</v>
+        <v>11905800</v>
       </c>
       <c r="F9" s="3">
-        <v>11790000</v>
+        <v>11922500</v>
       </c>
       <c r="G9" s="3">
-        <v>39194200</v>
+        <v>39634900</v>
       </c>
       <c r="H9" s="3">
-        <v>39626000</v>
+        <v>40071500</v>
       </c>
       <c r="I9" s="3">
-        <v>39517100</v>
+        <v>39961500</v>
       </c>
       <c r="J9" s="3">
-        <v>41736300</v>
+        <v>42205500</v>
       </c>
       <c r="K9" s="3">
         <v>37643800</v>
@@ -786,25 +786,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4901900</v>
+        <v>4957100</v>
       </c>
       <c r="E10" s="3">
-        <v>4084600</v>
+        <v>4130500</v>
       </c>
       <c r="F10" s="3">
-        <v>4560100</v>
+        <v>4611400</v>
       </c>
       <c r="G10" s="3">
-        <v>12368400</v>
+        <v>12507500</v>
       </c>
       <c r="H10" s="3">
-        <v>14607600</v>
+        <v>14771900</v>
       </c>
       <c r="I10" s="3">
-        <v>15072500</v>
+        <v>15242000</v>
       </c>
       <c r="J10" s="3">
-        <v>17111800</v>
+        <v>17304200</v>
       </c>
       <c r="K10" s="3">
         <v>18102700</v>
@@ -900,25 +900,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2327900</v>
+        <v>2354100</v>
       </c>
       <c r="E14" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="F14" s="3">
-        <v>1003100</v>
+        <v>1014400</v>
       </c>
       <c r="G14" s="3">
-        <v>5181100</v>
+        <v>5239400</v>
       </c>
       <c r="H14" s="3">
-        <v>3490700</v>
+        <v>3530000</v>
       </c>
       <c r="I14" s="3">
-        <v>997200</v>
+        <v>1008400</v>
       </c>
       <c r="J14" s="3">
-        <v>5642400</v>
+        <v>5705900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -933,25 +933,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1417100</v>
+        <v>1433000</v>
       </c>
       <c r="E15" s="3">
-        <v>2100800</v>
+        <v>2124500</v>
       </c>
       <c r="F15" s="3">
-        <v>1126100</v>
+        <v>1138800</v>
       </c>
       <c r="G15" s="3">
-        <v>2681600</v>
+        <v>2711800</v>
       </c>
       <c r="H15" s="3">
-        <v>2853200</v>
+        <v>2885200</v>
       </c>
       <c r="I15" s="3">
-        <v>2687500</v>
+        <v>2717800</v>
       </c>
       <c r="J15" s="3">
-        <v>2964300</v>
+        <v>2997700</v>
       </c>
       <c r="K15" s="3">
         <v>5568000</v>
@@ -978,25 +978,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15694700</v>
+        <v>15871200</v>
       </c>
       <c r="E17" s="3">
-        <v>15516100</v>
+        <v>15690600</v>
       </c>
       <c r="F17" s="3">
-        <v>14029200</v>
+        <v>14186900</v>
       </c>
       <c r="G17" s="3">
-        <v>56435000</v>
+        <v>57069500</v>
       </c>
       <c r="H17" s="3">
-        <v>53680000</v>
+        <v>54283600</v>
       </c>
       <c r="I17" s="3">
-        <v>50390400</v>
+        <v>50956900</v>
       </c>
       <c r="J17" s="3">
-        <v>59223100</v>
+        <v>59888900</v>
       </c>
       <c r="K17" s="3">
         <v>51524700</v>
@@ -1011,25 +1011,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-169200</v>
+        <v>-171100</v>
       </c>
       <c r="E18" s="3">
-        <v>341900</v>
+        <v>345700</v>
       </c>
       <c r="F18" s="3">
-        <v>2320800</v>
+        <v>2346900</v>
       </c>
       <c r="G18" s="3">
-        <v>-4872400</v>
+        <v>-4927100</v>
       </c>
       <c r="H18" s="3">
-        <v>553600</v>
+        <v>559800</v>
       </c>
       <c r="I18" s="3">
-        <v>4199300</v>
+        <v>4246500</v>
       </c>
       <c r="J18" s="3">
-        <v>-375000</v>
+        <v>-379200</v>
       </c>
       <c r="K18" s="3">
         <v>4221800</v>
@@ -1059,25 +1059,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-415200</v>
+        <v>-419900</v>
       </c>
       <c r="E20" s="3">
-        <v>-71000</v>
+        <v>-71800</v>
       </c>
       <c r="F20" s="3">
-        <v>463700</v>
+        <v>468900</v>
       </c>
       <c r="G20" s="3">
-        <v>-915600</v>
+        <v>-925900</v>
       </c>
       <c r="H20" s="3">
-        <v>-42600</v>
+        <v>-43100</v>
       </c>
       <c r="I20" s="3">
-        <v>-265000</v>
+        <v>-267900</v>
       </c>
       <c r="J20" s="3">
-        <v>564200</v>
+        <v>570600</v>
       </c>
       <c r="K20" s="3">
         <v>-401900</v>
@@ -1092,25 +1092,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2674500</v>
+        <v>2689900</v>
       </c>
       <c r="E21" s="3">
-        <v>1404500</v>
+        <v>1415200</v>
       </c>
       <c r="F21" s="3">
-        <v>3930000</v>
+        <v>3969000</v>
       </c>
       <c r="G21" s="3">
-        <v>2104700</v>
+        <v>2093000</v>
       </c>
       <c r="H21" s="3">
-        <v>7170700</v>
+        <v>7221400</v>
       </c>
       <c r="I21" s="3">
-        <v>7582500</v>
+        <v>7651300</v>
       </c>
       <c r="J21" s="3">
-        <v>8840400</v>
+        <v>8901000</v>
       </c>
       <c r="K21" s="3">
         <v>9709900</v>
@@ -1125,25 +1125,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>305200</v>
+        <v>308600</v>
       </c>
       <c r="E22" s="3">
-        <v>212900</v>
+        <v>215300</v>
       </c>
       <c r="F22" s="3">
-        <v>352500</v>
+        <v>356500</v>
       </c>
       <c r="G22" s="3">
-        <v>1081200</v>
+        <v>1093300</v>
       </c>
       <c r="H22" s="3">
-        <v>1264500</v>
+        <v>1278700</v>
       </c>
       <c r="I22" s="3">
-        <v>1277500</v>
+        <v>1291900</v>
       </c>
       <c r="J22" s="3">
-        <v>2574000</v>
+        <v>2602900</v>
       </c>
       <c r="K22" s="3">
         <v>1371400</v>
@@ -1158,25 +1158,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-889500</v>
+        <v>-899500</v>
       </c>
       <c r="E23" s="3">
-        <v>58000</v>
+        <v>58600</v>
       </c>
       <c r="F23" s="3">
-        <v>2432000</v>
+        <v>2459400</v>
       </c>
       <c r="G23" s="3">
-        <v>-6869100</v>
+        <v>-6946300</v>
       </c>
       <c r="H23" s="3">
-        <v>-753500</v>
+        <v>-762000</v>
       </c>
       <c r="I23" s="3">
-        <v>2656800</v>
+        <v>2686700</v>
       </c>
       <c r="J23" s="3">
-        <v>-2384700</v>
+        <v>-2411500</v>
       </c>
       <c r="K23" s="3">
         <v>2448500</v>
@@ -1191,25 +1191,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-108800</v>
+        <v>-110100</v>
       </c>
       <c r="E24" s="3">
-        <v>121800</v>
+        <v>123200</v>
       </c>
       <c r="F24" s="3">
-        <v>393900</v>
+        <v>398300</v>
       </c>
       <c r="G24" s="3">
-        <v>-382100</v>
+        <v>-386400</v>
       </c>
       <c r="H24" s="3">
-        <v>713300</v>
+        <v>721300</v>
       </c>
       <c r="I24" s="3">
-        <v>654100</v>
+        <v>661500</v>
       </c>
       <c r="J24" s="3">
-        <v>874200</v>
+        <v>884000</v>
       </c>
       <c r="K24" s="3">
         <v>577500</v>
@@ -1257,25 +1257,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-780700</v>
+        <v>-789500</v>
       </c>
       <c r="E26" s="3">
-        <v>-63900</v>
+        <v>-64600</v>
       </c>
       <c r="F26" s="3">
-        <v>2038100</v>
+        <v>2061100</v>
       </c>
       <c r="G26" s="3">
-        <v>-6487000</v>
+        <v>-6560000</v>
       </c>
       <c r="H26" s="3">
-        <v>-1466800</v>
+        <v>-1483300</v>
       </c>
       <c r="I26" s="3">
-        <v>2002600</v>
+        <v>2025200</v>
       </c>
       <c r="J26" s="3">
-        <v>-3258900</v>
+        <v>-3295500</v>
       </c>
       <c r="K26" s="3">
         <v>1871000</v>
@@ -1290,25 +1290,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1559100</v>
+        <v>-1576600</v>
       </c>
       <c r="E27" s="3">
-        <v>-936900</v>
+        <v>-947400</v>
       </c>
       <c r="F27" s="3">
-        <v>1547200</v>
+        <v>1564600</v>
       </c>
       <c r="G27" s="3">
-        <v>-6754400</v>
+        <v>-6830300</v>
       </c>
       <c r="H27" s="3">
-        <v>-2003800</v>
+        <v>-2026400</v>
       </c>
       <c r="I27" s="3">
-        <v>1585100</v>
+        <v>1602900</v>
       </c>
       <c r="J27" s="3">
-        <v>-3630300</v>
+        <v>-3671100</v>
       </c>
       <c r="K27" s="3">
         <v>1434000</v>
@@ -1356,25 +1356,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>11611300</v>
+        <v>11741900</v>
       </c>
       <c r="E29" s="3">
-        <v>1333100</v>
+        <v>1348100</v>
       </c>
       <c r="F29" s="3">
-        <v>700300</v>
+        <v>708200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>1802700</v>
+        <v>1823000</v>
       </c>
       <c r="I29" s="3">
-        <v>430600</v>
+        <v>435400</v>
       </c>
       <c r="J29" s="3">
-        <v>369100</v>
+        <v>373200</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1455,25 +1455,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>415200</v>
+        <v>419900</v>
       </c>
       <c r="E32" s="3">
-        <v>71000</v>
+        <v>71800</v>
       </c>
       <c r="F32" s="3">
-        <v>-463700</v>
+        <v>-468900</v>
       </c>
       <c r="G32" s="3">
-        <v>915600</v>
+        <v>925900</v>
       </c>
       <c r="H32" s="3">
-        <v>42600</v>
+        <v>43100</v>
       </c>
       <c r="I32" s="3">
-        <v>265000</v>
+        <v>267900</v>
       </c>
       <c r="J32" s="3">
-        <v>-564200</v>
+        <v>-570600</v>
       </c>
       <c r="K32" s="3">
         <v>401900</v>
@@ -1488,25 +1488,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10052300</v>
+        <v>10165300</v>
       </c>
       <c r="E33" s="3">
-        <v>396300</v>
+        <v>400700</v>
       </c>
       <c r="F33" s="3">
-        <v>2247500</v>
+        <v>2272800</v>
       </c>
       <c r="G33" s="3">
-        <v>-6754400</v>
+        <v>-6830300</v>
       </c>
       <c r="H33" s="3">
-        <v>-201100</v>
+        <v>-203400</v>
       </c>
       <c r="I33" s="3">
-        <v>2015700</v>
+        <v>2038300</v>
       </c>
       <c r="J33" s="3">
-        <v>-3261300</v>
+        <v>-3297900</v>
       </c>
       <c r="K33" s="3">
         <v>1434000</v>
@@ -1554,25 +1554,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10052300</v>
+        <v>10165300</v>
       </c>
       <c r="E35" s="3">
-        <v>396300</v>
+        <v>400700</v>
       </c>
       <c r="F35" s="3">
-        <v>2247500</v>
+        <v>2272800</v>
       </c>
       <c r="G35" s="3">
-        <v>-6754400</v>
+        <v>-6830300</v>
       </c>
       <c r="H35" s="3">
-        <v>-201100</v>
+        <v>-203400</v>
       </c>
       <c r="I35" s="3">
-        <v>2015700</v>
+        <v>2038300</v>
       </c>
       <c r="J35" s="3">
-        <v>-3261300</v>
+        <v>-3297900</v>
       </c>
       <c r="K35" s="3">
         <v>1434000</v>
@@ -1655,25 +1655,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7551600</v>
+        <v>7636500</v>
       </c>
       <c r="E41" s="3">
-        <v>4167400</v>
+        <v>4214200</v>
       </c>
       <c r="F41" s="3">
-        <v>4652300</v>
+        <v>4704700</v>
       </c>
       <c r="G41" s="3">
-        <v>5413000</v>
+        <v>5473800</v>
       </c>
       <c r="H41" s="3">
-        <v>2983300</v>
+        <v>3016800</v>
       </c>
       <c r="I41" s="3">
-        <v>3751000</v>
+        <v>3793200</v>
       </c>
       <c r="J41" s="3">
-        <v>9344900</v>
+        <v>9450000</v>
       </c>
       <c r="K41" s="3">
         <v>5662400</v>
@@ -1688,25 +1688,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3853900</v>
+        <v>3897200</v>
       </c>
       <c r="E42" s="3">
-        <v>4269100</v>
+        <v>4317100</v>
       </c>
       <c r="F42" s="3">
-        <v>5787900</v>
+        <v>5853000</v>
       </c>
       <c r="G42" s="3">
-        <v>11622000</v>
+        <v>11752700</v>
       </c>
       <c r="H42" s="3">
-        <v>8797200</v>
+        <v>8896100</v>
       </c>
       <c r="I42" s="3">
-        <v>5216600</v>
+        <v>5275200</v>
       </c>
       <c r="J42" s="3">
-        <v>3327500</v>
+        <v>3364900</v>
       </c>
       <c r="K42" s="3">
         <v>6012600</v>
@@ -1721,25 +1721,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11588900</v>
+        <v>11719200</v>
       </c>
       <c r="E43" s="3">
-        <v>5732300</v>
+        <v>5796800</v>
       </c>
       <c r="F43" s="3">
-        <v>8984100</v>
+        <v>9085100</v>
       </c>
       <c r="G43" s="3">
-        <v>7930200</v>
+        <v>8019300</v>
       </c>
       <c r="H43" s="3">
-        <v>8083900</v>
+        <v>8174800</v>
       </c>
       <c r="I43" s="3">
-        <v>10122100</v>
+        <v>10235900</v>
       </c>
       <c r="J43" s="3">
-        <v>20260700</v>
+        <v>20488500</v>
       </c>
       <c r="K43" s="3">
         <v>32414100</v>
@@ -1754,25 +1754,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3749800</v>
+        <v>3792000</v>
       </c>
       <c r="E44" s="3">
-        <v>1929300</v>
+        <v>1951000</v>
       </c>
       <c r="F44" s="3">
-        <v>2275900</v>
+        <v>2301500</v>
       </c>
       <c r="G44" s="3">
-        <v>2327900</v>
+        <v>2354100</v>
       </c>
       <c r="H44" s="3">
-        <v>2317300</v>
+        <v>2343400</v>
       </c>
       <c r="I44" s="3">
-        <v>2640200</v>
+        <v>2669900</v>
       </c>
       <c r="J44" s="3">
-        <v>5647200</v>
+        <v>5710700</v>
       </c>
       <c r="K44" s="3">
         <v>10333300</v>
@@ -1787,25 +1787,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34707500</v>
+        <v>35097700</v>
       </c>
       <c r="E45" s="3">
-        <v>56665600</v>
+        <v>57302800</v>
       </c>
       <c r="F45" s="3">
-        <v>5938200</v>
+        <v>6004900</v>
       </c>
       <c r="G45" s="3">
-        <v>8774800</v>
+        <v>8873400</v>
       </c>
       <c r="H45" s="3">
-        <v>10798700</v>
+        <v>10920100</v>
       </c>
       <c r="I45" s="3">
-        <v>16231800</v>
+        <v>16414300</v>
       </c>
       <c r="J45" s="3">
-        <v>16248300</v>
+        <v>16431000</v>
       </c>
       <c r="K45" s="3">
         <v>19849600</v>
@@ -1820,25 +1820,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>33406300</v>
+        <v>33781900</v>
       </c>
       <c r="E46" s="3">
-        <v>72763700</v>
+        <v>73581900</v>
       </c>
       <c r="F46" s="3">
-        <v>27638500</v>
+        <v>27949200</v>
       </c>
       <c r="G46" s="3">
-        <v>36067800</v>
+        <v>36473300</v>
       </c>
       <c r="H46" s="3">
-        <v>32980400</v>
+        <v>33351300</v>
       </c>
       <c r="I46" s="3">
-        <v>37961600</v>
+        <v>38388500</v>
       </c>
       <c r="J46" s="3">
-        <v>28952700</v>
+        <v>29278200</v>
       </c>
       <c r="K46" s="3">
         <v>27423600</v>
@@ -1853,25 +1853,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9424200</v>
+        <v>9530100</v>
       </c>
       <c r="E47" s="3">
-        <v>2629600</v>
+        <v>2659200</v>
       </c>
       <c r="F47" s="3">
-        <v>5382200</v>
+        <v>5442700</v>
       </c>
       <c r="G47" s="3">
-        <v>5423600</v>
+        <v>5484600</v>
       </c>
       <c r="H47" s="3">
-        <v>5362100</v>
+        <v>5422400</v>
       </c>
       <c r="I47" s="3">
-        <v>6003200</v>
+        <v>6070700</v>
       </c>
       <c r="J47" s="3">
-        <v>6818200</v>
+        <v>6894900</v>
       </c>
       <c r="K47" s="3">
         <v>13053000</v>
@@ -1886,25 +1886,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>45022400</v>
+        <v>45528600</v>
       </c>
       <c r="E48" s="3">
-        <v>14678600</v>
+        <v>14843600</v>
       </c>
       <c r="F48" s="3">
-        <v>29509800</v>
+        <v>29841600</v>
       </c>
       <c r="G48" s="3">
-        <v>29002300</v>
+        <v>29328400</v>
       </c>
       <c r="H48" s="3">
-        <v>34811600</v>
+        <v>35203000</v>
       </c>
       <c r="I48" s="3">
-        <v>36837900</v>
+        <v>37252100</v>
       </c>
       <c r="J48" s="3">
-        <v>88660700</v>
+        <v>89657600</v>
       </c>
       <c r="K48" s="3">
         <v>120179000</v>
@@ -1919,25 +1919,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11432700</v>
+        <v>11561300</v>
       </c>
       <c r="E49" s="3">
-        <v>2583500</v>
+        <v>2612500</v>
       </c>
       <c r="F49" s="3">
-        <v>14611200</v>
+        <v>14775500</v>
       </c>
       <c r="G49" s="3">
-        <v>15073700</v>
+        <v>15243200</v>
       </c>
       <c r="H49" s="3">
-        <v>15624900</v>
+        <v>15800600</v>
       </c>
       <c r="I49" s="3">
-        <v>15136400</v>
+        <v>15306600</v>
       </c>
       <c r="J49" s="3">
-        <v>45177300</v>
+        <v>45685300</v>
       </c>
       <c r="K49" s="3">
         <v>53012500</v>
@@ -2018,25 +2018,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9109500</v>
+        <v>9211900</v>
       </c>
       <c r="E52" s="3">
-        <v>2104400</v>
+        <v>2128000</v>
       </c>
       <c r="F52" s="3">
-        <v>4548300</v>
+        <v>4599400</v>
       </c>
       <c r="G52" s="3">
-        <v>4808500</v>
+        <v>4862600</v>
       </c>
       <c r="H52" s="3">
-        <v>5065200</v>
+        <v>5122100</v>
       </c>
       <c r="I52" s="3">
-        <v>6164100</v>
+        <v>6233400</v>
       </c>
       <c r="J52" s="3">
-        <v>7211000</v>
+        <v>7292000</v>
       </c>
       <c r="K52" s="3">
         <v>12964100</v>
@@ -2084,25 +2084,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75725700</v>
+        <v>76577100</v>
       </c>
       <c r="E54" s="3">
-        <v>94759800</v>
+        <v>95825200</v>
       </c>
       <c r="F54" s="3">
-        <v>81689900</v>
+        <v>82608400</v>
       </c>
       <c r="G54" s="3">
-        <v>90375900</v>
+        <v>91392100</v>
       </c>
       <c r="H54" s="3">
-        <v>93844200</v>
+        <v>94899300</v>
       </c>
       <c r="I54" s="3">
-        <v>102103000</v>
+        <v>103251000</v>
       </c>
       <c r="J54" s="3">
-        <v>96265600</v>
+        <v>97348000</v>
       </c>
       <c r="K54" s="3">
         <v>97097200</v>
@@ -2147,25 +2147,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3533300</v>
+        <v>3573000</v>
       </c>
       <c r="E57" s="3">
-        <v>2873300</v>
+        <v>2905600</v>
       </c>
       <c r="F57" s="3">
-        <v>6005600</v>
+        <v>6073100</v>
       </c>
       <c r="G57" s="3">
-        <v>6424300</v>
+        <v>6496600</v>
       </c>
       <c r="H57" s="3">
-        <v>7241700</v>
+        <v>7323100</v>
       </c>
       <c r="I57" s="3">
-        <v>7462900</v>
+        <v>7546800</v>
       </c>
       <c r="J57" s="3">
-        <v>7617900</v>
+        <v>7703500</v>
       </c>
       <c r="K57" s="3">
         <v>16086800</v>
@@ -2180,25 +2180,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2460400</v>
+        <v>2488100</v>
       </c>
       <c r="E58" s="3">
-        <v>107600</v>
+        <v>108900</v>
       </c>
       <c r="F58" s="3">
-        <v>2032200</v>
+        <v>2055100</v>
       </c>
       <c r="G58" s="3">
-        <v>1044500</v>
+        <v>1056200</v>
       </c>
       <c r="H58" s="3">
-        <v>1451400</v>
+        <v>1467700</v>
       </c>
       <c r="I58" s="3">
-        <v>2592900</v>
+        <v>2622100</v>
       </c>
       <c r="J58" s="3">
-        <v>3723800</v>
+        <v>3765600</v>
       </c>
       <c r="K58" s="3">
         <v>12557800</v>
@@ -2213,25 +2213,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33275000</v>
+        <v>33649100</v>
       </c>
       <c r="E59" s="3">
-        <v>51248000</v>
+        <v>51824200</v>
       </c>
       <c r="F59" s="3">
-        <v>15968000</v>
+        <v>16147500</v>
       </c>
       <c r="G59" s="3">
-        <v>26558500</v>
+        <v>26857100</v>
       </c>
       <c r="H59" s="3">
-        <v>21027200</v>
+        <v>21263700</v>
       </c>
       <c r="I59" s="3">
-        <v>23325600</v>
+        <v>23587900</v>
       </c>
       <c r="J59" s="3">
-        <v>34034400</v>
+        <v>34417100</v>
       </c>
       <c r="K59" s="3">
         <v>42894500</v>
@@ -2246,25 +2246,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23191900</v>
+        <v>23452700</v>
       </c>
       <c r="E60" s="3">
-        <v>54228900</v>
+        <v>54838600</v>
       </c>
       <c r="F60" s="3">
-        <v>24005800</v>
+        <v>24275700</v>
       </c>
       <c r="G60" s="3">
-        <v>34027300</v>
+        <v>34409900</v>
       </c>
       <c r="H60" s="3">
-        <v>29720400</v>
+        <v>30054500</v>
       </c>
       <c r="I60" s="3">
-        <v>33381400</v>
+        <v>33756800</v>
       </c>
       <c r="J60" s="3">
-        <v>25859400</v>
+        <v>26150100</v>
       </c>
       <c r="K60" s="3">
         <v>26651800</v>
@@ -2279,25 +2279,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4641700</v>
+        <v>4693900</v>
       </c>
       <c r="E61" s="3">
-        <v>2137500</v>
+        <v>2161500</v>
       </c>
       <c r="F61" s="3">
-        <v>16121700</v>
+        <v>16303000</v>
       </c>
       <c r="G61" s="3">
-        <v>18086500</v>
+        <v>18289900</v>
       </c>
       <c r="H61" s="3">
-        <v>18972500</v>
+        <v>19185900</v>
       </c>
       <c r="I61" s="3">
-        <v>16837400</v>
+        <v>17026700</v>
       </c>
       <c r="J61" s="3">
-        <v>18321900</v>
+        <v>18527900</v>
       </c>
       <c r="K61" s="3">
         <v>16927900</v>
@@ -2312,25 +2312,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54055000</v>
+        <v>54662800</v>
       </c>
       <c r="E62" s="3">
-        <v>21528800</v>
+        <v>21770800</v>
       </c>
       <c r="F62" s="3">
-        <v>27378200</v>
+        <v>27686000</v>
       </c>
       <c r="G62" s="3">
-        <v>28810700</v>
+        <v>29134600</v>
       </c>
       <c r="H62" s="3">
-        <v>34630600</v>
+        <v>35020000</v>
       </c>
       <c r="I62" s="3">
-        <v>37959300</v>
+        <v>38386100</v>
       </c>
       <c r="J62" s="3">
-        <v>72722300</v>
+        <v>73540000</v>
       </c>
       <c r="K62" s="3">
         <v>104377000</v>
@@ -2444,25 +2444,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55650700</v>
+        <v>56276400</v>
       </c>
       <c r="E66" s="3">
-        <v>84425900</v>
+        <v>85375200</v>
       </c>
       <c r="F66" s="3">
-        <v>73694700</v>
+        <v>74523300</v>
       </c>
       <c r="G66" s="3">
-        <v>87118200</v>
+        <v>88097700</v>
       </c>
       <c r="H66" s="3">
-        <v>86927800</v>
+        <v>87905100</v>
       </c>
       <c r="I66" s="3">
-        <v>93363900</v>
+        <v>94413700</v>
       </c>
       <c r="J66" s="3">
-        <v>87112300</v>
+        <v>88091800</v>
       </c>
       <c r="K66" s="3">
         <v>83733500</v>
@@ -2624,25 +2624,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10537300</v>
+        <v>10655700</v>
       </c>
       <c r="E72" s="3">
-        <v>1347300</v>
+        <v>1362500</v>
       </c>
       <c r="F72" s="3">
-        <v>2799900</v>
+        <v>2831400</v>
       </c>
       <c r="G72" s="3">
-        <v>-771300</v>
+        <v>-779900</v>
       </c>
       <c r="H72" s="3">
-        <v>4272600</v>
+        <v>4320700</v>
       </c>
       <c r="I72" s="3">
-        <v>5924000</v>
+        <v>5990600</v>
       </c>
       <c r="J72" s="3">
-        <v>8809100</v>
+        <v>8908100</v>
       </c>
       <c r="K72" s="3">
         <v>24317400</v>
@@ -2756,25 +2756,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20075000</v>
+        <v>20300700</v>
       </c>
       <c r="E76" s="3">
-        <v>10333800</v>
+        <v>10450000</v>
       </c>
       <c r="F76" s="3">
-        <v>7995200</v>
+        <v>8085100</v>
       </c>
       <c r="G76" s="3">
-        <v>3257700</v>
+        <v>3294300</v>
       </c>
       <c r="H76" s="3">
-        <v>6916400</v>
+        <v>6994200</v>
       </c>
       <c r="I76" s="3">
-        <v>8739300</v>
+        <v>8837500</v>
       </c>
       <c r="J76" s="3">
-        <v>9153300</v>
+        <v>9256200</v>
       </c>
       <c r="K76" s="3">
         <v>13254000</v>
@@ -2860,25 +2860,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10052300</v>
+        <v>10165300</v>
       </c>
       <c r="E81" s="3">
-        <v>396300</v>
+        <v>400700</v>
       </c>
       <c r="F81" s="3">
-        <v>2247500</v>
+        <v>2272800</v>
       </c>
       <c r="G81" s="3">
-        <v>-6754400</v>
+        <v>-6830300</v>
       </c>
       <c r="H81" s="3">
-        <v>-201100</v>
+        <v>-203400</v>
       </c>
       <c r="I81" s="3">
-        <v>2015700</v>
+        <v>2038300</v>
       </c>
       <c r="J81" s="3">
-        <v>-3261300</v>
+        <v>-3297900</v>
       </c>
       <c r="K81" s="3">
         <v>1434000</v>
@@ -2908,25 +2908,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3257700</v>
+        <v>3294300</v>
       </c>
       <c r="E83" s="3">
-        <v>1133200</v>
+        <v>1146000</v>
       </c>
       <c r="F83" s="3">
-        <v>1145000</v>
+        <v>1157900</v>
       </c>
       <c r="G83" s="3">
-        <v>7889900</v>
+        <v>7978700</v>
       </c>
       <c r="H83" s="3">
-        <v>6657400</v>
+        <v>6732200</v>
       </c>
       <c r="I83" s="3">
-        <v>3646900</v>
+        <v>3687900</v>
       </c>
       <c r="J83" s="3">
-        <v>8648200</v>
+        <v>8745400</v>
       </c>
       <c r="K83" s="3">
         <v>5880900</v>
@@ -3106,25 +3106,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1801600</v>
+        <v>-1821800</v>
       </c>
       <c r="E89" s="3">
-        <v>7863900</v>
+        <v>7952300</v>
       </c>
       <c r="F89" s="3">
-        <v>-2074800</v>
+        <v>-2098100</v>
       </c>
       <c r="G89" s="3">
-        <v>2782200</v>
+        <v>2813500</v>
       </c>
       <c r="H89" s="3">
-        <v>3801800</v>
+        <v>3844600</v>
       </c>
       <c r="I89" s="3">
-        <v>7532700</v>
+        <v>7617400</v>
       </c>
       <c r="J89" s="3">
-        <v>6595900</v>
+        <v>6670000</v>
       </c>
       <c r="K89" s="3">
         <v>4825700</v>
@@ -3154,25 +3154,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2094900</v>
+        <v>-2118500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1473900</v>
+        <v>-1490500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3710800</v>
+        <v>-3752500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2730100</v>
+        <v>-2760800</v>
       </c>
       <c r="H91" s="3">
-        <v>-3753300</v>
+        <v>-3795500</v>
       </c>
       <c r="I91" s="3">
-        <v>-3962700</v>
+        <v>-4007300</v>
       </c>
       <c r="J91" s="3">
-        <v>-4644100</v>
+        <v>-4696300</v>
       </c>
       <c r="K91" s="3">
         <v>-5578900</v>
@@ -3253,25 +3253,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-862300</v>
+        <v>-872000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5209500</v>
+        <v>-5268100</v>
       </c>
       <c r="F94" s="3">
-        <v>3183200</v>
+        <v>3219000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5405900</v>
+        <v>-5466600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2254600</v>
+        <v>-2280000</v>
       </c>
       <c r="I94" s="3">
-        <v>-5759500</v>
+        <v>-5824300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2765600</v>
+        <v>-2796700</v>
       </c>
       <c r="K94" s="3">
         <v>-1410900</v>
@@ -3301,25 +3301,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-662400</v>
+        <v>-669900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1212500</v>
+        <v>-1226100</v>
       </c>
       <c r="F96" s="3">
-        <v>-188100</v>
+        <v>-190200</v>
       </c>
       <c r="G96" s="3">
-        <v>-481400</v>
+        <v>-486900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1265700</v>
+        <v>-1279900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1255100</v>
+        <v>-1269200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1905700</v>
+        <v>-1927100</v>
       </c>
       <c r="K96" s="3">
         <v>-1708500</v>
@@ -3433,25 +3433,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>265000</v>
+        <v>267900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1171100</v>
+        <v>-1184200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1816900</v>
+        <v>-1837400</v>
       </c>
       <c r="G100" s="3">
-        <v>5065200</v>
+        <v>5122100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2416700</v>
+        <v>-2443800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2602400</v>
+        <v>-2631600</v>
       </c>
       <c r="J100" s="3">
-        <v>-2358700</v>
+        <v>-2385200</v>
       </c>
       <c r="K100" s="3">
         <v>-2704400</v>
@@ -3466,25 +3466,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17700</v>
+        <v>17900</v>
       </c>
       <c r="E101" s="3">
-        <v>15400</v>
+        <v>15600</v>
       </c>
       <c r="F101" s="3">
-        <v>-22500</v>
+        <v>-22700</v>
       </c>
       <c r="G101" s="3">
-        <v>-28400</v>
+        <v>-28700</v>
       </c>
       <c r="H101" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="I101" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="J101" s="3">
-        <v>-21300</v>
+        <v>-21500</v>
       </c>
       <c r="K101" s="3">
         <v>17600</v>
@@ -3499,25 +3499,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2381200</v>
+        <v>-2408000</v>
       </c>
       <c r="E102" s="3">
-        <v>1498700</v>
+        <v>1515600</v>
       </c>
       <c r="F102" s="3">
-        <v>-731000</v>
+        <v>-739300</v>
       </c>
       <c r="G102" s="3">
-        <v>2413100</v>
+        <v>2440200</v>
       </c>
       <c r="H102" s="3">
-        <v>-852900</v>
+        <v>-862500</v>
       </c>
       <c r="I102" s="3">
-        <v>-819700</v>
+        <v>-829000</v>
       </c>
       <c r="J102" s="3">
-        <v>1450200</v>
+        <v>1466500</v>
       </c>
       <c r="K102" s="3">
         <v>728000</v>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,168 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15700100</v>
+        <v>16102600</v>
       </c>
       <c r="E8" s="3">
-        <v>16036300</v>
+        <v>15440300</v>
       </c>
       <c r="F8" s="3">
-        <v>16533900</v>
+        <v>15770800</v>
       </c>
       <c r="G8" s="3">
-        <v>52142400</v>
+        <v>16260200</v>
       </c>
       <c r="H8" s="3">
-        <v>54843400</v>
+        <v>51279300</v>
       </c>
       <c r="I8" s="3">
-        <v>55203400</v>
+        <v>53935600</v>
       </c>
       <c r="J8" s="3">
+        <v>54289700</v>
+      </c>
+      <c r="K8" s="3">
         <v>59509800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55746600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>57696300</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10743100</v>
+        <v>11434600</v>
       </c>
       <c r="E9" s="3">
-        <v>11905800</v>
+        <v>10565200</v>
       </c>
       <c r="F9" s="3">
-        <v>11922500</v>
+        <v>11708700</v>
       </c>
       <c r="G9" s="3">
-        <v>39634900</v>
+        <v>11725200</v>
       </c>
       <c r="H9" s="3">
-        <v>40071500</v>
+        <v>38978800</v>
       </c>
       <c r="I9" s="3">
-        <v>39961500</v>
+        <v>39408200</v>
       </c>
       <c r="J9" s="3">
+        <v>39300000</v>
+      </c>
+      <c r="K9" s="3">
         <v>42205500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37643800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39455300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4957100</v>
+        <v>4668000</v>
       </c>
       <c r="E10" s="3">
-        <v>4130500</v>
+        <v>4875000</v>
       </c>
       <c r="F10" s="3">
-        <v>4611400</v>
+        <v>4062100</v>
       </c>
       <c r="G10" s="3">
-        <v>12507500</v>
+        <v>4535000</v>
       </c>
       <c r="H10" s="3">
-        <v>14771900</v>
+        <v>12300400</v>
       </c>
       <c r="I10" s="3">
-        <v>15242000</v>
+        <v>14527400</v>
       </c>
       <c r="J10" s="3">
+        <v>14989700</v>
+      </c>
+      <c r="K10" s="3">
         <v>17304200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18102700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18241000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,8 +840,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +873,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,75 +909,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2354100</v>
+        <v>2035200</v>
       </c>
       <c r="E14" s="3">
-        <v>56200</v>
+        <v>2315200</v>
       </c>
       <c r="F14" s="3">
-        <v>1014400</v>
+        <v>55300</v>
       </c>
       <c r="G14" s="3">
-        <v>5239400</v>
+        <v>997600</v>
       </c>
       <c r="H14" s="3">
-        <v>3530000</v>
+        <v>5152600</v>
       </c>
       <c r="I14" s="3">
-        <v>1008400</v>
+        <v>3471600</v>
       </c>
       <c r="J14" s="3">
+        <v>991700</v>
+      </c>
+      <c r="K14" s="3">
         <v>5705900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1433000</v>
+        <v>1675200</v>
       </c>
       <c r="E15" s="3">
-        <v>2124500</v>
+        <v>1409300</v>
       </c>
       <c r="F15" s="3">
-        <v>1138800</v>
+        <v>2089300</v>
       </c>
       <c r="G15" s="3">
-        <v>2711800</v>
+        <v>1119900</v>
       </c>
       <c r="H15" s="3">
-        <v>2885200</v>
+        <v>2666900</v>
       </c>
       <c r="I15" s="3">
-        <v>2717800</v>
+        <v>2837500</v>
       </c>
       <c r="J15" s="3">
+        <v>2672800</v>
+      </c>
+      <c r="K15" s="3">
         <v>2997700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5568000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3995600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15871200</v>
+        <v>14530900</v>
       </c>
       <c r="E17" s="3">
-        <v>15690600</v>
+        <v>15608500</v>
       </c>
       <c r="F17" s="3">
-        <v>14186900</v>
+        <v>15430800</v>
       </c>
       <c r="G17" s="3">
-        <v>57069500</v>
+        <v>13952100</v>
       </c>
       <c r="H17" s="3">
-        <v>54283600</v>
+        <v>56124900</v>
       </c>
       <c r="I17" s="3">
-        <v>50956900</v>
+        <v>53385000</v>
       </c>
       <c r="J17" s="3">
+        <v>50113500</v>
+      </c>
+      <c r="K17" s="3">
         <v>59888900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51524700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52849600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-171100</v>
+        <v>1571700</v>
       </c>
       <c r="E18" s="3">
-        <v>345700</v>
+        <v>-168200</v>
       </c>
       <c r="F18" s="3">
-        <v>2346900</v>
+        <v>340000</v>
       </c>
       <c r="G18" s="3">
-        <v>-4927100</v>
+        <v>2308100</v>
       </c>
       <c r="H18" s="3">
-        <v>559800</v>
+        <v>-4845600</v>
       </c>
       <c r="I18" s="3">
-        <v>4246500</v>
+        <v>550600</v>
       </c>
       <c r="J18" s="3">
+        <v>4176200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-379200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4221800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4846700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,173 +1085,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-419900</v>
+        <v>183500</v>
       </c>
       <c r="E20" s="3">
-        <v>-71800</v>
+        <v>-412900</v>
       </c>
       <c r="F20" s="3">
-        <v>468900</v>
+        <v>-70600</v>
       </c>
       <c r="G20" s="3">
-        <v>-925900</v>
+        <v>461100</v>
       </c>
       <c r="H20" s="3">
-        <v>-43100</v>
+        <v>-910500</v>
       </c>
       <c r="I20" s="3">
-        <v>-267900</v>
+        <v>-42400</v>
       </c>
       <c r="J20" s="3">
+        <v>-263500</v>
+      </c>
+      <c r="K20" s="3">
         <v>570600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-401900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-49300</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2689900</v>
+        <v>5510200</v>
       </c>
       <c r="E21" s="3">
-        <v>1415200</v>
+        <v>2671900</v>
       </c>
       <c r="F21" s="3">
-        <v>3969000</v>
+        <v>1401000</v>
       </c>
       <c r="G21" s="3">
-        <v>2093000</v>
+        <v>3912600</v>
       </c>
       <c r="H21" s="3">
-        <v>7221400</v>
+        <v>2122500</v>
       </c>
       <c r="I21" s="3">
-        <v>7651300</v>
+        <v>7156000</v>
       </c>
       <c r="J21" s="3">
+        <v>7554300</v>
+      </c>
+      <c r="K21" s="3">
         <v>8901000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9709900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8841500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>308600</v>
+        <v>348200</v>
       </c>
       <c r="E22" s="3">
-        <v>215300</v>
+        <v>303500</v>
       </c>
       <c r="F22" s="3">
-        <v>356500</v>
+        <v>211800</v>
       </c>
       <c r="G22" s="3">
-        <v>1093300</v>
+        <v>350600</v>
       </c>
       <c r="H22" s="3">
-        <v>1278700</v>
+        <v>1075200</v>
       </c>
       <c r="I22" s="3">
-        <v>1291900</v>
+        <v>1257600</v>
       </c>
       <c r="J22" s="3">
+        <v>1270500</v>
+      </c>
+      <c r="K22" s="3">
         <v>2602900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1371400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1247800</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-899500</v>
+        <v>1407000</v>
       </c>
       <c r="E23" s="3">
-        <v>58600</v>
+        <v>-884700</v>
       </c>
       <c r="F23" s="3">
-        <v>2459400</v>
+        <v>57600</v>
       </c>
       <c r="G23" s="3">
-        <v>-6946300</v>
+        <v>2418700</v>
       </c>
       <c r="H23" s="3">
-        <v>-762000</v>
+        <v>-6831400</v>
       </c>
       <c r="I23" s="3">
-        <v>2686700</v>
+        <v>-749400</v>
       </c>
       <c r="J23" s="3">
+        <v>2642200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2411500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2448500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3549600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-110100</v>
+        <v>427000</v>
       </c>
       <c r="E24" s="3">
-        <v>123200</v>
+        <v>-108200</v>
       </c>
       <c r="F24" s="3">
-        <v>398300</v>
+        <v>121200</v>
       </c>
       <c r="G24" s="3">
-        <v>-386400</v>
+        <v>391700</v>
       </c>
       <c r="H24" s="3">
-        <v>721300</v>
+        <v>-380000</v>
       </c>
       <c r="I24" s="3">
-        <v>661500</v>
+        <v>709400</v>
       </c>
       <c r="J24" s="3">
+        <v>650500</v>
+      </c>
+      <c r="K24" s="3">
         <v>884000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>577500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1002400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-789500</v>
+        <v>979900</v>
       </c>
       <c r="E26" s="3">
-        <v>-64600</v>
+        <v>-776400</v>
       </c>
       <c r="F26" s="3">
-        <v>2061100</v>
+        <v>-63500</v>
       </c>
       <c r="G26" s="3">
-        <v>-6560000</v>
+        <v>2026900</v>
       </c>
       <c r="H26" s="3">
-        <v>-1483300</v>
+        <v>-6451400</v>
       </c>
       <c r="I26" s="3">
-        <v>2025200</v>
+        <v>-1458700</v>
       </c>
       <c r="J26" s="3">
+        <v>1991600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3295500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1871000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2547200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1576600</v>
+        <v>910500</v>
       </c>
       <c r="E27" s="3">
-        <v>-947400</v>
+        <v>-1550500</v>
       </c>
       <c r="F27" s="3">
-        <v>1564600</v>
+        <v>-931700</v>
       </c>
       <c r="G27" s="3">
-        <v>-6830300</v>
+        <v>1538700</v>
       </c>
       <c r="H27" s="3">
-        <v>-2026400</v>
+        <v>-6717200</v>
       </c>
       <c r="I27" s="3">
-        <v>1602900</v>
+        <v>-1992800</v>
       </c>
       <c r="J27" s="3">
+        <v>1576400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3671100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1434000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2119900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,42 +1406,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>11741900</v>
+        <v>260000</v>
       </c>
       <c r="E29" s="3">
-        <v>1348100</v>
+        <v>11547500</v>
       </c>
       <c r="F29" s="3">
-        <v>708200</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>1325800</v>
+      </c>
+      <c r="G29" s="3">
+        <v>696400</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>1823000</v>
-      </c>
       <c r="I29" s="3">
-        <v>435400</v>
+        <v>1792800</v>
       </c>
       <c r="J29" s="3">
+        <v>428200</v>
+      </c>
+      <c r="K29" s="3">
         <v>373200</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1514,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>419900</v>
+        <v>-183500</v>
       </c>
       <c r="E32" s="3">
-        <v>71800</v>
+        <v>412900</v>
       </c>
       <c r="F32" s="3">
-        <v>-468900</v>
+        <v>70600</v>
       </c>
       <c r="G32" s="3">
-        <v>925900</v>
+        <v>-461100</v>
       </c>
       <c r="H32" s="3">
-        <v>43100</v>
+        <v>910500</v>
       </c>
       <c r="I32" s="3">
-        <v>267900</v>
+        <v>42400</v>
       </c>
       <c r="J32" s="3">
+        <v>263500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-570600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>401900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>49300</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10165300</v>
+        <v>1170500</v>
       </c>
       <c r="E33" s="3">
-        <v>400700</v>
+        <v>9997000</v>
       </c>
       <c r="F33" s="3">
-        <v>2272800</v>
+        <v>394100</v>
       </c>
       <c r="G33" s="3">
-        <v>-6830300</v>
+        <v>2235200</v>
       </c>
       <c r="H33" s="3">
-        <v>-203400</v>
+        <v>-6717200</v>
       </c>
       <c r="I33" s="3">
-        <v>2038300</v>
+        <v>-200000</v>
       </c>
       <c r="J33" s="3">
+        <v>2004600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3297900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1434000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2119900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10165300</v>
+        <v>1170500</v>
       </c>
       <c r="E35" s="3">
-        <v>400700</v>
+        <v>9997000</v>
       </c>
       <c r="F35" s="3">
-        <v>2272800</v>
+        <v>394100</v>
       </c>
       <c r="G35" s="3">
-        <v>-6830300</v>
+        <v>2235200</v>
       </c>
       <c r="H35" s="3">
-        <v>-203400</v>
+        <v>-6717200</v>
       </c>
       <c r="I35" s="3">
-        <v>2038300</v>
+        <v>-200000</v>
       </c>
       <c r="J35" s="3">
+        <v>2004600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3297900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1434000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2119900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,305 +1734,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7636500</v>
+        <v>5616100</v>
       </c>
       <c r="E41" s="3">
-        <v>4214200</v>
+        <v>7510100</v>
       </c>
       <c r="F41" s="3">
-        <v>4704700</v>
+        <v>4144500</v>
       </c>
       <c r="G41" s="3">
-        <v>5473800</v>
+        <v>4626800</v>
       </c>
       <c r="H41" s="3">
-        <v>3016800</v>
+        <v>5383200</v>
       </c>
       <c r="I41" s="3">
-        <v>3793200</v>
+        <v>2966900</v>
       </c>
       <c r="J41" s="3">
+        <v>3730400</v>
+      </c>
+      <c r="K41" s="3">
         <v>9450000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5662400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4307900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3897200</v>
+        <v>4963200</v>
       </c>
       <c r="E42" s="3">
-        <v>4317100</v>
+        <v>3832700</v>
       </c>
       <c r="F42" s="3">
-        <v>5853000</v>
+        <v>4245600</v>
       </c>
       <c r="G42" s="3">
-        <v>11752700</v>
+        <v>5756100</v>
       </c>
       <c r="H42" s="3">
-        <v>8896100</v>
+        <v>11558100</v>
       </c>
       <c r="I42" s="3">
-        <v>5275200</v>
+        <v>8748900</v>
       </c>
       <c r="J42" s="3">
+        <v>5187900</v>
+      </c>
+      <c r="K42" s="3">
         <v>3364900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6012600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12134800</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11719200</v>
+        <v>6725500</v>
       </c>
       <c r="E43" s="3">
-        <v>5796800</v>
+        <v>11525200</v>
       </c>
       <c r="F43" s="3">
-        <v>9085100</v>
+        <v>5700800</v>
       </c>
       <c r="G43" s="3">
-        <v>8019300</v>
+        <v>8934800</v>
       </c>
       <c r="H43" s="3">
-        <v>8174800</v>
+        <v>7886600</v>
       </c>
       <c r="I43" s="3">
-        <v>10235900</v>
+        <v>8039500</v>
       </c>
       <c r="J43" s="3">
+        <v>10066500</v>
+      </c>
+      <c r="K43" s="3">
         <v>20488500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32414100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24880100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3792000</v>
+        <v>1919900</v>
       </c>
       <c r="E44" s="3">
-        <v>1951000</v>
+        <v>3729200</v>
       </c>
       <c r="F44" s="3">
-        <v>2301500</v>
+        <v>1918700</v>
       </c>
       <c r="G44" s="3">
-        <v>2354100</v>
+        <v>2263400</v>
       </c>
       <c r="H44" s="3">
-        <v>2343400</v>
+        <v>2315200</v>
       </c>
       <c r="I44" s="3">
-        <v>2669900</v>
+        <v>2304600</v>
       </c>
       <c r="J44" s="3">
+        <v>2625700</v>
+      </c>
+      <c r="K44" s="3">
         <v>5710700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10333300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7845700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35097700</v>
+        <v>12781600</v>
       </c>
       <c r="E45" s="3">
-        <v>57302800</v>
+        <v>34516800</v>
       </c>
       <c r="F45" s="3">
-        <v>6004900</v>
+        <v>56354300</v>
       </c>
       <c r="G45" s="3">
-        <v>8873400</v>
+        <v>5905500</v>
       </c>
       <c r="H45" s="3">
-        <v>10920100</v>
+        <v>8726500</v>
       </c>
       <c r="I45" s="3">
-        <v>16414300</v>
+        <v>10739400</v>
       </c>
       <c r="J45" s="3">
+        <v>16142600</v>
+      </c>
+      <c r="K45" s="3">
         <v>16431000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19849600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19187100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>33781900</v>
+        <v>32006300</v>
       </c>
       <c r="E46" s="3">
-        <v>73581900</v>
+        <v>33222700</v>
       </c>
       <c r="F46" s="3">
-        <v>27949200</v>
+        <v>72363900</v>
       </c>
       <c r="G46" s="3">
-        <v>36473300</v>
+        <v>27486600</v>
       </c>
       <c r="H46" s="3">
-        <v>33351300</v>
+        <v>35869600</v>
       </c>
       <c r="I46" s="3">
-        <v>38388500</v>
+        <v>32799200</v>
       </c>
       <c r="J46" s="3">
+        <v>37753000</v>
+      </c>
+      <c r="K46" s="3">
         <v>29278200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27423600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34177800</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9530100</v>
+        <v>9192400</v>
       </c>
       <c r="E47" s="3">
-        <v>2659200</v>
+        <v>9423000</v>
       </c>
       <c r="F47" s="3">
-        <v>5442700</v>
+        <v>2615100</v>
       </c>
       <c r="G47" s="3">
-        <v>5484600</v>
+        <v>5352600</v>
       </c>
       <c r="H47" s="3">
-        <v>5422400</v>
+        <v>5393800</v>
       </c>
       <c r="I47" s="3">
-        <v>6070700</v>
+        <v>5332600</v>
       </c>
       <c r="J47" s="3">
+        <v>5970200</v>
+      </c>
+      <c r="K47" s="3">
         <v>6894900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13053000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16227900</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>45528600</v>
+        <v>21059900</v>
       </c>
       <c r="E48" s="3">
-        <v>14843600</v>
+        <v>44679700</v>
       </c>
       <c r="F48" s="3">
-        <v>29841600</v>
+        <v>14597900</v>
       </c>
       <c r="G48" s="3">
-        <v>29328400</v>
+        <v>29347700</v>
       </c>
       <c r="H48" s="3">
-        <v>35203000</v>
+        <v>28843000</v>
       </c>
       <c r="I48" s="3">
-        <v>37252100</v>
+        <v>34620300</v>
       </c>
       <c r="J48" s="3">
+        <v>36635400</v>
+      </c>
+      <c r="K48" s="3">
         <v>89657600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>120179000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82126800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11561300</v>
+        <v>5767900</v>
       </c>
       <c r="E49" s="3">
-        <v>2612500</v>
+        <v>11332300</v>
       </c>
       <c r="F49" s="3">
-        <v>14775500</v>
+        <v>2569300</v>
       </c>
       <c r="G49" s="3">
-        <v>15243200</v>
+        <v>14530900</v>
       </c>
       <c r="H49" s="3">
-        <v>15800600</v>
+        <v>14990900</v>
       </c>
       <c r="I49" s="3">
-        <v>15306600</v>
+        <v>15539100</v>
       </c>
       <c r="J49" s="3">
+        <v>15053200</v>
+      </c>
+      <c r="K49" s="3">
         <v>45685300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53012500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39782800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9211900</v>
+        <v>4519700</v>
       </c>
       <c r="E52" s="3">
-        <v>2128000</v>
+        <v>8987700</v>
       </c>
       <c r="F52" s="3">
-        <v>4599400</v>
+        <v>2092800</v>
       </c>
       <c r="G52" s="3">
-        <v>4862600</v>
+        <v>4523300</v>
       </c>
       <c r="H52" s="3">
-        <v>5122100</v>
+        <v>4782100</v>
       </c>
       <c r="I52" s="3">
-        <v>6233400</v>
+        <v>5037300</v>
       </c>
       <c r="J52" s="3">
+        <v>6130200</v>
+      </c>
+      <c r="K52" s="3">
         <v>7292000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12964100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10999800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76577100</v>
+        <v>72546200</v>
       </c>
       <c r="E54" s="3">
-        <v>95825200</v>
+        <v>75300200</v>
       </c>
       <c r="F54" s="3">
-        <v>82608400</v>
+        <v>94239100</v>
       </c>
       <c r="G54" s="3">
-        <v>91392100</v>
+        <v>81241000</v>
       </c>
       <c r="H54" s="3">
-        <v>94899300</v>
+        <v>89879300</v>
       </c>
       <c r="I54" s="3">
-        <v>103251000</v>
+        <v>93328500</v>
       </c>
       <c r="J54" s="3">
+        <v>101542000</v>
+      </c>
+      <c r="K54" s="3">
         <v>97348000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97097200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108732000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,206 +2270,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3573000</v>
+        <v>2808100</v>
       </c>
       <c r="E57" s="3">
-        <v>2905600</v>
+        <v>3513900</v>
       </c>
       <c r="F57" s="3">
-        <v>6073100</v>
+        <v>2857500</v>
       </c>
       <c r="G57" s="3">
-        <v>6496600</v>
+        <v>5972600</v>
       </c>
       <c r="H57" s="3">
-        <v>7323100</v>
+        <v>6389000</v>
       </c>
       <c r="I57" s="3">
-        <v>7546800</v>
+        <v>7201900</v>
       </c>
       <c r="J57" s="3">
+        <v>7421900</v>
+      </c>
+      <c r="K57" s="3">
         <v>7703500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16086800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18513300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2488100</v>
+        <v>97600</v>
       </c>
       <c r="E58" s="3">
-        <v>108900</v>
+        <v>2446900</v>
       </c>
       <c r="F58" s="3">
-        <v>2055100</v>
+        <v>107100</v>
       </c>
       <c r="G58" s="3">
-        <v>1056200</v>
+        <v>2021100</v>
       </c>
       <c r="H58" s="3">
-        <v>1467700</v>
+        <v>1038800</v>
       </c>
       <c r="I58" s="3">
-        <v>2622100</v>
+        <v>1443400</v>
       </c>
       <c r="J58" s="3">
+        <v>2578700</v>
+      </c>
+      <c r="K58" s="3">
         <v>3765600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12557800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15247800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33649100</v>
+        <v>16407300</v>
       </c>
       <c r="E59" s="3">
-        <v>51824200</v>
+        <v>32949800</v>
       </c>
       <c r="F59" s="3">
-        <v>16147500</v>
+        <v>50966400</v>
       </c>
       <c r="G59" s="3">
-        <v>26857100</v>
+        <v>15880200</v>
       </c>
       <c r="H59" s="3">
-        <v>21263700</v>
+        <v>26412500</v>
       </c>
       <c r="I59" s="3">
-        <v>23587900</v>
+        <v>20911700</v>
       </c>
       <c r="J59" s="3">
+        <v>23197400</v>
+      </c>
+      <c r="K59" s="3">
         <v>34417100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42894500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39444700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23452700</v>
+        <v>19313000</v>
       </c>
       <c r="E60" s="3">
-        <v>54838600</v>
+        <v>23063300</v>
       </c>
       <c r="F60" s="3">
-        <v>24275700</v>
+        <v>53930900</v>
       </c>
       <c r="G60" s="3">
-        <v>34409900</v>
+        <v>23873900</v>
       </c>
       <c r="H60" s="3">
-        <v>30054500</v>
+        <v>33840300</v>
       </c>
       <c r="I60" s="3">
-        <v>33756800</v>
+        <v>29557000</v>
       </c>
       <c r="J60" s="3">
+        <v>33198000</v>
+      </c>
+      <c r="K60" s="3">
         <v>26150100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26651800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36602900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4693900</v>
+        <v>2443400</v>
       </c>
       <c r="E61" s="3">
-        <v>2161500</v>
+        <v>2441000</v>
       </c>
       <c r="F61" s="3">
-        <v>16303000</v>
+        <v>2125800</v>
       </c>
       <c r="G61" s="3">
-        <v>18289900</v>
+        <v>16033200</v>
       </c>
       <c r="H61" s="3">
-        <v>19185900</v>
+        <v>17987200</v>
       </c>
       <c r="I61" s="3">
-        <v>17026700</v>
+        <v>18868300</v>
       </c>
       <c r="J61" s="3">
+        <v>16744900</v>
+      </c>
+      <c r="K61" s="3">
         <v>18527900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16927900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18109500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54662800</v>
+        <v>29648800</v>
       </c>
       <c r="E62" s="3">
-        <v>21770800</v>
+        <v>53774400</v>
       </c>
       <c r="F62" s="3">
-        <v>27686000</v>
+        <v>21410500</v>
       </c>
       <c r="G62" s="3">
-        <v>29134600</v>
+        <v>27227800</v>
       </c>
       <c r="H62" s="3">
-        <v>35020000</v>
+        <v>28652400</v>
       </c>
       <c r="I62" s="3">
-        <v>38386100</v>
+        <v>34440300</v>
       </c>
       <c r="J62" s="3">
+        <v>37750700</v>
+      </c>
+      <c r="K62" s="3">
         <v>73540000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>104377000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>67904900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56276400</v>
+        <v>52333300</v>
       </c>
       <c r="E66" s="3">
-        <v>85375200</v>
+        <v>55343700</v>
       </c>
       <c r="F66" s="3">
-        <v>74523300</v>
+        <v>83962000</v>
       </c>
       <c r="G66" s="3">
-        <v>88097700</v>
+        <v>73289700</v>
       </c>
       <c r="H66" s="3">
-        <v>87905100</v>
+        <v>86639500</v>
       </c>
       <c r="I66" s="3">
-        <v>94413700</v>
+        <v>86450100</v>
       </c>
       <c r="J66" s="3">
+        <v>92850900</v>
+      </c>
+      <c r="K66" s="3">
         <v>88091800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>83733500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92266200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2579,14 +2746,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>109800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>117400</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10655700</v>
+        <v>10111200</v>
       </c>
       <c r="E72" s="3">
-        <v>1362500</v>
+        <v>10479400</v>
       </c>
       <c r="F72" s="3">
-        <v>2831400</v>
+        <v>1339900</v>
       </c>
       <c r="G72" s="3">
-        <v>-779900</v>
+        <v>2784500</v>
       </c>
       <c r="H72" s="3">
-        <v>4320700</v>
+        <v>-767000</v>
       </c>
       <c r="I72" s="3">
-        <v>5990600</v>
+        <v>4249200</v>
       </c>
       <c r="J72" s="3">
+        <v>5891400</v>
+      </c>
+      <c r="K72" s="3">
         <v>8908100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24317400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15423900</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20300700</v>
+        <v>20212900</v>
       </c>
       <c r="E76" s="3">
-        <v>10450000</v>
+        <v>19956400</v>
       </c>
       <c r="F76" s="3">
-        <v>8085100</v>
+        <v>10277000</v>
       </c>
       <c r="G76" s="3">
-        <v>3294300</v>
+        <v>7951300</v>
       </c>
       <c r="H76" s="3">
-        <v>6994200</v>
+        <v>3239800</v>
       </c>
       <c r="I76" s="3">
-        <v>8837500</v>
+        <v>6878400</v>
       </c>
       <c r="J76" s="3">
+        <v>8691200</v>
+      </c>
+      <c r="K76" s="3">
         <v>9256200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13254000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16348800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10165300</v>
+        <v>1170500</v>
       </c>
       <c r="E81" s="3">
-        <v>400700</v>
+        <v>9997000</v>
       </c>
       <c r="F81" s="3">
-        <v>2272800</v>
+        <v>394100</v>
       </c>
       <c r="G81" s="3">
-        <v>-6830300</v>
+        <v>2235200</v>
       </c>
       <c r="H81" s="3">
-        <v>-203400</v>
+        <v>-6717200</v>
       </c>
       <c r="I81" s="3">
-        <v>2038300</v>
+        <v>-200000</v>
       </c>
       <c r="J81" s="3">
+        <v>2004600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3297900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1434000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2119900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3099,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3294300</v>
+        <v>3739800</v>
       </c>
       <c r="E83" s="3">
-        <v>1146000</v>
+        <v>3239800</v>
       </c>
       <c r="F83" s="3">
-        <v>1157900</v>
+        <v>1127000</v>
       </c>
       <c r="G83" s="3">
-        <v>7978700</v>
+        <v>1138800</v>
       </c>
       <c r="H83" s="3">
-        <v>6732200</v>
+        <v>7846600</v>
       </c>
       <c r="I83" s="3">
-        <v>3687900</v>
+        <v>6620800</v>
       </c>
       <c r="J83" s="3">
+        <v>3626800</v>
+      </c>
+      <c r="K83" s="3">
         <v>8745400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5880900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4041400</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1821800</v>
+        <v>4911500</v>
       </c>
       <c r="E89" s="3">
-        <v>7952300</v>
+        <v>-1791700</v>
       </c>
       <c r="F89" s="3">
-        <v>-2098100</v>
+        <v>7820700</v>
       </c>
       <c r="G89" s="3">
-        <v>2813500</v>
+        <v>-2063400</v>
       </c>
       <c r="H89" s="3">
-        <v>3844600</v>
+        <v>2766900</v>
       </c>
       <c r="I89" s="3">
-        <v>7617400</v>
+        <v>3780900</v>
       </c>
       <c r="J89" s="3">
+        <v>7491300</v>
+      </c>
+      <c r="K89" s="3">
         <v>6670000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4825700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6467700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2118500</v>
+        <v>-3950400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1490500</v>
+        <v>-2083400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3752500</v>
+        <v>-1465800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2760800</v>
+        <v>-3690400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3795500</v>
+        <v>-2715100</v>
       </c>
       <c r="I91" s="3">
-        <v>-4007300</v>
+        <v>-3732700</v>
       </c>
       <c r="J91" s="3">
+        <v>-3940900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4696300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5578900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7457200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-872000</v>
+        <v>-5122000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5268100</v>
+        <v>-857600</v>
       </c>
       <c r="F94" s="3">
-        <v>3219000</v>
+        <v>-5180900</v>
       </c>
       <c r="G94" s="3">
-        <v>-5466600</v>
+        <v>3165700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2280000</v>
+        <v>-5376100</v>
       </c>
       <c r="I94" s="3">
-        <v>-5824300</v>
+        <v>-2242200</v>
       </c>
       <c r="J94" s="3">
+        <v>-5727900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2796700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1410900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9115800</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,41 +3527,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-669900</v>
+        <v>-614100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1226100</v>
+        <v>-658800</v>
       </c>
       <c r="F96" s="3">
-        <v>-190200</v>
+        <v>-1205800</v>
       </c>
       <c r="G96" s="3">
-        <v>-486900</v>
+        <v>-187000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1279900</v>
+        <v>-478800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1269200</v>
+        <v>-1258700</v>
       </c>
       <c r="J96" s="3">
+        <v>-1248200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1927100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1708500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2700900</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,106 +3668,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>267900</v>
+        <v>2088100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1184200</v>
+        <v>263500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1837400</v>
+        <v>-1164600</v>
       </c>
       <c r="G100" s="3">
-        <v>5122100</v>
+        <v>-1807000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2443800</v>
+        <v>5037300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2631600</v>
+        <v>-2403400</v>
       </c>
       <c r="J100" s="3">
+        <v>-2588100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2385200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2704400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2044800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17900</v>
+        <v>-40000</v>
       </c>
       <c r="E101" s="3">
-        <v>15600</v>
+        <v>17600</v>
       </c>
       <c r="F101" s="3">
-        <v>-22700</v>
+        <v>15300</v>
       </c>
       <c r="G101" s="3">
-        <v>-28700</v>
+        <v>-22400</v>
       </c>
       <c r="H101" s="3">
-        <v>16700</v>
+        <v>-28200</v>
       </c>
       <c r="I101" s="3">
-        <v>9600</v>
+        <v>16500</v>
       </c>
       <c r="J101" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-21500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>17600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2408000</v>
+        <v>1837500</v>
       </c>
       <c r="E102" s="3">
-        <v>1515600</v>
+        <v>-2368100</v>
       </c>
       <c r="F102" s="3">
-        <v>-739300</v>
+        <v>1490500</v>
       </c>
       <c r="G102" s="3">
-        <v>2440200</v>
+        <v>-727000</v>
       </c>
       <c r="H102" s="3">
-        <v>-862500</v>
+        <v>2399900</v>
       </c>
       <c r="I102" s="3">
-        <v>-829000</v>
+        <v>-848200</v>
       </c>
       <c r="J102" s="3">
+        <v>-815200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1466500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>728000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-617400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16102600</v>
+        <v>16767700</v>
       </c>
       <c r="E8" s="3">
-        <v>15440300</v>
+        <v>16078000</v>
       </c>
       <c r="F8" s="3">
-        <v>15770800</v>
+        <v>16422200</v>
       </c>
       <c r="G8" s="3">
-        <v>16260200</v>
+        <v>16931800</v>
       </c>
       <c r="H8" s="3">
-        <v>51279300</v>
+        <v>53397300</v>
       </c>
       <c r="I8" s="3">
-        <v>53935600</v>
+        <v>56163300</v>
       </c>
       <c r="J8" s="3">
-        <v>54289700</v>
+        <v>56532100</v>
       </c>
       <c r="K8" s="3">
         <v>59509800</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11434600</v>
+        <v>11906900</v>
       </c>
       <c r="E9" s="3">
-        <v>10565200</v>
+        <v>11001600</v>
       </c>
       <c r="F9" s="3">
-        <v>11708700</v>
+        <v>12192300</v>
       </c>
       <c r="G9" s="3">
-        <v>11725200</v>
+        <v>12209500</v>
       </c>
       <c r="H9" s="3">
-        <v>38978800</v>
+        <v>40588800</v>
       </c>
       <c r="I9" s="3">
-        <v>39408200</v>
+        <v>41035900</v>
       </c>
       <c r="J9" s="3">
-        <v>39300000</v>
+        <v>40923200</v>
       </c>
       <c r="K9" s="3">
         <v>42205500</v>
@@ -795,25 +795,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4668000</v>
+        <v>4860800</v>
       </c>
       <c r="E10" s="3">
-        <v>4875000</v>
+        <v>5076400</v>
       </c>
       <c r="F10" s="3">
-        <v>4062100</v>
+        <v>4229900</v>
       </c>
       <c r="G10" s="3">
-        <v>4535000</v>
+        <v>4722300</v>
       </c>
       <c r="H10" s="3">
-        <v>12300400</v>
+        <v>12808500</v>
       </c>
       <c r="I10" s="3">
-        <v>14527400</v>
+        <v>15127400</v>
       </c>
       <c r="J10" s="3">
-        <v>14989700</v>
+        <v>15608800</v>
       </c>
       <c r="K10" s="3">
         <v>17304200</v>
@@ -919,25 +919,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2035200</v>
+        <v>2119200</v>
       </c>
       <c r="E14" s="3">
-        <v>2315200</v>
+        <v>2410800</v>
       </c>
       <c r="F14" s="3">
-        <v>55300</v>
+        <v>57600</v>
       </c>
       <c r="G14" s="3">
-        <v>997600</v>
+        <v>1038800</v>
       </c>
       <c r="H14" s="3">
-        <v>5152600</v>
+        <v>5365500</v>
       </c>
       <c r="I14" s="3">
-        <v>3471600</v>
+        <v>3614900</v>
       </c>
       <c r="J14" s="3">
-        <v>991700</v>
+        <v>1032700</v>
       </c>
       <c r="K14" s="3">
         <v>5705900</v>
@@ -955,25 +955,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1675200</v>
+        <v>1744400</v>
       </c>
       <c r="E15" s="3">
-        <v>1409300</v>
+        <v>1467500</v>
       </c>
       <c r="F15" s="3">
-        <v>2089300</v>
+        <v>2175600</v>
       </c>
       <c r="G15" s="3">
-        <v>1119900</v>
+        <v>1166200</v>
       </c>
       <c r="H15" s="3">
-        <v>2666900</v>
+        <v>2777100</v>
       </c>
       <c r="I15" s="3">
-        <v>2837500</v>
+        <v>2954700</v>
       </c>
       <c r="J15" s="3">
-        <v>2672800</v>
+        <v>2783200</v>
       </c>
       <c r="K15" s="3">
         <v>2997700</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14530900</v>
+        <v>15131100</v>
       </c>
       <c r="E17" s="3">
-        <v>15608500</v>
+        <v>16253200</v>
       </c>
       <c r="F17" s="3">
-        <v>15430800</v>
+        <v>16068200</v>
       </c>
       <c r="G17" s="3">
-        <v>13952100</v>
+        <v>14528400</v>
       </c>
       <c r="H17" s="3">
-        <v>56124900</v>
+        <v>58443000</v>
       </c>
       <c r="I17" s="3">
-        <v>53385000</v>
+        <v>55590000</v>
       </c>
       <c r="J17" s="3">
-        <v>50113500</v>
+        <v>52183300</v>
       </c>
       <c r="K17" s="3">
         <v>59888900</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1571700</v>
+        <v>1636600</v>
       </c>
       <c r="E18" s="3">
-        <v>-168200</v>
+        <v>-175200</v>
       </c>
       <c r="F18" s="3">
-        <v>340000</v>
+        <v>354000</v>
       </c>
       <c r="G18" s="3">
-        <v>2308100</v>
+        <v>2403400</v>
       </c>
       <c r="H18" s="3">
-        <v>-4845600</v>
+        <v>-5045700</v>
       </c>
       <c r="I18" s="3">
-        <v>550600</v>
+        <v>573300</v>
       </c>
       <c r="J18" s="3">
-        <v>4176200</v>
+        <v>4348700</v>
       </c>
       <c r="K18" s="3">
         <v>-379200</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>183500</v>
+        <v>191100</v>
       </c>
       <c r="E20" s="3">
-        <v>-412900</v>
+        <v>-430000</v>
       </c>
       <c r="F20" s="3">
-        <v>-70600</v>
+        <v>-73500</v>
       </c>
       <c r="G20" s="3">
-        <v>461100</v>
+        <v>480200</v>
       </c>
       <c r="H20" s="3">
-        <v>-910500</v>
+        <v>-948100</v>
       </c>
       <c r="I20" s="3">
-        <v>-42400</v>
+        <v>-44100</v>
       </c>
       <c r="J20" s="3">
-        <v>-263500</v>
+        <v>-274400</v>
       </c>
       <c r="K20" s="3">
         <v>570600</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5510200</v>
+        <v>5710800</v>
       </c>
       <c r="E21" s="3">
-        <v>2671900</v>
+        <v>2758800</v>
       </c>
       <c r="F21" s="3">
-        <v>1401000</v>
+        <v>1450700</v>
       </c>
       <c r="G21" s="3">
-        <v>3912600</v>
+        <v>4066000</v>
       </c>
       <c r="H21" s="3">
-        <v>2122500</v>
+        <v>2153500</v>
       </c>
       <c r="I21" s="3">
-        <v>7156000</v>
+        <v>7403700</v>
       </c>
       <c r="J21" s="3">
-        <v>7554300</v>
+        <v>7840200</v>
       </c>
       <c r="K21" s="3">
         <v>8901000</v>
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>348200</v>
+        <v>362600</v>
       </c>
       <c r="E22" s="3">
-        <v>303500</v>
+        <v>316000</v>
       </c>
       <c r="F22" s="3">
-        <v>211800</v>
+        <v>220500</v>
       </c>
       <c r="G22" s="3">
-        <v>350600</v>
+        <v>365000</v>
       </c>
       <c r="H22" s="3">
-        <v>1075200</v>
+        <v>1119600</v>
       </c>
       <c r="I22" s="3">
-        <v>1257600</v>
+        <v>1309500</v>
       </c>
       <c r="J22" s="3">
-        <v>1270500</v>
+        <v>1323000</v>
       </c>
       <c r="K22" s="3">
         <v>2602900</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1407000</v>
+        <v>1465100</v>
       </c>
       <c r="E23" s="3">
-        <v>-884700</v>
+        <v>-921200</v>
       </c>
       <c r="F23" s="3">
-        <v>57600</v>
+        <v>60000</v>
       </c>
       <c r="G23" s="3">
-        <v>2418700</v>
+        <v>2518600</v>
       </c>
       <c r="H23" s="3">
-        <v>-6831400</v>
+        <v>-7113500</v>
       </c>
       <c r="I23" s="3">
-        <v>-749400</v>
+        <v>-780300</v>
       </c>
       <c r="J23" s="3">
-        <v>2642200</v>
+        <v>2751300</v>
       </c>
       <c r="K23" s="3">
         <v>-2411500</v>
@@ -1236,25 +1236,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>427000</v>
+        <v>444700</v>
       </c>
       <c r="E24" s="3">
-        <v>-108200</v>
+        <v>-112700</v>
       </c>
       <c r="F24" s="3">
-        <v>121200</v>
+        <v>126200</v>
       </c>
       <c r="G24" s="3">
-        <v>391700</v>
+        <v>407900</v>
       </c>
       <c r="H24" s="3">
-        <v>-380000</v>
+        <v>-395700</v>
       </c>
       <c r="I24" s="3">
-        <v>709400</v>
+        <v>738700</v>
       </c>
       <c r="J24" s="3">
-        <v>650500</v>
+        <v>677400</v>
       </c>
       <c r="K24" s="3">
         <v>884000</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>979900</v>
+        <v>1020400</v>
       </c>
       <c r="E26" s="3">
-        <v>-776400</v>
+        <v>-808500</v>
       </c>
       <c r="F26" s="3">
-        <v>-63500</v>
+        <v>-66100</v>
       </c>
       <c r="G26" s="3">
-        <v>2026900</v>
+        <v>2110700</v>
       </c>
       <c r="H26" s="3">
-        <v>-6451400</v>
+        <v>-6717800</v>
       </c>
       <c r="I26" s="3">
-        <v>-1458700</v>
+        <v>-1519000</v>
       </c>
       <c r="J26" s="3">
-        <v>1991600</v>
+        <v>2073900</v>
       </c>
       <c r="K26" s="3">
         <v>-3295500</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>910500</v>
+        <v>948100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1550500</v>
+        <v>-1614500</v>
       </c>
       <c r="F27" s="3">
-        <v>-931700</v>
+        <v>-970200</v>
       </c>
       <c r="G27" s="3">
-        <v>1538700</v>
+        <v>1602300</v>
       </c>
       <c r="H27" s="3">
-        <v>-6717200</v>
+        <v>-6994700</v>
       </c>
       <c r="I27" s="3">
-        <v>-1992800</v>
+        <v>-2075100</v>
       </c>
       <c r="J27" s="3">
-        <v>1576400</v>
+        <v>1641500</v>
       </c>
       <c r="K27" s="3">
         <v>-3671100</v>
@@ -1416,25 +1416,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>260000</v>
+        <v>270700</v>
       </c>
       <c r="E29" s="3">
-        <v>11547500</v>
+        <v>12024500</v>
       </c>
       <c r="F29" s="3">
-        <v>1325800</v>
+        <v>1380600</v>
       </c>
       <c r="G29" s="3">
-        <v>696400</v>
+        <v>725200</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>1792800</v>
+        <v>1866900</v>
       </c>
       <c r="J29" s="3">
-        <v>428200</v>
+        <v>445900</v>
       </c>
       <c r="K29" s="3">
         <v>373200</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-183500</v>
+        <v>-191100</v>
       </c>
       <c r="E32" s="3">
-        <v>412900</v>
+        <v>430000</v>
       </c>
       <c r="F32" s="3">
-        <v>70600</v>
+        <v>73500</v>
       </c>
       <c r="G32" s="3">
-        <v>-461100</v>
+        <v>-480200</v>
       </c>
       <c r="H32" s="3">
-        <v>910500</v>
+        <v>948100</v>
       </c>
       <c r="I32" s="3">
-        <v>42400</v>
+        <v>44100</v>
       </c>
       <c r="J32" s="3">
-        <v>263500</v>
+        <v>274400</v>
       </c>
       <c r="K32" s="3">
         <v>-570600</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1170500</v>
+        <v>1218900</v>
       </c>
       <c r="E33" s="3">
-        <v>9997000</v>
+        <v>10410000</v>
       </c>
       <c r="F33" s="3">
-        <v>394100</v>
+        <v>410400</v>
       </c>
       <c r="G33" s="3">
-        <v>2235200</v>
+        <v>2327500</v>
       </c>
       <c r="H33" s="3">
-        <v>-6717200</v>
+        <v>-6994700</v>
       </c>
       <c r="I33" s="3">
-        <v>-200000</v>
+        <v>-208200</v>
       </c>
       <c r="J33" s="3">
-        <v>2004600</v>
+        <v>2087400</v>
       </c>
       <c r="K33" s="3">
         <v>-3297900</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1170500</v>
+        <v>1218900</v>
       </c>
       <c r="E35" s="3">
-        <v>9997000</v>
+        <v>10410000</v>
       </c>
       <c r="F35" s="3">
-        <v>394100</v>
+        <v>410400</v>
       </c>
       <c r="G35" s="3">
-        <v>2235200</v>
+        <v>2327500</v>
       </c>
       <c r="H35" s="3">
-        <v>-6717200</v>
+        <v>-6994700</v>
       </c>
       <c r="I35" s="3">
-        <v>-200000</v>
+        <v>-208200</v>
       </c>
       <c r="J35" s="3">
-        <v>2004600</v>
+        <v>2087400</v>
       </c>
       <c r="K35" s="3">
         <v>-3297900</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5616100</v>
+        <v>5848100</v>
       </c>
       <c r="E41" s="3">
-        <v>7510100</v>
+        <v>7820300</v>
       </c>
       <c r="F41" s="3">
-        <v>4144500</v>
+        <v>4315600</v>
       </c>
       <c r="G41" s="3">
-        <v>4626800</v>
+        <v>4817900</v>
       </c>
       <c r="H41" s="3">
-        <v>5383200</v>
+        <v>5605600</v>
       </c>
       <c r="I41" s="3">
-        <v>2966900</v>
+        <v>3089400</v>
       </c>
       <c r="J41" s="3">
-        <v>3730400</v>
+        <v>3884400</v>
       </c>
       <c r="K41" s="3">
         <v>9450000</v>
@@ -1777,25 +1777,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4963200</v>
+        <v>5168200</v>
       </c>
       <c r="E42" s="3">
-        <v>3832700</v>
+        <v>3991000</v>
       </c>
       <c r="F42" s="3">
-        <v>4245600</v>
+        <v>4421000</v>
       </c>
       <c r="G42" s="3">
-        <v>5756100</v>
+        <v>5993900</v>
       </c>
       <c r="H42" s="3">
-        <v>11558100</v>
+        <v>12035500</v>
       </c>
       <c r="I42" s="3">
-        <v>8748900</v>
+        <v>9110300</v>
       </c>
       <c r="J42" s="3">
-        <v>5187900</v>
+        <v>5402200</v>
       </c>
       <c r="K42" s="3">
         <v>3364900</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6725500</v>
+        <v>10686800</v>
       </c>
       <c r="E43" s="3">
-        <v>11525200</v>
+        <v>12001200</v>
       </c>
       <c r="F43" s="3">
-        <v>5700800</v>
+        <v>5936300</v>
       </c>
       <c r="G43" s="3">
-        <v>8934800</v>
+        <v>9303800</v>
       </c>
       <c r="H43" s="3">
-        <v>7886600</v>
+        <v>8212300</v>
       </c>
       <c r="I43" s="3">
-        <v>8039500</v>
+        <v>8371600</v>
       </c>
       <c r="J43" s="3">
-        <v>10066500</v>
+        <v>10482200</v>
       </c>
       <c r="K43" s="3">
         <v>20488500</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1919900</v>
+        <v>3998400</v>
       </c>
       <c r="E44" s="3">
-        <v>3729200</v>
+        <v>3883200</v>
       </c>
       <c r="F44" s="3">
-        <v>1918700</v>
+        <v>1998000</v>
       </c>
       <c r="G44" s="3">
-        <v>2263400</v>
+        <v>2356900</v>
       </c>
       <c r="H44" s="3">
-        <v>2315200</v>
+        <v>2410800</v>
       </c>
       <c r="I44" s="3">
-        <v>2304600</v>
+        <v>2399800</v>
       </c>
       <c r="J44" s="3">
-        <v>2625700</v>
+        <v>2734200</v>
       </c>
       <c r="K44" s="3">
         <v>5710700</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12781600</v>
+        <v>28679500</v>
       </c>
       <c r="E45" s="3">
-        <v>34516800</v>
+        <v>35942400</v>
       </c>
       <c r="F45" s="3">
-        <v>56354300</v>
+        <v>58681900</v>
       </c>
       <c r="G45" s="3">
-        <v>5905500</v>
+        <v>6149400</v>
       </c>
       <c r="H45" s="3">
-        <v>8726500</v>
+        <v>9087000</v>
       </c>
       <c r="I45" s="3">
-        <v>10739400</v>
+        <v>11182900</v>
       </c>
       <c r="J45" s="3">
-        <v>16142600</v>
+        <v>16809300</v>
       </c>
       <c r="K45" s="3">
         <v>16431000</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32006300</v>
+        <v>33349100</v>
       </c>
       <c r="E46" s="3">
-        <v>33222700</v>
+        <v>34594900</v>
       </c>
       <c r="F46" s="3">
-        <v>72363900</v>
+        <v>75352800</v>
       </c>
       <c r="G46" s="3">
-        <v>27486600</v>
+        <v>28621900</v>
       </c>
       <c r="H46" s="3">
-        <v>35869600</v>
+        <v>37351200</v>
       </c>
       <c r="I46" s="3">
-        <v>32799200</v>
+        <v>34153900</v>
       </c>
       <c r="J46" s="3">
-        <v>37753000</v>
+        <v>39312400</v>
       </c>
       <c r="K46" s="3">
         <v>29278200</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9192400</v>
+        <v>9546300</v>
       </c>
       <c r="E47" s="3">
-        <v>9423000</v>
+        <v>9812200</v>
       </c>
       <c r="F47" s="3">
-        <v>2615100</v>
+        <v>2723200</v>
       </c>
       <c r="G47" s="3">
-        <v>5352600</v>
+        <v>5573700</v>
       </c>
       <c r="H47" s="3">
-        <v>5393800</v>
+        <v>5616600</v>
       </c>
       <c r="I47" s="3">
-        <v>5332600</v>
+        <v>5552900</v>
       </c>
       <c r="J47" s="3">
-        <v>5970200</v>
+        <v>6216800</v>
       </c>
       <c r="K47" s="3">
         <v>6894900</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21059900</v>
+        <v>43859500</v>
       </c>
       <c r="E48" s="3">
-        <v>44679700</v>
+        <v>46525100</v>
       </c>
       <c r="F48" s="3">
-        <v>14597900</v>
+        <v>15200900</v>
       </c>
       <c r="G48" s="3">
-        <v>29347700</v>
+        <v>30559800</v>
       </c>
       <c r="H48" s="3">
-        <v>28843000</v>
+        <v>30034300</v>
       </c>
       <c r="I48" s="3">
-        <v>34620300</v>
+        <v>36050200</v>
       </c>
       <c r="J48" s="3">
-        <v>36635400</v>
+        <v>38148600</v>
       </c>
       <c r="K48" s="3">
         <v>89657600</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5767900</v>
+        <v>12024500</v>
       </c>
       <c r="E49" s="3">
-        <v>11332300</v>
+        <v>11800300</v>
       </c>
       <c r="F49" s="3">
-        <v>2569300</v>
+        <v>2675400</v>
       </c>
       <c r="G49" s="3">
-        <v>14530900</v>
+        <v>15131100</v>
       </c>
       <c r="H49" s="3">
-        <v>14990900</v>
+        <v>15610000</v>
       </c>
       <c r="I49" s="3">
-        <v>15539100</v>
+        <v>16180900</v>
       </c>
       <c r="J49" s="3">
-        <v>15053200</v>
+        <v>15675000</v>
       </c>
       <c r="K49" s="3">
         <v>45685300</v>
@@ -2137,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4519700</v>
+        <v>9247400</v>
       </c>
       <c r="E52" s="3">
-        <v>8987700</v>
+        <v>9358900</v>
       </c>
       <c r="F52" s="3">
-        <v>2092800</v>
+        <v>2179300</v>
       </c>
       <c r="G52" s="3">
-        <v>4523300</v>
+        <v>4710100</v>
       </c>
       <c r="H52" s="3">
-        <v>4782100</v>
+        <v>4979600</v>
       </c>
       <c r="I52" s="3">
-        <v>5037300</v>
+        <v>5245400</v>
       </c>
       <c r="J52" s="3">
-        <v>6130200</v>
+        <v>6383400</v>
       </c>
       <c r="K52" s="3">
         <v>7292000</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>72546200</v>
+        <v>75536600</v>
       </c>
       <c r="E54" s="3">
-        <v>75300200</v>
+        <v>78410400</v>
       </c>
       <c r="F54" s="3">
-        <v>94239100</v>
+        <v>98131500</v>
       </c>
       <c r="G54" s="3">
-        <v>81241000</v>
+        <v>84596600</v>
       </c>
       <c r="H54" s="3">
-        <v>89879300</v>
+        <v>93591700</v>
       </c>
       <c r="I54" s="3">
-        <v>93328500</v>
+        <v>97183400</v>
       </c>
       <c r="J54" s="3">
-        <v>101542000</v>
+        <v>105736000</v>
       </c>
       <c r="K54" s="3">
         <v>97348000</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2808100</v>
+        <v>2924100</v>
       </c>
       <c r="E57" s="3">
-        <v>3513900</v>
+        <v>3659000</v>
       </c>
       <c r="F57" s="3">
-        <v>2857500</v>
+        <v>2975500</v>
       </c>
       <c r="G57" s="3">
-        <v>5972600</v>
+        <v>6219300</v>
       </c>
       <c r="H57" s="3">
-        <v>6389000</v>
+        <v>6652900</v>
       </c>
       <c r="I57" s="3">
-        <v>7201900</v>
+        <v>7499400</v>
       </c>
       <c r="J57" s="3">
-        <v>7421900</v>
+        <v>7728500</v>
       </c>
       <c r="K57" s="3">
         <v>7703500</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>97600</v>
+        <v>1629200</v>
       </c>
       <c r="E58" s="3">
-        <v>2446900</v>
+        <v>2548000</v>
       </c>
       <c r="F58" s="3">
-        <v>107100</v>
+        <v>111500</v>
       </c>
       <c r="G58" s="3">
-        <v>2021100</v>
+        <v>2104500</v>
       </c>
       <c r="H58" s="3">
-        <v>1038800</v>
+        <v>1081700</v>
       </c>
       <c r="I58" s="3">
-        <v>1443400</v>
+        <v>1503100</v>
       </c>
       <c r="J58" s="3">
-        <v>2578700</v>
+        <v>2685200</v>
       </c>
       <c r="K58" s="3">
         <v>3765600</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16407300</v>
+        <v>28506700</v>
       </c>
       <c r="E59" s="3">
-        <v>32949800</v>
+        <v>34310700</v>
       </c>
       <c r="F59" s="3">
-        <v>50966400</v>
+        <v>53071500</v>
       </c>
       <c r="G59" s="3">
-        <v>15880200</v>
+        <v>16536100</v>
       </c>
       <c r="H59" s="3">
-        <v>26412500</v>
+        <v>27503500</v>
       </c>
       <c r="I59" s="3">
-        <v>20911700</v>
+        <v>21775400</v>
       </c>
       <c r="J59" s="3">
-        <v>23197400</v>
+        <v>24155600</v>
       </c>
       <c r="K59" s="3">
         <v>34417100</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19313000</v>
+        <v>20213600</v>
       </c>
       <c r="E60" s="3">
-        <v>23063300</v>
+        <v>24015900</v>
       </c>
       <c r="F60" s="3">
-        <v>53930900</v>
+        <v>56158400</v>
       </c>
       <c r="G60" s="3">
-        <v>23873900</v>
+        <v>24859900</v>
       </c>
       <c r="H60" s="3">
-        <v>33840300</v>
+        <v>35238100</v>
       </c>
       <c r="I60" s="3">
-        <v>29557000</v>
+        <v>30777900</v>
       </c>
       <c r="J60" s="3">
-        <v>33198000</v>
+        <v>34569200</v>
       </c>
       <c r="K60" s="3">
         <v>26150100</v>
@@ -2421,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2443400</v>
+        <v>4839900</v>
       </c>
       <c r="E61" s="3">
-        <v>2441000</v>
+        <v>2541900</v>
       </c>
       <c r="F61" s="3">
-        <v>2125800</v>
+        <v>2213600</v>
       </c>
       <c r="G61" s="3">
-        <v>16033200</v>
+        <v>16695400</v>
       </c>
       <c r="H61" s="3">
-        <v>17987200</v>
+        <v>18730100</v>
       </c>
       <c r="I61" s="3">
-        <v>18868300</v>
+        <v>19647600</v>
       </c>
       <c r="J61" s="3">
-        <v>16744900</v>
+        <v>17436500</v>
       </c>
       <c r="K61" s="3">
         <v>18527900</v>
@@ -2457,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29648800</v>
+        <v>57329500</v>
       </c>
       <c r="E62" s="3">
-        <v>53774400</v>
+        <v>55995500</v>
       </c>
       <c r="F62" s="3">
-        <v>21410500</v>
+        <v>22294800</v>
       </c>
       <c r="G62" s="3">
-        <v>27227800</v>
+        <v>28352400</v>
       </c>
       <c r="H62" s="3">
-        <v>28652400</v>
+        <v>29835900</v>
       </c>
       <c r="I62" s="3">
-        <v>34440300</v>
+        <v>35862800</v>
       </c>
       <c r="J62" s="3">
-        <v>37750700</v>
+        <v>39309900</v>
       </c>
       <c r="K62" s="3">
         <v>73540000</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52333300</v>
+        <v>54814600</v>
       </c>
       <c r="E66" s="3">
-        <v>55343700</v>
+        <v>57629700</v>
       </c>
       <c r="F66" s="3">
-        <v>83962000</v>
+        <v>87430000</v>
       </c>
       <c r="G66" s="3">
-        <v>73289700</v>
+        <v>76316900</v>
       </c>
       <c r="H66" s="3">
-        <v>86639500</v>
+        <v>90218100</v>
       </c>
       <c r="I66" s="3">
-        <v>86450100</v>
+        <v>90020800</v>
       </c>
       <c r="J66" s="3">
-        <v>92850900</v>
+        <v>96686000</v>
       </c>
       <c r="K66" s="3">
         <v>88091800</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10111200</v>
+        <v>10528800</v>
       </c>
       <c r="E72" s="3">
-        <v>10479400</v>
+        <v>10912200</v>
       </c>
       <c r="F72" s="3">
-        <v>1339900</v>
+        <v>1395300</v>
       </c>
       <c r="G72" s="3">
-        <v>2784500</v>
+        <v>2899600</v>
       </c>
       <c r="H72" s="3">
-        <v>-767000</v>
+        <v>-798700</v>
       </c>
       <c r="I72" s="3">
-        <v>4249200</v>
+        <v>4424700</v>
       </c>
       <c r="J72" s="3">
-        <v>5891400</v>
+        <v>6134700</v>
       </c>
       <c r="K72" s="3">
         <v>8908100</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20212900</v>
+        <v>20721900</v>
       </c>
       <c r="E76" s="3">
-        <v>19956400</v>
+        <v>20780700</v>
       </c>
       <c r="F76" s="3">
-        <v>10277000</v>
+        <v>10701500</v>
       </c>
       <c r="G76" s="3">
-        <v>7951300</v>
+        <v>8279700</v>
       </c>
       <c r="H76" s="3">
-        <v>3239800</v>
+        <v>3373600</v>
       </c>
       <c r="I76" s="3">
-        <v>6878400</v>
+        <v>7162500</v>
       </c>
       <c r="J76" s="3">
-        <v>8691200</v>
+        <v>9050200</v>
       </c>
       <c r="K76" s="3">
         <v>9256200</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1170500</v>
+        <v>1218900</v>
       </c>
       <c r="E81" s="3">
-        <v>9997000</v>
+        <v>10410000</v>
       </c>
       <c r="F81" s="3">
-        <v>394100</v>
+        <v>410400</v>
       </c>
       <c r="G81" s="3">
-        <v>2235200</v>
+        <v>2327500</v>
       </c>
       <c r="H81" s="3">
-        <v>-6717200</v>
+        <v>-6994700</v>
       </c>
       <c r="I81" s="3">
-        <v>-200000</v>
+        <v>-208200</v>
       </c>
       <c r="J81" s="3">
-        <v>2004600</v>
+        <v>2087400</v>
       </c>
       <c r="K81" s="3">
         <v>-3297900</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3739800</v>
+        <v>3894200</v>
       </c>
       <c r="E83" s="3">
-        <v>3239800</v>
+        <v>3373600</v>
       </c>
       <c r="F83" s="3">
-        <v>1127000</v>
+        <v>1173500</v>
       </c>
       <c r="G83" s="3">
-        <v>1138800</v>
+        <v>1185800</v>
       </c>
       <c r="H83" s="3">
-        <v>7846600</v>
+        <v>8170700</v>
       </c>
       <c r="I83" s="3">
-        <v>6620800</v>
+        <v>6894200</v>
       </c>
       <c r="J83" s="3">
-        <v>3626800</v>
+        <v>3776600</v>
       </c>
       <c r="K83" s="3">
         <v>8745400</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4911500</v>
+        <v>5114300</v>
       </c>
       <c r="E89" s="3">
-        <v>-1791700</v>
+        <v>-1865700</v>
       </c>
       <c r="F89" s="3">
-        <v>7820700</v>
+        <v>8143700</v>
       </c>
       <c r="G89" s="3">
-        <v>-2063400</v>
+        <v>-2148600</v>
       </c>
       <c r="H89" s="3">
-        <v>2766900</v>
+        <v>2881200</v>
       </c>
       <c r="I89" s="3">
-        <v>3780900</v>
+        <v>3937100</v>
       </c>
       <c r="J89" s="3">
-        <v>7491300</v>
+        <v>7800700</v>
       </c>
       <c r="K89" s="3">
         <v>6670000</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3950400</v>
+        <v>-4113500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2083400</v>
+        <v>-2169500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1465800</v>
+        <v>-1526300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3690400</v>
+        <v>-3842800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2715100</v>
+        <v>-2827300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3732700</v>
+        <v>-3886900</v>
       </c>
       <c r="J91" s="3">
-        <v>-3940900</v>
+        <v>-4103700</v>
       </c>
       <c r="K91" s="3">
         <v>-4696300</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5122000</v>
+        <v>-5333600</v>
       </c>
       <c r="E94" s="3">
-        <v>-857600</v>
+        <v>-893000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5180900</v>
+        <v>-5394900</v>
       </c>
       <c r="G94" s="3">
-        <v>3165700</v>
+        <v>3296400</v>
       </c>
       <c r="H94" s="3">
-        <v>-5376100</v>
+        <v>-5598200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2242200</v>
+        <v>-2334800</v>
       </c>
       <c r="J94" s="3">
-        <v>-5727900</v>
+        <v>-5964500</v>
       </c>
       <c r="K94" s="3">
         <v>-2796700</v>
@@ -3534,25 +3534,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-614100</v>
+        <v>-639400</v>
       </c>
       <c r="E96" s="3">
-        <v>-658800</v>
+        <v>-686000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1205800</v>
+        <v>-1255600</v>
       </c>
       <c r="G96" s="3">
-        <v>-187000</v>
+        <v>-194800</v>
       </c>
       <c r="H96" s="3">
-        <v>-478800</v>
+        <v>-498600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1258700</v>
+        <v>-1310700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1248200</v>
+        <v>-1299700</v>
       </c>
       <c r="K96" s="3">
         <v>-1927100</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2088100</v>
+        <v>2174400</v>
       </c>
       <c r="E100" s="3">
-        <v>263500</v>
+        <v>274400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1164600</v>
+        <v>-1212700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1807000</v>
+        <v>-1881600</v>
       </c>
       <c r="H100" s="3">
-        <v>5037300</v>
+        <v>5245400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2403400</v>
+        <v>-2502700</v>
       </c>
       <c r="J100" s="3">
-        <v>-2588100</v>
+        <v>-2695000</v>
       </c>
       <c r="K100" s="3">
         <v>-2385200</v>
@@ -3714,25 +3714,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-40000</v>
+        <v>-41600</v>
       </c>
       <c r="E101" s="3">
-        <v>17600</v>
+        <v>18400</v>
       </c>
       <c r="F101" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="G101" s="3">
-        <v>-22400</v>
+        <v>-23300</v>
       </c>
       <c r="H101" s="3">
-        <v>-28200</v>
+        <v>-29400</v>
       </c>
       <c r="I101" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="J101" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="K101" s="3">
         <v>-21500</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1837500</v>
+        <v>1913400</v>
       </c>
       <c r="E102" s="3">
-        <v>-2368100</v>
+        <v>-2465900</v>
       </c>
       <c r="F102" s="3">
-        <v>1490500</v>
+        <v>1552100</v>
       </c>
       <c r="G102" s="3">
-        <v>-727000</v>
+        <v>-757000</v>
       </c>
       <c r="H102" s="3">
-        <v>2399900</v>
+        <v>2499000</v>
       </c>
       <c r="I102" s="3">
-        <v>-848200</v>
+        <v>-883200</v>
       </c>
       <c r="J102" s="3">
-        <v>-815200</v>
+        <v>-848900</v>
       </c>
       <c r="K102" s="3">
         <v>1466500</v>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16767700</v>
+        <v>15979500</v>
       </c>
       <c r="E8" s="3">
-        <v>16078000</v>
+        <v>15322300</v>
       </c>
       <c r="F8" s="3">
-        <v>16422200</v>
+        <v>15650300</v>
       </c>
       <c r="G8" s="3">
-        <v>16931800</v>
+        <v>16135900</v>
       </c>
       <c r="H8" s="3">
-        <v>53397300</v>
+        <v>50887400</v>
       </c>
       <c r="I8" s="3">
-        <v>56163300</v>
+        <v>53523400</v>
       </c>
       <c r="J8" s="3">
-        <v>56532100</v>
+        <v>53874800</v>
       </c>
       <c r="K8" s="3">
         <v>59509800</v>
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11906900</v>
+        <v>11347200</v>
       </c>
       <c r="E9" s="3">
-        <v>11001600</v>
+        <v>10484500</v>
       </c>
       <c r="F9" s="3">
-        <v>12192300</v>
+        <v>11619200</v>
       </c>
       <c r="G9" s="3">
-        <v>12209500</v>
+        <v>11635600</v>
       </c>
       <c r="H9" s="3">
-        <v>40588800</v>
+        <v>38681000</v>
       </c>
       <c r="I9" s="3">
-        <v>41035900</v>
+        <v>39107100</v>
       </c>
       <c r="J9" s="3">
-        <v>40923200</v>
+        <v>38999700</v>
       </c>
       <c r="K9" s="3">
         <v>42205500</v>
@@ -795,25 +795,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4860800</v>
+        <v>4632300</v>
       </c>
       <c r="E10" s="3">
-        <v>5076400</v>
+        <v>4837700</v>
       </c>
       <c r="F10" s="3">
-        <v>4229900</v>
+        <v>4031100</v>
       </c>
       <c r="G10" s="3">
-        <v>4722300</v>
+        <v>4500400</v>
       </c>
       <c r="H10" s="3">
-        <v>12808500</v>
+        <v>12206400</v>
       </c>
       <c r="I10" s="3">
-        <v>15127400</v>
+        <v>14416300</v>
       </c>
       <c r="J10" s="3">
-        <v>15608800</v>
+        <v>14875100</v>
       </c>
       <c r="K10" s="3">
         <v>17304200</v>
@@ -919,25 +919,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2119200</v>
+        <v>2019600</v>
       </c>
       <c r="E14" s="3">
-        <v>2410800</v>
+        <v>2297500</v>
       </c>
       <c r="F14" s="3">
-        <v>57600</v>
+        <v>54900</v>
       </c>
       <c r="G14" s="3">
-        <v>1038800</v>
+        <v>990000</v>
       </c>
       <c r="H14" s="3">
-        <v>5365500</v>
+        <v>5113300</v>
       </c>
       <c r="I14" s="3">
-        <v>3614900</v>
+        <v>3445000</v>
       </c>
       <c r="J14" s="3">
-        <v>1032700</v>
+        <v>984100</v>
       </c>
       <c r="K14" s="3">
         <v>5705900</v>
@@ -955,25 +955,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1744400</v>
+        <v>1662400</v>
       </c>
       <c r="E15" s="3">
-        <v>1467500</v>
+        <v>1398600</v>
       </c>
       <c r="F15" s="3">
-        <v>2175600</v>
+        <v>2073300</v>
       </c>
       <c r="G15" s="3">
-        <v>1166200</v>
+        <v>1111400</v>
       </c>
       <c r="H15" s="3">
-        <v>2777100</v>
+        <v>2646500</v>
       </c>
       <c r="I15" s="3">
-        <v>2954700</v>
+        <v>2815800</v>
       </c>
       <c r="J15" s="3">
-        <v>2783200</v>
+        <v>2652400</v>
       </c>
       <c r="K15" s="3">
         <v>2997700</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15131100</v>
+        <v>14419800</v>
       </c>
       <c r="E17" s="3">
-        <v>16253200</v>
+        <v>15489200</v>
       </c>
       <c r="F17" s="3">
-        <v>16068200</v>
+        <v>15312900</v>
       </c>
       <c r="G17" s="3">
-        <v>14528400</v>
+        <v>13845500</v>
       </c>
       <c r="H17" s="3">
-        <v>58443000</v>
+        <v>55696000</v>
       </c>
       <c r="I17" s="3">
-        <v>55590000</v>
+        <v>52977100</v>
       </c>
       <c r="J17" s="3">
-        <v>52183300</v>
+        <v>49730500</v>
       </c>
       <c r="K17" s="3">
         <v>59888900</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1636600</v>
+        <v>1559700</v>
       </c>
       <c r="E18" s="3">
-        <v>-175200</v>
+        <v>-166900</v>
       </c>
       <c r="F18" s="3">
-        <v>354000</v>
+        <v>337400</v>
       </c>
       <c r="G18" s="3">
-        <v>2403400</v>
+        <v>2290500</v>
       </c>
       <c r="H18" s="3">
-        <v>-5045700</v>
+        <v>-4808600</v>
       </c>
       <c r="I18" s="3">
-        <v>573300</v>
+        <v>546300</v>
       </c>
       <c r="J18" s="3">
-        <v>4348700</v>
+        <v>4144300</v>
       </c>
       <c r="K18" s="3">
         <v>-379200</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>191100</v>
+        <v>182100</v>
       </c>
       <c r="E20" s="3">
-        <v>-430000</v>
+        <v>-409800</v>
       </c>
       <c r="F20" s="3">
-        <v>-73500</v>
+        <v>-70000</v>
       </c>
       <c r="G20" s="3">
-        <v>480200</v>
+        <v>457600</v>
       </c>
       <c r="H20" s="3">
-        <v>-948100</v>
+        <v>-903600</v>
       </c>
       <c r="I20" s="3">
-        <v>-44100</v>
+        <v>-42000</v>
       </c>
       <c r="J20" s="3">
-        <v>-274400</v>
+        <v>-261500</v>
       </c>
       <c r="K20" s="3">
         <v>570600</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5710800</v>
+        <v>5464400</v>
       </c>
       <c r="E21" s="3">
-        <v>2758800</v>
+        <v>2648200</v>
       </c>
       <c r="F21" s="3">
-        <v>1450700</v>
+        <v>1389200</v>
       </c>
       <c r="G21" s="3">
-        <v>4066000</v>
+        <v>3881600</v>
       </c>
       <c r="H21" s="3">
-        <v>2153500</v>
+        <v>2098400</v>
       </c>
       <c r="I21" s="3">
-        <v>7403700</v>
+        <v>7094700</v>
       </c>
       <c r="J21" s="3">
-        <v>7840200</v>
+        <v>7493000</v>
       </c>
       <c r="K21" s="3">
         <v>8901000</v>
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>362600</v>
+        <v>345600</v>
       </c>
       <c r="E22" s="3">
-        <v>316000</v>
+        <v>301200</v>
       </c>
       <c r="F22" s="3">
-        <v>220500</v>
+        <v>210100</v>
       </c>
       <c r="G22" s="3">
-        <v>365000</v>
+        <v>347900</v>
       </c>
       <c r="H22" s="3">
-        <v>1119600</v>
+        <v>1067000</v>
       </c>
       <c r="I22" s="3">
-        <v>1309500</v>
+        <v>1248000</v>
       </c>
       <c r="J22" s="3">
-        <v>1323000</v>
+        <v>1260800</v>
       </c>
       <c r="K22" s="3">
         <v>2602900</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1465100</v>
+        <v>1396200</v>
       </c>
       <c r="E23" s="3">
-        <v>-921200</v>
+        <v>-877900</v>
       </c>
       <c r="F23" s="3">
-        <v>60000</v>
+        <v>57200</v>
       </c>
       <c r="G23" s="3">
-        <v>2518600</v>
+        <v>2400200</v>
       </c>
       <c r="H23" s="3">
-        <v>-7113500</v>
+        <v>-6779100</v>
       </c>
       <c r="I23" s="3">
-        <v>-780300</v>
+        <v>-743600</v>
       </c>
       <c r="J23" s="3">
-        <v>2751300</v>
+        <v>2622000</v>
       </c>
       <c r="K23" s="3">
         <v>-2411500</v>
@@ -1236,25 +1236,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>444700</v>
+        <v>423800</v>
       </c>
       <c r="E24" s="3">
-        <v>-112700</v>
+        <v>-107400</v>
       </c>
       <c r="F24" s="3">
-        <v>126200</v>
+        <v>120200</v>
       </c>
       <c r="G24" s="3">
-        <v>407900</v>
+        <v>388700</v>
       </c>
       <c r="H24" s="3">
-        <v>-395700</v>
+        <v>-377100</v>
       </c>
       <c r="I24" s="3">
-        <v>738700</v>
+        <v>703900</v>
       </c>
       <c r="J24" s="3">
-        <v>677400</v>
+        <v>645600</v>
       </c>
       <c r="K24" s="3">
         <v>884000</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1020400</v>
+        <v>972500</v>
       </c>
       <c r="E26" s="3">
-        <v>-808500</v>
+        <v>-770500</v>
       </c>
       <c r="F26" s="3">
-        <v>-66100</v>
+        <v>-63000</v>
       </c>
       <c r="G26" s="3">
-        <v>2110700</v>
+        <v>2011400</v>
       </c>
       <c r="H26" s="3">
-        <v>-6717800</v>
+        <v>-6402100</v>
       </c>
       <c r="I26" s="3">
-        <v>-1519000</v>
+        <v>-1447600</v>
       </c>
       <c r="J26" s="3">
-        <v>2073900</v>
+        <v>1976400</v>
       </c>
       <c r="K26" s="3">
         <v>-3295500</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>948100</v>
+        <v>903600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1614500</v>
+        <v>-1538600</v>
       </c>
       <c r="F27" s="3">
-        <v>-970200</v>
+        <v>-924600</v>
       </c>
       <c r="G27" s="3">
-        <v>1602300</v>
+        <v>1527000</v>
       </c>
       <c r="H27" s="3">
-        <v>-6994700</v>
+        <v>-6665900</v>
       </c>
       <c r="I27" s="3">
-        <v>-2075100</v>
+        <v>-1977600</v>
       </c>
       <c r="J27" s="3">
-        <v>1641500</v>
+        <v>1564300</v>
       </c>
       <c r="K27" s="3">
         <v>-3671100</v>
@@ -1416,25 +1416,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>270700</v>
+        <v>258000</v>
       </c>
       <c r="E29" s="3">
-        <v>12024500</v>
+        <v>11459300</v>
       </c>
       <c r="F29" s="3">
-        <v>1380600</v>
+        <v>1315700</v>
       </c>
       <c r="G29" s="3">
-        <v>725200</v>
+        <v>691100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>1866900</v>
+        <v>1779100</v>
       </c>
       <c r="J29" s="3">
-        <v>445900</v>
+        <v>424900</v>
       </c>
       <c r="K29" s="3">
         <v>373200</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-191100</v>
+        <v>-182100</v>
       </c>
       <c r="E32" s="3">
-        <v>430000</v>
+        <v>409800</v>
       </c>
       <c r="F32" s="3">
-        <v>73500</v>
+        <v>70000</v>
       </c>
       <c r="G32" s="3">
-        <v>-480200</v>
+        <v>-457600</v>
       </c>
       <c r="H32" s="3">
-        <v>948100</v>
+        <v>903600</v>
       </c>
       <c r="I32" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="J32" s="3">
-        <v>274400</v>
+        <v>261500</v>
       </c>
       <c r="K32" s="3">
         <v>-570600</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1218900</v>
+        <v>1161600</v>
       </c>
       <c r="E33" s="3">
-        <v>10410000</v>
+        <v>9920700</v>
       </c>
       <c r="F33" s="3">
-        <v>410400</v>
+        <v>391100</v>
       </c>
       <c r="G33" s="3">
-        <v>2327500</v>
+        <v>2218100</v>
       </c>
       <c r="H33" s="3">
-        <v>-6994700</v>
+        <v>-6665900</v>
       </c>
       <c r="I33" s="3">
-        <v>-208200</v>
+        <v>-198500</v>
       </c>
       <c r="J33" s="3">
-        <v>2087400</v>
+        <v>1989300</v>
       </c>
       <c r="K33" s="3">
         <v>-3297900</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1218900</v>
+        <v>1161600</v>
       </c>
       <c r="E35" s="3">
-        <v>10410000</v>
+        <v>9920700</v>
       </c>
       <c r="F35" s="3">
-        <v>410400</v>
+        <v>391100</v>
       </c>
       <c r="G35" s="3">
-        <v>2327500</v>
+        <v>2218100</v>
       </c>
       <c r="H35" s="3">
-        <v>-6994700</v>
+        <v>-6665900</v>
       </c>
       <c r="I35" s="3">
-        <v>-208200</v>
+        <v>-198500</v>
       </c>
       <c r="J35" s="3">
-        <v>2087400</v>
+        <v>1989300</v>
       </c>
       <c r="K35" s="3">
         <v>-3297900</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5848100</v>
+        <v>5573200</v>
       </c>
       <c r="E41" s="3">
-        <v>7820300</v>
+        <v>7452700</v>
       </c>
       <c r="F41" s="3">
-        <v>4315600</v>
+        <v>4112800</v>
       </c>
       <c r="G41" s="3">
-        <v>4817900</v>
+        <v>4591400</v>
       </c>
       <c r="H41" s="3">
-        <v>5605600</v>
+        <v>5342100</v>
       </c>
       <c r="I41" s="3">
-        <v>3089400</v>
+        <v>2944200</v>
       </c>
       <c r="J41" s="3">
-        <v>3884400</v>
+        <v>3701900</v>
       </c>
       <c r="K41" s="3">
         <v>9450000</v>
@@ -1777,25 +1777,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5168200</v>
+        <v>4925300</v>
       </c>
       <c r="E42" s="3">
-        <v>3991000</v>
+        <v>3803400</v>
       </c>
       <c r="F42" s="3">
-        <v>4421000</v>
+        <v>4213200</v>
       </c>
       <c r="G42" s="3">
-        <v>5993900</v>
+        <v>5712100</v>
       </c>
       <c r="H42" s="3">
-        <v>12035500</v>
+        <v>11469800</v>
       </c>
       <c r="I42" s="3">
-        <v>9110300</v>
+        <v>8682000</v>
       </c>
       <c r="J42" s="3">
-        <v>5402200</v>
+        <v>5148300</v>
       </c>
       <c r="K42" s="3">
         <v>3364900</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10686800</v>
+        <v>10184500</v>
       </c>
       <c r="E43" s="3">
-        <v>12001200</v>
+        <v>11437100</v>
       </c>
       <c r="F43" s="3">
-        <v>5936300</v>
+        <v>5657300</v>
       </c>
       <c r="G43" s="3">
-        <v>9303800</v>
+        <v>8866500</v>
       </c>
       <c r="H43" s="3">
-        <v>8212300</v>
+        <v>7826300</v>
       </c>
       <c r="I43" s="3">
-        <v>8371600</v>
+        <v>7978100</v>
       </c>
       <c r="J43" s="3">
-        <v>10482200</v>
+        <v>9989500</v>
       </c>
       <c r="K43" s="3">
         <v>20488500</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3998400</v>
+        <v>3810400</v>
       </c>
       <c r="E44" s="3">
-        <v>3883200</v>
+        <v>3700700</v>
       </c>
       <c r="F44" s="3">
-        <v>1998000</v>
+        <v>1904000</v>
       </c>
       <c r="G44" s="3">
-        <v>2356900</v>
+        <v>2246100</v>
       </c>
       <c r="H44" s="3">
-        <v>2410800</v>
+        <v>2297500</v>
       </c>
       <c r="I44" s="3">
-        <v>2399800</v>
+        <v>2287000</v>
       </c>
       <c r="J44" s="3">
-        <v>2734200</v>
+        <v>2605700</v>
       </c>
       <c r="K44" s="3">
         <v>5710700</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28679500</v>
+        <v>27331400</v>
       </c>
       <c r="E45" s="3">
-        <v>35942400</v>
+        <v>34253000</v>
       </c>
       <c r="F45" s="3">
-        <v>58681900</v>
+        <v>55923600</v>
       </c>
       <c r="G45" s="3">
-        <v>6149400</v>
+        <v>5860400</v>
       </c>
       <c r="H45" s="3">
-        <v>9087000</v>
+        <v>8659800</v>
       </c>
       <c r="I45" s="3">
-        <v>11182900</v>
+        <v>10657300</v>
       </c>
       <c r="J45" s="3">
-        <v>16809300</v>
+        <v>16019200</v>
       </c>
       <c r="K45" s="3">
         <v>16431000</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>33349100</v>
+        <v>31781600</v>
       </c>
       <c r="E46" s="3">
-        <v>34594900</v>
+        <v>32968800</v>
       </c>
       <c r="F46" s="3">
-        <v>75352800</v>
+        <v>71810900</v>
       </c>
       <c r="G46" s="3">
-        <v>28621900</v>
+        <v>27276500</v>
       </c>
       <c r="H46" s="3">
-        <v>37351200</v>
+        <v>35595500</v>
       </c>
       <c r="I46" s="3">
-        <v>34153900</v>
+        <v>32548600</v>
       </c>
       <c r="J46" s="3">
-        <v>39312400</v>
+        <v>37464500</v>
       </c>
       <c r="K46" s="3">
         <v>29278200</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9546300</v>
+        <v>9097600</v>
       </c>
       <c r="E47" s="3">
-        <v>9812200</v>
+        <v>9351000</v>
       </c>
       <c r="F47" s="3">
-        <v>2723200</v>
+        <v>2595200</v>
       </c>
       <c r="G47" s="3">
-        <v>5573700</v>
+        <v>5311700</v>
       </c>
       <c r="H47" s="3">
-        <v>5616600</v>
+        <v>5352600</v>
       </c>
       <c r="I47" s="3">
-        <v>5552900</v>
+        <v>5291900</v>
       </c>
       <c r="J47" s="3">
-        <v>6216800</v>
+        <v>5924600</v>
       </c>
       <c r="K47" s="3">
         <v>6894900</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>43859500</v>
+        <v>41797900</v>
       </c>
       <c r="E48" s="3">
-        <v>46525100</v>
+        <v>44338200</v>
       </c>
       <c r="F48" s="3">
-        <v>15200900</v>
+        <v>14486400</v>
       </c>
       <c r="G48" s="3">
-        <v>30559800</v>
+        <v>29123400</v>
       </c>
       <c r="H48" s="3">
-        <v>30034300</v>
+        <v>28622600</v>
       </c>
       <c r="I48" s="3">
-        <v>36050200</v>
+        <v>34355700</v>
       </c>
       <c r="J48" s="3">
-        <v>38148600</v>
+        <v>36355500</v>
       </c>
       <c r="K48" s="3">
         <v>89657600</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12024500</v>
+        <v>11459300</v>
       </c>
       <c r="E49" s="3">
-        <v>11800300</v>
+        <v>11245700</v>
       </c>
       <c r="F49" s="3">
-        <v>2675400</v>
+        <v>2549600</v>
       </c>
       <c r="G49" s="3">
-        <v>15131100</v>
+        <v>14419800</v>
       </c>
       <c r="H49" s="3">
-        <v>15610000</v>
+        <v>14876300</v>
       </c>
       <c r="I49" s="3">
-        <v>16180900</v>
+        <v>15420300</v>
       </c>
       <c r="J49" s="3">
-        <v>15675000</v>
+        <v>14938200</v>
       </c>
       <c r="K49" s="3">
         <v>45685300</v>
@@ -2137,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9247400</v>
+        <v>8812800</v>
       </c>
       <c r="E52" s="3">
-        <v>9358900</v>
+        <v>8919000</v>
       </c>
       <c r="F52" s="3">
-        <v>2179300</v>
+        <v>2076800</v>
       </c>
       <c r="G52" s="3">
-        <v>4710100</v>
+        <v>4488700</v>
       </c>
       <c r="H52" s="3">
-        <v>4979600</v>
+        <v>4745500</v>
       </c>
       <c r="I52" s="3">
-        <v>5245400</v>
+        <v>4998800</v>
       </c>
       <c r="J52" s="3">
-        <v>6383400</v>
+        <v>6083400</v>
       </c>
       <c r="K52" s="3">
         <v>7292000</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75536600</v>
+        <v>71986000</v>
       </c>
       <c r="E54" s="3">
-        <v>78410400</v>
+        <v>74724700</v>
       </c>
       <c r="F54" s="3">
-        <v>98131500</v>
+        <v>93518900</v>
       </c>
       <c r="G54" s="3">
-        <v>84596600</v>
+        <v>80620200</v>
       </c>
       <c r="H54" s="3">
-        <v>93591700</v>
+        <v>89192500</v>
       </c>
       <c r="I54" s="3">
-        <v>97183400</v>
+        <v>92615300</v>
       </c>
       <c r="J54" s="3">
-        <v>105736000</v>
+        <v>100766000</v>
       </c>
       <c r="K54" s="3">
         <v>97348000</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2924100</v>
+        <v>2786600</v>
       </c>
       <c r="E57" s="3">
-        <v>3659000</v>
+        <v>3487100</v>
       </c>
       <c r="F57" s="3">
-        <v>2975500</v>
+        <v>2835600</v>
       </c>
       <c r="G57" s="3">
-        <v>6219300</v>
+        <v>5926900</v>
       </c>
       <c r="H57" s="3">
-        <v>6652900</v>
+        <v>6340200</v>
       </c>
       <c r="I57" s="3">
-        <v>7499400</v>
+        <v>7146900</v>
       </c>
       <c r="J57" s="3">
-        <v>7728500</v>
+        <v>7365200</v>
       </c>
       <c r="K57" s="3">
         <v>7703500</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1629200</v>
+        <v>1653100</v>
       </c>
       <c r="E58" s="3">
-        <v>2548000</v>
+        <v>2525100</v>
       </c>
       <c r="F58" s="3">
-        <v>111500</v>
+        <v>106200</v>
       </c>
       <c r="G58" s="3">
-        <v>2104500</v>
+        <v>2005600</v>
       </c>
       <c r="H58" s="3">
-        <v>1081700</v>
+        <v>1030800</v>
       </c>
       <c r="I58" s="3">
-        <v>1503100</v>
+        <v>1432400</v>
       </c>
       <c r="J58" s="3">
-        <v>2685200</v>
+        <v>2559000</v>
       </c>
       <c r="K58" s="3">
         <v>3765600</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28506700</v>
+        <v>27066400</v>
       </c>
       <c r="E59" s="3">
-        <v>34310700</v>
+        <v>34257600</v>
       </c>
       <c r="F59" s="3">
-        <v>53071500</v>
+        <v>50576900</v>
       </c>
       <c r="G59" s="3">
-        <v>16536100</v>
+        <v>15758900</v>
       </c>
       <c r="H59" s="3">
-        <v>27503500</v>
+        <v>26210700</v>
       </c>
       <c r="I59" s="3">
-        <v>21775400</v>
+        <v>20751900</v>
       </c>
       <c r="J59" s="3">
-        <v>24155600</v>
+        <v>23020200</v>
       </c>
       <c r="K59" s="3">
         <v>34417100</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20213600</v>
+        <v>19263400</v>
       </c>
       <c r="E60" s="3">
-        <v>24015900</v>
+        <v>22887100</v>
       </c>
       <c r="F60" s="3">
-        <v>56158400</v>
+        <v>53518700</v>
       </c>
       <c r="G60" s="3">
-        <v>24859900</v>
+        <v>23691400</v>
       </c>
       <c r="H60" s="3">
-        <v>35238100</v>
+        <v>33581700</v>
       </c>
       <c r="I60" s="3">
-        <v>30777900</v>
+        <v>29331200</v>
       </c>
       <c r="J60" s="3">
-        <v>34569200</v>
+        <v>32944300</v>
       </c>
       <c r="K60" s="3">
         <v>26150100</v>
@@ -2421,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4839900</v>
+        <v>4612400</v>
       </c>
       <c r="E61" s="3">
-        <v>2541900</v>
+        <v>3622500</v>
       </c>
       <c r="F61" s="3">
-        <v>2213600</v>
+        <v>2109500</v>
       </c>
       <c r="G61" s="3">
-        <v>16695400</v>
+        <v>15910600</v>
       </c>
       <c r="H61" s="3">
-        <v>18730100</v>
+        <v>17849700</v>
       </c>
       <c r="I61" s="3">
-        <v>19647600</v>
+        <v>18724100</v>
       </c>
       <c r="J61" s="3">
-        <v>17436500</v>
+        <v>16616900</v>
       </c>
       <c r="K61" s="3">
         <v>18527900</v>
@@ -2457,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57329500</v>
+        <v>53210500</v>
       </c>
       <c r="E62" s="3">
-        <v>55995500</v>
+        <v>54321900</v>
       </c>
       <c r="F62" s="3">
-        <v>22294800</v>
+        <v>21246900</v>
       </c>
       <c r="G62" s="3">
-        <v>28352400</v>
+        <v>27019700</v>
       </c>
       <c r="H62" s="3">
-        <v>29835900</v>
+        <v>28433400</v>
       </c>
       <c r="I62" s="3">
-        <v>35862800</v>
+        <v>34177100</v>
       </c>
       <c r="J62" s="3">
-        <v>39309900</v>
+        <v>37462200</v>
       </c>
       <c r="K62" s="3">
         <v>73540000</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54814600</v>
+        <v>52238100</v>
       </c>
       <c r="E66" s="3">
-        <v>57629700</v>
+        <v>54920800</v>
       </c>
       <c r="F66" s="3">
-        <v>87430000</v>
+        <v>83320400</v>
       </c>
       <c r="G66" s="3">
-        <v>76316900</v>
+        <v>72729600</v>
       </c>
       <c r="H66" s="3">
-        <v>90218100</v>
+        <v>85977400</v>
       </c>
       <c r="I66" s="3">
-        <v>90020800</v>
+        <v>85789500</v>
       </c>
       <c r="J66" s="3">
-        <v>96686000</v>
+        <v>92141300</v>
       </c>
       <c r="K66" s="3">
         <v>88091800</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10528800</v>
+        <v>10033900</v>
       </c>
       <c r="E72" s="3">
-        <v>10912200</v>
+        <v>10399300</v>
       </c>
       <c r="F72" s="3">
-        <v>1395300</v>
+        <v>1329700</v>
       </c>
       <c r="G72" s="3">
-        <v>2899600</v>
+        <v>2763300</v>
       </c>
       <c r="H72" s="3">
-        <v>-798700</v>
+        <v>-761200</v>
       </c>
       <c r="I72" s="3">
-        <v>4424700</v>
+        <v>4216700</v>
       </c>
       <c r="J72" s="3">
-        <v>6134700</v>
+        <v>5846400</v>
       </c>
       <c r="K72" s="3">
         <v>8908100</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20721900</v>
+        <v>19747900</v>
       </c>
       <c r="E76" s="3">
-        <v>20780700</v>
+        <v>19803900</v>
       </c>
       <c r="F76" s="3">
-        <v>10701500</v>
+        <v>10198500</v>
       </c>
       <c r="G76" s="3">
-        <v>8279700</v>
+        <v>7890500</v>
       </c>
       <c r="H76" s="3">
-        <v>3373600</v>
+        <v>3215000</v>
       </c>
       <c r="I76" s="3">
-        <v>7162500</v>
+        <v>6825800</v>
       </c>
       <c r="J76" s="3">
-        <v>9050200</v>
+        <v>8624800</v>
       </c>
       <c r="K76" s="3">
         <v>9256200</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1218900</v>
+        <v>1161600</v>
       </c>
       <c r="E81" s="3">
-        <v>10410000</v>
+        <v>9920700</v>
       </c>
       <c r="F81" s="3">
-        <v>410400</v>
+        <v>391100</v>
       </c>
       <c r="G81" s="3">
-        <v>2327500</v>
+        <v>2218100</v>
       </c>
       <c r="H81" s="3">
-        <v>-6994700</v>
+        <v>-6665900</v>
       </c>
       <c r="I81" s="3">
-        <v>-208200</v>
+        <v>-198500</v>
       </c>
       <c r="J81" s="3">
-        <v>2087400</v>
+        <v>1989300</v>
       </c>
       <c r="K81" s="3">
         <v>-3297900</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3894200</v>
+        <v>3711200</v>
       </c>
       <c r="E83" s="3">
-        <v>3373600</v>
+        <v>3215000</v>
       </c>
       <c r="F83" s="3">
-        <v>1173500</v>
+        <v>1118400</v>
       </c>
       <c r="G83" s="3">
-        <v>1185800</v>
+        <v>1130100</v>
       </c>
       <c r="H83" s="3">
-        <v>8170700</v>
+        <v>7786600</v>
       </c>
       <c r="I83" s="3">
-        <v>6894200</v>
+        <v>6570200</v>
       </c>
       <c r="J83" s="3">
-        <v>3776600</v>
+        <v>3599100</v>
       </c>
       <c r="K83" s="3">
         <v>8745400</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5114300</v>
+        <v>4873900</v>
       </c>
       <c r="E89" s="3">
-        <v>-1865700</v>
+        <v>-1778000</v>
       </c>
       <c r="F89" s="3">
-        <v>8143700</v>
+        <v>7760900</v>
       </c>
       <c r="G89" s="3">
-        <v>-2148600</v>
+        <v>-2047600</v>
       </c>
       <c r="H89" s="3">
-        <v>2881200</v>
+        <v>2745700</v>
       </c>
       <c r="I89" s="3">
-        <v>3937100</v>
+        <v>3752100</v>
       </c>
       <c r="J89" s="3">
-        <v>7800700</v>
+        <v>7434100</v>
       </c>
       <c r="K89" s="3">
         <v>6670000</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4113500</v>
+        <v>-3920200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2169500</v>
+        <v>-2067500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1526300</v>
+        <v>-1454600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3842800</v>
+        <v>-3662200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2827300</v>
+        <v>-2694400</v>
       </c>
       <c r="I91" s="3">
-        <v>-3886900</v>
+        <v>-3704200</v>
       </c>
       <c r="J91" s="3">
-        <v>-4103700</v>
+        <v>-3910800</v>
       </c>
       <c r="K91" s="3">
         <v>-4696300</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5333600</v>
+        <v>-5082900</v>
       </c>
       <c r="E94" s="3">
-        <v>-893000</v>
+        <v>-851000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5394900</v>
+        <v>-5141300</v>
       </c>
       <c r="G94" s="3">
-        <v>3296400</v>
+        <v>3141500</v>
       </c>
       <c r="H94" s="3">
-        <v>-5598200</v>
+        <v>-5335100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2334800</v>
+        <v>-2225100</v>
       </c>
       <c r="J94" s="3">
-        <v>-5964500</v>
+        <v>-5684100</v>
       </c>
       <c r="K94" s="3">
         <v>-2796700</v>
@@ -3534,25 +3534,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-639400</v>
+        <v>-609400</v>
       </c>
       <c r="E96" s="3">
-        <v>-686000</v>
+        <v>-653700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1255600</v>
+        <v>-1196600</v>
       </c>
       <c r="G96" s="3">
-        <v>-194800</v>
+        <v>-185600</v>
       </c>
       <c r="H96" s="3">
-        <v>-498600</v>
+        <v>-475100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1310700</v>
+        <v>-1249100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1299700</v>
+        <v>-1238600</v>
       </c>
       <c r="K96" s="3">
         <v>-1927100</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2174400</v>
+        <v>2072200</v>
       </c>
       <c r="E100" s="3">
-        <v>274400</v>
+        <v>261500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1212700</v>
+        <v>-1155700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1881600</v>
+        <v>-1793100</v>
       </c>
       <c r="H100" s="3">
-        <v>5245400</v>
+        <v>4998800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2502700</v>
+        <v>-2385000</v>
       </c>
       <c r="J100" s="3">
-        <v>-2695000</v>
+        <v>-2568300</v>
       </c>
       <c r="K100" s="3">
         <v>-2385200</v>
@@ -3714,25 +3714,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-41600</v>
+        <v>-39700</v>
       </c>
       <c r="E101" s="3">
-        <v>18400</v>
+        <v>17500</v>
       </c>
       <c r="F101" s="3">
-        <v>15900</v>
+        <v>15200</v>
       </c>
       <c r="G101" s="3">
-        <v>-23300</v>
+        <v>-22200</v>
       </c>
       <c r="H101" s="3">
-        <v>-29400</v>
+        <v>-28000</v>
       </c>
       <c r="I101" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="J101" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="K101" s="3">
         <v>-21500</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1913400</v>
+        <v>1823500</v>
       </c>
       <c r="E102" s="3">
-        <v>-2465900</v>
+        <v>-2350000</v>
       </c>
       <c r="F102" s="3">
-        <v>1552100</v>
+        <v>1479100</v>
       </c>
       <c r="G102" s="3">
-        <v>-757000</v>
+        <v>-721500</v>
       </c>
       <c r="H102" s="3">
-        <v>2499000</v>
+        <v>2381500</v>
       </c>
       <c r="I102" s="3">
-        <v>-883200</v>
+        <v>-841700</v>
       </c>
       <c r="J102" s="3">
-        <v>-848900</v>
+        <v>-809000</v>
       </c>
       <c r="K102" s="3">
         <v>1466500</v>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -665,9 +665,7 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -723,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15979500</v>
+        <v>15455100</v>
       </c>
       <c r="E8" s="3">
-        <v>15322300</v>
+        <v>14819400</v>
       </c>
       <c r="F8" s="3">
-        <v>15650300</v>
+        <v>15136700</v>
       </c>
       <c r="G8" s="3">
-        <v>16135900</v>
+        <v>15606400</v>
       </c>
       <c r="H8" s="3">
-        <v>50887400</v>
+        <v>49217500</v>
       </c>
       <c r="I8" s="3">
-        <v>53523400</v>
+        <v>51767000</v>
       </c>
       <c r="J8" s="3">
-        <v>53874800</v>
+        <v>52106800</v>
       </c>
       <c r="K8" s="3">
         <v>59509800</v>
@@ -759,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11347200</v>
+        <v>10974900</v>
       </c>
       <c r="E9" s="3">
-        <v>10484500</v>
+        <v>10140400</v>
       </c>
       <c r="F9" s="3">
-        <v>11619200</v>
+        <v>11237900</v>
       </c>
       <c r="G9" s="3">
-        <v>11635600</v>
+        <v>11253700</v>
       </c>
       <c r="H9" s="3">
-        <v>38681000</v>
+        <v>37411600</v>
       </c>
       <c r="I9" s="3">
-        <v>39107100</v>
+        <v>37823700</v>
       </c>
       <c r="J9" s="3">
-        <v>38999700</v>
+        <v>37719800</v>
       </c>
       <c r="K9" s="3">
         <v>42205500</v>
@@ -795,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4632300</v>
+        <v>4480300</v>
       </c>
       <c r="E10" s="3">
-        <v>4837700</v>
+        <v>4679000</v>
       </c>
       <c r="F10" s="3">
-        <v>4031100</v>
+        <v>3898800</v>
       </c>
       <c r="G10" s="3">
-        <v>4500400</v>
+        <v>4352700</v>
       </c>
       <c r="H10" s="3">
-        <v>12206400</v>
+        <v>11805900</v>
       </c>
       <c r="I10" s="3">
-        <v>14416300</v>
+        <v>13943300</v>
       </c>
       <c r="J10" s="3">
-        <v>14875100</v>
+        <v>14387000</v>
       </c>
       <c r="K10" s="3">
         <v>17304200</v>
@@ -919,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2019600</v>
+        <v>1953300</v>
       </c>
       <c r="E14" s="3">
-        <v>2297500</v>
+        <v>2222100</v>
       </c>
       <c r="F14" s="3">
-        <v>54900</v>
+        <v>53100</v>
       </c>
       <c r="G14" s="3">
-        <v>990000</v>
+        <v>957500</v>
       </c>
       <c r="H14" s="3">
-        <v>5113300</v>
+        <v>4945500</v>
       </c>
       <c r="I14" s="3">
-        <v>3445000</v>
+        <v>3332000</v>
       </c>
       <c r="J14" s="3">
-        <v>984100</v>
+        <v>951800</v>
       </c>
       <c r="K14" s="3">
         <v>5705900</v>
@@ -955,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1662400</v>
+        <v>1607800</v>
       </c>
       <c r="E15" s="3">
-        <v>1398600</v>
+        <v>1352700</v>
       </c>
       <c r="F15" s="3">
-        <v>2073300</v>
+        <v>1017300</v>
       </c>
       <c r="G15" s="3">
-        <v>1111400</v>
+        <v>1074900</v>
       </c>
       <c r="H15" s="3">
-        <v>2646500</v>
+        <v>2559700</v>
       </c>
       <c r="I15" s="3">
-        <v>2815800</v>
+        <v>2723400</v>
       </c>
       <c r="J15" s="3">
-        <v>2652400</v>
+        <v>2565300</v>
       </c>
       <c r="K15" s="3">
         <v>2997700</v>
@@ -1004,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14419800</v>
+        <v>13946600</v>
       </c>
       <c r="E17" s="3">
-        <v>15489200</v>
+        <v>14980900</v>
       </c>
       <c r="F17" s="3">
-        <v>15312900</v>
+        <v>14810400</v>
       </c>
       <c r="G17" s="3">
-        <v>13845500</v>
+        <v>13391100</v>
       </c>
       <c r="H17" s="3">
-        <v>55696000</v>
+        <v>53868200</v>
       </c>
       <c r="I17" s="3">
-        <v>52977100</v>
+        <v>51238600</v>
       </c>
       <c r="J17" s="3">
-        <v>49730500</v>
+        <v>48098500</v>
       </c>
       <c r="K17" s="3">
         <v>59888900</v>
@@ -1040,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1559700</v>
+        <v>1508500</v>
       </c>
       <c r="E18" s="3">
-        <v>-166900</v>
+        <v>-161500</v>
       </c>
       <c r="F18" s="3">
-        <v>337400</v>
+        <v>326300</v>
       </c>
       <c r="G18" s="3">
-        <v>2290500</v>
+        <v>2215300</v>
       </c>
       <c r="H18" s="3">
-        <v>-4808600</v>
+        <v>-4650800</v>
       </c>
       <c r="I18" s="3">
-        <v>546300</v>
+        <v>528400</v>
       </c>
       <c r="J18" s="3">
-        <v>4144300</v>
+        <v>4008300</v>
       </c>
       <c r="K18" s="3">
         <v>-379200</v>
@@ -1092,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>182100</v>
+        <v>176100</v>
       </c>
       <c r="E20" s="3">
-        <v>-409800</v>
+        <v>-396300</v>
       </c>
       <c r="F20" s="3">
-        <v>-70000</v>
+        <v>-67700</v>
       </c>
       <c r="G20" s="3">
-        <v>457600</v>
+        <v>442600</v>
       </c>
       <c r="H20" s="3">
-        <v>-903600</v>
+        <v>-873900</v>
       </c>
       <c r="I20" s="3">
-        <v>-42000</v>
+        <v>-40600</v>
       </c>
       <c r="J20" s="3">
-        <v>-261500</v>
+        <v>-252900</v>
       </c>
       <c r="K20" s="3">
         <v>570600</v>
@@ -1128,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5464400</v>
+        <v>5282300</v>
       </c>
       <c r="E21" s="3">
-        <v>2648200</v>
+        <v>2558900</v>
       </c>
       <c r="F21" s="3">
-        <v>1389200</v>
+        <v>1342700</v>
       </c>
       <c r="G21" s="3">
-        <v>3881600</v>
+        <v>3753400</v>
       </c>
       <c r="H21" s="3">
-        <v>2098400</v>
+        <v>2023800</v>
       </c>
       <c r="I21" s="3">
-        <v>7094700</v>
+        <v>6857000</v>
       </c>
       <c r="J21" s="3">
-        <v>7493000</v>
+        <v>7244400</v>
       </c>
       <c r="K21" s="3">
         <v>8901000</v>
@@ -1164,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>345600</v>
+        <v>334200</v>
       </c>
       <c r="E22" s="3">
-        <v>301200</v>
+        <v>291300</v>
       </c>
       <c r="F22" s="3">
-        <v>210100</v>
+        <v>203200</v>
       </c>
       <c r="G22" s="3">
-        <v>347900</v>
+        <v>336500</v>
       </c>
       <c r="H22" s="3">
-        <v>1067000</v>
+        <v>1032000</v>
       </c>
       <c r="I22" s="3">
-        <v>1248000</v>
+        <v>1207000</v>
       </c>
       <c r="J22" s="3">
-        <v>1260800</v>
+        <v>1219400</v>
       </c>
       <c r="K22" s="3">
         <v>2602900</v>
@@ -1200,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1396200</v>
+        <v>1350400</v>
       </c>
       <c r="E23" s="3">
-        <v>-877900</v>
+        <v>-849100</v>
       </c>
       <c r="F23" s="3">
-        <v>57200</v>
+        <v>55300</v>
       </c>
       <c r="G23" s="3">
-        <v>2400200</v>
+        <v>2321400</v>
       </c>
       <c r="H23" s="3">
-        <v>-6779100</v>
+        <v>-6556700</v>
       </c>
       <c r="I23" s="3">
-        <v>-743600</v>
+        <v>-719200</v>
       </c>
       <c r="J23" s="3">
-        <v>2622000</v>
+        <v>2536000</v>
       </c>
       <c r="K23" s="3">
         <v>-2411500</v>
@@ -1236,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>423800</v>
+        <v>409900</v>
       </c>
       <c r="E24" s="3">
-        <v>-107400</v>
+        <v>-103900</v>
       </c>
       <c r="F24" s="3">
-        <v>120200</v>
+        <v>116300</v>
       </c>
       <c r="G24" s="3">
-        <v>388700</v>
+        <v>376000</v>
       </c>
       <c r="H24" s="3">
-        <v>-377100</v>
+        <v>-364700</v>
       </c>
       <c r="I24" s="3">
-        <v>703900</v>
+        <v>680800</v>
       </c>
       <c r="J24" s="3">
-        <v>645600</v>
+        <v>624400</v>
       </c>
       <c r="K24" s="3">
         <v>884000</v>
@@ -1308,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>972500</v>
+        <v>940500</v>
       </c>
       <c r="E26" s="3">
-        <v>-770500</v>
+        <v>-745200</v>
       </c>
       <c r="F26" s="3">
-        <v>-63000</v>
+        <v>-61000</v>
       </c>
       <c r="G26" s="3">
-        <v>2011400</v>
+        <v>1945400</v>
       </c>
       <c r="H26" s="3">
-        <v>-6402100</v>
+        <v>-6192000</v>
       </c>
       <c r="I26" s="3">
-        <v>-1447600</v>
+        <v>-1400100</v>
       </c>
       <c r="J26" s="3">
-        <v>1976400</v>
+        <v>1911600</v>
       </c>
       <c r="K26" s="3">
         <v>-3295500</v>
@@ -1344,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>903600</v>
+        <v>873900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1538600</v>
+        <v>-1488200</v>
       </c>
       <c r="F27" s="3">
-        <v>-924600</v>
+        <v>-894200</v>
       </c>
       <c r="G27" s="3">
-        <v>1527000</v>
+        <v>1476900</v>
       </c>
       <c r="H27" s="3">
-        <v>-6665900</v>
+        <v>-6447200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1977600</v>
+        <v>-1912700</v>
       </c>
       <c r="J27" s="3">
-        <v>1564300</v>
+        <v>1513000</v>
       </c>
       <c r="K27" s="3">
         <v>-3671100</v>
@@ -1416,25 +1414,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>258000</v>
+        <v>249500</v>
       </c>
       <c r="E29" s="3">
-        <v>11459300</v>
+        <v>11083200</v>
       </c>
       <c r="F29" s="3">
-        <v>1315700</v>
+        <v>1272500</v>
       </c>
       <c r="G29" s="3">
-        <v>691100</v>
+        <v>668400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>1779100</v>
+        <v>1720700</v>
       </c>
       <c r="J29" s="3">
-        <v>424900</v>
+        <v>411000</v>
       </c>
       <c r="K29" s="3">
         <v>373200</v>
@@ -1524,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-182100</v>
+        <v>-176100</v>
       </c>
       <c r="E32" s="3">
-        <v>409800</v>
+        <v>396300</v>
       </c>
       <c r="F32" s="3">
-        <v>70000</v>
+        <v>67700</v>
       </c>
       <c r="G32" s="3">
-        <v>-457600</v>
+        <v>-442600</v>
       </c>
       <c r="H32" s="3">
-        <v>903600</v>
+        <v>873900</v>
       </c>
       <c r="I32" s="3">
-        <v>42000</v>
+        <v>40600</v>
       </c>
       <c r="J32" s="3">
-        <v>261500</v>
+        <v>252900</v>
       </c>
       <c r="K32" s="3">
         <v>-570600</v>
@@ -1560,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1161600</v>
+        <v>1123500</v>
       </c>
       <c r="E33" s="3">
-        <v>9920700</v>
+        <v>9595100</v>
       </c>
       <c r="F33" s="3">
-        <v>391100</v>
+        <v>378200</v>
       </c>
       <c r="G33" s="3">
-        <v>2218100</v>
+        <v>2145300</v>
       </c>
       <c r="H33" s="3">
-        <v>-6665900</v>
+        <v>-6447200</v>
       </c>
       <c r="I33" s="3">
-        <v>-198500</v>
+        <v>-191900</v>
       </c>
       <c r="J33" s="3">
-        <v>1989300</v>
+        <v>1924000</v>
       </c>
       <c r="K33" s="3">
         <v>-3297900</v>
@@ -1632,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1161600</v>
+        <v>1123500</v>
       </c>
       <c r="E35" s="3">
-        <v>9920700</v>
+        <v>9595100</v>
       </c>
       <c r="F35" s="3">
-        <v>391100</v>
+        <v>378200</v>
       </c>
       <c r="G35" s="3">
-        <v>2218100</v>
+        <v>2145300</v>
       </c>
       <c r="H35" s="3">
-        <v>-6665900</v>
+        <v>-6447200</v>
       </c>
       <c r="I35" s="3">
-        <v>-198500</v>
+        <v>-191900</v>
       </c>
       <c r="J35" s="3">
-        <v>1989300</v>
+        <v>1924000</v>
       </c>
       <c r="K35" s="3">
         <v>-3297900</v>
@@ -1741,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5573200</v>
+        <v>5390300</v>
       </c>
       <c r="E41" s="3">
-        <v>7452700</v>
+        <v>7208200</v>
       </c>
       <c r="F41" s="3">
-        <v>4112800</v>
+        <v>3977800</v>
       </c>
       <c r="G41" s="3">
-        <v>4591400</v>
+        <v>4440800</v>
       </c>
       <c r="H41" s="3">
-        <v>5342100</v>
+        <v>5166800</v>
       </c>
       <c r="I41" s="3">
-        <v>2944200</v>
+        <v>2847600</v>
       </c>
       <c r="J41" s="3">
-        <v>3701900</v>
+        <v>3580400</v>
       </c>
       <c r="K41" s="3">
         <v>9450000</v>
@@ -1777,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4925300</v>
+        <v>4763700</v>
       </c>
       <c r="E42" s="3">
-        <v>3803400</v>
+        <v>3678600</v>
       </c>
       <c r="F42" s="3">
-        <v>4213200</v>
+        <v>4074900</v>
       </c>
       <c r="G42" s="3">
-        <v>5712100</v>
+        <v>5524700</v>
       </c>
       <c r="H42" s="3">
-        <v>11469800</v>
+        <v>11093400</v>
       </c>
       <c r="I42" s="3">
-        <v>8682000</v>
+        <v>8397100</v>
       </c>
       <c r="J42" s="3">
-        <v>5148300</v>
+        <v>4979300</v>
       </c>
       <c r="K42" s="3">
         <v>3364900</v>
@@ -1813,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10184500</v>
+        <v>9850300</v>
       </c>
       <c r="E43" s="3">
-        <v>11437100</v>
+        <v>11061800</v>
       </c>
       <c r="F43" s="3">
-        <v>5657300</v>
+        <v>5471600</v>
       </c>
       <c r="G43" s="3">
-        <v>8866500</v>
+        <v>8575500</v>
       </c>
       <c r="H43" s="3">
-        <v>7826300</v>
+        <v>7569500</v>
       </c>
       <c r="I43" s="3">
-        <v>7978100</v>
+        <v>7716300</v>
       </c>
       <c r="J43" s="3">
-        <v>9989500</v>
+        <v>9661700</v>
       </c>
       <c r="K43" s="3">
         <v>20488500</v>
@@ -1849,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3810400</v>
+        <v>3685400</v>
       </c>
       <c r="E44" s="3">
-        <v>3700700</v>
+        <v>3579200</v>
       </c>
       <c r="F44" s="3">
-        <v>1904000</v>
+        <v>1841600</v>
       </c>
       <c r="G44" s="3">
-        <v>2246100</v>
+        <v>2172400</v>
       </c>
       <c r="H44" s="3">
-        <v>2297500</v>
+        <v>2222100</v>
       </c>
       <c r="I44" s="3">
-        <v>2287000</v>
+        <v>2211900</v>
       </c>
       <c r="J44" s="3">
-        <v>2605700</v>
+        <v>2520200</v>
       </c>
       <c r="K44" s="3">
         <v>5710700</v>
@@ -1885,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27331400</v>
+        <v>26434500</v>
       </c>
       <c r="E45" s="3">
-        <v>34253000</v>
+        <v>33128900</v>
       </c>
       <c r="F45" s="3">
-        <v>55923600</v>
+        <v>54088400</v>
       </c>
       <c r="G45" s="3">
-        <v>5860400</v>
+        <v>5668100</v>
       </c>
       <c r="H45" s="3">
-        <v>8659800</v>
+        <v>8375700</v>
       </c>
       <c r="I45" s="3">
-        <v>10657300</v>
+        <v>10307600</v>
       </c>
       <c r="J45" s="3">
-        <v>16019200</v>
+        <v>15493500</v>
       </c>
       <c r="K45" s="3">
         <v>16431000</v>
@@ -1921,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31781600</v>
+        <v>30738600</v>
       </c>
       <c r="E46" s="3">
-        <v>32968800</v>
+        <v>31886900</v>
       </c>
       <c r="F46" s="3">
-        <v>71810900</v>
+        <v>69454300</v>
       </c>
       <c r="G46" s="3">
-        <v>27276500</v>
+        <v>26381400</v>
       </c>
       <c r="H46" s="3">
-        <v>35595500</v>
+        <v>34427400</v>
       </c>
       <c r="I46" s="3">
-        <v>32548600</v>
+        <v>31480400</v>
       </c>
       <c r="J46" s="3">
-        <v>37464500</v>
+        <v>36235100</v>
       </c>
       <c r="K46" s="3">
         <v>29278200</v>
@@ -1957,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9097600</v>
+        <v>8799100</v>
       </c>
       <c r="E47" s="3">
-        <v>9351000</v>
+        <v>9044100</v>
       </c>
       <c r="F47" s="3">
-        <v>2595200</v>
+        <v>2510000</v>
       </c>
       <c r="G47" s="3">
-        <v>5311700</v>
+        <v>5137400</v>
       </c>
       <c r="H47" s="3">
-        <v>5352600</v>
+        <v>5176900</v>
       </c>
       <c r="I47" s="3">
-        <v>5291900</v>
+        <v>5118200</v>
       </c>
       <c r="J47" s="3">
-        <v>5924600</v>
+        <v>5730200</v>
       </c>
       <c r="K47" s="3">
         <v>6894900</v>
@@ -1993,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41797900</v>
+        <v>40426300</v>
       </c>
       <c r="E48" s="3">
-        <v>44338200</v>
+        <v>42883200</v>
       </c>
       <c r="F48" s="3">
-        <v>14486400</v>
+        <v>14011000</v>
       </c>
       <c r="G48" s="3">
-        <v>29123400</v>
+        <v>28167700</v>
       </c>
       <c r="H48" s="3">
-        <v>28622600</v>
+        <v>27683300</v>
       </c>
       <c r="I48" s="3">
-        <v>34355700</v>
+        <v>33228300</v>
       </c>
       <c r="J48" s="3">
-        <v>36355500</v>
+        <v>35162400</v>
       </c>
       <c r="K48" s="3">
         <v>89657600</v>
@@ -2029,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11459300</v>
+        <v>11083200</v>
       </c>
       <c r="E49" s="3">
-        <v>11245700</v>
+        <v>10876600</v>
       </c>
       <c r="F49" s="3">
-        <v>2549600</v>
+        <v>2466000</v>
       </c>
       <c r="G49" s="3">
-        <v>14419800</v>
+        <v>13946600</v>
       </c>
       <c r="H49" s="3">
-        <v>14876300</v>
+        <v>14388100</v>
       </c>
       <c r="I49" s="3">
-        <v>15420300</v>
+        <v>14914300</v>
       </c>
       <c r="J49" s="3">
-        <v>14938200</v>
+        <v>14448000</v>
       </c>
       <c r="K49" s="3">
         <v>45685300</v>
@@ -2137,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8812800</v>
+        <v>8523600</v>
       </c>
       <c r="E52" s="3">
-        <v>8919000</v>
+        <v>8626300</v>
       </c>
       <c r="F52" s="3">
-        <v>2076800</v>
+        <v>2008700</v>
       </c>
       <c r="G52" s="3">
-        <v>4488700</v>
+        <v>4341400</v>
       </c>
       <c r="H52" s="3">
-        <v>4745500</v>
+        <v>4589800</v>
       </c>
       <c r="I52" s="3">
-        <v>4998800</v>
+        <v>4834800</v>
       </c>
       <c r="J52" s="3">
-        <v>6083400</v>
+        <v>5883700</v>
       </c>
       <c r="K52" s="3">
         <v>7292000</v>
@@ -2209,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>71986000</v>
+        <v>69623700</v>
       </c>
       <c r="E54" s="3">
-        <v>74724700</v>
+        <v>72272600</v>
       </c>
       <c r="F54" s="3">
-        <v>93518900</v>
+        <v>90449900</v>
       </c>
       <c r="G54" s="3">
-        <v>80620200</v>
+        <v>77974500</v>
       </c>
       <c r="H54" s="3">
-        <v>89192500</v>
+        <v>86265500</v>
       </c>
       <c r="I54" s="3">
-        <v>92615300</v>
+        <v>89576000</v>
       </c>
       <c r="J54" s="3">
-        <v>100766000</v>
+        <v>97459400</v>
       </c>
       <c r="K54" s="3">
         <v>97348000</v>
@@ -2277,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2786600</v>
+        <v>2695200</v>
       </c>
       <c r="E57" s="3">
-        <v>3487100</v>
+        <v>3372600</v>
       </c>
       <c r="F57" s="3">
-        <v>2835600</v>
+        <v>2742600</v>
       </c>
       <c r="G57" s="3">
-        <v>5926900</v>
+        <v>5732400</v>
       </c>
       <c r="H57" s="3">
-        <v>6340200</v>
+        <v>6132100</v>
       </c>
       <c r="I57" s="3">
-        <v>7146900</v>
+        <v>6912400</v>
       </c>
       <c r="J57" s="3">
-        <v>7365200</v>
+        <v>7123500</v>
       </c>
       <c r="K57" s="3">
         <v>7703500</v>
@@ -2313,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1653100</v>
+        <v>1598800</v>
       </c>
       <c r="E58" s="3">
-        <v>2525100</v>
+        <v>2442200</v>
       </c>
       <c r="F58" s="3">
-        <v>106200</v>
+        <v>102700</v>
       </c>
       <c r="G58" s="3">
-        <v>2005600</v>
+        <v>1939800</v>
       </c>
       <c r="H58" s="3">
-        <v>1030800</v>
+        <v>997000</v>
       </c>
       <c r="I58" s="3">
-        <v>1432400</v>
+        <v>1385400</v>
       </c>
       <c r="J58" s="3">
-        <v>2559000</v>
+        <v>2475000</v>
       </c>
       <c r="K58" s="3">
         <v>3765600</v>
@@ -2349,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27066400</v>
+        <v>26178200</v>
       </c>
       <c r="E59" s="3">
-        <v>34257600</v>
+        <v>33133400</v>
       </c>
       <c r="F59" s="3">
-        <v>50576900</v>
+        <v>48917100</v>
       </c>
       <c r="G59" s="3">
-        <v>15758900</v>
+        <v>15241700</v>
       </c>
       <c r="H59" s="3">
-        <v>26210700</v>
+        <v>25350600</v>
       </c>
       <c r="I59" s="3">
-        <v>20751900</v>
+        <v>20070900</v>
       </c>
       <c r="J59" s="3">
-        <v>23020200</v>
+        <v>22264700</v>
       </c>
       <c r="K59" s="3">
         <v>34417100</v>
@@ -2385,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19263400</v>
+        <v>18631300</v>
       </c>
       <c r="E60" s="3">
-        <v>22887100</v>
+        <v>22136000</v>
       </c>
       <c r="F60" s="3">
-        <v>53518700</v>
+        <v>51762500</v>
       </c>
       <c r="G60" s="3">
-        <v>23691400</v>
+        <v>22914000</v>
       </c>
       <c r="H60" s="3">
-        <v>33581700</v>
+        <v>32479700</v>
       </c>
       <c r="I60" s="3">
-        <v>29331200</v>
+        <v>28368600</v>
       </c>
       <c r="J60" s="3">
-        <v>32944300</v>
+        <v>31863200</v>
       </c>
       <c r="K60" s="3">
         <v>26150100</v>
@@ -2421,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4612400</v>
+        <v>4461100</v>
       </c>
       <c r="E61" s="3">
-        <v>3622500</v>
+        <v>3503600</v>
       </c>
       <c r="F61" s="3">
-        <v>2109500</v>
+        <v>2040300</v>
       </c>
       <c r="G61" s="3">
-        <v>15910600</v>
+        <v>15388500</v>
       </c>
       <c r="H61" s="3">
-        <v>17849700</v>
+        <v>17263900</v>
       </c>
       <c r="I61" s="3">
-        <v>18724100</v>
+        <v>18109600</v>
       </c>
       <c r="J61" s="3">
-        <v>16616900</v>
+        <v>16071600</v>
       </c>
       <c r="K61" s="3">
         <v>18527900</v>
@@ -2457,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53210500</v>
+        <v>51464400</v>
       </c>
       <c r="E62" s="3">
-        <v>54321900</v>
+        <v>52539300</v>
       </c>
       <c r="F62" s="3">
-        <v>21246900</v>
+        <v>20549600</v>
       </c>
       <c r="G62" s="3">
-        <v>27019700</v>
+        <v>26133000</v>
       </c>
       <c r="H62" s="3">
-        <v>28433400</v>
+        <v>27500400</v>
       </c>
       <c r="I62" s="3">
-        <v>34177100</v>
+        <v>33055500</v>
       </c>
       <c r="J62" s="3">
-        <v>37462200</v>
+        <v>36232800</v>
       </c>
       <c r="K62" s="3">
         <v>73540000</v>
@@ -2601,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52238100</v>
+        <v>50523800</v>
       </c>
       <c r="E66" s="3">
-        <v>54920800</v>
+        <v>53118500</v>
       </c>
       <c r="F66" s="3">
-        <v>83320400</v>
+        <v>80586100</v>
       </c>
       <c r="G66" s="3">
-        <v>72729600</v>
+        <v>70342900</v>
       </c>
       <c r="H66" s="3">
-        <v>85977400</v>
+        <v>83156000</v>
       </c>
       <c r="I66" s="3">
-        <v>85789500</v>
+        <v>82974200</v>
       </c>
       <c r="J66" s="3">
-        <v>92141300</v>
+        <v>89117600</v>
       </c>
       <c r="K66" s="3">
         <v>88091800</v>
@@ -2797,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10033900</v>
+        <v>9704600</v>
       </c>
       <c r="E72" s="3">
-        <v>10399300</v>
+        <v>10058000</v>
       </c>
       <c r="F72" s="3">
-        <v>1329700</v>
+        <v>1286000</v>
       </c>
       <c r="G72" s="3">
-        <v>2763300</v>
+        <v>2672600</v>
       </c>
       <c r="H72" s="3">
-        <v>-761200</v>
+        <v>-736200</v>
       </c>
       <c r="I72" s="3">
-        <v>4216700</v>
+        <v>4078300</v>
       </c>
       <c r="J72" s="3">
-        <v>5846400</v>
+        <v>5654500</v>
       </c>
       <c r="K72" s="3">
         <v>8908100</v>
@@ -2941,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19747900</v>
+        <v>19099900</v>
       </c>
       <c r="E76" s="3">
-        <v>19803900</v>
+        <v>19154100</v>
       </c>
       <c r="F76" s="3">
-        <v>10198500</v>
+        <v>9863800</v>
       </c>
       <c r="G76" s="3">
-        <v>7890500</v>
+        <v>7631600</v>
       </c>
       <c r="H76" s="3">
-        <v>3215000</v>
+        <v>3109500</v>
       </c>
       <c r="I76" s="3">
-        <v>6825800</v>
+        <v>6601800</v>
       </c>
       <c r="J76" s="3">
-        <v>8624800</v>
+        <v>8341800</v>
       </c>
       <c r="K76" s="3">
         <v>9256200</v>
@@ -3054,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1161600</v>
+        <v>1123500</v>
       </c>
       <c r="E81" s="3">
-        <v>9920700</v>
+        <v>9595100</v>
       </c>
       <c r="F81" s="3">
-        <v>391100</v>
+        <v>378200</v>
       </c>
       <c r="G81" s="3">
-        <v>2218100</v>
+        <v>2145300</v>
       </c>
       <c r="H81" s="3">
-        <v>-6665900</v>
+        <v>-6447200</v>
       </c>
       <c r="I81" s="3">
-        <v>-198500</v>
+        <v>-191900</v>
       </c>
       <c r="J81" s="3">
-        <v>1989300</v>
+        <v>1924000</v>
       </c>
       <c r="K81" s="3">
         <v>-3297900</v>
@@ -3106,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3711200</v>
+        <v>3589400</v>
       </c>
       <c r="E83" s="3">
-        <v>3215000</v>
+        <v>3109500</v>
       </c>
       <c r="F83" s="3">
-        <v>1118400</v>
+        <v>1081700</v>
       </c>
       <c r="G83" s="3">
-        <v>1130100</v>
+        <v>1093000</v>
       </c>
       <c r="H83" s="3">
-        <v>7786600</v>
+        <v>7531100</v>
       </c>
       <c r="I83" s="3">
-        <v>6570200</v>
+        <v>6354600</v>
       </c>
       <c r="J83" s="3">
-        <v>3599100</v>
+        <v>3481000</v>
       </c>
       <c r="K83" s="3">
         <v>8745400</v>
@@ -3322,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4873900</v>
+        <v>4714000</v>
       </c>
       <c r="E89" s="3">
-        <v>-1778000</v>
+        <v>-1719600</v>
       </c>
       <c r="F89" s="3">
-        <v>7760900</v>
+        <v>7506300</v>
       </c>
       <c r="G89" s="3">
-        <v>-2047600</v>
+        <v>-1980400</v>
       </c>
       <c r="H89" s="3">
-        <v>2745700</v>
+        <v>2655600</v>
       </c>
       <c r="I89" s="3">
-        <v>3752100</v>
+        <v>3628900</v>
       </c>
       <c r="J89" s="3">
-        <v>7434100</v>
+        <v>7190100</v>
       </c>
       <c r="K89" s="3">
         <v>6670000</v>
@@ -3374,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3920200</v>
+        <v>-3791500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2067500</v>
+        <v>-1999600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1454600</v>
+        <v>-1406900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3662200</v>
+        <v>-3542000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2694400</v>
+        <v>-2606000</v>
       </c>
       <c r="I91" s="3">
-        <v>-3704200</v>
+        <v>-3582600</v>
       </c>
       <c r="J91" s="3">
-        <v>-3910800</v>
+        <v>-3782500</v>
       </c>
       <c r="K91" s="3">
         <v>-4696300</v>
@@ -3482,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5082900</v>
+        <v>-4916100</v>
       </c>
       <c r="E94" s="3">
-        <v>-851000</v>
+        <v>-823100</v>
       </c>
       <c r="F94" s="3">
-        <v>-5141300</v>
+        <v>-4972600</v>
       </c>
       <c r="G94" s="3">
-        <v>3141500</v>
+        <v>3038400</v>
       </c>
       <c r="H94" s="3">
-        <v>-5335100</v>
+        <v>-5160000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2225100</v>
+        <v>-2152100</v>
       </c>
       <c r="J94" s="3">
-        <v>-5684100</v>
+        <v>-5497600</v>
       </c>
       <c r="K94" s="3">
         <v>-2796700</v>
@@ -3534,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-609400</v>
+        <v>-589400</v>
       </c>
       <c r="E96" s="3">
-        <v>-653700</v>
+        <v>-632300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1196600</v>
+        <v>-1157300</v>
       </c>
       <c r="G96" s="3">
-        <v>-185600</v>
+        <v>-179500</v>
       </c>
       <c r="H96" s="3">
-        <v>-475100</v>
+        <v>-459500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1249100</v>
+        <v>-1208100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1238600</v>
+        <v>-1198000</v>
       </c>
       <c r="K96" s="3">
         <v>-1927100</v>
@@ -3678,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2072200</v>
+        <v>2004200</v>
       </c>
       <c r="E100" s="3">
-        <v>261500</v>
+        <v>252900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1155700</v>
+        <v>-1117800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1793100</v>
+        <v>-1734300</v>
       </c>
       <c r="H100" s="3">
-        <v>4998800</v>
+        <v>4834800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2385000</v>
+        <v>-2306800</v>
       </c>
       <c r="J100" s="3">
-        <v>-2568300</v>
+        <v>-2484000</v>
       </c>
       <c r="K100" s="3">
         <v>-2385200</v>
@@ -3714,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39700</v>
+        <v>-38400</v>
       </c>
       <c r="E101" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="F101" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="G101" s="3">
-        <v>-22200</v>
+        <v>-21500</v>
       </c>
       <c r="H101" s="3">
-        <v>-28000</v>
+        <v>-27100</v>
       </c>
       <c r="I101" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="J101" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="K101" s="3">
         <v>-21500</v>
@@ -3750,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1823500</v>
+        <v>1763700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2350000</v>
+        <v>-2272900</v>
       </c>
       <c r="F102" s="3">
-        <v>1479100</v>
+        <v>1430600</v>
       </c>
       <c r="G102" s="3">
-        <v>-721500</v>
+        <v>-697800</v>
       </c>
       <c r="H102" s="3">
-        <v>2381500</v>
+        <v>2303400</v>
       </c>
       <c r="I102" s="3">
-        <v>-841700</v>
+        <v>-814100</v>
       </c>
       <c r="J102" s="3">
-        <v>-809000</v>
+        <v>-782500</v>
       </c>
       <c r="K102" s="3">
         <v>1466500</v>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15455100</v>
+        <v>14932400</v>
       </c>
       <c r="E8" s="3">
-        <v>14819400</v>
+        <v>14318200</v>
       </c>
       <c r="F8" s="3">
-        <v>15136700</v>
+        <v>14624700</v>
       </c>
       <c r="G8" s="3">
-        <v>15606400</v>
+        <v>15078600</v>
       </c>
       <c r="H8" s="3">
-        <v>49217500</v>
+        <v>47552800</v>
       </c>
       <c r="I8" s="3">
-        <v>51767000</v>
+        <v>50016000</v>
       </c>
       <c r="J8" s="3">
-        <v>52106800</v>
+        <v>50344400</v>
       </c>
       <c r="K8" s="3">
         <v>59509800</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10974900</v>
+        <v>10603600</v>
       </c>
       <c r="E9" s="3">
-        <v>10140400</v>
+        <v>9797500</v>
       </c>
       <c r="F9" s="3">
-        <v>11237900</v>
+        <v>10857800</v>
       </c>
       <c r="G9" s="3">
-        <v>11253700</v>
+        <v>10873100</v>
       </c>
       <c r="H9" s="3">
-        <v>37411600</v>
+        <v>36146200</v>
       </c>
       <c r="I9" s="3">
-        <v>37823700</v>
+        <v>36544400</v>
       </c>
       <c r="J9" s="3">
-        <v>37719800</v>
+        <v>36444000</v>
       </c>
       <c r="K9" s="3">
         <v>42205500</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4480300</v>
+        <v>4328700</v>
       </c>
       <c r="E10" s="3">
-        <v>4679000</v>
+        <v>4520700</v>
       </c>
       <c r="F10" s="3">
-        <v>3898800</v>
+        <v>3766900</v>
       </c>
       <c r="G10" s="3">
-        <v>4352700</v>
+        <v>4205500</v>
       </c>
       <c r="H10" s="3">
-        <v>11805900</v>
+        <v>11406600</v>
       </c>
       <c r="I10" s="3">
-        <v>13943300</v>
+        <v>13471600</v>
       </c>
       <c r="J10" s="3">
-        <v>14387000</v>
+        <v>13900400</v>
       </c>
       <c r="K10" s="3">
         <v>17304200</v>
@@ -917,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1953300</v>
+        <v>1782500</v>
       </c>
       <c r="E14" s="3">
-        <v>2222100</v>
+        <v>1600400</v>
       </c>
       <c r="F14" s="3">
-        <v>53100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>957500</v>
+        <v>425500</v>
       </c>
       <c r="H14" s="3">
-        <v>4945500</v>
+        <v>4519600</v>
       </c>
       <c r="I14" s="3">
-        <v>3332000</v>
+        <v>2970500</v>
       </c>
       <c r="J14" s="3">
-        <v>951800</v>
+        <v>593500</v>
       </c>
       <c r="K14" s="3">
         <v>5705900</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1607800</v>
+        <v>1553500</v>
       </c>
       <c r="E15" s="3">
-        <v>1352700</v>
+        <v>1306900</v>
       </c>
       <c r="F15" s="3">
-        <v>1017300</v>
+        <v>982900</v>
       </c>
       <c r="G15" s="3">
-        <v>1074900</v>
+        <v>1038500</v>
       </c>
       <c r="H15" s="3">
-        <v>2559700</v>
+        <v>2473100</v>
       </c>
       <c r="I15" s="3">
-        <v>2723400</v>
+        <v>2631300</v>
       </c>
       <c r="J15" s="3">
-        <v>2565300</v>
+        <v>2478500</v>
       </c>
       <c r="K15" s="3">
         <v>2997700</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13946600</v>
+        <v>13474900</v>
       </c>
       <c r="E17" s="3">
-        <v>14980900</v>
+        <v>14474200</v>
       </c>
       <c r="F17" s="3">
-        <v>14810400</v>
+        <v>14309500</v>
       </c>
       <c r="G17" s="3">
-        <v>13391100</v>
+        <v>12938200</v>
       </c>
       <c r="H17" s="3">
-        <v>53868200</v>
+        <v>52046200</v>
       </c>
       <c r="I17" s="3">
-        <v>51238600</v>
+        <v>49505500</v>
       </c>
       <c r="J17" s="3">
-        <v>48098500</v>
+        <v>46471700</v>
       </c>
       <c r="K17" s="3">
         <v>59888900</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1508500</v>
+        <v>1457500</v>
       </c>
       <c r="E18" s="3">
-        <v>-161500</v>
+        <v>-156000</v>
       </c>
       <c r="F18" s="3">
-        <v>326300</v>
+        <v>315300</v>
       </c>
       <c r="G18" s="3">
-        <v>2215300</v>
+        <v>2140400</v>
       </c>
       <c r="H18" s="3">
-        <v>-4650800</v>
+        <v>-4493500</v>
       </c>
       <c r="I18" s="3">
-        <v>528400</v>
+        <v>510500</v>
       </c>
       <c r="J18" s="3">
-        <v>4008300</v>
+        <v>3872700</v>
       </c>
       <c r="K18" s="3">
         <v>-379200</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>176100</v>
+        <v>170200</v>
       </c>
       <c r="E20" s="3">
-        <v>-396300</v>
+        <v>-382900</v>
       </c>
       <c r="F20" s="3">
-        <v>-67700</v>
+        <v>-65500</v>
       </c>
       <c r="G20" s="3">
-        <v>442600</v>
+        <v>427600</v>
       </c>
       <c r="H20" s="3">
-        <v>-873900</v>
+        <v>-844400</v>
       </c>
       <c r="I20" s="3">
-        <v>-40600</v>
+        <v>-39300</v>
       </c>
       <c r="J20" s="3">
-        <v>-252900</v>
+        <v>-244400</v>
       </c>
       <c r="K20" s="3">
         <v>570600</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5282300</v>
+        <v>5148400</v>
       </c>
       <c r="E21" s="3">
-        <v>2558900</v>
+        <v>2511200</v>
       </c>
       <c r="F21" s="3">
-        <v>1342700</v>
+        <v>1310800</v>
       </c>
       <c r="G21" s="3">
-        <v>3753400</v>
+        <v>3640100</v>
       </c>
       <c r="H21" s="3">
-        <v>2023800</v>
+        <v>2049300</v>
       </c>
       <c r="I21" s="3">
-        <v>6857000</v>
+        <v>6704300</v>
       </c>
       <c r="J21" s="3">
-        <v>7244400</v>
+        <v>7042800</v>
       </c>
       <c r="K21" s="3">
         <v>8901000</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>334200</v>
+        <v>322900</v>
       </c>
       <c r="E22" s="3">
-        <v>291300</v>
+        <v>281500</v>
       </c>
       <c r="F22" s="3">
-        <v>203200</v>
+        <v>196400</v>
       </c>
       <c r="G22" s="3">
-        <v>336500</v>
+        <v>325100</v>
       </c>
       <c r="H22" s="3">
-        <v>1032000</v>
+        <v>997100</v>
       </c>
       <c r="I22" s="3">
-        <v>1207000</v>
+        <v>1166200</v>
       </c>
       <c r="J22" s="3">
-        <v>1219400</v>
+        <v>1178200</v>
       </c>
       <c r="K22" s="3">
         <v>2602900</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1350400</v>
+        <v>1304700</v>
       </c>
       <c r="E23" s="3">
-        <v>-849100</v>
+        <v>-820400</v>
       </c>
       <c r="F23" s="3">
-        <v>55300</v>
+        <v>53500</v>
       </c>
       <c r="G23" s="3">
-        <v>2321400</v>
+        <v>2242900</v>
       </c>
       <c r="H23" s="3">
-        <v>-6556700</v>
+        <v>-6334900</v>
       </c>
       <c r="I23" s="3">
-        <v>-719200</v>
+        <v>-694900</v>
       </c>
       <c r="J23" s="3">
-        <v>2536000</v>
+        <v>2450200</v>
       </c>
       <c r="K23" s="3">
         <v>-2411500</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>409900</v>
+        <v>396000</v>
       </c>
       <c r="E24" s="3">
-        <v>-103900</v>
+        <v>-100400</v>
       </c>
       <c r="F24" s="3">
-        <v>116300</v>
+        <v>112400</v>
       </c>
       <c r="G24" s="3">
-        <v>376000</v>
+        <v>363300</v>
       </c>
       <c r="H24" s="3">
-        <v>-364700</v>
+        <v>-352400</v>
       </c>
       <c r="I24" s="3">
-        <v>680800</v>
+        <v>657800</v>
       </c>
       <c r="J24" s="3">
-        <v>624400</v>
+        <v>603300</v>
       </c>
       <c r="K24" s="3">
         <v>884000</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>940500</v>
+        <v>908700</v>
       </c>
       <c r="E26" s="3">
-        <v>-745200</v>
+        <v>-720000</v>
       </c>
       <c r="F26" s="3">
-        <v>-61000</v>
+        <v>-58900</v>
       </c>
       <c r="G26" s="3">
-        <v>1945400</v>
+        <v>1879600</v>
       </c>
       <c r="H26" s="3">
-        <v>-6192000</v>
+        <v>-5982600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1400100</v>
+        <v>-1352700</v>
       </c>
       <c r="J26" s="3">
-        <v>1911600</v>
+        <v>1846900</v>
       </c>
       <c r="K26" s="3">
         <v>-3295500</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>873900</v>
+        <v>844400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1488200</v>
+        <v>-1437800</v>
       </c>
       <c r="F27" s="3">
-        <v>-894200</v>
+        <v>-864000</v>
       </c>
       <c r="G27" s="3">
-        <v>1476900</v>
+        <v>1426900</v>
       </c>
       <c r="H27" s="3">
-        <v>-6447200</v>
+        <v>-6229100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1912700</v>
+        <v>-1848000</v>
       </c>
       <c r="J27" s="3">
-        <v>1513000</v>
+        <v>1461800</v>
       </c>
       <c r="K27" s="3">
         <v>-3671100</v>
@@ -1414,25 +1414,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>249500</v>
+        <v>241100</v>
       </c>
       <c r="E29" s="3">
-        <v>11083200</v>
+        <v>10708400</v>
       </c>
       <c r="F29" s="3">
-        <v>1272500</v>
+        <v>1229500</v>
       </c>
       <c r="G29" s="3">
-        <v>668400</v>
+        <v>645800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>1720700</v>
+        <v>1662500</v>
       </c>
       <c r="J29" s="3">
-        <v>411000</v>
+        <v>397100</v>
       </c>
       <c r="K29" s="3">
         <v>373200</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-176100</v>
+        <v>-170200</v>
       </c>
       <c r="E32" s="3">
-        <v>396300</v>
+        <v>382900</v>
       </c>
       <c r="F32" s="3">
-        <v>67700</v>
+        <v>65500</v>
       </c>
       <c r="G32" s="3">
-        <v>-442600</v>
+        <v>-427600</v>
       </c>
       <c r="H32" s="3">
-        <v>873900</v>
+        <v>844400</v>
       </c>
       <c r="I32" s="3">
-        <v>40600</v>
+        <v>39300</v>
       </c>
       <c r="J32" s="3">
-        <v>252900</v>
+        <v>244400</v>
       </c>
       <c r="K32" s="3">
         <v>-570600</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1123500</v>
+        <v>1085500</v>
       </c>
       <c r="E33" s="3">
-        <v>9595100</v>
+        <v>9270600</v>
       </c>
       <c r="F33" s="3">
-        <v>378200</v>
+        <v>365500</v>
       </c>
       <c r="G33" s="3">
-        <v>2145300</v>
+        <v>2072700</v>
       </c>
       <c r="H33" s="3">
-        <v>-6447200</v>
+        <v>-6229100</v>
       </c>
       <c r="I33" s="3">
-        <v>-191900</v>
+        <v>-185500</v>
       </c>
       <c r="J33" s="3">
-        <v>1924000</v>
+        <v>1858900</v>
       </c>
       <c r="K33" s="3">
         <v>-3297900</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1123500</v>
+        <v>1085500</v>
       </c>
       <c r="E35" s="3">
-        <v>9595100</v>
+        <v>9270600</v>
       </c>
       <c r="F35" s="3">
-        <v>378200</v>
+        <v>365500</v>
       </c>
       <c r="G35" s="3">
-        <v>2145300</v>
+        <v>2072700</v>
       </c>
       <c r="H35" s="3">
-        <v>-6447200</v>
+        <v>-6229100</v>
       </c>
       <c r="I35" s="3">
-        <v>-191900</v>
+        <v>-185500</v>
       </c>
       <c r="J35" s="3">
-        <v>1924000</v>
+        <v>1858900</v>
       </c>
       <c r="K35" s="3">
         <v>-3297900</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5390300</v>
+        <v>5208000</v>
       </c>
       <c r="E41" s="3">
-        <v>7208200</v>
+        <v>6964400</v>
       </c>
       <c r="F41" s="3">
-        <v>3977800</v>
+        <v>3843300</v>
       </c>
       <c r="G41" s="3">
-        <v>4440800</v>
+        <v>4290500</v>
       </c>
       <c r="H41" s="3">
-        <v>5166800</v>
+        <v>4992000</v>
       </c>
       <c r="I41" s="3">
-        <v>2847600</v>
+        <v>2751300</v>
       </c>
       <c r="J41" s="3">
-        <v>3580400</v>
+        <v>3459300</v>
       </c>
       <c r="K41" s="3">
         <v>9450000</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4763700</v>
+        <v>4602500</v>
       </c>
       <c r="E42" s="3">
-        <v>3678600</v>
+        <v>3554200</v>
       </c>
       <c r="F42" s="3">
-        <v>4074900</v>
+        <v>3937100</v>
       </c>
       <c r="G42" s="3">
-        <v>5524700</v>
+        <v>5337800</v>
       </c>
       <c r="H42" s="3">
-        <v>11093400</v>
+        <v>10718200</v>
       </c>
       <c r="I42" s="3">
-        <v>8397100</v>
+        <v>8113100</v>
       </c>
       <c r="J42" s="3">
-        <v>4979300</v>
+        <v>4810900</v>
       </c>
       <c r="K42" s="3">
         <v>3364900</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9850300</v>
+        <v>9517100</v>
       </c>
       <c r="E43" s="3">
-        <v>11061800</v>
+        <v>10687600</v>
       </c>
       <c r="F43" s="3">
-        <v>5471600</v>
+        <v>5286500</v>
       </c>
       <c r="G43" s="3">
-        <v>8575500</v>
+        <v>8285500</v>
       </c>
       <c r="H43" s="3">
-        <v>7569500</v>
+        <v>7313500</v>
       </c>
       <c r="I43" s="3">
-        <v>7716300</v>
+        <v>7455300</v>
       </c>
       <c r="J43" s="3">
-        <v>9661700</v>
+        <v>9334900</v>
       </c>
       <c r="K43" s="3">
         <v>20488500</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3685400</v>
+        <v>3560700</v>
       </c>
       <c r="E44" s="3">
-        <v>3579200</v>
+        <v>3458200</v>
       </c>
       <c r="F44" s="3">
-        <v>1841600</v>
+        <v>1779300</v>
       </c>
       <c r="G44" s="3">
-        <v>2172400</v>
+        <v>2098900</v>
       </c>
       <c r="H44" s="3">
-        <v>2222100</v>
+        <v>2146900</v>
       </c>
       <c r="I44" s="3">
-        <v>2211900</v>
+        <v>2137100</v>
       </c>
       <c r="J44" s="3">
-        <v>2520200</v>
+        <v>2434900</v>
       </c>
       <c r="K44" s="3">
         <v>5710700</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26434500</v>
+        <v>25540400</v>
       </c>
       <c r="E45" s="3">
-        <v>33128900</v>
+        <v>32008400</v>
       </c>
       <c r="F45" s="3">
-        <v>54088400</v>
+        <v>52259000</v>
       </c>
       <c r="G45" s="3">
-        <v>5668100</v>
+        <v>5476400</v>
       </c>
       <c r="H45" s="3">
-        <v>8375700</v>
+        <v>8092400</v>
       </c>
       <c r="I45" s="3">
-        <v>10307600</v>
+        <v>9958900</v>
       </c>
       <c r="J45" s="3">
-        <v>15493500</v>
+        <v>14969500</v>
       </c>
       <c r="K45" s="3">
         <v>16431000</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30738600</v>
+        <v>29698900</v>
       </c>
       <c r="E46" s="3">
-        <v>31886900</v>
+        <v>30808400</v>
       </c>
       <c r="F46" s="3">
-        <v>69454300</v>
+        <v>67105100</v>
       </c>
       <c r="G46" s="3">
-        <v>26381400</v>
+        <v>25489100</v>
       </c>
       <c r="H46" s="3">
-        <v>34427400</v>
+        <v>33262900</v>
       </c>
       <c r="I46" s="3">
-        <v>31480400</v>
+        <v>30415700</v>
       </c>
       <c r="J46" s="3">
-        <v>36235100</v>
+        <v>35009500</v>
       </c>
       <c r="K46" s="3">
         <v>29278200</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8799100</v>
+        <v>8501500</v>
       </c>
       <c r="E47" s="3">
-        <v>9044100</v>
+        <v>8738200</v>
       </c>
       <c r="F47" s="3">
-        <v>2510000</v>
+        <v>2425100</v>
       </c>
       <c r="G47" s="3">
-        <v>5137400</v>
+        <v>4963600</v>
       </c>
       <c r="H47" s="3">
-        <v>5176900</v>
+        <v>5001800</v>
       </c>
       <c r="I47" s="3">
-        <v>5118200</v>
+        <v>4945100</v>
       </c>
       <c r="J47" s="3">
-        <v>5730200</v>
+        <v>5536400</v>
       </c>
       <c r="K47" s="3">
         <v>6894900</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40426300</v>
+        <v>39058900</v>
       </c>
       <c r="E48" s="3">
-        <v>42883200</v>
+        <v>41432800</v>
       </c>
       <c r="F48" s="3">
-        <v>14011000</v>
+        <v>13537100</v>
       </c>
       <c r="G48" s="3">
-        <v>28167700</v>
+        <v>27214900</v>
       </c>
       <c r="H48" s="3">
-        <v>27683300</v>
+        <v>26746900</v>
       </c>
       <c r="I48" s="3">
-        <v>33228300</v>
+        <v>32104400</v>
       </c>
       <c r="J48" s="3">
-        <v>35162400</v>
+        <v>33973100</v>
       </c>
       <c r="K48" s="3">
         <v>89657600</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11083200</v>
+        <v>10708400</v>
       </c>
       <c r="E49" s="3">
-        <v>10876600</v>
+        <v>10508700</v>
       </c>
       <c r="F49" s="3">
-        <v>2466000</v>
+        <v>2382500</v>
       </c>
       <c r="G49" s="3">
-        <v>13946600</v>
+        <v>13474900</v>
       </c>
       <c r="H49" s="3">
-        <v>14388100</v>
+        <v>13901500</v>
       </c>
       <c r="I49" s="3">
-        <v>14914300</v>
+        <v>14409800</v>
       </c>
       <c r="J49" s="3">
-        <v>14448000</v>
+        <v>13959300</v>
       </c>
       <c r="K49" s="3">
         <v>45685300</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8523600</v>
+        <v>8235300</v>
       </c>
       <c r="E52" s="3">
-        <v>8626300</v>
+        <v>8334600</v>
       </c>
       <c r="F52" s="3">
-        <v>2008700</v>
+        <v>1940700</v>
       </c>
       <c r="G52" s="3">
-        <v>4341400</v>
+        <v>4194500</v>
       </c>
       <c r="H52" s="3">
-        <v>4589800</v>
+        <v>4434500</v>
       </c>
       <c r="I52" s="3">
-        <v>4834800</v>
+        <v>4671300</v>
       </c>
       <c r="J52" s="3">
-        <v>5883700</v>
+        <v>5684700</v>
       </c>
       <c r="K52" s="3">
         <v>7292000</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69623700</v>
+        <v>67268800</v>
       </c>
       <c r="E54" s="3">
-        <v>72272600</v>
+        <v>69828100</v>
       </c>
       <c r="F54" s="3">
-        <v>90449900</v>
+        <v>87390600</v>
       </c>
       <c r="G54" s="3">
-        <v>77974500</v>
+        <v>75337200</v>
       </c>
       <c r="H54" s="3">
-        <v>86265500</v>
+        <v>83347700</v>
       </c>
       <c r="I54" s="3">
-        <v>89576000</v>
+        <v>86546300</v>
       </c>
       <c r="J54" s="3">
-        <v>97459400</v>
+        <v>94163000</v>
       </c>
       <c r="K54" s="3">
         <v>97348000</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2695200</v>
+        <v>2604000</v>
       </c>
       <c r="E57" s="3">
-        <v>3372600</v>
+        <v>3258500</v>
       </c>
       <c r="F57" s="3">
-        <v>2742600</v>
+        <v>2649800</v>
       </c>
       <c r="G57" s="3">
-        <v>5732400</v>
+        <v>5538600</v>
       </c>
       <c r="H57" s="3">
-        <v>6132100</v>
+        <v>5924700</v>
       </c>
       <c r="I57" s="3">
-        <v>6912400</v>
+        <v>6678600</v>
       </c>
       <c r="J57" s="3">
-        <v>7123500</v>
+        <v>6882600</v>
       </c>
       <c r="K57" s="3">
         <v>7703500</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1598800</v>
+        <v>1544700</v>
       </c>
       <c r="E58" s="3">
-        <v>2442200</v>
+        <v>2359600</v>
       </c>
       <c r="F58" s="3">
-        <v>102700</v>
+        <v>99300</v>
       </c>
       <c r="G58" s="3">
-        <v>1939800</v>
+        <v>1874200</v>
       </c>
       <c r="H58" s="3">
-        <v>997000</v>
+        <v>963300</v>
       </c>
       <c r="I58" s="3">
-        <v>1385400</v>
+        <v>1338500</v>
       </c>
       <c r="J58" s="3">
-        <v>2475000</v>
+        <v>2391300</v>
       </c>
       <c r="K58" s="3">
         <v>3765600</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26178200</v>
+        <v>25292700</v>
       </c>
       <c r="E59" s="3">
-        <v>33133400</v>
+        <v>32012800</v>
       </c>
       <c r="F59" s="3">
-        <v>48917100</v>
+        <v>47262600</v>
       </c>
       <c r="G59" s="3">
-        <v>15241700</v>
+        <v>14726200</v>
       </c>
       <c r="H59" s="3">
-        <v>25350600</v>
+        <v>24493100</v>
       </c>
       <c r="I59" s="3">
-        <v>20070900</v>
+        <v>19392000</v>
       </c>
       <c r="J59" s="3">
-        <v>22264700</v>
+        <v>21511700</v>
       </c>
       <c r="K59" s="3">
         <v>34417100</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18631300</v>
+        <v>18001100</v>
       </c>
       <c r="E60" s="3">
-        <v>22136000</v>
+        <v>21387300</v>
       </c>
       <c r="F60" s="3">
-        <v>51762500</v>
+        <v>50011700</v>
       </c>
       <c r="G60" s="3">
-        <v>22914000</v>
+        <v>22138900</v>
       </c>
       <c r="H60" s="3">
-        <v>32479700</v>
+        <v>31381100</v>
       </c>
       <c r="I60" s="3">
-        <v>28368600</v>
+        <v>27409100</v>
       </c>
       <c r="J60" s="3">
-        <v>31863200</v>
+        <v>30785500</v>
       </c>
       <c r="K60" s="3">
         <v>26150100</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4461100</v>
+        <v>4310200</v>
       </c>
       <c r="E61" s="3">
-        <v>3503600</v>
+        <v>3385100</v>
       </c>
       <c r="F61" s="3">
-        <v>2040300</v>
+        <v>1971300</v>
       </c>
       <c r="G61" s="3">
-        <v>15388500</v>
+        <v>14868000</v>
       </c>
       <c r="H61" s="3">
-        <v>17263900</v>
+        <v>16680000</v>
       </c>
       <c r="I61" s="3">
-        <v>18109600</v>
+        <v>17497100</v>
       </c>
       <c r="J61" s="3">
-        <v>16071600</v>
+        <v>15528000</v>
       </c>
       <c r="K61" s="3">
         <v>18527900</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51464400</v>
+        <v>49723700</v>
       </c>
       <c r="E62" s="3">
-        <v>52539300</v>
+        <v>50762200</v>
       </c>
       <c r="F62" s="3">
-        <v>20549600</v>
+        <v>19854600</v>
       </c>
       <c r="G62" s="3">
-        <v>26133000</v>
+        <v>25249100</v>
       </c>
       <c r="H62" s="3">
-        <v>27500400</v>
+        <v>26570200</v>
       </c>
       <c r="I62" s="3">
-        <v>33055500</v>
+        <v>31937500</v>
       </c>
       <c r="J62" s="3">
-        <v>36232800</v>
+        <v>35007300</v>
       </c>
       <c r="K62" s="3">
         <v>73540000</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50523800</v>
+        <v>48814900</v>
       </c>
       <c r="E66" s="3">
-        <v>53118500</v>
+        <v>51321900</v>
       </c>
       <c r="F66" s="3">
-        <v>80586100</v>
+        <v>77860400</v>
       </c>
       <c r="G66" s="3">
-        <v>70342900</v>
+        <v>67963700</v>
       </c>
       <c r="H66" s="3">
-        <v>83156000</v>
+        <v>80343300</v>
       </c>
       <c r="I66" s="3">
-        <v>82974200</v>
+        <v>80167700</v>
       </c>
       <c r="J66" s="3">
-        <v>89117600</v>
+        <v>86103300</v>
       </c>
       <c r="K66" s="3">
         <v>88091800</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9704600</v>
+        <v>9376400</v>
       </c>
       <c r="E72" s="3">
-        <v>10058000</v>
+        <v>9717800</v>
       </c>
       <c r="F72" s="3">
-        <v>1286000</v>
+        <v>1242500</v>
       </c>
       <c r="G72" s="3">
-        <v>2672600</v>
+        <v>2582200</v>
       </c>
       <c r="H72" s="3">
-        <v>-736200</v>
+        <v>-711300</v>
       </c>
       <c r="I72" s="3">
-        <v>4078300</v>
+        <v>3940400</v>
       </c>
       <c r="J72" s="3">
-        <v>5654500</v>
+        <v>5463300</v>
       </c>
       <c r="K72" s="3">
         <v>8908100</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19099900</v>
+        <v>18453800</v>
       </c>
       <c r="E76" s="3">
-        <v>19154100</v>
+        <v>18506200</v>
       </c>
       <c r="F76" s="3">
-        <v>9863800</v>
+        <v>9530200</v>
       </c>
       <c r="G76" s="3">
-        <v>7631600</v>
+        <v>7373500</v>
       </c>
       <c r="H76" s="3">
-        <v>3109500</v>
+        <v>3004400</v>
       </c>
       <c r="I76" s="3">
-        <v>6601800</v>
+        <v>6378600</v>
       </c>
       <c r="J76" s="3">
-        <v>8341800</v>
+        <v>8059600</v>
       </c>
       <c r="K76" s="3">
         <v>9256200</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1123500</v>
+        <v>1085500</v>
       </c>
       <c r="E81" s="3">
-        <v>9595100</v>
+        <v>9270600</v>
       </c>
       <c r="F81" s="3">
-        <v>378200</v>
+        <v>365500</v>
       </c>
       <c r="G81" s="3">
-        <v>2145300</v>
+        <v>2072700</v>
       </c>
       <c r="H81" s="3">
-        <v>-6447200</v>
+        <v>-6229100</v>
       </c>
       <c r="I81" s="3">
-        <v>-191900</v>
+        <v>-185500</v>
       </c>
       <c r="J81" s="3">
-        <v>1924000</v>
+        <v>1858900</v>
       </c>
       <c r="K81" s="3">
         <v>-3297900</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3589400</v>
+        <v>3468000</v>
       </c>
       <c r="E83" s="3">
-        <v>3109500</v>
+        <v>3004400</v>
       </c>
       <c r="F83" s="3">
-        <v>1081700</v>
+        <v>1045100</v>
       </c>
       <c r="G83" s="3">
-        <v>1093000</v>
+        <v>1056000</v>
       </c>
       <c r="H83" s="3">
-        <v>7531100</v>
+        <v>7276400</v>
       </c>
       <c r="I83" s="3">
-        <v>6354600</v>
+        <v>6139600</v>
       </c>
       <c r="J83" s="3">
-        <v>3481000</v>
+        <v>3363300</v>
       </c>
       <c r="K83" s="3">
         <v>8745400</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4714000</v>
+        <v>4554500</v>
       </c>
       <c r="E89" s="3">
-        <v>-1719600</v>
+        <v>-1661500</v>
       </c>
       <c r="F89" s="3">
-        <v>7506300</v>
+        <v>7252400</v>
       </c>
       <c r="G89" s="3">
-        <v>-1980400</v>
+        <v>-1913500</v>
       </c>
       <c r="H89" s="3">
-        <v>2655600</v>
+        <v>2565800</v>
       </c>
       <c r="I89" s="3">
-        <v>3628900</v>
+        <v>3506200</v>
       </c>
       <c r="J89" s="3">
-        <v>7190100</v>
+        <v>6946900</v>
       </c>
       <c r="K89" s="3">
         <v>6670000</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3791500</v>
+        <v>-3663300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1999600</v>
+        <v>-1932000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1406900</v>
+        <v>-1359300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3542000</v>
+        <v>-3422200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2606000</v>
+        <v>-2517800</v>
       </c>
       <c r="I91" s="3">
-        <v>-3582600</v>
+        <v>-3461500</v>
       </c>
       <c r="J91" s="3">
-        <v>-3782500</v>
+        <v>-3654500</v>
       </c>
       <c r="K91" s="3">
         <v>-4696300</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4916100</v>
+        <v>-4749800</v>
       </c>
       <c r="E94" s="3">
-        <v>-823100</v>
+        <v>-795300</v>
       </c>
       <c r="F94" s="3">
-        <v>-4972600</v>
+        <v>-4804400</v>
       </c>
       <c r="G94" s="3">
-        <v>3038400</v>
+        <v>2935600</v>
       </c>
       <c r="H94" s="3">
-        <v>-5160000</v>
+        <v>-4985500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2152100</v>
+        <v>-2079300</v>
       </c>
       <c r="J94" s="3">
-        <v>-5497600</v>
+        <v>-5311600</v>
       </c>
       <c r="K94" s="3">
         <v>-2796700</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-589400</v>
+        <v>-569500</v>
       </c>
       <c r="E96" s="3">
-        <v>-632300</v>
+        <v>-610900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1157300</v>
+        <v>-1118200</v>
       </c>
       <c r="G96" s="3">
-        <v>-179500</v>
+        <v>-173500</v>
       </c>
       <c r="H96" s="3">
-        <v>-459500</v>
+        <v>-444000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1208100</v>
+        <v>-1167300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1198000</v>
+        <v>-1157500</v>
       </c>
       <c r="K96" s="3">
         <v>-1927100</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2004200</v>
+        <v>1936400</v>
       </c>
       <c r="E100" s="3">
-        <v>252900</v>
+        <v>244400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1117800</v>
+        <v>-1080000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1734300</v>
+        <v>-1675600</v>
       </c>
       <c r="H100" s="3">
-        <v>4834800</v>
+        <v>4671300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2306800</v>
+        <v>-2228700</v>
       </c>
       <c r="J100" s="3">
-        <v>-2484000</v>
+        <v>-2400000</v>
       </c>
       <c r="K100" s="3">
         <v>-2385200</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38400</v>
+        <v>-37100</v>
       </c>
       <c r="E101" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="F101" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="G101" s="3">
-        <v>-21500</v>
+        <v>-20700</v>
       </c>
       <c r="H101" s="3">
-        <v>-27100</v>
+        <v>-26200</v>
       </c>
       <c r="I101" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="J101" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="K101" s="3">
         <v>-21500</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1763700</v>
+        <v>1704000</v>
       </c>
       <c r="E102" s="3">
-        <v>-2272900</v>
+        <v>-2196000</v>
       </c>
       <c r="F102" s="3">
-        <v>1430600</v>
+        <v>1382200</v>
       </c>
       <c r="G102" s="3">
-        <v>-697800</v>
+        <v>-674200</v>
       </c>
       <c r="H102" s="3">
-        <v>2303400</v>
+        <v>2225500</v>
       </c>
       <c r="I102" s="3">
-        <v>-814100</v>
+        <v>-786500</v>
       </c>
       <c r="J102" s="3">
-        <v>-782500</v>
+        <v>-756000</v>
       </c>
       <c r="K102" s="3">
         <v>1466500</v>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14932400</v>
+        <v>25455500</v>
       </c>
       <c r="E8" s="3">
-        <v>14318200</v>
+        <v>14206800</v>
       </c>
       <c r="F8" s="3">
-        <v>14624700</v>
+        <v>13622400</v>
       </c>
       <c r="G8" s="3">
-        <v>15078600</v>
+        <v>13914100</v>
       </c>
       <c r="H8" s="3">
-        <v>47552800</v>
+        <v>14345900</v>
       </c>
       <c r="I8" s="3">
-        <v>50016000</v>
+        <v>45242100</v>
       </c>
       <c r="J8" s="3">
+        <v>47585600</v>
+      </c>
+      <c r="K8" s="3">
         <v>50344400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>59509800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55746600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>57696300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10603600</v>
+        <v>18314800</v>
       </c>
       <c r="E9" s="3">
-        <v>9797500</v>
+        <v>10088400</v>
       </c>
       <c r="F9" s="3">
-        <v>10857800</v>
+        <v>9321400</v>
       </c>
       <c r="G9" s="3">
-        <v>10873100</v>
+        <v>10330200</v>
       </c>
       <c r="H9" s="3">
-        <v>36146200</v>
+        <v>10344700</v>
       </c>
       <c r="I9" s="3">
-        <v>36544400</v>
+        <v>34389800</v>
       </c>
       <c r="J9" s="3">
+        <v>34768600</v>
+      </c>
+      <c r="K9" s="3">
         <v>36444000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42205500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37643800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39455300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4328700</v>
+        <v>7140800</v>
       </c>
       <c r="E10" s="3">
-        <v>4520700</v>
+        <v>4118400</v>
       </c>
       <c r="F10" s="3">
-        <v>3766900</v>
+        <v>4301100</v>
       </c>
       <c r="G10" s="3">
-        <v>4205500</v>
+        <v>3583900</v>
       </c>
       <c r="H10" s="3">
-        <v>11406600</v>
+        <v>4001100</v>
       </c>
       <c r="I10" s="3">
-        <v>13471600</v>
+        <v>10852300</v>
       </c>
       <c r="J10" s="3">
+        <v>12817000</v>
+      </c>
+      <c r="K10" s="3">
         <v>13900400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17304200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18102700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18241000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,81 +927,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1782500</v>
+        <v>567700</v>
       </c>
       <c r="E14" s="3">
-        <v>1600400</v>
+        <v>1677200</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1522600</v>
       </c>
       <c r="G14" s="3">
-        <v>425500</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>4519600</v>
+        <v>404800</v>
       </c>
       <c r="I14" s="3">
-        <v>2970500</v>
+        <v>4300000</v>
       </c>
       <c r="J14" s="3">
+        <v>2826200</v>
+      </c>
+      <c r="K14" s="3">
         <v>593500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5705900</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1553500</v>
+        <v>1474900</v>
       </c>
       <c r="E15" s="3">
-        <v>1306900</v>
+        <v>1478000</v>
       </c>
       <c r="F15" s="3">
-        <v>982900</v>
+        <v>1243400</v>
       </c>
       <c r="G15" s="3">
-        <v>1038500</v>
+        <v>935100</v>
       </c>
       <c r="H15" s="3">
-        <v>2473100</v>
+        <v>988100</v>
       </c>
       <c r="I15" s="3">
-        <v>2631300</v>
+        <v>2352900</v>
       </c>
       <c r="J15" s="3">
+        <v>2503400</v>
+      </c>
+      <c r="K15" s="3">
         <v>2478500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2997700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5568000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3995600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13474900</v>
+        <v>24299300</v>
       </c>
       <c r="E17" s="3">
-        <v>14474200</v>
+        <v>12753700</v>
       </c>
       <c r="F17" s="3">
-        <v>14309500</v>
+        <v>13770900</v>
       </c>
       <c r="G17" s="3">
-        <v>12938200</v>
+        <v>13614100</v>
       </c>
       <c r="H17" s="3">
-        <v>52046200</v>
+        <v>12309500</v>
       </c>
       <c r="I17" s="3">
-        <v>49505500</v>
+        <v>49517200</v>
       </c>
       <c r="J17" s="3">
+        <v>47099900</v>
+      </c>
+      <c r="K17" s="3">
         <v>46471700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59888900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>51524700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>52849600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1457500</v>
+        <v>1156200</v>
       </c>
       <c r="E18" s="3">
-        <v>-156000</v>
+        <v>1453100</v>
       </c>
       <c r="F18" s="3">
-        <v>315300</v>
+        <v>-148400</v>
       </c>
       <c r="G18" s="3">
-        <v>2140400</v>
+        <v>300000</v>
       </c>
       <c r="H18" s="3">
-        <v>-4493500</v>
+        <v>2036400</v>
       </c>
       <c r="I18" s="3">
-        <v>510500</v>
+        <v>-4275100</v>
       </c>
       <c r="J18" s="3">
+        <v>485700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3872700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-379200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4221800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4846700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>170200</v>
+        <v>776300</v>
       </c>
       <c r="E20" s="3">
-        <v>-382900</v>
+        <v>167100</v>
       </c>
       <c r="F20" s="3">
-        <v>-65500</v>
+        <v>-364300</v>
       </c>
       <c r="G20" s="3">
-        <v>427600</v>
+        <v>-62300</v>
       </c>
       <c r="H20" s="3">
-        <v>-844400</v>
+        <v>406900</v>
       </c>
       <c r="I20" s="3">
-        <v>-39300</v>
+        <v>-803300</v>
       </c>
       <c r="J20" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-244400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>570600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-401900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-49300</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5148400</v>
+        <v>4157700</v>
       </c>
       <c r="E21" s="3">
-        <v>2511200</v>
+        <v>4961600</v>
       </c>
       <c r="F21" s="3">
-        <v>1310800</v>
+        <v>2382000</v>
       </c>
       <c r="G21" s="3">
-        <v>3640100</v>
+        <v>1244600</v>
       </c>
       <c r="H21" s="3">
-        <v>2049300</v>
+        <v>3460700</v>
       </c>
       <c r="I21" s="3">
-        <v>6704300</v>
+        <v>1932400</v>
       </c>
       <c r="J21" s="3">
+        <v>6364000</v>
+      </c>
+      <c r="K21" s="3">
         <v>7042800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8901000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9709900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8841500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>322900</v>
+        <v>352900</v>
       </c>
       <c r="E22" s="3">
-        <v>281500</v>
+        <v>307200</v>
       </c>
       <c r="F22" s="3">
-        <v>196400</v>
+        <v>267800</v>
       </c>
       <c r="G22" s="3">
-        <v>325100</v>
+        <v>186800</v>
       </c>
       <c r="H22" s="3">
-        <v>997100</v>
+        <v>309300</v>
       </c>
       <c r="I22" s="3">
-        <v>1166200</v>
+        <v>948600</v>
       </c>
       <c r="J22" s="3">
+        <v>1109500</v>
+      </c>
+      <c r="K22" s="3">
         <v>1178200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2602900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1371400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1247800</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1304700</v>
+        <v>1579700</v>
       </c>
       <c r="E23" s="3">
-        <v>-820400</v>
+        <v>1312900</v>
       </c>
       <c r="F23" s="3">
-        <v>53500</v>
+        <v>-780500</v>
       </c>
       <c r="G23" s="3">
-        <v>2242900</v>
+        <v>50900</v>
       </c>
       <c r="H23" s="3">
-        <v>-6334900</v>
+        <v>2133900</v>
       </c>
       <c r="I23" s="3">
-        <v>-694900</v>
+        <v>-6027100</v>
       </c>
       <c r="J23" s="3">
+        <v>-661100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2450200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2411500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2448500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3549600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>396000</v>
+        <v>716200</v>
       </c>
       <c r="E24" s="3">
-        <v>-100400</v>
+        <v>390300</v>
       </c>
       <c r="F24" s="3">
-        <v>112400</v>
+        <v>-95500</v>
       </c>
       <c r="G24" s="3">
-        <v>363300</v>
+        <v>106900</v>
       </c>
       <c r="H24" s="3">
-        <v>-352400</v>
+        <v>345600</v>
       </c>
       <c r="I24" s="3">
-        <v>657800</v>
+        <v>-335200</v>
       </c>
       <c r="J24" s="3">
+        <v>625900</v>
+      </c>
+      <c r="K24" s="3">
         <v>603300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>884000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>577500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1002400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>908700</v>
+        <v>863500</v>
       </c>
       <c r="E26" s="3">
-        <v>-720000</v>
+        <v>922700</v>
       </c>
       <c r="F26" s="3">
-        <v>-58900</v>
+        <v>-685000</v>
       </c>
       <c r="G26" s="3">
-        <v>1879600</v>
+        <v>-56000</v>
       </c>
       <c r="H26" s="3">
-        <v>-5982600</v>
+        <v>1788300</v>
       </c>
       <c r="I26" s="3">
-        <v>-1352700</v>
+        <v>-5691800</v>
       </c>
       <c r="J26" s="3">
+        <v>-1287000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1846900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3295500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1871000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2547200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>844400</v>
+        <v>748300</v>
       </c>
       <c r="E27" s="3">
-        <v>-1437800</v>
+        <v>861500</v>
       </c>
       <c r="F27" s="3">
-        <v>-864000</v>
+        <v>-1368000</v>
       </c>
       <c r="G27" s="3">
-        <v>1426900</v>
+        <v>-822000</v>
       </c>
       <c r="H27" s="3">
-        <v>-6229100</v>
+        <v>1357600</v>
       </c>
       <c r="I27" s="3">
-        <v>-1848000</v>
+        <v>-5926400</v>
       </c>
       <c r="J27" s="3">
+        <v>-1758200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1461800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3671100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1434000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2119900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,45 +1465,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>241100</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>10708400</v>
+        <v>229400</v>
       </c>
       <c r="F29" s="3">
-        <v>1229500</v>
+        <v>10188000</v>
       </c>
       <c r="G29" s="3">
-        <v>645800</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>1169700</v>
+      </c>
+      <c r="H29" s="3">
+        <v>614400</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>1662500</v>
-      </c>
       <c r="J29" s="3">
+        <v>1581800</v>
+      </c>
+      <c r="K29" s="3">
         <v>397100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>373200</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-170200</v>
+        <v>-776300</v>
       </c>
       <c r="E32" s="3">
-        <v>382900</v>
+        <v>-167100</v>
       </c>
       <c r="F32" s="3">
-        <v>65500</v>
+        <v>364300</v>
       </c>
       <c r="G32" s="3">
-        <v>-427600</v>
+        <v>62300</v>
       </c>
       <c r="H32" s="3">
-        <v>844400</v>
+        <v>-406900</v>
       </c>
       <c r="I32" s="3">
-        <v>39300</v>
+        <v>803300</v>
       </c>
       <c r="J32" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K32" s="3">
         <v>244400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-570600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>401900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>49300</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1085500</v>
+        <v>748300</v>
       </c>
       <c r="E33" s="3">
-        <v>9270600</v>
+        <v>1090800</v>
       </c>
       <c r="F33" s="3">
-        <v>365500</v>
+        <v>8820100</v>
       </c>
       <c r="G33" s="3">
-        <v>2072700</v>
+        <v>347700</v>
       </c>
       <c r="H33" s="3">
-        <v>-6229100</v>
+        <v>1972000</v>
       </c>
       <c r="I33" s="3">
-        <v>-185500</v>
+        <v>-5926400</v>
       </c>
       <c r="J33" s="3">
+        <v>-176400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1858900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3297900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1434000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2119900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1085500</v>
+        <v>748300</v>
       </c>
       <c r="E35" s="3">
-        <v>9270600</v>
+        <v>1090800</v>
       </c>
       <c r="F35" s="3">
-        <v>365500</v>
+        <v>8820100</v>
       </c>
       <c r="G35" s="3">
-        <v>2072700</v>
+        <v>347700</v>
       </c>
       <c r="H35" s="3">
-        <v>-6229100</v>
+        <v>1972000</v>
       </c>
       <c r="I35" s="3">
-        <v>-185500</v>
+        <v>-5926400</v>
       </c>
       <c r="J35" s="3">
+        <v>-176400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1858900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3297900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1434000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2119900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,332 +1819,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5208000</v>
+        <v>6045800</v>
       </c>
       <c r="E41" s="3">
-        <v>6964400</v>
+        <v>4954900</v>
       </c>
       <c r="F41" s="3">
-        <v>3843300</v>
+        <v>6626000</v>
       </c>
       <c r="G41" s="3">
-        <v>4290500</v>
+        <v>3656500</v>
       </c>
       <c r="H41" s="3">
-        <v>4992000</v>
+        <v>4082100</v>
       </c>
       <c r="I41" s="3">
-        <v>2751300</v>
+        <v>4749400</v>
       </c>
       <c r="J41" s="3">
+        <v>2617600</v>
+      </c>
+      <c r="K41" s="3">
         <v>3459300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9450000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5662400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4307900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4602500</v>
+        <v>8344700</v>
       </c>
       <c r="E42" s="3">
-        <v>3554200</v>
+        <v>4378900</v>
       </c>
       <c r="F42" s="3">
-        <v>3937100</v>
+        <v>3381500</v>
       </c>
       <c r="G42" s="3">
-        <v>5337800</v>
+        <v>3745800</v>
       </c>
       <c r="H42" s="3">
-        <v>10718200</v>
+        <v>5078400</v>
       </c>
       <c r="I42" s="3">
-        <v>8113100</v>
+        <v>10197400</v>
       </c>
       <c r="J42" s="3">
+        <v>7718900</v>
+      </c>
+      <c r="K42" s="3">
         <v>4810900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3364900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6012600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12134800</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9517100</v>
+        <v>20022100</v>
       </c>
       <c r="E43" s="3">
-        <v>10687600</v>
+        <v>9054600</v>
       </c>
       <c r="F43" s="3">
-        <v>5286500</v>
+        <v>10168300</v>
       </c>
       <c r="G43" s="3">
-        <v>8285500</v>
+        <v>5029700</v>
       </c>
       <c r="H43" s="3">
-        <v>7313500</v>
+        <v>7882900</v>
       </c>
       <c r="I43" s="3">
-        <v>7455300</v>
+        <v>6958100</v>
       </c>
       <c r="J43" s="3">
+        <v>7093000</v>
+      </c>
+      <c r="K43" s="3">
         <v>9334900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20488500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32414100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24880100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3560700</v>
+        <v>2935200</v>
       </c>
       <c r="E44" s="3">
-        <v>3458200</v>
+        <v>3387700</v>
       </c>
       <c r="F44" s="3">
-        <v>1779300</v>
+        <v>3290100</v>
       </c>
       <c r="G44" s="3">
-        <v>2098900</v>
+        <v>1692800</v>
       </c>
       <c r="H44" s="3">
-        <v>2146900</v>
+        <v>1996900</v>
       </c>
       <c r="I44" s="3">
-        <v>2137100</v>
+        <v>2042600</v>
       </c>
       <c r="J44" s="3">
+        <v>2033200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2434900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5710700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10333300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7845700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25540400</v>
+        <v>70018800</v>
       </c>
       <c r="E45" s="3">
-        <v>32008400</v>
+        <v>24300400</v>
       </c>
       <c r="F45" s="3">
-        <v>52259000</v>
+        <v>30453000</v>
       </c>
       <c r="G45" s="3">
-        <v>5476400</v>
+        <v>49719600</v>
       </c>
       <c r="H45" s="3">
-        <v>8092400</v>
+        <v>5210300</v>
       </c>
       <c r="I45" s="3">
-        <v>9958900</v>
+        <v>7699100</v>
       </c>
       <c r="J45" s="3">
+        <v>9475000</v>
+      </c>
+      <c r="K45" s="3">
         <v>14969500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16431000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19849600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19187100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29698900</v>
+        <v>107367000</v>
       </c>
       <c r="E46" s="3">
-        <v>30808400</v>
+        <v>28255800</v>
       </c>
       <c r="F46" s="3">
-        <v>67105100</v>
+        <v>29311300</v>
       </c>
       <c r="G46" s="3">
-        <v>25489100</v>
+        <v>63844300</v>
       </c>
       <c r="H46" s="3">
-        <v>33262900</v>
+        <v>24250500</v>
       </c>
       <c r="I46" s="3">
-        <v>30415700</v>
+        <v>31646600</v>
       </c>
       <c r="J46" s="3">
+        <v>28937700</v>
+      </c>
+      <c r="K46" s="3">
         <v>35009500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29278200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27423600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34177800</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8501500</v>
+        <v>9177100</v>
       </c>
       <c r="E47" s="3">
-        <v>8738200</v>
+        <v>8081100</v>
       </c>
       <c r="F47" s="3">
-        <v>2425100</v>
+        <v>8313600</v>
       </c>
       <c r="G47" s="3">
-        <v>4963600</v>
+        <v>2307300</v>
       </c>
       <c r="H47" s="3">
-        <v>5001800</v>
+        <v>4722400</v>
       </c>
       <c r="I47" s="3">
-        <v>4945100</v>
+        <v>4758800</v>
       </c>
       <c r="J47" s="3">
+        <v>4704800</v>
+      </c>
+      <c r="K47" s="3">
         <v>5536400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6894900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13053000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16227900</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39058900</v>
+        <v>20741400</v>
       </c>
       <c r="E48" s="3">
-        <v>41432800</v>
+        <v>37162000</v>
       </c>
       <c r="F48" s="3">
-        <v>13537100</v>
+        <v>39419400</v>
       </c>
       <c r="G48" s="3">
-        <v>27214900</v>
+        <v>12879300</v>
       </c>
       <c r="H48" s="3">
-        <v>26746900</v>
+        <v>25892500</v>
       </c>
       <c r="I48" s="3">
-        <v>32104400</v>
+        <v>25447200</v>
       </c>
       <c r="J48" s="3">
+        <v>30544400</v>
+      </c>
+      <c r="K48" s="3">
         <v>33973100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>89657600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>120179000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>82126800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10708400</v>
+        <v>6077900</v>
       </c>
       <c r="E49" s="3">
-        <v>10508700</v>
+        <v>10173500</v>
       </c>
       <c r="F49" s="3">
-        <v>2382500</v>
+        <v>9998100</v>
       </c>
       <c r="G49" s="3">
-        <v>13474900</v>
+        <v>2266800</v>
       </c>
       <c r="H49" s="3">
-        <v>13901500</v>
+        <v>12820100</v>
       </c>
       <c r="I49" s="3">
-        <v>14409800</v>
+        <v>13226000</v>
       </c>
       <c r="J49" s="3">
+        <v>13709600</v>
+      </c>
+      <c r="K49" s="3">
         <v>13959300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45685300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>53012500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39782800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8235300</v>
+        <v>4339500</v>
       </c>
       <c r="E52" s="3">
-        <v>8334600</v>
+        <v>7834100</v>
       </c>
       <c r="F52" s="3">
-        <v>1940700</v>
+        <v>7929600</v>
       </c>
       <c r="G52" s="3">
-        <v>4194500</v>
+        <v>1846400</v>
       </c>
       <c r="H52" s="3">
-        <v>4434500</v>
+        <v>3990700</v>
       </c>
       <c r="I52" s="3">
-        <v>4671300</v>
+        <v>4219100</v>
       </c>
       <c r="J52" s="3">
+        <v>4444300</v>
+      </c>
+      <c r="K52" s="3">
         <v>5684700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7292000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12964100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10999800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67268800</v>
+        <v>147703000</v>
       </c>
       <c r="E54" s="3">
-        <v>69828100</v>
+        <v>63978200</v>
       </c>
       <c r="F54" s="3">
-        <v>87390600</v>
+        <v>66434900</v>
       </c>
       <c r="G54" s="3">
-        <v>75337200</v>
+        <v>83144100</v>
       </c>
       <c r="H54" s="3">
-        <v>83347700</v>
+        <v>71676300</v>
       </c>
       <c r="I54" s="3">
-        <v>86546300</v>
+        <v>79297600</v>
       </c>
       <c r="J54" s="3">
+        <v>82340800</v>
+      </c>
+      <c r="K54" s="3">
         <v>94163000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97348000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97097200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108732000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2604000</v>
+        <v>4595800</v>
       </c>
       <c r="E57" s="3">
-        <v>3258500</v>
+        <v>2477500</v>
       </c>
       <c r="F57" s="3">
-        <v>2649800</v>
+        <v>3100200</v>
       </c>
       <c r="G57" s="3">
-        <v>5538600</v>
+        <v>2521100</v>
       </c>
       <c r="H57" s="3">
-        <v>5924700</v>
+        <v>5269400</v>
       </c>
       <c r="I57" s="3">
-        <v>6678600</v>
+        <v>5636800</v>
       </c>
       <c r="J57" s="3">
+        <v>6354000</v>
+      </c>
+      <c r="K57" s="3">
         <v>6882600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7703500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16086800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18513300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1544700</v>
+        <v>6606200</v>
       </c>
       <c r="E58" s="3">
-        <v>2359600</v>
+        <v>1469700</v>
       </c>
       <c r="F58" s="3">
-        <v>99300</v>
+        <v>2245000</v>
       </c>
       <c r="G58" s="3">
-        <v>1874200</v>
+        <v>94400</v>
       </c>
       <c r="H58" s="3">
-        <v>963300</v>
+        <v>1783100</v>
       </c>
       <c r="I58" s="3">
-        <v>1338500</v>
+        <v>916500</v>
       </c>
       <c r="J58" s="3">
+        <v>1273500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2391300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3765600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12557800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15247800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25292700</v>
+        <v>89481500</v>
       </c>
       <c r="E59" s="3">
-        <v>32012800</v>
+        <v>24107300</v>
       </c>
       <c r="F59" s="3">
-        <v>47262600</v>
+        <v>30457200</v>
       </c>
       <c r="G59" s="3">
-        <v>14726200</v>
+        <v>44966000</v>
       </c>
       <c r="H59" s="3">
-        <v>24493100</v>
+        <v>14010600</v>
       </c>
       <c r="I59" s="3">
-        <v>19392000</v>
+        <v>23302900</v>
       </c>
       <c r="J59" s="3">
+        <v>18449700</v>
+      </c>
+      <c r="K59" s="3">
         <v>21511700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34417100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42894500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39444700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18001100</v>
+        <v>100684000</v>
       </c>
       <c r="E60" s="3">
-        <v>21387300</v>
+        <v>17126400</v>
       </c>
       <c r="F60" s="3">
-        <v>50011700</v>
+        <v>20348000</v>
       </c>
       <c r="G60" s="3">
-        <v>22138900</v>
+        <v>47581500</v>
       </c>
       <c r="H60" s="3">
-        <v>31381100</v>
+        <v>21063100</v>
       </c>
       <c r="I60" s="3">
-        <v>27409100</v>
+        <v>29856200</v>
       </c>
       <c r="J60" s="3">
+        <v>26077200</v>
+      </c>
+      <c r="K60" s="3">
         <v>30785500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26150100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26651800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>36602900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4310200</v>
+        <v>5977300</v>
       </c>
       <c r="E61" s="3">
-        <v>3385100</v>
+        <v>3422000</v>
       </c>
       <c r="F61" s="3">
-        <v>1971300</v>
+        <v>3220600</v>
       </c>
       <c r="G61" s="3">
-        <v>14868000</v>
+        <v>1875500</v>
       </c>
       <c r="H61" s="3">
-        <v>16680000</v>
+        <v>14145500</v>
       </c>
       <c r="I61" s="3">
-        <v>17497100</v>
+        <v>15869500</v>
       </c>
       <c r="J61" s="3">
+        <v>16646900</v>
+      </c>
+      <c r="K61" s="3">
         <v>15528000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18527900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16927900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18109500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49723700</v>
+        <v>23401500</v>
       </c>
       <c r="E62" s="3">
-        <v>50762200</v>
+        <v>47494300</v>
       </c>
       <c r="F62" s="3">
-        <v>19854600</v>
+        <v>48295600</v>
       </c>
       <c r="G62" s="3">
-        <v>25249100</v>
+        <v>18889800</v>
       </c>
       <c r="H62" s="3">
-        <v>26570200</v>
+        <v>24022200</v>
       </c>
       <c r="I62" s="3">
-        <v>31937500</v>
+        <v>25279100</v>
       </c>
       <c r="J62" s="3">
+        <v>30385600</v>
+      </c>
+      <c r="K62" s="3">
         <v>35007300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>73540000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>104377000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>67904900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48814900</v>
+        <v>131870000</v>
       </c>
       <c r="E66" s="3">
-        <v>51321900</v>
+        <v>46421100</v>
       </c>
       <c r="F66" s="3">
-        <v>77860400</v>
+        <v>48828000</v>
       </c>
       <c r="G66" s="3">
-        <v>67963700</v>
+        <v>74077000</v>
       </c>
       <c r="H66" s="3">
-        <v>80343300</v>
+        <v>64661200</v>
       </c>
       <c r="I66" s="3">
-        <v>80167700</v>
+        <v>76439300</v>
       </c>
       <c r="J66" s="3">
+        <v>76272200</v>
+      </c>
+      <c r="K66" s="3">
         <v>86103300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88091800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>83733500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>92266200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2747,14 +2915,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>109800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>117400</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9376400</v>
+        <v>11110700</v>
       </c>
       <c r="E72" s="3">
-        <v>9717800</v>
+        <v>8617700</v>
       </c>
       <c r="F72" s="3">
-        <v>1242500</v>
+        <v>9245600</v>
       </c>
       <c r="G72" s="3">
-        <v>2582200</v>
+        <v>1182200</v>
       </c>
       <c r="H72" s="3">
-        <v>-711300</v>
+        <v>2456700</v>
       </c>
       <c r="I72" s="3">
-        <v>3940400</v>
+        <v>-676700</v>
       </c>
       <c r="J72" s="3">
+        <v>3748900</v>
+      </c>
+      <c r="K72" s="3">
         <v>5463300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8908100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24317400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15423900</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18453800</v>
+        <v>15832100</v>
       </c>
       <c r="E76" s="3">
-        <v>18506200</v>
+        <v>17557100</v>
       </c>
       <c r="F76" s="3">
-        <v>9530200</v>
+        <v>17606900</v>
       </c>
       <c r="G76" s="3">
-        <v>7373500</v>
+        <v>9067100</v>
       </c>
       <c r="H76" s="3">
-        <v>3004400</v>
+        <v>7015200</v>
       </c>
       <c r="I76" s="3">
-        <v>6378600</v>
+        <v>2858400</v>
       </c>
       <c r="J76" s="3">
+        <v>6068600</v>
+      </c>
+      <c r="K76" s="3">
         <v>8059600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9256200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13254000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16348800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1085500</v>
+        <v>748300</v>
       </c>
       <c r="E81" s="3">
-        <v>9270600</v>
+        <v>1090800</v>
       </c>
       <c r="F81" s="3">
-        <v>365500</v>
+        <v>8820100</v>
       </c>
       <c r="G81" s="3">
-        <v>2072700</v>
+        <v>347700</v>
       </c>
       <c r="H81" s="3">
-        <v>-6229100</v>
+        <v>1972000</v>
       </c>
       <c r="I81" s="3">
-        <v>-185500</v>
+        <v>-5926400</v>
       </c>
       <c r="J81" s="3">
+        <v>-176400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1858900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3297900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1434000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2119900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3468000</v>
+        <v>2197200</v>
       </c>
       <c r="E83" s="3">
-        <v>3004400</v>
+        <v>3299500</v>
       </c>
       <c r="F83" s="3">
-        <v>1045100</v>
+        <v>2858400</v>
       </c>
       <c r="G83" s="3">
-        <v>1056000</v>
+        <v>994300</v>
       </c>
       <c r="H83" s="3">
-        <v>7276400</v>
+        <v>1004700</v>
       </c>
       <c r="I83" s="3">
-        <v>6139600</v>
+        <v>6922800</v>
       </c>
       <c r="J83" s="3">
+        <v>5841300</v>
+      </c>
+      <c r="K83" s="3">
         <v>3363300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8745400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5880900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4041400</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4554500</v>
+        <v>7549700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1661500</v>
+        <v>4333200</v>
       </c>
       <c r="F89" s="3">
-        <v>7252400</v>
+        <v>-1580700</v>
       </c>
       <c r="G89" s="3">
-        <v>-1913500</v>
+        <v>6900000</v>
       </c>
       <c r="H89" s="3">
-        <v>2565800</v>
+        <v>-1820500</v>
       </c>
       <c r="I89" s="3">
-        <v>3506200</v>
+        <v>2441100</v>
       </c>
       <c r="J89" s="3">
+        <v>3335800</v>
+      </c>
+      <c r="K89" s="3">
         <v>6946900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6670000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4825700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6467700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3663300</v>
+        <v>-3911800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1932000</v>
+        <v>-3485300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1359300</v>
+        <v>-1838100</v>
       </c>
       <c r="G91" s="3">
-        <v>-3422200</v>
+        <v>-1293200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2517800</v>
+        <v>-3255900</v>
       </c>
       <c r="I91" s="3">
-        <v>-3461500</v>
+        <v>-2395500</v>
       </c>
       <c r="J91" s="3">
+        <v>-3293300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3654500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4696300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5578900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7457200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4749800</v>
+        <v>-8031300</v>
       </c>
       <c r="E94" s="3">
-        <v>-795300</v>
+        <v>-4519000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4804400</v>
+        <v>-756600</v>
       </c>
       <c r="G94" s="3">
-        <v>2935600</v>
+        <v>-4570900</v>
       </c>
       <c r="H94" s="3">
-        <v>-4985500</v>
+        <v>2793000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2079300</v>
+        <v>-4743200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1978200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5311600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2796700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1410900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9115800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-569500</v>
+        <v>-757700</v>
       </c>
       <c r="E96" s="3">
-        <v>-610900</v>
+        <v>-541800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1118200</v>
+        <v>-581200</v>
       </c>
       <c r="G96" s="3">
-        <v>-173500</v>
+        <v>-1063800</v>
       </c>
       <c r="H96" s="3">
-        <v>-444000</v>
+        <v>-165000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1167300</v>
+        <v>-422400</v>
       </c>
       <c r="J96" s="3">
+        <v>-1110600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1157500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1927100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1708500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2700900</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1936400</v>
+        <v>1512200</v>
       </c>
       <c r="E100" s="3">
-        <v>244400</v>
+        <v>1842300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1080000</v>
+        <v>232500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1675600</v>
+        <v>-1027500</v>
       </c>
       <c r="H100" s="3">
-        <v>4671300</v>
+        <v>-1594200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2228700</v>
+        <v>4444300</v>
       </c>
       <c r="J100" s="3">
+        <v>-2120400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2400000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2385200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2704400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2044800</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37100</v>
+        <v>60200</v>
       </c>
       <c r="E101" s="3">
-        <v>16400</v>
+        <v>-35300</v>
       </c>
       <c r="F101" s="3">
-        <v>14200</v>
+        <v>15600</v>
       </c>
       <c r="G101" s="3">
-        <v>-20700</v>
+        <v>13500</v>
       </c>
       <c r="H101" s="3">
-        <v>-26200</v>
+        <v>-19700</v>
       </c>
       <c r="I101" s="3">
-        <v>15300</v>
+        <v>-24900</v>
       </c>
       <c r="J101" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K101" s="3">
         <v>8700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-21500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1704000</v>
+        <v>1090800</v>
       </c>
       <c r="E102" s="3">
-        <v>-2196000</v>
+        <v>1621200</v>
       </c>
       <c r="F102" s="3">
-        <v>1382200</v>
+        <v>-2089300</v>
       </c>
       <c r="G102" s="3">
-        <v>-674200</v>
+        <v>1315000</v>
       </c>
       <c r="H102" s="3">
-        <v>2225500</v>
+        <v>-641400</v>
       </c>
       <c r="I102" s="3">
-        <v>-786500</v>
+        <v>2117300</v>
       </c>
       <c r="J102" s="3">
+        <v>-748300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-756000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1466500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>728000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-617400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25455500</v>
+        <v>24462200</v>
       </c>
       <c r="E8" s="3">
-        <v>14206800</v>
+        <v>13652400</v>
       </c>
       <c r="F8" s="3">
-        <v>13622400</v>
+        <v>13090900</v>
       </c>
       <c r="G8" s="3">
-        <v>13914100</v>
+        <v>13371100</v>
       </c>
       <c r="H8" s="3">
-        <v>14345900</v>
+        <v>13786100</v>
       </c>
       <c r="I8" s="3">
-        <v>45242100</v>
+        <v>43476700</v>
       </c>
       <c r="J8" s="3">
-        <v>47585600</v>
+        <v>45728800</v>
       </c>
       <c r="K8" s="3">
         <v>50344400</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18314800</v>
+        <v>17600100</v>
       </c>
       <c r="E9" s="3">
-        <v>10088400</v>
+        <v>9694700</v>
       </c>
       <c r="F9" s="3">
-        <v>9321400</v>
+        <v>8957600</v>
       </c>
       <c r="G9" s="3">
-        <v>10330200</v>
+        <v>9927100</v>
       </c>
       <c r="H9" s="3">
-        <v>10344700</v>
+        <v>9941100</v>
       </c>
       <c r="I9" s="3">
-        <v>34389800</v>
+        <v>33047900</v>
       </c>
       <c r="J9" s="3">
-        <v>34768600</v>
+        <v>33411900</v>
       </c>
       <c r="K9" s="3">
         <v>36444000</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7140800</v>
+        <v>6862100</v>
       </c>
       <c r="E10" s="3">
-        <v>4118400</v>
+        <v>3957700</v>
       </c>
       <c r="F10" s="3">
-        <v>4301100</v>
+        <v>4133200</v>
       </c>
       <c r="G10" s="3">
-        <v>3583900</v>
+        <v>3444000</v>
       </c>
       <c r="H10" s="3">
-        <v>4001100</v>
+        <v>3845000</v>
       </c>
       <c r="I10" s="3">
-        <v>10852300</v>
+        <v>10428800</v>
       </c>
       <c r="J10" s="3">
-        <v>12817000</v>
+        <v>12316900</v>
       </c>
       <c r="K10" s="3">
         <v>13900400</v>
@@ -937,25 +937,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>567700</v>
+        <v>545600</v>
       </c>
       <c r="E14" s="3">
-        <v>1677200</v>
+        <v>1611800</v>
       </c>
       <c r="F14" s="3">
-        <v>1522600</v>
+        <v>1463200</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>404800</v>
+        <v>389000</v>
       </c>
       <c r="I14" s="3">
-        <v>4300000</v>
+        <v>4132200</v>
       </c>
       <c r="J14" s="3">
-        <v>2826200</v>
+        <v>2715900</v>
       </c>
       <c r="K14" s="3">
         <v>593500</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1474900</v>
+        <v>1417300</v>
       </c>
       <c r="E15" s="3">
-        <v>1478000</v>
+        <v>1420300</v>
       </c>
       <c r="F15" s="3">
-        <v>1243400</v>
+        <v>1194900</v>
       </c>
       <c r="G15" s="3">
-        <v>935100</v>
+        <v>898700</v>
       </c>
       <c r="H15" s="3">
-        <v>988100</v>
+        <v>949500</v>
       </c>
       <c r="I15" s="3">
-        <v>2352900</v>
+        <v>2261100</v>
       </c>
       <c r="J15" s="3">
-        <v>2503400</v>
+        <v>2405700</v>
       </c>
       <c r="K15" s="3">
         <v>2478500</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24299300</v>
+        <v>23351100</v>
       </c>
       <c r="E17" s="3">
-        <v>12753700</v>
+        <v>12256100</v>
       </c>
       <c r="F17" s="3">
-        <v>13770900</v>
+        <v>13233500</v>
       </c>
       <c r="G17" s="3">
-        <v>13614100</v>
+        <v>13082900</v>
       </c>
       <c r="H17" s="3">
-        <v>12309500</v>
+        <v>11829200</v>
       </c>
       <c r="I17" s="3">
-        <v>49517200</v>
+        <v>47585000</v>
       </c>
       <c r="J17" s="3">
-        <v>47099900</v>
+        <v>45262000</v>
       </c>
       <c r="K17" s="3">
         <v>46471700</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1156200</v>
+        <v>1111100</v>
       </c>
       <c r="E18" s="3">
-        <v>1453100</v>
+        <v>1396400</v>
       </c>
       <c r="F18" s="3">
-        <v>-148400</v>
+        <v>-142600</v>
       </c>
       <c r="G18" s="3">
-        <v>300000</v>
+        <v>288200</v>
       </c>
       <c r="H18" s="3">
-        <v>2036400</v>
+        <v>1956900</v>
       </c>
       <c r="I18" s="3">
-        <v>-4275100</v>
+        <v>-4108300</v>
       </c>
       <c r="J18" s="3">
-        <v>485700</v>
+        <v>466800</v>
       </c>
       <c r="K18" s="3">
         <v>3872700</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>776300</v>
+        <v>746100</v>
       </c>
       <c r="E20" s="3">
-        <v>167100</v>
+        <v>160600</v>
       </c>
       <c r="F20" s="3">
-        <v>-364300</v>
+        <v>-350100</v>
       </c>
       <c r="G20" s="3">
-        <v>-62300</v>
+        <v>-59800</v>
       </c>
       <c r="H20" s="3">
-        <v>406900</v>
+        <v>391000</v>
       </c>
       <c r="I20" s="3">
-        <v>-803300</v>
+        <v>-772000</v>
       </c>
       <c r="J20" s="3">
-        <v>-37400</v>
+        <v>-35900</v>
       </c>
       <c r="K20" s="3">
         <v>-244400</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4157700</v>
+        <v>3966700</v>
       </c>
       <c r="E21" s="3">
-        <v>4961600</v>
+        <v>4724800</v>
       </c>
       <c r="F21" s="3">
-        <v>2382000</v>
+        <v>2251600</v>
       </c>
       <c r="G21" s="3">
-        <v>1244600</v>
+        <v>1183100</v>
       </c>
       <c r="H21" s="3">
-        <v>3460700</v>
+        <v>3312500</v>
       </c>
       <c r="I21" s="3">
-        <v>1932400</v>
+        <v>1766400</v>
       </c>
       <c r="J21" s="3">
-        <v>6364000</v>
+        <v>6039200</v>
       </c>
       <c r="K21" s="3">
         <v>7042800</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>352900</v>
+        <v>339100</v>
       </c>
       <c r="E22" s="3">
-        <v>307200</v>
+        <v>295200</v>
       </c>
       <c r="F22" s="3">
-        <v>267800</v>
+        <v>257300</v>
       </c>
       <c r="G22" s="3">
-        <v>186800</v>
+        <v>179500</v>
       </c>
       <c r="H22" s="3">
-        <v>309300</v>
+        <v>297200</v>
       </c>
       <c r="I22" s="3">
-        <v>948600</v>
+        <v>911600</v>
       </c>
       <c r="J22" s="3">
-        <v>1109500</v>
+        <v>1066200</v>
       </c>
       <c r="K22" s="3">
         <v>1178200</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1579700</v>
+        <v>1518000</v>
       </c>
       <c r="E23" s="3">
-        <v>1312900</v>
+        <v>1261700</v>
       </c>
       <c r="F23" s="3">
-        <v>-780500</v>
+        <v>-750000</v>
       </c>
       <c r="G23" s="3">
-        <v>50900</v>
+        <v>48900</v>
       </c>
       <c r="H23" s="3">
-        <v>2133900</v>
+        <v>2050700</v>
       </c>
       <c r="I23" s="3">
-        <v>-6027100</v>
+        <v>-5791900</v>
       </c>
       <c r="J23" s="3">
-        <v>-661100</v>
+        <v>-635300</v>
       </c>
       <c r="K23" s="3">
         <v>2450200</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>716200</v>
+        <v>688200</v>
       </c>
       <c r="E24" s="3">
-        <v>390300</v>
+        <v>375000</v>
       </c>
       <c r="F24" s="3">
-        <v>-95500</v>
+        <v>-91800</v>
       </c>
       <c r="G24" s="3">
-        <v>106900</v>
+        <v>102700</v>
       </c>
       <c r="H24" s="3">
-        <v>345600</v>
+        <v>332100</v>
       </c>
       <c r="I24" s="3">
-        <v>-335200</v>
+        <v>-322200</v>
       </c>
       <c r="J24" s="3">
-        <v>625900</v>
+        <v>601400</v>
       </c>
       <c r="K24" s="3">
         <v>603300</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>863500</v>
+        <v>829800</v>
       </c>
       <c r="E26" s="3">
-        <v>922700</v>
+        <v>886700</v>
       </c>
       <c r="F26" s="3">
-        <v>-685000</v>
+        <v>-658300</v>
       </c>
       <c r="G26" s="3">
-        <v>-56000</v>
+        <v>-53900</v>
       </c>
       <c r="H26" s="3">
-        <v>1788300</v>
+        <v>1718500</v>
       </c>
       <c r="I26" s="3">
-        <v>-5691800</v>
+        <v>-5469700</v>
       </c>
       <c r="J26" s="3">
-        <v>-1287000</v>
+        <v>-1236800</v>
       </c>
       <c r="K26" s="3">
         <v>1846900</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>748300</v>
+        <v>719100</v>
       </c>
       <c r="E27" s="3">
-        <v>861500</v>
+        <v>827800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1368000</v>
+        <v>-1314600</v>
       </c>
       <c r="G27" s="3">
-        <v>-822000</v>
+        <v>-789900</v>
       </c>
       <c r="H27" s="3">
-        <v>1357600</v>
+        <v>1304600</v>
       </c>
       <c r="I27" s="3">
-        <v>-5926400</v>
+        <v>-5695200</v>
       </c>
       <c r="J27" s="3">
-        <v>-1758200</v>
+        <v>-1689600</v>
       </c>
       <c r="K27" s="3">
         <v>1461800</v>
@@ -1478,22 +1478,22 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>229400</v>
+        <v>220400</v>
       </c>
       <c r="F29" s="3">
-        <v>10188000</v>
+        <v>9790500</v>
       </c>
       <c r="G29" s="3">
-        <v>1169700</v>
+        <v>1124100</v>
       </c>
       <c r="H29" s="3">
-        <v>614400</v>
+        <v>590500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>1581800</v>
+        <v>1520000</v>
       </c>
       <c r="K29" s="3">
         <v>397100</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-776300</v>
+        <v>-746100</v>
       </c>
       <c r="E32" s="3">
-        <v>-167100</v>
+        <v>-160600</v>
       </c>
       <c r="F32" s="3">
-        <v>364300</v>
+        <v>350100</v>
       </c>
       <c r="G32" s="3">
-        <v>62300</v>
+        <v>59800</v>
       </c>
       <c r="H32" s="3">
-        <v>-406900</v>
+        <v>-391000</v>
       </c>
       <c r="I32" s="3">
-        <v>803300</v>
+        <v>772000</v>
       </c>
       <c r="J32" s="3">
-        <v>37400</v>
+        <v>35900</v>
       </c>
       <c r="K32" s="3">
         <v>244400</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>748300</v>
+        <v>719100</v>
       </c>
       <c r="E33" s="3">
-        <v>1090800</v>
+        <v>1048300</v>
       </c>
       <c r="F33" s="3">
-        <v>8820100</v>
+        <v>8475900</v>
       </c>
       <c r="G33" s="3">
-        <v>347700</v>
+        <v>334100</v>
       </c>
       <c r="H33" s="3">
-        <v>1972000</v>
+        <v>1895100</v>
       </c>
       <c r="I33" s="3">
-        <v>-5926400</v>
+        <v>-5695200</v>
       </c>
       <c r="J33" s="3">
-        <v>-176400</v>
+        <v>-169600</v>
       </c>
       <c r="K33" s="3">
         <v>1858900</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>748300</v>
+        <v>719100</v>
       </c>
       <c r="E35" s="3">
-        <v>1090800</v>
+        <v>1048300</v>
       </c>
       <c r="F35" s="3">
-        <v>8820100</v>
+        <v>8475900</v>
       </c>
       <c r="G35" s="3">
-        <v>347700</v>
+        <v>334100</v>
       </c>
       <c r="H35" s="3">
-        <v>1972000</v>
+        <v>1895100</v>
       </c>
       <c r="I35" s="3">
-        <v>-5926400</v>
+        <v>-5695200</v>
       </c>
       <c r="J35" s="3">
-        <v>-176400</v>
+        <v>-169600</v>
       </c>
       <c r="K35" s="3">
         <v>1858900</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6045800</v>
+        <v>5809900</v>
       </c>
       <c r="E41" s="3">
-        <v>4954900</v>
+        <v>4761600</v>
       </c>
       <c r="F41" s="3">
-        <v>6626000</v>
+        <v>6367400</v>
       </c>
       <c r="G41" s="3">
-        <v>3656500</v>
+        <v>3513800</v>
       </c>
       <c r="H41" s="3">
-        <v>4082100</v>
+        <v>3922800</v>
       </c>
       <c r="I41" s="3">
-        <v>4749400</v>
+        <v>4564100</v>
       </c>
       <c r="J41" s="3">
-        <v>2617600</v>
+        <v>2515400</v>
       </c>
       <c r="K41" s="3">
         <v>3459300</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8344700</v>
+        <v>8019100</v>
       </c>
       <c r="E42" s="3">
-        <v>4378900</v>
+        <v>4208000</v>
       </c>
       <c r="F42" s="3">
-        <v>3381500</v>
+        <v>3249500</v>
       </c>
       <c r="G42" s="3">
-        <v>3745800</v>
+        <v>3599600</v>
       </c>
       <c r="H42" s="3">
-        <v>5078400</v>
+        <v>4880300</v>
       </c>
       <c r="I42" s="3">
-        <v>10197400</v>
+        <v>9799500</v>
       </c>
       <c r="J42" s="3">
-        <v>7718900</v>
+        <v>7417700</v>
       </c>
       <c r="K42" s="3">
         <v>4810900</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20022100</v>
+        <v>19240800</v>
       </c>
       <c r="E43" s="3">
-        <v>9054600</v>
+        <v>8701300</v>
       </c>
       <c r="F43" s="3">
-        <v>10168300</v>
+        <v>9771500</v>
       </c>
       <c r="G43" s="3">
-        <v>5029700</v>
+        <v>4833400</v>
       </c>
       <c r="H43" s="3">
-        <v>7882900</v>
+        <v>7575300</v>
       </c>
       <c r="I43" s="3">
-        <v>6958100</v>
+        <v>6686600</v>
       </c>
       <c r="J43" s="3">
-        <v>7093000</v>
+        <v>6816200</v>
       </c>
       <c r="K43" s="3">
         <v>9334900</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2935200</v>
+        <v>2820600</v>
       </c>
       <c r="E44" s="3">
-        <v>3387700</v>
+        <v>3255500</v>
       </c>
       <c r="F44" s="3">
-        <v>3290100</v>
+        <v>3161800</v>
       </c>
       <c r="G44" s="3">
-        <v>1692800</v>
+        <v>1626800</v>
       </c>
       <c r="H44" s="3">
-        <v>1996900</v>
+        <v>1919000</v>
       </c>
       <c r="I44" s="3">
-        <v>2042600</v>
+        <v>1962900</v>
       </c>
       <c r="J44" s="3">
-        <v>2033200</v>
+        <v>1953900</v>
       </c>
       <c r="K44" s="3">
         <v>2434900</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>70018800</v>
+        <v>67286600</v>
       </c>
       <c r="E45" s="3">
-        <v>24300400</v>
+        <v>23352100</v>
       </c>
       <c r="F45" s="3">
-        <v>30453000</v>
+        <v>29264700</v>
       </c>
       <c r="G45" s="3">
-        <v>49719600</v>
+        <v>47779400</v>
       </c>
       <c r="H45" s="3">
-        <v>5210300</v>
+        <v>5006900</v>
       </c>
       <c r="I45" s="3">
-        <v>7699100</v>
+        <v>7398700</v>
       </c>
       <c r="J45" s="3">
-        <v>9475000</v>
+        <v>9105300</v>
       </c>
       <c r="K45" s="3">
         <v>14969500</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>107367000</v>
+        <v>103177000</v>
       </c>
       <c r="E46" s="3">
-        <v>28255800</v>
+        <v>27153200</v>
       </c>
       <c r="F46" s="3">
-        <v>29311300</v>
+        <v>28167600</v>
       </c>
       <c r="G46" s="3">
-        <v>63844300</v>
+        <v>61353100</v>
       </c>
       <c r="H46" s="3">
-        <v>24250500</v>
+        <v>23304300</v>
       </c>
       <c r="I46" s="3">
-        <v>31646600</v>
+        <v>30411700</v>
       </c>
       <c r="J46" s="3">
-        <v>28937700</v>
+        <v>27808500</v>
       </c>
       <c r="K46" s="3">
         <v>35009500</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9177100</v>
+        <v>8819000</v>
       </c>
       <c r="E47" s="3">
-        <v>8081100</v>
+        <v>7765800</v>
       </c>
       <c r="F47" s="3">
-        <v>8313600</v>
+        <v>7989200</v>
       </c>
       <c r="G47" s="3">
-        <v>2307300</v>
+        <v>2217200</v>
       </c>
       <c r="H47" s="3">
-        <v>4722400</v>
+        <v>4538200</v>
       </c>
       <c r="I47" s="3">
-        <v>4758800</v>
+        <v>4573100</v>
       </c>
       <c r="J47" s="3">
-        <v>4704800</v>
+        <v>4521200</v>
       </c>
       <c r="K47" s="3">
         <v>5536400</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20741400</v>
+        <v>19932000</v>
       </c>
       <c r="E48" s="3">
-        <v>37162000</v>
+        <v>35711900</v>
       </c>
       <c r="F48" s="3">
-        <v>39419400</v>
+        <v>37881300</v>
       </c>
       <c r="G48" s="3">
-        <v>12879300</v>
+        <v>12376700</v>
       </c>
       <c r="H48" s="3">
-        <v>25892500</v>
+        <v>24882100</v>
       </c>
       <c r="I48" s="3">
-        <v>25447200</v>
+        <v>24454300</v>
       </c>
       <c r="J48" s="3">
-        <v>30544400</v>
+        <v>29352500</v>
       </c>
       <c r="K48" s="3">
         <v>33973100</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6077900</v>
+        <v>5840800</v>
       </c>
       <c r="E49" s="3">
-        <v>10173500</v>
+        <v>9776500</v>
       </c>
       <c r="F49" s="3">
-        <v>9998100</v>
+        <v>9608000</v>
       </c>
       <c r="G49" s="3">
-        <v>2266800</v>
+        <v>2178300</v>
       </c>
       <c r="H49" s="3">
-        <v>12820100</v>
+        <v>12319900</v>
       </c>
       <c r="I49" s="3">
-        <v>13226000</v>
+        <v>12709900</v>
       </c>
       <c r="J49" s="3">
-        <v>13709600</v>
+        <v>13174700</v>
       </c>
       <c r="K49" s="3">
         <v>13959300</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4339500</v>
+        <v>4170100</v>
       </c>
       <c r="E52" s="3">
-        <v>7834100</v>
+        <v>7528400</v>
       </c>
       <c r="F52" s="3">
-        <v>7929600</v>
+        <v>7620100</v>
       </c>
       <c r="G52" s="3">
-        <v>1846400</v>
+        <v>1774400</v>
       </c>
       <c r="H52" s="3">
-        <v>3990700</v>
+        <v>3835000</v>
       </c>
       <c r="I52" s="3">
-        <v>4219100</v>
+        <v>4054400</v>
       </c>
       <c r="J52" s="3">
-        <v>4444300</v>
+        <v>4270900</v>
       </c>
       <c r="K52" s="3">
         <v>5684700</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>147703000</v>
+        <v>141939000</v>
       </c>
       <c r="E54" s="3">
-        <v>63978200</v>
+        <v>61481700</v>
       </c>
       <c r="F54" s="3">
-        <v>66434900</v>
+        <v>63842600</v>
       </c>
       <c r="G54" s="3">
-        <v>83144100</v>
+        <v>79899700</v>
       </c>
       <c r="H54" s="3">
-        <v>71676300</v>
+        <v>68879400</v>
       </c>
       <c r="I54" s="3">
-        <v>79297600</v>
+        <v>76203400</v>
       </c>
       <c r="J54" s="3">
-        <v>82340800</v>
+        <v>79127700</v>
       </c>
       <c r="K54" s="3">
         <v>94163000</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4595800</v>
+        <v>4416500</v>
       </c>
       <c r="E57" s="3">
-        <v>2477500</v>
+        <v>2380800</v>
       </c>
       <c r="F57" s="3">
-        <v>3100200</v>
+        <v>2979200</v>
       </c>
       <c r="G57" s="3">
-        <v>2521100</v>
+        <v>2422700</v>
       </c>
       <c r="H57" s="3">
-        <v>5269400</v>
+        <v>5063800</v>
       </c>
       <c r="I57" s="3">
-        <v>5636800</v>
+        <v>5416900</v>
       </c>
       <c r="J57" s="3">
-        <v>6354000</v>
+        <v>6106100</v>
       </c>
       <c r="K57" s="3">
         <v>6882600</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6606200</v>
+        <v>6348500</v>
       </c>
       <c r="E58" s="3">
-        <v>1469700</v>
+        <v>1412300</v>
       </c>
       <c r="F58" s="3">
-        <v>2245000</v>
+        <v>2157400</v>
       </c>
       <c r="G58" s="3">
-        <v>94400</v>
+        <v>90800</v>
       </c>
       <c r="H58" s="3">
-        <v>1783100</v>
+        <v>1713500</v>
       </c>
       <c r="I58" s="3">
-        <v>916500</v>
+        <v>880700</v>
       </c>
       <c r="J58" s="3">
-        <v>1273500</v>
+        <v>1223800</v>
       </c>
       <c r="K58" s="3">
         <v>2391300</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>89481500</v>
+        <v>85989800</v>
       </c>
       <c r="E59" s="3">
-        <v>24107300</v>
+        <v>23166600</v>
       </c>
       <c r="F59" s="3">
-        <v>30457200</v>
+        <v>29268700</v>
       </c>
       <c r="G59" s="3">
-        <v>44966000</v>
+        <v>43211400</v>
       </c>
       <c r="H59" s="3">
-        <v>14010600</v>
+        <v>13463900</v>
       </c>
       <c r="I59" s="3">
-        <v>23302900</v>
+        <v>22393600</v>
       </c>
       <c r="J59" s="3">
-        <v>18449700</v>
+        <v>17729800</v>
       </c>
       <c r="K59" s="3">
         <v>21511700</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100684000</v>
+        <v>96754800</v>
       </c>
       <c r="E60" s="3">
-        <v>17126400</v>
+        <v>16458100</v>
       </c>
       <c r="F60" s="3">
-        <v>20348000</v>
+        <v>19554000</v>
       </c>
       <c r="G60" s="3">
-        <v>47581500</v>
+        <v>45724800</v>
       </c>
       <c r="H60" s="3">
-        <v>21063100</v>
+        <v>20241200</v>
       </c>
       <c r="I60" s="3">
-        <v>29856200</v>
+        <v>28691200</v>
       </c>
       <c r="J60" s="3">
-        <v>26077200</v>
+        <v>25059700</v>
       </c>
       <c r="K60" s="3">
         <v>30785500</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5977300</v>
+        <v>5744000</v>
       </c>
       <c r="E61" s="3">
-        <v>3422000</v>
+        <v>3288400</v>
       </c>
       <c r="F61" s="3">
-        <v>3220600</v>
+        <v>3094900</v>
       </c>
       <c r="G61" s="3">
-        <v>1875500</v>
+        <v>1802300</v>
       </c>
       <c r="H61" s="3">
-        <v>14145500</v>
+        <v>13593600</v>
       </c>
       <c r="I61" s="3">
-        <v>15869500</v>
+        <v>15250200</v>
       </c>
       <c r="J61" s="3">
-        <v>16646900</v>
+        <v>15997300</v>
       </c>
       <c r="K61" s="3">
         <v>15528000</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23401500</v>
+        <v>22488400</v>
       </c>
       <c r="E62" s="3">
-        <v>47494300</v>
+        <v>45641000</v>
       </c>
       <c r="F62" s="3">
-        <v>48295600</v>
+        <v>46411000</v>
       </c>
       <c r="G62" s="3">
-        <v>18889800</v>
+        <v>18152700</v>
       </c>
       <c r="H62" s="3">
-        <v>24022200</v>
+        <v>23084800</v>
       </c>
       <c r="I62" s="3">
-        <v>25279100</v>
+        <v>24292700</v>
       </c>
       <c r="J62" s="3">
-        <v>30385600</v>
+        <v>29199900</v>
       </c>
       <c r="K62" s="3">
         <v>35007300</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>131870000</v>
+        <v>126725000</v>
       </c>
       <c r="E66" s="3">
-        <v>46421100</v>
+        <v>44609700</v>
       </c>
       <c r="F66" s="3">
-        <v>48828000</v>
+        <v>46922700</v>
       </c>
       <c r="G66" s="3">
-        <v>74077000</v>
+        <v>71186400</v>
       </c>
       <c r="H66" s="3">
-        <v>64661200</v>
+        <v>62138000</v>
       </c>
       <c r="I66" s="3">
-        <v>76439300</v>
+        <v>73456500</v>
       </c>
       <c r="J66" s="3">
-        <v>76272200</v>
+        <v>73295900</v>
       </c>
       <c r="K66" s="3">
         <v>86103300</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11110700</v>
+        <v>10677200</v>
       </c>
       <c r="E72" s="3">
-        <v>8617700</v>
+        <v>8281400</v>
       </c>
       <c r="F72" s="3">
-        <v>9245600</v>
+        <v>8884800</v>
       </c>
       <c r="G72" s="3">
-        <v>1182200</v>
+        <v>1136000</v>
       </c>
       <c r="H72" s="3">
-        <v>2456700</v>
+        <v>2360800</v>
       </c>
       <c r="I72" s="3">
-        <v>-676700</v>
+        <v>-650300</v>
       </c>
       <c r="J72" s="3">
-        <v>3748900</v>
+        <v>3602600</v>
       </c>
       <c r="K72" s="3">
         <v>5463300</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15832100</v>
+        <v>15214300</v>
       </c>
       <c r="E76" s="3">
-        <v>17557100</v>
+        <v>16872000</v>
       </c>
       <c r="F76" s="3">
-        <v>17606900</v>
+        <v>16919900</v>
       </c>
       <c r="G76" s="3">
-        <v>9067100</v>
+        <v>8713300</v>
       </c>
       <c r="H76" s="3">
-        <v>7015200</v>
+        <v>6741400</v>
       </c>
       <c r="I76" s="3">
-        <v>2858400</v>
+        <v>2746800</v>
       </c>
       <c r="J76" s="3">
-        <v>6068600</v>
+        <v>5831800</v>
       </c>
       <c r="K76" s="3">
         <v>8059600</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>748300</v>
+        <v>719100</v>
       </c>
       <c r="E81" s="3">
-        <v>1090800</v>
+        <v>1048300</v>
       </c>
       <c r="F81" s="3">
-        <v>8820100</v>
+        <v>8475900</v>
       </c>
       <c r="G81" s="3">
-        <v>347700</v>
+        <v>334100</v>
       </c>
       <c r="H81" s="3">
-        <v>1972000</v>
+        <v>1895100</v>
       </c>
       <c r="I81" s="3">
-        <v>-5926400</v>
+        <v>-5695200</v>
       </c>
       <c r="J81" s="3">
-        <v>-176400</v>
+        <v>-169600</v>
       </c>
       <c r="K81" s="3">
         <v>1858900</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2197200</v>
+        <v>2111500</v>
       </c>
       <c r="E83" s="3">
-        <v>3299500</v>
+        <v>3170700</v>
       </c>
       <c r="F83" s="3">
-        <v>2858400</v>
+        <v>2746800</v>
       </c>
       <c r="G83" s="3">
-        <v>994300</v>
+        <v>955500</v>
       </c>
       <c r="H83" s="3">
-        <v>1004700</v>
+        <v>965500</v>
       </c>
       <c r="I83" s="3">
-        <v>6922800</v>
+        <v>6652700</v>
       </c>
       <c r="J83" s="3">
-        <v>5841300</v>
+        <v>5613400</v>
       </c>
       <c r="K83" s="3">
         <v>3363300</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7549700</v>
+        <v>7255100</v>
       </c>
       <c r="E89" s="3">
-        <v>4333200</v>
+        <v>4164100</v>
       </c>
       <c r="F89" s="3">
-        <v>-1580700</v>
+        <v>-1519000</v>
       </c>
       <c r="G89" s="3">
-        <v>6900000</v>
+        <v>6630700</v>
       </c>
       <c r="H89" s="3">
-        <v>-1820500</v>
+        <v>-1749400</v>
       </c>
       <c r="I89" s="3">
-        <v>2441100</v>
+        <v>2345900</v>
       </c>
       <c r="J89" s="3">
-        <v>3335800</v>
+        <v>3205600</v>
       </c>
       <c r="K89" s="3">
         <v>6946900</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3911800</v>
+        <v>-3759200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3485300</v>
+        <v>-3349300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1838100</v>
+        <v>-1766400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1293200</v>
+        <v>-1242800</v>
       </c>
       <c r="H91" s="3">
-        <v>-3255900</v>
+        <v>-3128800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2395500</v>
+        <v>-2302000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3293300</v>
+        <v>-3164800</v>
       </c>
       <c r="K91" s="3">
         <v>-3654500</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8031300</v>
+        <v>-7717900</v>
       </c>
       <c r="E94" s="3">
-        <v>-4519000</v>
+        <v>-4342700</v>
       </c>
       <c r="F94" s="3">
-        <v>-756600</v>
+        <v>-727100</v>
       </c>
       <c r="G94" s="3">
-        <v>-4570900</v>
+        <v>-4392500</v>
       </c>
       <c r="H94" s="3">
-        <v>2793000</v>
+        <v>2684000</v>
       </c>
       <c r="I94" s="3">
-        <v>-4743200</v>
+        <v>-4558100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1978200</v>
+        <v>-1901000</v>
       </c>
       <c r="K94" s="3">
         <v>-5311600</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-757700</v>
+        <v>-728100</v>
       </c>
       <c r="E96" s="3">
-        <v>-541800</v>
+        <v>-520600</v>
       </c>
       <c r="F96" s="3">
-        <v>-581200</v>
+        <v>-558500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1063800</v>
+        <v>-1022300</v>
       </c>
       <c r="H96" s="3">
-        <v>-165000</v>
+        <v>-158600</v>
       </c>
       <c r="I96" s="3">
-        <v>-422400</v>
+        <v>-405900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1110600</v>
+        <v>-1067200</v>
       </c>
       <c r="K96" s="3">
         <v>-1157500</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1512200</v>
+        <v>1453200</v>
       </c>
       <c r="E100" s="3">
-        <v>1842300</v>
+        <v>1770400</v>
       </c>
       <c r="F100" s="3">
-        <v>232500</v>
+        <v>223400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1027500</v>
+        <v>-987400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1594200</v>
+        <v>-1532000</v>
       </c>
       <c r="I100" s="3">
-        <v>4444300</v>
+        <v>4270900</v>
       </c>
       <c r="J100" s="3">
-        <v>-2120400</v>
+        <v>-2037700</v>
       </c>
       <c r="K100" s="3">
         <v>-2400000</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>60200</v>
+        <v>57800</v>
       </c>
       <c r="E101" s="3">
-        <v>-35300</v>
+        <v>-33900</v>
       </c>
       <c r="F101" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="G101" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="H101" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="I101" s="3">
-        <v>-24900</v>
+        <v>-23900</v>
       </c>
       <c r="J101" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="K101" s="3">
         <v>8700</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1090800</v>
+        <v>1048300</v>
       </c>
       <c r="E102" s="3">
-        <v>1621200</v>
+        <v>1557900</v>
       </c>
       <c r="F102" s="3">
-        <v>-2089300</v>
+        <v>-2007800</v>
       </c>
       <c r="G102" s="3">
-        <v>1315000</v>
+        <v>1263700</v>
       </c>
       <c r="H102" s="3">
-        <v>-641400</v>
+        <v>-616400</v>
       </c>
       <c r="I102" s="3">
-        <v>2117300</v>
+        <v>2034700</v>
       </c>
       <c r="J102" s="3">
-        <v>-748300</v>
+        <v>-719100</v>
       </c>
       <c r="K102" s="3">
         <v>-756000</v>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24462200</v>
+        <v>25036100</v>
       </c>
       <c r="E8" s="3">
-        <v>13652400</v>
+        <v>13972700</v>
       </c>
       <c r="F8" s="3">
-        <v>13090900</v>
+        <v>13398000</v>
       </c>
       <c r="G8" s="3">
-        <v>13371100</v>
+        <v>13684800</v>
       </c>
       <c r="H8" s="3">
-        <v>13786100</v>
+        <v>14109500</v>
       </c>
       <c r="I8" s="3">
-        <v>43476700</v>
+        <v>44496700</v>
       </c>
       <c r="J8" s="3">
-        <v>45728800</v>
+        <v>46801600</v>
       </c>
       <c r="K8" s="3">
         <v>50344400</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17600100</v>
+        <v>18013000</v>
       </c>
       <c r="E9" s="3">
-        <v>9694700</v>
+        <v>9922200</v>
       </c>
       <c r="F9" s="3">
-        <v>8957600</v>
+        <v>9167800</v>
       </c>
       <c r="G9" s="3">
-        <v>9927100</v>
+        <v>10160000</v>
       </c>
       <c r="H9" s="3">
-        <v>9941100</v>
+        <v>10174300</v>
       </c>
       <c r="I9" s="3">
-        <v>33047900</v>
+        <v>33823200</v>
       </c>
       <c r="J9" s="3">
-        <v>33411900</v>
+        <v>34195800</v>
       </c>
       <c r="K9" s="3">
         <v>36444000</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6862100</v>
+        <v>7023100</v>
       </c>
       <c r="E10" s="3">
-        <v>3957700</v>
+        <v>4050500</v>
       </c>
       <c r="F10" s="3">
-        <v>4133200</v>
+        <v>4230200</v>
       </c>
       <c r="G10" s="3">
-        <v>3444000</v>
+        <v>3524800</v>
       </c>
       <c r="H10" s="3">
-        <v>3845000</v>
+        <v>3935200</v>
       </c>
       <c r="I10" s="3">
-        <v>10428800</v>
+        <v>10673500</v>
       </c>
       <c r="J10" s="3">
-        <v>12316900</v>
+        <v>12605900</v>
       </c>
       <c r="K10" s="3">
         <v>13900400</v>
@@ -937,25 +937,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>545600</v>
+        <v>558400</v>
       </c>
       <c r="E14" s="3">
-        <v>1611800</v>
+        <v>1649600</v>
       </c>
       <c r="F14" s="3">
-        <v>1463200</v>
+        <v>1497500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>389000</v>
+        <v>398100</v>
       </c>
       <c r="I14" s="3">
-        <v>4132200</v>
+        <v>4229200</v>
       </c>
       <c r="J14" s="3">
-        <v>2715900</v>
+        <v>2779600</v>
       </c>
       <c r="K14" s="3">
         <v>593500</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1417300</v>
+        <v>1450600</v>
       </c>
       <c r="E15" s="3">
-        <v>1420300</v>
+        <v>1453600</v>
       </c>
       <c r="F15" s="3">
-        <v>1194900</v>
+        <v>1222900</v>
       </c>
       <c r="G15" s="3">
-        <v>898700</v>
+        <v>919700</v>
       </c>
       <c r="H15" s="3">
-        <v>949500</v>
+        <v>971800</v>
       </c>
       <c r="I15" s="3">
-        <v>2261100</v>
+        <v>2314200</v>
       </c>
       <c r="J15" s="3">
-        <v>2405700</v>
+        <v>2462200</v>
       </c>
       <c r="K15" s="3">
         <v>2478500</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23351100</v>
+        <v>23899000</v>
       </c>
       <c r="E17" s="3">
-        <v>12256100</v>
+        <v>12543600</v>
       </c>
       <c r="F17" s="3">
-        <v>13233500</v>
+        <v>13544000</v>
       </c>
       <c r="G17" s="3">
-        <v>13082900</v>
+        <v>13389800</v>
       </c>
       <c r="H17" s="3">
-        <v>11829200</v>
+        <v>12106700</v>
       </c>
       <c r="I17" s="3">
-        <v>47585000</v>
+        <v>48701300</v>
       </c>
       <c r="J17" s="3">
-        <v>45262000</v>
+        <v>46323900</v>
       </c>
       <c r="K17" s="3">
         <v>46471700</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1111100</v>
+        <v>1137200</v>
       </c>
       <c r="E18" s="3">
-        <v>1396400</v>
+        <v>1429100</v>
       </c>
       <c r="F18" s="3">
-        <v>-142600</v>
+        <v>-146000</v>
       </c>
       <c r="G18" s="3">
-        <v>288200</v>
+        <v>295000</v>
       </c>
       <c r="H18" s="3">
-        <v>1956900</v>
+        <v>2002800</v>
       </c>
       <c r="I18" s="3">
-        <v>-4108300</v>
+        <v>-4204700</v>
       </c>
       <c r="J18" s="3">
-        <v>466800</v>
+        <v>477700</v>
       </c>
       <c r="K18" s="3">
         <v>3872700</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>746100</v>
+        <v>763600</v>
       </c>
       <c r="E20" s="3">
-        <v>160600</v>
+        <v>164300</v>
       </c>
       <c r="F20" s="3">
-        <v>-350100</v>
+        <v>-358300</v>
       </c>
       <c r="G20" s="3">
-        <v>-59800</v>
+        <v>-61200</v>
       </c>
       <c r="H20" s="3">
-        <v>391000</v>
+        <v>400200</v>
       </c>
       <c r="I20" s="3">
-        <v>-772000</v>
+        <v>-790100</v>
       </c>
       <c r="J20" s="3">
-        <v>-35900</v>
+        <v>-36700</v>
       </c>
       <c r="K20" s="3">
         <v>-244400</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3966700</v>
+        <v>4020100</v>
       </c>
       <c r="E21" s="3">
-        <v>4724800</v>
+        <v>4776000</v>
       </c>
       <c r="F21" s="3">
-        <v>2251600</v>
+        <v>2252800</v>
       </c>
       <c r="G21" s="3">
-        <v>1183100</v>
+        <v>1192800</v>
       </c>
       <c r="H21" s="3">
-        <v>3312500</v>
+        <v>3372000</v>
       </c>
       <c r="I21" s="3">
-        <v>1766400</v>
+        <v>1682600</v>
       </c>
       <c r="J21" s="3">
-        <v>6039200</v>
+        <v>6075200</v>
       </c>
       <c r="K21" s="3">
         <v>7042800</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>339100</v>
+        <v>347100</v>
       </c>
       <c r="E22" s="3">
-        <v>295200</v>
+        <v>302200</v>
       </c>
       <c r="F22" s="3">
-        <v>257300</v>
+        <v>263400</v>
       </c>
       <c r="G22" s="3">
-        <v>179500</v>
+        <v>183700</v>
       </c>
       <c r="H22" s="3">
-        <v>297200</v>
+        <v>304200</v>
       </c>
       <c r="I22" s="3">
-        <v>911600</v>
+        <v>933000</v>
       </c>
       <c r="J22" s="3">
-        <v>1066200</v>
+        <v>1091200</v>
       </c>
       <c r="K22" s="3">
         <v>1178200</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1518000</v>
+        <v>1553700</v>
       </c>
       <c r="E23" s="3">
-        <v>1261700</v>
+        <v>1291300</v>
       </c>
       <c r="F23" s="3">
-        <v>-750000</v>
+        <v>-767600</v>
       </c>
       <c r="G23" s="3">
-        <v>48900</v>
+        <v>50000</v>
       </c>
       <c r="H23" s="3">
-        <v>2050700</v>
+        <v>2098800</v>
       </c>
       <c r="I23" s="3">
-        <v>-5791900</v>
+        <v>-5927800</v>
       </c>
       <c r="J23" s="3">
-        <v>-635300</v>
+        <v>-650200</v>
       </c>
       <c r="K23" s="3">
         <v>2450200</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>688200</v>
+        <v>704400</v>
       </c>
       <c r="E24" s="3">
-        <v>375000</v>
+        <v>383800</v>
       </c>
       <c r="F24" s="3">
-        <v>-91800</v>
+        <v>-93900</v>
       </c>
       <c r="G24" s="3">
-        <v>102700</v>
+        <v>105100</v>
       </c>
       <c r="H24" s="3">
-        <v>332100</v>
+        <v>339900</v>
       </c>
       <c r="I24" s="3">
-        <v>-322200</v>
+        <v>-329700</v>
       </c>
       <c r="J24" s="3">
-        <v>601400</v>
+        <v>615500</v>
       </c>
       <c r="K24" s="3">
         <v>603300</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>829800</v>
+        <v>849300</v>
       </c>
       <c r="E26" s="3">
-        <v>886700</v>
+        <v>907500</v>
       </c>
       <c r="F26" s="3">
-        <v>-658300</v>
+        <v>-673700</v>
       </c>
       <c r="G26" s="3">
-        <v>-53900</v>
+        <v>-55100</v>
       </c>
       <c r="H26" s="3">
-        <v>1718500</v>
+        <v>1758800</v>
       </c>
       <c r="I26" s="3">
-        <v>-5469700</v>
+        <v>-5598100</v>
       </c>
       <c r="J26" s="3">
-        <v>-1236800</v>
+        <v>-1265800</v>
       </c>
       <c r="K26" s="3">
         <v>1846900</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>719100</v>
+        <v>736000</v>
       </c>
       <c r="E27" s="3">
-        <v>827800</v>
+        <v>847300</v>
       </c>
       <c r="F27" s="3">
-        <v>-1314600</v>
+        <v>-1345400</v>
       </c>
       <c r="G27" s="3">
-        <v>-789900</v>
+        <v>-808500</v>
       </c>
       <c r="H27" s="3">
-        <v>1304600</v>
+        <v>1335200</v>
       </c>
       <c r="I27" s="3">
-        <v>-5695200</v>
+        <v>-5828800</v>
       </c>
       <c r="J27" s="3">
-        <v>-1689600</v>
+        <v>-1729200</v>
       </c>
       <c r="K27" s="3">
         <v>1461800</v>
@@ -1478,22 +1478,22 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>220400</v>
+        <v>225600</v>
       </c>
       <c r="F29" s="3">
-        <v>9790500</v>
+        <v>10020200</v>
       </c>
       <c r="G29" s="3">
-        <v>1124100</v>
+        <v>1150400</v>
       </c>
       <c r="H29" s="3">
-        <v>590500</v>
+        <v>604300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>1520000</v>
+        <v>1555700</v>
       </c>
       <c r="K29" s="3">
         <v>397100</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-746100</v>
+        <v>-763600</v>
       </c>
       <c r="E32" s="3">
-        <v>-160600</v>
+        <v>-164300</v>
       </c>
       <c r="F32" s="3">
-        <v>350100</v>
+        <v>358300</v>
       </c>
       <c r="G32" s="3">
-        <v>59800</v>
+        <v>61200</v>
       </c>
       <c r="H32" s="3">
-        <v>-391000</v>
+        <v>-400200</v>
       </c>
       <c r="I32" s="3">
-        <v>772000</v>
+        <v>790100</v>
       </c>
       <c r="J32" s="3">
-        <v>35900</v>
+        <v>36700</v>
       </c>
       <c r="K32" s="3">
         <v>244400</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>719100</v>
+        <v>736000</v>
       </c>
       <c r="E33" s="3">
-        <v>1048300</v>
+        <v>1072900</v>
       </c>
       <c r="F33" s="3">
-        <v>8475900</v>
+        <v>8674800</v>
       </c>
       <c r="G33" s="3">
-        <v>334100</v>
+        <v>342000</v>
       </c>
       <c r="H33" s="3">
-        <v>1895100</v>
+        <v>1939500</v>
       </c>
       <c r="I33" s="3">
-        <v>-5695200</v>
+        <v>-5828800</v>
       </c>
       <c r="J33" s="3">
-        <v>-169600</v>
+        <v>-173500</v>
       </c>
       <c r="K33" s="3">
         <v>1858900</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>719100</v>
+        <v>736000</v>
       </c>
       <c r="E35" s="3">
-        <v>1048300</v>
+        <v>1072900</v>
       </c>
       <c r="F35" s="3">
-        <v>8475900</v>
+        <v>8674800</v>
       </c>
       <c r="G35" s="3">
-        <v>334100</v>
+        <v>342000</v>
       </c>
       <c r="H35" s="3">
-        <v>1895100</v>
+        <v>1939500</v>
       </c>
       <c r="I35" s="3">
-        <v>-5695200</v>
+        <v>-5828800</v>
       </c>
       <c r="J35" s="3">
-        <v>-169600</v>
+        <v>-173500</v>
       </c>
       <c r="K35" s="3">
         <v>1858900</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5809900</v>
+        <v>5946200</v>
       </c>
       <c r="E41" s="3">
-        <v>4761600</v>
+        <v>4873300</v>
       </c>
       <c r="F41" s="3">
-        <v>6367400</v>
+        <v>6516800</v>
       </c>
       <c r="G41" s="3">
-        <v>3513800</v>
+        <v>3596300</v>
       </c>
       <c r="H41" s="3">
-        <v>3922800</v>
+        <v>4014800</v>
       </c>
       <c r="I41" s="3">
-        <v>4564100</v>
+        <v>4671200</v>
       </c>
       <c r="J41" s="3">
-        <v>2515400</v>
+        <v>2574500</v>
       </c>
       <c r="K41" s="3">
         <v>3459300</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8019100</v>
+        <v>8207200</v>
       </c>
       <c r="E42" s="3">
-        <v>4208000</v>
+        <v>4306800</v>
       </c>
       <c r="F42" s="3">
-        <v>3249500</v>
+        <v>3325800</v>
       </c>
       <c r="G42" s="3">
-        <v>3599600</v>
+        <v>3684100</v>
       </c>
       <c r="H42" s="3">
-        <v>4880300</v>
+        <v>4994800</v>
       </c>
       <c r="I42" s="3">
-        <v>9799500</v>
+        <v>10029400</v>
       </c>
       <c r="J42" s="3">
-        <v>7417700</v>
+        <v>7591700</v>
       </c>
       <c r="K42" s="3">
         <v>4810900</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19240800</v>
+        <v>19692300</v>
       </c>
       <c r="E43" s="3">
-        <v>8701300</v>
+        <v>8905500</v>
       </c>
       <c r="F43" s="3">
-        <v>9771500</v>
+        <v>10000800</v>
       </c>
       <c r="G43" s="3">
-        <v>4833400</v>
+        <v>4946800</v>
       </c>
       <c r="H43" s="3">
-        <v>7575300</v>
+        <v>7753000</v>
       </c>
       <c r="I43" s="3">
-        <v>6686600</v>
+        <v>6843400</v>
       </c>
       <c r="J43" s="3">
-        <v>6816200</v>
+        <v>6976100</v>
       </c>
       <c r="K43" s="3">
         <v>9334900</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2820600</v>
+        <v>2886800</v>
       </c>
       <c r="E44" s="3">
-        <v>3255500</v>
+        <v>3331900</v>
       </c>
       <c r="F44" s="3">
-        <v>3161800</v>
+        <v>3235900</v>
       </c>
       <c r="G44" s="3">
-        <v>1626800</v>
+        <v>1664900</v>
       </c>
       <c r="H44" s="3">
-        <v>1919000</v>
+        <v>1964000</v>
       </c>
       <c r="I44" s="3">
-        <v>1962900</v>
+        <v>2008900</v>
       </c>
       <c r="J44" s="3">
-        <v>1953900</v>
+        <v>1999700</v>
       </c>
       <c r="K44" s="3">
         <v>2434900</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67286600</v>
+        <v>68865200</v>
       </c>
       <c r="E45" s="3">
-        <v>23352100</v>
+        <v>23900000</v>
       </c>
       <c r="F45" s="3">
-        <v>29264700</v>
+        <v>29951300</v>
       </c>
       <c r="G45" s="3">
-        <v>47779400</v>
+        <v>48900400</v>
       </c>
       <c r="H45" s="3">
-        <v>5006900</v>
+        <v>5124400</v>
       </c>
       <c r="I45" s="3">
-        <v>7398700</v>
+        <v>7572300</v>
       </c>
       <c r="J45" s="3">
-        <v>9105300</v>
+        <v>9318900</v>
       </c>
       <c r="K45" s="3">
         <v>14969500</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>103177000</v>
+        <v>105598000</v>
       </c>
       <c r="E46" s="3">
-        <v>27153200</v>
+        <v>27790300</v>
       </c>
       <c r="F46" s="3">
-        <v>28167600</v>
+        <v>28828400</v>
       </c>
       <c r="G46" s="3">
-        <v>61353100</v>
+        <v>62792500</v>
       </c>
       <c r="H46" s="3">
-        <v>23304300</v>
+        <v>23851000</v>
       </c>
       <c r="I46" s="3">
-        <v>30411700</v>
+        <v>31125200</v>
       </c>
       <c r="J46" s="3">
-        <v>27808500</v>
+        <v>28460900</v>
       </c>
       <c r="K46" s="3">
         <v>35009500</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8819000</v>
+        <v>9025900</v>
       </c>
       <c r="E47" s="3">
-        <v>7765800</v>
+        <v>7947900</v>
       </c>
       <c r="F47" s="3">
-        <v>7989200</v>
+        <v>8176600</v>
       </c>
       <c r="G47" s="3">
-        <v>2217200</v>
+        <v>2269200</v>
       </c>
       <c r="H47" s="3">
-        <v>4538200</v>
+        <v>4644600</v>
       </c>
       <c r="I47" s="3">
-        <v>4573100</v>
+        <v>4680400</v>
       </c>
       <c r="J47" s="3">
-        <v>4521200</v>
+        <v>4627300</v>
       </c>
       <c r="K47" s="3">
         <v>5536400</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19932000</v>
+        <v>20399700</v>
       </c>
       <c r="E48" s="3">
-        <v>35711900</v>
+        <v>36549700</v>
       </c>
       <c r="F48" s="3">
-        <v>37881300</v>
+        <v>38770000</v>
       </c>
       <c r="G48" s="3">
-        <v>12376700</v>
+        <v>12667100</v>
       </c>
       <c r="H48" s="3">
-        <v>24882100</v>
+        <v>25465900</v>
       </c>
       <c r="I48" s="3">
-        <v>24454300</v>
+        <v>25028000</v>
       </c>
       <c r="J48" s="3">
-        <v>29352500</v>
+        <v>30041100</v>
       </c>
       <c r="K48" s="3">
         <v>33973100</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5840800</v>
+        <v>5977800</v>
       </c>
       <c r="E49" s="3">
-        <v>9776500</v>
+        <v>10005900</v>
       </c>
       <c r="F49" s="3">
-        <v>9608000</v>
+        <v>9833400</v>
       </c>
       <c r="G49" s="3">
-        <v>2178300</v>
+        <v>2229400</v>
       </c>
       <c r="H49" s="3">
-        <v>12319900</v>
+        <v>12608900</v>
       </c>
       <c r="I49" s="3">
-        <v>12709900</v>
+        <v>13008100</v>
       </c>
       <c r="J49" s="3">
-        <v>13174700</v>
+        <v>13483700</v>
       </c>
       <c r="K49" s="3">
         <v>13959300</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4170100</v>
+        <v>4268000</v>
       </c>
       <c r="E52" s="3">
-        <v>7528400</v>
+        <v>7705000</v>
       </c>
       <c r="F52" s="3">
-        <v>7620100</v>
+        <v>7798900</v>
       </c>
       <c r="G52" s="3">
-        <v>1774400</v>
+        <v>1816000</v>
       </c>
       <c r="H52" s="3">
-        <v>3835000</v>
+        <v>3925000</v>
       </c>
       <c r="I52" s="3">
-        <v>4054400</v>
+        <v>4149600</v>
       </c>
       <c r="J52" s="3">
-        <v>4270900</v>
+        <v>4371100</v>
       </c>
       <c r="K52" s="3">
         <v>5684700</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>141939000</v>
+        <v>145269000</v>
       </c>
       <c r="E54" s="3">
-        <v>61481700</v>
+        <v>62924200</v>
       </c>
       <c r="F54" s="3">
-        <v>63842600</v>
+        <v>65340400</v>
       </c>
       <c r="G54" s="3">
-        <v>79899700</v>
+        <v>81774200</v>
       </c>
       <c r="H54" s="3">
-        <v>68879400</v>
+        <v>70495400</v>
       </c>
       <c r="I54" s="3">
-        <v>76203400</v>
+        <v>77991200</v>
       </c>
       <c r="J54" s="3">
-        <v>79127700</v>
+        <v>80984100</v>
       </c>
       <c r="K54" s="3">
         <v>94163000</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4416500</v>
+        <v>4520100</v>
       </c>
       <c r="E57" s="3">
-        <v>2380800</v>
+        <v>2436600</v>
       </c>
       <c r="F57" s="3">
-        <v>2979200</v>
+        <v>3049100</v>
       </c>
       <c r="G57" s="3">
-        <v>2422700</v>
+        <v>2479500</v>
       </c>
       <c r="H57" s="3">
-        <v>5063800</v>
+        <v>5182600</v>
       </c>
       <c r="I57" s="3">
-        <v>5416900</v>
+        <v>5544000</v>
       </c>
       <c r="J57" s="3">
-        <v>6106100</v>
+        <v>6249300</v>
       </c>
       <c r="K57" s="3">
         <v>6882600</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6348500</v>
+        <v>6497400</v>
       </c>
       <c r="E58" s="3">
-        <v>1412300</v>
+        <v>1445500</v>
       </c>
       <c r="F58" s="3">
-        <v>2157400</v>
+        <v>2208000</v>
       </c>
       <c r="G58" s="3">
-        <v>90800</v>
+        <v>92900</v>
       </c>
       <c r="H58" s="3">
-        <v>1713500</v>
+        <v>1753700</v>
       </c>
       <c r="I58" s="3">
-        <v>880700</v>
+        <v>901400</v>
       </c>
       <c r="J58" s="3">
-        <v>1223800</v>
+        <v>1252500</v>
       </c>
       <c r="K58" s="3">
         <v>2391300</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>85989800</v>
+        <v>88007300</v>
       </c>
       <c r="E59" s="3">
-        <v>23166600</v>
+        <v>23710100</v>
       </c>
       <c r="F59" s="3">
-        <v>29268700</v>
+        <v>29955400</v>
       </c>
       <c r="G59" s="3">
-        <v>43211400</v>
+        <v>44225100</v>
       </c>
       <c r="H59" s="3">
-        <v>13463900</v>
+        <v>13779800</v>
       </c>
       <c r="I59" s="3">
-        <v>22393600</v>
+        <v>22919000</v>
       </c>
       <c r="J59" s="3">
-        <v>17729800</v>
+        <v>18145700</v>
       </c>
       <c r="K59" s="3">
         <v>21511700</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>96754800</v>
+        <v>99024700</v>
       </c>
       <c r="E60" s="3">
-        <v>16458100</v>
+        <v>16844200</v>
       </c>
       <c r="F60" s="3">
-        <v>19554000</v>
+        <v>20012800</v>
       </c>
       <c r="G60" s="3">
-        <v>45724800</v>
+        <v>46797600</v>
       </c>
       <c r="H60" s="3">
-        <v>20241200</v>
+        <v>20716100</v>
       </c>
       <c r="I60" s="3">
-        <v>28691200</v>
+        <v>29364300</v>
       </c>
       <c r="J60" s="3">
-        <v>25059700</v>
+        <v>25647600</v>
       </c>
       <c r="K60" s="3">
         <v>30785500</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5744000</v>
+        <v>5878800</v>
       </c>
       <c r="E61" s="3">
-        <v>3288400</v>
+        <v>3365600</v>
       </c>
       <c r="F61" s="3">
-        <v>3094900</v>
+        <v>3167500</v>
       </c>
       <c r="G61" s="3">
-        <v>1802300</v>
+        <v>1844600</v>
       </c>
       <c r="H61" s="3">
-        <v>13593600</v>
+        <v>13912500</v>
       </c>
       <c r="I61" s="3">
-        <v>15250200</v>
+        <v>15608000</v>
       </c>
       <c r="J61" s="3">
-        <v>15997300</v>
+        <v>16372600</v>
       </c>
       <c r="K61" s="3">
         <v>15528000</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22488400</v>
+        <v>23016000</v>
       </c>
       <c r="E62" s="3">
-        <v>45641000</v>
+        <v>46711800</v>
       </c>
       <c r="F62" s="3">
-        <v>46411000</v>
+        <v>47499900</v>
       </c>
       <c r="G62" s="3">
-        <v>18152700</v>
+        <v>18578600</v>
       </c>
       <c r="H62" s="3">
-        <v>23084800</v>
+        <v>23626400</v>
       </c>
       <c r="I62" s="3">
-        <v>24292700</v>
+        <v>24862600</v>
       </c>
       <c r="J62" s="3">
-        <v>29199900</v>
+        <v>29884900</v>
       </c>
       <c r="K62" s="3">
         <v>35007300</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>126725000</v>
+        <v>129698000</v>
       </c>
       <c r="E66" s="3">
-        <v>44609700</v>
+        <v>45656300</v>
       </c>
       <c r="F66" s="3">
-        <v>46922700</v>
+        <v>48023500</v>
       </c>
       <c r="G66" s="3">
-        <v>71186400</v>
+        <v>72856500</v>
       </c>
       <c r="H66" s="3">
-        <v>62138000</v>
+        <v>63595800</v>
       </c>
       <c r="I66" s="3">
-        <v>73456500</v>
+        <v>75179900</v>
       </c>
       <c r="J66" s="3">
-        <v>73295900</v>
+        <v>75015500</v>
       </c>
       <c r="K66" s="3">
         <v>86103300</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10677200</v>
+        <v>10927700</v>
       </c>
       <c r="E72" s="3">
-        <v>8281400</v>
+        <v>8475700</v>
       </c>
       <c r="F72" s="3">
-        <v>8884800</v>
+        <v>9093300</v>
       </c>
       <c r="G72" s="3">
-        <v>1136000</v>
+        <v>1162700</v>
       </c>
       <c r="H72" s="3">
-        <v>2360800</v>
+        <v>2416200</v>
       </c>
       <c r="I72" s="3">
-        <v>-650300</v>
+        <v>-665600</v>
       </c>
       <c r="J72" s="3">
-        <v>3602600</v>
+        <v>3687100</v>
       </c>
       <c r="K72" s="3">
         <v>5463300</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15214300</v>
+        <v>15571300</v>
       </c>
       <c r="E76" s="3">
-        <v>16872000</v>
+        <v>17267900</v>
       </c>
       <c r="F76" s="3">
-        <v>16919900</v>
+        <v>17316900</v>
       </c>
       <c r="G76" s="3">
-        <v>8713300</v>
+        <v>8917700</v>
       </c>
       <c r="H76" s="3">
-        <v>6741400</v>
+        <v>6899600</v>
       </c>
       <c r="I76" s="3">
-        <v>2746800</v>
+        <v>2811300</v>
       </c>
       <c r="J76" s="3">
-        <v>5831800</v>
+        <v>5968600</v>
       </c>
       <c r="K76" s="3">
         <v>8059600</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>719100</v>
+        <v>736000</v>
       </c>
       <c r="E81" s="3">
-        <v>1048300</v>
+        <v>1072900</v>
       </c>
       <c r="F81" s="3">
-        <v>8475900</v>
+        <v>8674800</v>
       </c>
       <c r="G81" s="3">
-        <v>334100</v>
+        <v>342000</v>
       </c>
       <c r="H81" s="3">
-        <v>1895100</v>
+        <v>1939500</v>
       </c>
       <c r="I81" s="3">
-        <v>-5695200</v>
+        <v>-5828800</v>
       </c>
       <c r="J81" s="3">
-        <v>-169600</v>
+        <v>-173500</v>
       </c>
       <c r="K81" s="3">
         <v>1858900</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2111500</v>
+        <v>2161000</v>
       </c>
       <c r="E83" s="3">
-        <v>3170700</v>
+        <v>3245100</v>
       </c>
       <c r="F83" s="3">
-        <v>2746800</v>
+        <v>2811300</v>
       </c>
       <c r="G83" s="3">
-        <v>955500</v>
+        <v>977900</v>
       </c>
       <c r="H83" s="3">
-        <v>965500</v>
+        <v>988100</v>
       </c>
       <c r="I83" s="3">
-        <v>6652700</v>
+        <v>6808700</v>
       </c>
       <c r="J83" s="3">
-        <v>5613400</v>
+        <v>5745100</v>
       </c>
       <c r="K83" s="3">
         <v>3363300</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7255100</v>
+        <v>7425300</v>
       </c>
       <c r="E89" s="3">
-        <v>4164100</v>
+        <v>4261800</v>
       </c>
       <c r="F89" s="3">
-        <v>-1519000</v>
+        <v>-1554700</v>
       </c>
       <c r="G89" s="3">
-        <v>6630700</v>
+        <v>6786300</v>
       </c>
       <c r="H89" s="3">
-        <v>-1749400</v>
+        <v>-1790500</v>
       </c>
       <c r="I89" s="3">
-        <v>2345900</v>
+        <v>2400900</v>
       </c>
       <c r="J89" s="3">
-        <v>3205600</v>
+        <v>3280900</v>
       </c>
       <c r="K89" s="3">
         <v>6946900</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3759200</v>
+        <v>-3847400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3349300</v>
+        <v>-3427800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1766400</v>
+        <v>-1807800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1242800</v>
+        <v>-1271900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3128800</v>
+        <v>-3202200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2302000</v>
+        <v>-2356000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3164800</v>
+        <v>-3239000</v>
       </c>
       <c r="K91" s="3">
         <v>-3654500</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7717900</v>
+        <v>-7899000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4342700</v>
+        <v>-4444600</v>
       </c>
       <c r="F94" s="3">
-        <v>-727100</v>
+        <v>-744200</v>
       </c>
       <c r="G94" s="3">
-        <v>-4392500</v>
+        <v>-4495600</v>
       </c>
       <c r="H94" s="3">
-        <v>2684000</v>
+        <v>2747000</v>
       </c>
       <c r="I94" s="3">
-        <v>-4558100</v>
+        <v>-4665100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1901000</v>
+        <v>-1945600</v>
       </c>
       <c r="K94" s="3">
         <v>-5311600</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-728100</v>
+        <v>-745200</v>
       </c>
       <c r="E96" s="3">
-        <v>-520600</v>
+        <v>-532900</v>
       </c>
       <c r="F96" s="3">
-        <v>-558500</v>
+        <v>-571600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1022300</v>
+        <v>-1046300</v>
       </c>
       <c r="H96" s="3">
-        <v>-158600</v>
+        <v>-162300</v>
       </c>
       <c r="I96" s="3">
-        <v>-405900</v>
+        <v>-415500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1067200</v>
+        <v>-1092300</v>
       </c>
       <c r="K96" s="3">
         <v>-1157500</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1453200</v>
+        <v>1487300</v>
       </c>
       <c r="E100" s="3">
-        <v>1770400</v>
+        <v>1811900</v>
       </c>
       <c r="F100" s="3">
-        <v>223400</v>
+        <v>228700</v>
       </c>
       <c r="G100" s="3">
-        <v>-987400</v>
+        <v>-1010600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1532000</v>
+        <v>-1567900</v>
       </c>
       <c r="I100" s="3">
-        <v>4270900</v>
+        <v>4371100</v>
       </c>
       <c r="J100" s="3">
-        <v>-2037700</v>
+        <v>-2085500</v>
       </c>
       <c r="K100" s="3">
         <v>-2400000</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="E101" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="F101" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="G101" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="H101" s="3">
-        <v>-19000</v>
+        <v>-19400</v>
       </c>
       <c r="I101" s="3">
-        <v>-23900</v>
+        <v>-24500</v>
       </c>
       <c r="J101" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="K101" s="3">
         <v>8700</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1048300</v>
+        <v>1072900</v>
       </c>
       <c r="E102" s="3">
-        <v>1557900</v>
+        <v>1594500</v>
       </c>
       <c r="F102" s="3">
-        <v>-2007800</v>
+        <v>-2054900</v>
       </c>
       <c r="G102" s="3">
-        <v>1263700</v>
+        <v>1293400</v>
       </c>
       <c r="H102" s="3">
-        <v>-616400</v>
+        <v>-630900</v>
       </c>
       <c r="I102" s="3">
-        <v>2034700</v>
+        <v>2082400</v>
       </c>
       <c r="J102" s="3">
-        <v>-719100</v>
+        <v>-736000</v>
       </c>
       <c r="K102" s="3">
         <v>-756000</v>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25036100</v>
+        <v>25948500</v>
       </c>
       <c r="E8" s="3">
-        <v>13972700</v>
+        <v>14481900</v>
       </c>
       <c r="F8" s="3">
-        <v>13398000</v>
+        <v>13886300</v>
       </c>
       <c r="G8" s="3">
-        <v>13684800</v>
+        <v>14183500</v>
       </c>
       <c r="H8" s="3">
-        <v>14109500</v>
+        <v>14623700</v>
       </c>
       <c r="I8" s="3">
-        <v>44496700</v>
+        <v>46118200</v>
       </c>
       <c r="J8" s="3">
-        <v>46801600</v>
+        <v>48507200</v>
       </c>
       <c r="K8" s="3">
         <v>50344400</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18013000</v>
+        <v>18669500</v>
       </c>
       <c r="E9" s="3">
-        <v>9922200</v>
+        <v>10283800</v>
       </c>
       <c r="F9" s="3">
-        <v>9167800</v>
+        <v>9501900</v>
       </c>
       <c r="G9" s="3">
-        <v>10160000</v>
+        <v>10530300</v>
       </c>
       <c r="H9" s="3">
-        <v>10174300</v>
+        <v>10545100</v>
       </c>
       <c r="I9" s="3">
-        <v>33823200</v>
+        <v>35055800</v>
       </c>
       <c r="J9" s="3">
-        <v>34195800</v>
+        <v>35441900</v>
       </c>
       <c r="K9" s="3">
         <v>36444000</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7023100</v>
+        <v>7279000</v>
       </c>
       <c r="E10" s="3">
-        <v>4050500</v>
+        <v>4198100</v>
       </c>
       <c r="F10" s="3">
-        <v>4230200</v>
+        <v>4384400</v>
       </c>
       <c r="G10" s="3">
-        <v>3524800</v>
+        <v>3653300</v>
       </c>
       <c r="H10" s="3">
-        <v>3935200</v>
+        <v>4078600</v>
       </c>
       <c r="I10" s="3">
-        <v>10673500</v>
+        <v>11062400</v>
       </c>
       <c r="J10" s="3">
-        <v>12605900</v>
+        <v>13065200</v>
       </c>
       <c r="K10" s="3">
         <v>13900400</v>
@@ -937,25 +937,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>558400</v>
+        <v>578700</v>
       </c>
       <c r="E14" s="3">
-        <v>1649600</v>
+        <v>1709700</v>
       </c>
       <c r="F14" s="3">
-        <v>1497500</v>
+        <v>1552100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>398100</v>
+        <v>412600</v>
       </c>
       <c r="I14" s="3">
-        <v>4229200</v>
+        <v>4383300</v>
       </c>
       <c r="J14" s="3">
-        <v>2779600</v>
+        <v>2880900</v>
       </c>
       <c r="K14" s="3">
         <v>593500</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1450600</v>
+        <v>1503400</v>
       </c>
       <c r="E15" s="3">
-        <v>1453600</v>
+        <v>1506600</v>
       </c>
       <c r="F15" s="3">
-        <v>1222900</v>
+        <v>1267500</v>
       </c>
       <c r="G15" s="3">
-        <v>919700</v>
+        <v>953300</v>
       </c>
       <c r="H15" s="3">
-        <v>971800</v>
+        <v>1007200</v>
       </c>
       <c r="I15" s="3">
-        <v>2314200</v>
+        <v>2398500</v>
       </c>
       <c r="J15" s="3">
-        <v>2462200</v>
+        <v>2551900</v>
       </c>
       <c r="K15" s="3">
         <v>2478500</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23899000</v>
+        <v>24769900</v>
       </c>
       <c r="E17" s="3">
-        <v>12543600</v>
+        <v>13000700</v>
       </c>
       <c r="F17" s="3">
-        <v>13544000</v>
+        <v>14037500</v>
       </c>
       <c r="G17" s="3">
-        <v>13389800</v>
+        <v>13877800</v>
       </c>
       <c r="H17" s="3">
-        <v>12106700</v>
+        <v>12547900</v>
       </c>
       <c r="I17" s="3">
-        <v>48701300</v>
+        <v>50476100</v>
       </c>
       <c r="J17" s="3">
-        <v>46323900</v>
+        <v>48012000</v>
       </c>
       <c r="K17" s="3">
         <v>46471700</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1137200</v>
+        <v>1178600</v>
       </c>
       <c r="E18" s="3">
-        <v>1429100</v>
+        <v>1481200</v>
       </c>
       <c r="F18" s="3">
-        <v>-146000</v>
+        <v>-151300</v>
       </c>
       <c r="G18" s="3">
-        <v>295000</v>
+        <v>305800</v>
       </c>
       <c r="H18" s="3">
-        <v>2002800</v>
+        <v>2075800</v>
       </c>
       <c r="I18" s="3">
-        <v>-4204700</v>
+        <v>-4357900</v>
       </c>
       <c r="J18" s="3">
-        <v>477700</v>
+        <v>495100</v>
       </c>
       <c r="K18" s="3">
         <v>3872700</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>763600</v>
+        <v>791400</v>
       </c>
       <c r="E20" s="3">
-        <v>164300</v>
+        <v>170300</v>
       </c>
       <c r="F20" s="3">
-        <v>-358300</v>
+        <v>-371400</v>
       </c>
       <c r="G20" s="3">
-        <v>-61200</v>
+        <v>-63500</v>
       </c>
       <c r="H20" s="3">
-        <v>400200</v>
+        <v>414700</v>
       </c>
       <c r="I20" s="3">
-        <v>-790100</v>
+        <v>-818900</v>
       </c>
       <c r="J20" s="3">
-        <v>-36700</v>
+        <v>-38100</v>
       </c>
       <c r="K20" s="3">
         <v>-244400</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4020100</v>
+        <v>4202200</v>
       </c>
       <c r="E21" s="3">
-        <v>4776000</v>
+        <v>5003500</v>
       </c>
       <c r="F21" s="3">
-        <v>2252800</v>
+        <v>2381200</v>
       </c>
       <c r="G21" s="3">
-        <v>1192800</v>
+        <v>1252400</v>
       </c>
       <c r="H21" s="3">
-        <v>3372000</v>
+        <v>3511200</v>
       </c>
       <c r="I21" s="3">
-        <v>1682600</v>
+        <v>1856100</v>
       </c>
       <c r="J21" s="3">
-        <v>6075200</v>
+        <v>6391200</v>
       </c>
       <c r="K21" s="3">
         <v>7042800</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>347100</v>
+        <v>359700</v>
       </c>
       <c r="E22" s="3">
-        <v>302200</v>
+        <v>313200</v>
       </c>
       <c r="F22" s="3">
-        <v>263400</v>
+        <v>273000</v>
       </c>
       <c r="G22" s="3">
-        <v>183700</v>
+        <v>190400</v>
       </c>
       <c r="H22" s="3">
-        <v>304200</v>
+        <v>315300</v>
       </c>
       <c r="I22" s="3">
-        <v>933000</v>
+        <v>967000</v>
       </c>
       <c r="J22" s="3">
-        <v>1091200</v>
+        <v>1131000</v>
       </c>
       <c r="K22" s="3">
         <v>1178200</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1553700</v>
+        <v>1610300</v>
       </c>
       <c r="E23" s="3">
-        <v>1291300</v>
+        <v>1338400</v>
       </c>
       <c r="F23" s="3">
-        <v>-767600</v>
+        <v>-795600</v>
       </c>
       <c r="G23" s="3">
-        <v>50000</v>
+        <v>51800</v>
       </c>
       <c r="H23" s="3">
-        <v>2098800</v>
+        <v>2175200</v>
       </c>
       <c r="I23" s="3">
-        <v>-5927800</v>
+        <v>-6143800</v>
       </c>
       <c r="J23" s="3">
-        <v>-650200</v>
+        <v>-673900</v>
       </c>
       <c r="K23" s="3">
         <v>2450200</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>704400</v>
+        <v>730000</v>
       </c>
       <c r="E24" s="3">
-        <v>383800</v>
+        <v>397800</v>
       </c>
       <c r="F24" s="3">
-        <v>-93900</v>
+        <v>-97300</v>
       </c>
       <c r="G24" s="3">
-        <v>105100</v>
+        <v>109000</v>
       </c>
       <c r="H24" s="3">
-        <v>339900</v>
+        <v>352300</v>
       </c>
       <c r="I24" s="3">
-        <v>-329700</v>
+        <v>-341700</v>
       </c>
       <c r="J24" s="3">
-        <v>615500</v>
+        <v>638000</v>
       </c>
       <c r="K24" s="3">
         <v>603300</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>849300</v>
+        <v>880300</v>
       </c>
       <c r="E26" s="3">
-        <v>907500</v>
+        <v>940600</v>
       </c>
       <c r="F26" s="3">
-        <v>-673700</v>
+        <v>-698300</v>
       </c>
       <c r="G26" s="3">
-        <v>-55100</v>
+        <v>-57100</v>
       </c>
       <c r="H26" s="3">
-        <v>1758800</v>
+        <v>1822900</v>
       </c>
       <c r="I26" s="3">
-        <v>-5598100</v>
+        <v>-5802100</v>
       </c>
       <c r="J26" s="3">
-        <v>-1265800</v>
+        <v>-1311900</v>
       </c>
       <c r="K26" s="3">
         <v>1846900</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>736000</v>
+        <v>762800</v>
       </c>
       <c r="E27" s="3">
-        <v>847300</v>
+        <v>878100</v>
       </c>
       <c r="F27" s="3">
-        <v>-1345400</v>
+        <v>-1394400</v>
       </c>
       <c r="G27" s="3">
-        <v>-808500</v>
+        <v>-837900</v>
       </c>
       <c r="H27" s="3">
-        <v>1335200</v>
+        <v>1383900</v>
       </c>
       <c r="I27" s="3">
-        <v>-5828800</v>
+        <v>-6041200</v>
       </c>
       <c r="J27" s="3">
-        <v>-1729200</v>
+        <v>-1792300</v>
       </c>
       <c r="K27" s="3">
         <v>1461800</v>
@@ -1478,22 +1478,22 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>225600</v>
+        <v>233800</v>
       </c>
       <c r="F29" s="3">
-        <v>10020200</v>
+        <v>10385300</v>
       </c>
       <c r="G29" s="3">
-        <v>1150400</v>
+        <v>1192400</v>
       </c>
       <c r="H29" s="3">
-        <v>604300</v>
+        <v>626300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>1555700</v>
+        <v>1612400</v>
       </c>
       <c r="K29" s="3">
         <v>397100</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-763600</v>
+        <v>-791400</v>
       </c>
       <c r="E32" s="3">
-        <v>-164300</v>
+        <v>-170300</v>
       </c>
       <c r="F32" s="3">
-        <v>358300</v>
+        <v>371400</v>
       </c>
       <c r="G32" s="3">
-        <v>61200</v>
+        <v>63500</v>
       </c>
       <c r="H32" s="3">
-        <v>-400200</v>
+        <v>-414700</v>
       </c>
       <c r="I32" s="3">
-        <v>790100</v>
+        <v>818900</v>
       </c>
       <c r="J32" s="3">
-        <v>36700</v>
+        <v>38100</v>
       </c>
       <c r="K32" s="3">
         <v>244400</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>736000</v>
+        <v>762800</v>
       </c>
       <c r="E33" s="3">
-        <v>1072900</v>
+        <v>1112000</v>
       </c>
       <c r="F33" s="3">
-        <v>8674800</v>
+        <v>8990900</v>
       </c>
       <c r="G33" s="3">
-        <v>342000</v>
+        <v>354400</v>
       </c>
       <c r="H33" s="3">
-        <v>1939500</v>
+        <v>2010200</v>
       </c>
       <c r="I33" s="3">
-        <v>-5828800</v>
+        <v>-6041200</v>
       </c>
       <c r="J33" s="3">
-        <v>-173500</v>
+        <v>-179900</v>
       </c>
       <c r="K33" s="3">
         <v>1858900</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>736000</v>
+        <v>762800</v>
       </c>
       <c r="E35" s="3">
-        <v>1072900</v>
+        <v>1112000</v>
       </c>
       <c r="F35" s="3">
-        <v>8674800</v>
+        <v>8990900</v>
       </c>
       <c r="G35" s="3">
-        <v>342000</v>
+        <v>354400</v>
       </c>
       <c r="H35" s="3">
-        <v>1939500</v>
+        <v>2010200</v>
       </c>
       <c r="I35" s="3">
-        <v>-5828800</v>
+        <v>-6041200</v>
       </c>
       <c r="J35" s="3">
-        <v>-173500</v>
+        <v>-179900</v>
       </c>
       <c r="K35" s="3">
         <v>1858900</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5946200</v>
+        <v>6162900</v>
       </c>
       <c r="E41" s="3">
-        <v>4873300</v>
+        <v>5050900</v>
       </c>
       <c r="F41" s="3">
-        <v>6516800</v>
+        <v>6754300</v>
       </c>
       <c r="G41" s="3">
-        <v>3596300</v>
+        <v>3727300</v>
       </c>
       <c r="H41" s="3">
-        <v>4014800</v>
+        <v>4161100</v>
       </c>
       <c r="I41" s="3">
-        <v>4671200</v>
+        <v>4841400</v>
       </c>
       <c r="J41" s="3">
-        <v>2574500</v>
+        <v>2668300</v>
       </c>
       <c r="K41" s="3">
         <v>3459300</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8207200</v>
+        <v>8506300</v>
       </c>
       <c r="E42" s="3">
-        <v>4306800</v>
+        <v>4463700</v>
       </c>
       <c r="F42" s="3">
-        <v>3325800</v>
+        <v>3447000</v>
       </c>
       <c r="G42" s="3">
-        <v>3684100</v>
+        <v>3818300</v>
       </c>
       <c r="H42" s="3">
-        <v>4994800</v>
+        <v>5176800</v>
       </c>
       <c r="I42" s="3">
-        <v>10029400</v>
+        <v>10394900</v>
       </c>
       <c r="J42" s="3">
-        <v>7591700</v>
+        <v>7868300</v>
       </c>
       <c r="K42" s="3">
         <v>4810900</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19692300</v>
+        <v>20409900</v>
       </c>
       <c r="E43" s="3">
-        <v>8905500</v>
+        <v>9230000</v>
       </c>
       <c r="F43" s="3">
-        <v>10000800</v>
+        <v>10365200</v>
       </c>
       <c r="G43" s="3">
-        <v>4946800</v>
+        <v>5127100</v>
       </c>
       <c r="H43" s="3">
-        <v>7753000</v>
+        <v>8035500</v>
       </c>
       <c r="I43" s="3">
-        <v>6843400</v>
+        <v>7092800</v>
       </c>
       <c r="J43" s="3">
-        <v>6976100</v>
+        <v>7230400</v>
       </c>
       <c r="K43" s="3">
         <v>9334900</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2886800</v>
+        <v>2992000</v>
       </c>
       <c r="E44" s="3">
-        <v>3331900</v>
+        <v>3453300</v>
       </c>
       <c r="F44" s="3">
-        <v>3235900</v>
+        <v>3353900</v>
       </c>
       <c r="G44" s="3">
-        <v>1664900</v>
+        <v>1725600</v>
       </c>
       <c r="H44" s="3">
-        <v>1964000</v>
+        <v>2035600</v>
       </c>
       <c r="I44" s="3">
-        <v>2008900</v>
+        <v>2082100</v>
       </c>
       <c r="J44" s="3">
-        <v>1999700</v>
+        <v>2072600</v>
       </c>
       <c r="K44" s="3">
         <v>2434900</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68865200</v>
+        <v>71374800</v>
       </c>
       <c r="E45" s="3">
-        <v>23900000</v>
+        <v>24771000</v>
       </c>
       <c r="F45" s="3">
-        <v>29951300</v>
+        <v>31042800</v>
       </c>
       <c r="G45" s="3">
-        <v>48900400</v>
+        <v>50682400</v>
       </c>
       <c r="H45" s="3">
-        <v>5124400</v>
+        <v>5311200</v>
       </c>
       <c r="I45" s="3">
-        <v>7572300</v>
+        <v>7848200</v>
       </c>
       <c r="J45" s="3">
-        <v>9318900</v>
+        <v>9658500</v>
       </c>
       <c r="K45" s="3">
         <v>14969500</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>105598000</v>
+        <v>109446000</v>
       </c>
       <c r="E46" s="3">
-        <v>27790300</v>
+        <v>28803000</v>
       </c>
       <c r="F46" s="3">
-        <v>28828400</v>
+        <v>29879000</v>
       </c>
       <c r="G46" s="3">
-        <v>62792500</v>
+        <v>65080800</v>
       </c>
       <c r="H46" s="3">
-        <v>23851000</v>
+        <v>24720200</v>
       </c>
       <c r="I46" s="3">
-        <v>31125200</v>
+        <v>32259500</v>
       </c>
       <c r="J46" s="3">
-        <v>28460900</v>
+        <v>29498100</v>
       </c>
       <c r="K46" s="3">
         <v>35009500</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9025900</v>
+        <v>9354800</v>
       </c>
       <c r="E47" s="3">
-        <v>7947900</v>
+        <v>8237600</v>
       </c>
       <c r="F47" s="3">
-        <v>8176600</v>
+        <v>8474600</v>
       </c>
       <c r="G47" s="3">
-        <v>2269200</v>
+        <v>2351900</v>
       </c>
       <c r="H47" s="3">
-        <v>4644600</v>
+        <v>4813900</v>
       </c>
       <c r="I47" s="3">
-        <v>4680400</v>
+        <v>4850900</v>
       </c>
       <c r="J47" s="3">
-        <v>4627300</v>
+        <v>4795900</v>
       </c>
       <c r="K47" s="3">
         <v>5536400</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20399700</v>
+        <v>21143100</v>
       </c>
       <c r="E48" s="3">
-        <v>36549700</v>
+        <v>37881700</v>
       </c>
       <c r="F48" s="3">
-        <v>38770000</v>
+        <v>40182800</v>
       </c>
       <c r="G48" s="3">
-        <v>12667100</v>
+        <v>13128700</v>
       </c>
       <c r="H48" s="3">
-        <v>25465900</v>
+        <v>26393900</v>
       </c>
       <c r="I48" s="3">
-        <v>25028000</v>
+        <v>25940000</v>
       </c>
       <c r="J48" s="3">
-        <v>30041100</v>
+        <v>31135900</v>
       </c>
       <c r="K48" s="3">
         <v>33973100</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5977800</v>
+        <v>6195600</v>
       </c>
       <c r="E49" s="3">
-        <v>10005900</v>
+        <v>10370500</v>
       </c>
       <c r="F49" s="3">
-        <v>9833400</v>
+        <v>10191700</v>
       </c>
       <c r="G49" s="3">
-        <v>2229400</v>
+        <v>2310700</v>
       </c>
       <c r="H49" s="3">
-        <v>12608900</v>
+        <v>13068400</v>
       </c>
       <c r="I49" s="3">
-        <v>13008100</v>
+        <v>13482100</v>
       </c>
       <c r="J49" s="3">
-        <v>13483700</v>
+        <v>13975100</v>
       </c>
       <c r="K49" s="3">
         <v>13959300</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4268000</v>
+        <v>4423500</v>
       </c>
       <c r="E52" s="3">
-        <v>7705000</v>
+        <v>7985800</v>
       </c>
       <c r="F52" s="3">
-        <v>7798900</v>
+        <v>8083100</v>
       </c>
       <c r="G52" s="3">
-        <v>1816000</v>
+        <v>1882200</v>
       </c>
       <c r="H52" s="3">
-        <v>3925000</v>
+        <v>4068000</v>
       </c>
       <c r="I52" s="3">
-        <v>4149600</v>
+        <v>4300800</v>
       </c>
       <c r="J52" s="3">
-        <v>4371100</v>
+        <v>4530400</v>
       </c>
       <c r="K52" s="3">
         <v>5684700</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>145269000</v>
+        <v>150563000</v>
       </c>
       <c r="E54" s="3">
-        <v>62924200</v>
+        <v>65217200</v>
       </c>
       <c r="F54" s="3">
-        <v>65340400</v>
+        <v>67721500</v>
       </c>
       <c r="G54" s="3">
-        <v>81774200</v>
+        <v>84754300</v>
       </c>
       <c r="H54" s="3">
-        <v>70495400</v>
+        <v>73064400</v>
       </c>
       <c r="I54" s="3">
-        <v>77991200</v>
+        <v>80833300</v>
       </c>
       <c r="J54" s="3">
-        <v>80984100</v>
+        <v>83935400</v>
       </c>
       <c r="K54" s="3">
         <v>94163000</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4520100</v>
+        <v>4684800</v>
       </c>
       <c r="E57" s="3">
-        <v>2436600</v>
+        <v>2525400</v>
       </c>
       <c r="F57" s="3">
-        <v>3049100</v>
+        <v>3160200</v>
       </c>
       <c r="G57" s="3">
-        <v>2479500</v>
+        <v>2569900</v>
       </c>
       <c r="H57" s="3">
-        <v>5182600</v>
+        <v>5371500</v>
       </c>
       <c r="I57" s="3">
-        <v>5544000</v>
+        <v>5746000</v>
       </c>
       <c r="J57" s="3">
-        <v>6249300</v>
+        <v>6477100</v>
       </c>
       <c r="K57" s="3">
         <v>6882600</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6497400</v>
+        <v>6734200</v>
       </c>
       <c r="E58" s="3">
-        <v>1445500</v>
+        <v>1498100</v>
       </c>
       <c r="F58" s="3">
-        <v>2208000</v>
+        <v>2288500</v>
       </c>
       <c r="G58" s="3">
-        <v>92900</v>
+        <v>96300</v>
       </c>
       <c r="H58" s="3">
-        <v>1753700</v>
+        <v>1817600</v>
       </c>
       <c r="I58" s="3">
-        <v>901400</v>
+        <v>934200</v>
       </c>
       <c r="J58" s="3">
-        <v>1252500</v>
+        <v>1298200</v>
       </c>
       <c r="K58" s="3">
         <v>2391300</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>88007300</v>
+        <v>91214400</v>
       </c>
       <c r="E59" s="3">
-        <v>23710100</v>
+        <v>24574200</v>
       </c>
       <c r="F59" s="3">
-        <v>29955400</v>
+        <v>31047000</v>
       </c>
       <c r="G59" s="3">
-        <v>44225100</v>
+        <v>45836800</v>
       </c>
       <c r="H59" s="3">
-        <v>13779800</v>
+        <v>14281900</v>
       </c>
       <c r="I59" s="3">
-        <v>22919000</v>
+        <v>23754200</v>
       </c>
       <c r="J59" s="3">
-        <v>18145700</v>
+        <v>18807000</v>
       </c>
       <c r="K59" s="3">
         <v>21511700</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>99024700</v>
+        <v>102633000</v>
       </c>
       <c r="E60" s="3">
-        <v>16844200</v>
+        <v>17458100</v>
       </c>
       <c r="F60" s="3">
-        <v>20012800</v>
+        <v>20742100</v>
       </c>
       <c r="G60" s="3">
-        <v>46797600</v>
+        <v>48503000</v>
       </c>
       <c r="H60" s="3">
-        <v>20716100</v>
+        <v>21471100</v>
       </c>
       <c r="I60" s="3">
-        <v>29364300</v>
+        <v>30434400</v>
       </c>
       <c r="J60" s="3">
-        <v>25647600</v>
+        <v>26582300</v>
       </c>
       <c r="K60" s="3">
         <v>30785500</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5878800</v>
+        <v>6093000</v>
       </c>
       <c r="E61" s="3">
-        <v>3365600</v>
+        <v>3488200</v>
       </c>
       <c r="F61" s="3">
-        <v>3167500</v>
+        <v>3283000</v>
       </c>
       <c r="G61" s="3">
-        <v>1844600</v>
+        <v>1911800</v>
       </c>
       <c r="H61" s="3">
-        <v>13912500</v>
+        <v>14419500</v>
       </c>
       <c r="I61" s="3">
-        <v>15608000</v>
+        <v>16176800</v>
       </c>
       <c r="J61" s="3">
-        <v>16372600</v>
+        <v>16969300</v>
       </c>
       <c r="K61" s="3">
         <v>15528000</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23016000</v>
+        <v>23854700</v>
       </c>
       <c r="E62" s="3">
-        <v>46711800</v>
+        <v>48414100</v>
       </c>
       <c r="F62" s="3">
-        <v>47499900</v>
+        <v>49230900</v>
       </c>
       <c r="G62" s="3">
-        <v>18578600</v>
+        <v>19255600</v>
       </c>
       <c r="H62" s="3">
-        <v>23626400</v>
+        <v>24487400</v>
       </c>
       <c r="I62" s="3">
-        <v>24862600</v>
+        <v>25768600</v>
       </c>
       <c r="J62" s="3">
-        <v>29884900</v>
+        <v>30974000</v>
       </c>
       <c r="K62" s="3">
         <v>35007300</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>129698000</v>
+        <v>134424000</v>
       </c>
       <c r="E66" s="3">
-        <v>45656300</v>
+        <v>47320100</v>
       </c>
       <c r="F66" s="3">
-        <v>48023500</v>
+        <v>49773600</v>
       </c>
       <c r="G66" s="3">
-        <v>72856500</v>
+        <v>75511600</v>
       </c>
       <c r="H66" s="3">
-        <v>63595800</v>
+        <v>65913400</v>
       </c>
       <c r="I66" s="3">
-        <v>75179900</v>
+        <v>77919600</v>
       </c>
       <c r="J66" s="3">
-        <v>75015500</v>
+        <v>77749200</v>
       </c>
       <c r="K66" s="3">
         <v>86103300</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10927700</v>
+        <v>11325900</v>
       </c>
       <c r="E72" s="3">
-        <v>8475700</v>
+        <v>8784600</v>
       </c>
       <c r="F72" s="3">
-        <v>9093300</v>
+        <v>9424700</v>
       </c>
       <c r="G72" s="3">
-        <v>1162700</v>
+        <v>1205100</v>
       </c>
       <c r="H72" s="3">
-        <v>2416200</v>
+        <v>2504300</v>
       </c>
       <c r="I72" s="3">
-        <v>-665600</v>
+        <v>-689800</v>
       </c>
       <c r="J72" s="3">
-        <v>3687100</v>
+        <v>3821500</v>
       </c>
       <c r="K72" s="3">
         <v>5463300</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15571300</v>
+        <v>16138700</v>
       </c>
       <c r="E76" s="3">
-        <v>17267900</v>
+        <v>17897100</v>
       </c>
       <c r="F76" s="3">
-        <v>17316900</v>
+        <v>17947900</v>
       </c>
       <c r="G76" s="3">
-        <v>8917700</v>
+        <v>9242700</v>
       </c>
       <c r="H76" s="3">
-        <v>6899600</v>
+        <v>7151000</v>
       </c>
       <c r="I76" s="3">
-        <v>2811300</v>
+        <v>2913700</v>
       </c>
       <c r="J76" s="3">
-        <v>5968600</v>
+        <v>6186100</v>
       </c>
       <c r="K76" s="3">
         <v>8059600</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>736000</v>
+        <v>762800</v>
       </c>
       <c r="E81" s="3">
-        <v>1072900</v>
+        <v>1112000</v>
       </c>
       <c r="F81" s="3">
-        <v>8674800</v>
+        <v>8990900</v>
       </c>
       <c r="G81" s="3">
-        <v>342000</v>
+        <v>354400</v>
       </c>
       <c r="H81" s="3">
-        <v>1939500</v>
+        <v>2010200</v>
       </c>
       <c r="I81" s="3">
-        <v>-5828800</v>
+        <v>-6041200</v>
       </c>
       <c r="J81" s="3">
-        <v>-173500</v>
+        <v>-179900</v>
       </c>
       <c r="K81" s="3">
         <v>1858900</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2161000</v>
+        <v>2239800</v>
       </c>
       <c r="E83" s="3">
-        <v>3245100</v>
+        <v>3363400</v>
       </c>
       <c r="F83" s="3">
-        <v>2811300</v>
+        <v>2913700</v>
       </c>
       <c r="G83" s="3">
-        <v>977900</v>
+        <v>1013600</v>
       </c>
       <c r="H83" s="3">
-        <v>988100</v>
+        <v>1024100</v>
       </c>
       <c r="I83" s="3">
-        <v>6808700</v>
+        <v>7056900</v>
       </c>
       <c r="J83" s="3">
-        <v>5745100</v>
+        <v>5954400</v>
       </c>
       <c r="K83" s="3">
         <v>3363300</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7425300</v>
+        <v>7695900</v>
       </c>
       <c r="E89" s="3">
-        <v>4261800</v>
+        <v>4417200</v>
       </c>
       <c r="F89" s="3">
-        <v>-1554700</v>
+        <v>-1611300</v>
       </c>
       <c r="G89" s="3">
-        <v>6786300</v>
+        <v>7033600</v>
       </c>
       <c r="H89" s="3">
-        <v>-1790500</v>
+        <v>-1855700</v>
       </c>
       <c r="I89" s="3">
-        <v>2400900</v>
+        <v>2488400</v>
       </c>
       <c r="J89" s="3">
-        <v>3280900</v>
+        <v>3400400</v>
       </c>
       <c r="K89" s="3">
         <v>6946900</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3847400</v>
+        <v>-3987600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3427800</v>
+        <v>-3552800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1807800</v>
+        <v>-1873700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1271900</v>
+        <v>-1318300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3202200</v>
+        <v>-3318900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2356000</v>
+        <v>-2441900</v>
       </c>
       <c r="J91" s="3">
-        <v>-3239000</v>
+        <v>-3357000</v>
       </c>
       <c r="K91" s="3">
         <v>-3654500</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7899000</v>
+        <v>-8186800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4444600</v>
+        <v>-4606500</v>
       </c>
       <c r="F94" s="3">
-        <v>-744200</v>
+        <v>-771300</v>
       </c>
       <c r="G94" s="3">
-        <v>-4495600</v>
+        <v>-4659400</v>
       </c>
       <c r="H94" s="3">
-        <v>2747000</v>
+        <v>2847100</v>
       </c>
       <c r="I94" s="3">
-        <v>-4665100</v>
+        <v>-4835100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1945600</v>
+        <v>-2016500</v>
       </c>
       <c r="K94" s="3">
         <v>-5311600</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-745200</v>
+        <v>-772300</v>
       </c>
       <c r="E96" s="3">
-        <v>-532900</v>
+        <v>-552300</v>
       </c>
       <c r="F96" s="3">
-        <v>-571600</v>
+        <v>-592500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1046300</v>
+        <v>-1084500</v>
       </c>
       <c r="H96" s="3">
-        <v>-162300</v>
+        <v>-168200</v>
       </c>
       <c r="I96" s="3">
-        <v>-415500</v>
+        <v>-430600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1092300</v>
+        <v>-1132100</v>
       </c>
       <c r="K96" s="3">
         <v>-1157500</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1487300</v>
+        <v>1541500</v>
       </c>
       <c r="E100" s="3">
-        <v>1811900</v>
+        <v>1878000</v>
       </c>
       <c r="F100" s="3">
-        <v>228700</v>
+        <v>237000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1010600</v>
+        <v>-1047400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1567900</v>
+        <v>-1625100</v>
       </c>
       <c r="I100" s="3">
-        <v>4371100</v>
+        <v>4530400</v>
       </c>
       <c r="J100" s="3">
-        <v>-2085500</v>
+        <v>-2161500</v>
       </c>
       <c r="K100" s="3">
         <v>-2400000</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="E101" s="3">
-        <v>-34700</v>
+        <v>-36000</v>
       </c>
       <c r="F101" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="G101" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="H101" s="3">
-        <v>-19400</v>
+        <v>-20100</v>
       </c>
       <c r="I101" s="3">
-        <v>-24500</v>
+        <v>-25400</v>
       </c>
       <c r="J101" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="K101" s="3">
         <v>8700</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1072900</v>
+        <v>1112000</v>
       </c>
       <c r="E102" s="3">
-        <v>1594500</v>
+        <v>1652600</v>
       </c>
       <c r="F102" s="3">
-        <v>-2054900</v>
+        <v>-2129800</v>
       </c>
       <c r="G102" s="3">
-        <v>1293400</v>
+        <v>1340500</v>
       </c>
       <c r="H102" s="3">
-        <v>-630900</v>
+        <v>-653800</v>
       </c>
       <c r="I102" s="3">
-        <v>2082400</v>
+        <v>2158300</v>
       </c>
       <c r="J102" s="3">
-        <v>-736000</v>
+        <v>-762800</v>
       </c>
       <c r="K102" s="3">
         <v>-756000</v>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>RWEOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25948500</v>
+        <v>41316300</v>
       </c>
       <c r="E8" s="3">
-        <v>14481900</v>
+        <v>26460500</v>
       </c>
       <c r="F8" s="3">
-        <v>13886300</v>
+        <v>14740600</v>
       </c>
       <c r="G8" s="3">
-        <v>14183500</v>
+        <v>14134300</v>
       </c>
       <c r="H8" s="3">
-        <v>14623700</v>
+        <v>14436900</v>
       </c>
       <c r="I8" s="3">
-        <v>46118200</v>
+        <v>14884900</v>
       </c>
       <c r="J8" s="3">
+        <v>46942100</v>
+      </c>
+      <c r="K8" s="3">
         <v>48507200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>50344400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>59509800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>55746600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>57696300</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18669500</v>
+        <v>33655300</v>
       </c>
       <c r="E9" s="3">
-        <v>10283800</v>
+        <v>19051400</v>
       </c>
       <c r="F9" s="3">
-        <v>9501900</v>
+        <v>10467500</v>
       </c>
       <c r="G9" s="3">
-        <v>10530300</v>
+        <v>9671600</v>
       </c>
       <c r="H9" s="3">
-        <v>10545100</v>
+        <v>10718400</v>
       </c>
       <c r="I9" s="3">
-        <v>35055800</v>
+        <v>10733500</v>
       </c>
       <c r="J9" s="3">
+        <v>35682000</v>
+      </c>
+      <c r="K9" s="3">
         <v>35441900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36444000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42205500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37643800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>39455300</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7279000</v>
+        <v>7661100</v>
       </c>
       <c r="E10" s="3">
-        <v>4198100</v>
+        <v>7409100</v>
       </c>
       <c r="F10" s="3">
-        <v>4384400</v>
+        <v>4273100</v>
       </c>
       <c r="G10" s="3">
-        <v>3653300</v>
+        <v>4462700</v>
       </c>
       <c r="H10" s="3">
-        <v>4078600</v>
+        <v>3718500</v>
       </c>
       <c r="I10" s="3">
-        <v>11062400</v>
+        <v>4151400</v>
       </c>
       <c r="J10" s="3">
+        <v>11260100</v>
+      </c>
+      <c r="K10" s="3">
         <v>13065200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13900400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17304200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18102700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18241000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,87 +946,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>578700</v>
+        <v>-2002000</v>
       </c>
       <c r="E14" s="3">
-        <v>1709700</v>
+        <v>589100</v>
       </c>
       <c r="F14" s="3">
-        <v>1552100</v>
+        <v>1740300</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1579800</v>
       </c>
       <c r="H14" s="3">
-        <v>412600</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>4383300</v>
+        <v>420000</v>
       </c>
       <c r="J14" s="3">
+        <v>4461600</v>
+      </c>
+      <c r="K14" s="3">
         <v>2880900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>593500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5705900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1503400</v>
+        <v>1755300</v>
       </c>
       <c r="E15" s="3">
-        <v>1506600</v>
+        <v>1530300</v>
       </c>
       <c r="F15" s="3">
-        <v>1267500</v>
+        <v>1533500</v>
       </c>
       <c r="G15" s="3">
-        <v>953300</v>
+        <v>1290100</v>
       </c>
       <c r="H15" s="3">
-        <v>1007200</v>
+        <v>970300</v>
       </c>
       <c r="I15" s="3">
-        <v>2398500</v>
+        <v>1025200</v>
       </c>
       <c r="J15" s="3">
+        <v>2441300</v>
+      </c>
+      <c r="K15" s="3">
         <v>2551900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2478500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2997700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5568000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3995600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24769900</v>
+        <v>41723400</v>
       </c>
       <c r="E17" s="3">
-        <v>13000700</v>
+        <v>25260800</v>
       </c>
       <c r="F17" s="3">
-        <v>14037500</v>
+        <v>13232900</v>
       </c>
       <c r="G17" s="3">
-        <v>13877800</v>
+        <v>14288300</v>
       </c>
       <c r="H17" s="3">
-        <v>12547900</v>
+        <v>14125700</v>
       </c>
       <c r="I17" s="3">
-        <v>50476100</v>
+        <v>12772000</v>
       </c>
       <c r="J17" s="3">
+        <v>51377800</v>
+      </c>
+      <c r="K17" s="3">
         <v>48012000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46471700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59888900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>51524700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>52849600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1178600</v>
+        <v>-407100</v>
       </c>
       <c r="E18" s="3">
-        <v>1481200</v>
+        <v>1199700</v>
       </c>
       <c r="F18" s="3">
-        <v>-151300</v>
+        <v>1507700</v>
       </c>
       <c r="G18" s="3">
-        <v>305800</v>
+        <v>-154000</v>
       </c>
       <c r="H18" s="3">
-        <v>2075800</v>
+        <v>311200</v>
       </c>
       <c r="I18" s="3">
-        <v>-4357900</v>
+        <v>2112900</v>
       </c>
       <c r="J18" s="3">
+        <v>-4435800</v>
+      </c>
+      <c r="K18" s="3">
         <v>495100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3872700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-379200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4221800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4846700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>791400</v>
+        <v>2055800</v>
       </c>
       <c r="E20" s="3">
-        <v>170300</v>
+        <v>805500</v>
       </c>
       <c r="F20" s="3">
-        <v>-371400</v>
+        <v>173400</v>
       </c>
       <c r="G20" s="3">
-        <v>-63500</v>
+        <v>-378000</v>
       </c>
       <c r="H20" s="3">
-        <v>414700</v>
+        <v>-64600</v>
       </c>
       <c r="I20" s="3">
-        <v>-818900</v>
+        <v>422100</v>
       </c>
       <c r="J20" s="3">
+        <v>-833500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-38100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-244400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>570600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-401900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-49300</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>4202200</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>5003500</v>
+        <v>4299800</v>
       </c>
       <c r="F21" s="3">
-        <v>2381200</v>
+        <v>5126800</v>
       </c>
       <c r="G21" s="3">
-        <v>1252400</v>
+        <v>2453100</v>
       </c>
       <c r="H21" s="3">
-        <v>3511200</v>
+        <v>1285000</v>
       </c>
       <c r="I21" s="3">
-        <v>1856100</v>
+        <v>3584200</v>
       </c>
       <c r="J21" s="3">
+        <v>1960400</v>
+      </c>
+      <c r="K21" s="3">
         <v>6391200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7042800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8901000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9709900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8841500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>359700</v>
+        <v>878800</v>
       </c>
       <c r="E22" s="3">
-        <v>313200</v>
+        <v>366100</v>
       </c>
       <c r="F22" s="3">
-        <v>273000</v>
+        <v>318800</v>
       </c>
       <c r="G22" s="3">
-        <v>190400</v>
+        <v>277800</v>
       </c>
       <c r="H22" s="3">
-        <v>315300</v>
+        <v>193800</v>
       </c>
       <c r="I22" s="3">
-        <v>967000</v>
+        <v>320900</v>
       </c>
       <c r="J22" s="3">
+        <v>984300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1131000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1178200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2602900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1371400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1247800</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1610300</v>
+        <v>770000</v>
       </c>
       <c r="E23" s="3">
-        <v>1338400</v>
+        <v>1639000</v>
       </c>
       <c r="F23" s="3">
-        <v>-795600</v>
+        <v>1362300</v>
       </c>
       <c r="G23" s="3">
-        <v>51800</v>
+        <v>-809800</v>
       </c>
       <c r="H23" s="3">
-        <v>2175200</v>
+        <v>52800</v>
       </c>
       <c r="I23" s="3">
-        <v>-6143800</v>
+        <v>2214100</v>
       </c>
       <c r="J23" s="3">
+        <v>-6253600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-673900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2450200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2411500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2448500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3549600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>730000</v>
+        <v>-2452100</v>
       </c>
       <c r="E24" s="3">
-        <v>397800</v>
+        <v>743100</v>
       </c>
       <c r="F24" s="3">
-        <v>-97300</v>
+        <v>404900</v>
       </c>
       <c r="G24" s="3">
-        <v>109000</v>
+        <v>-99100</v>
       </c>
       <c r="H24" s="3">
-        <v>352300</v>
+        <v>110900</v>
       </c>
       <c r="I24" s="3">
-        <v>-341700</v>
+        <v>358600</v>
       </c>
       <c r="J24" s="3">
+        <v>-347800</v>
+      </c>
+      <c r="K24" s="3">
         <v>638000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>603300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>884000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>577500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1002400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>880300</v>
+        <v>3222100</v>
       </c>
       <c r="E26" s="3">
-        <v>940600</v>
+        <v>896000</v>
       </c>
       <c r="F26" s="3">
-        <v>-698300</v>
+        <v>957400</v>
       </c>
       <c r="G26" s="3">
-        <v>-57100</v>
+        <v>-710800</v>
       </c>
       <c r="H26" s="3">
-        <v>1822900</v>
+        <v>-58200</v>
       </c>
       <c r="I26" s="3">
-        <v>-5802100</v>
+        <v>1855500</v>
       </c>
       <c r="J26" s="3">
+        <v>-5905700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1311900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1846900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3295500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1871000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2547200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>762800</v>
+        <v>2925900</v>
       </c>
       <c r="E27" s="3">
-        <v>878100</v>
+        <v>776400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1394400</v>
+        <v>893800</v>
       </c>
       <c r="G27" s="3">
-        <v>-837900</v>
+        <v>-1419400</v>
       </c>
       <c r="H27" s="3">
-        <v>1383900</v>
+        <v>-852900</v>
       </c>
       <c r="I27" s="3">
-        <v>-6041200</v>
+        <v>1408600</v>
       </c>
       <c r="J27" s="3">
+        <v>-6149100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1792300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1461800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3671100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1434000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2119900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,48 +1525,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>233800</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>10385300</v>
+        <v>238000</v>
       </c>
       <c r="G29" s="3">
-        <v>1192400</v>
+        <v>10570900</v>
       </c>
       <c r="H29" s="3">
-        <v>626300</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>1213700</v>
+      </c>
+      <c r="I29" s="3">
+        <v>637500</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1612400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>397100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>373200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-791400</v>
+        <v>-2055800</v>
       </c>
       <c r="E32" s="3">
-        <v>-170300</v>
+        <v>-805500</v>
       </c>
       <c r="F32" s="3">
-        <v>371400</v>
+        <v>-173400</v>
       </c>
       <c r="G32" s="3">
-        <v>63500</v>
+        <v>378000</v>
       </c>
       <c r="H32" s="3">
-        <v>-414700</v>
+        <v>64600</v>
       </c>
       <c r="I32" s="3">
-        <v>818900</v>
+        <v>-422100</v>
       </c>
       <c r="J32" s="3">
+        <v>833500</v>
+      </c>
+      <c r="K32" s="3">
         <v>38100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>244400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-570600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>401900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>49300</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>762800</v>
+        <v>2925900</v>
       </c>
       <c r="E33" s="3">
-        <v>1112000</v>
+        <v>776400</v>
       </c>
       <c r="F33" s="3">
-        <v>8990900</v>
+        <v>1131800</v>
       </c>
       <c r="G33" s="3">
-        <v>354400</v>
+        <v>9151500</v>
       </c>
       <c r="H33" s="3">
-        <v>2010200</v>
+        <v>360800</v>
       </c>
       <c r="I33" s="3">
-        <v>-6041200</v>
+        <v>2046100</v>
       </c>
       <c r="J33" s="3">
+        <v>-6149100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-179900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1858900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3297900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1434000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2119900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>762800</v>
+        <v>2925900</v>
       </c>
       <c r="E35" s="3">
-        <v>1112000</v>
+        <v>776400</v>
       </c>
       <c r="F35" s="3">
-        <v>8990900</v>
+        <v>1131800</v>
       </c>
       <c r="G35" s="3">
-        <v>354400</v>
+        <v>9151500</v>
       </c>
       <c r="H35" s="3">
-        <v>2010200</v>
+        <v>360800</v>
       </c>
       <c r="I35" s="3">
-        <v>-6041200</v>
+        <v>2046100</v>
       </c>
       <c r="J35" s="3">
+        <v>-6149100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-179900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1858900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3297900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1434000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2119900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,359 +1905,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6162900</v>
+        <v>7525400</v>
       </c>
       <c r="E41" s="3">
-        <v>5050900</v>
+        <v>6272900</v>
       </c>
       <c r="F41" s="3">
-        <v>6754300</v>
+        <v>5141100</v>
       </c>
       <c r="G41" s="3">
-        <v>3727300</v>
+        <v>6874900</v>
       </c>
       <c r="H41" s="3">
-        <v>4161100</v>
+        <v>3793900</v>
       </c>
       <c r="I41" s="3">
-        <v>4841400</v>
+        <v>4235400</v>
       </c>
       <c r="J41" s="3">
+        <v>4927900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2668300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3459300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9450000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5662400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4307900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8506300</v>
+        <v>14503700</v>
       </c>
       <c r="E42" s="3">
-        <v>4463700</v>
+        <v>8658300</v>
       </c>
       <c r="F42" s="3">
-        <v>3447000</v>
+        <v>4543400</v>
       </c>
       <c r="G42" s="3">
-        <v>3818300</v>
+        <v>3508500</v>
       </c>
       <c r="H42" s="3">
-        <v>5176800</v>
+        <v>3886500</v>
       </c>
       <c r="I42" s="3">
-        <v>10394900</v>
+        <v>5269300</v>
       </c>
       <c r="J42" s="3">
+        <v>10580500</v>
+      </c>
+      <c r="K42" s="3">
         <v>7868300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4810900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3364900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6012600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12134800</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20409900</v>
+        <v>20111100</v>
       </c>
       <c r="E43" s="3">
-        <v>9230000</v>
+        <v>20774500</v>
       </c>
       <c r="F43" s="3">
-        <v>10365200</v>
+        <v>9394900</v>
       </c>
       <c r="G43" s="3">
-        <v>5127100</v>
+        <v>10550400</v>
       </c>
       <c r="H43" s="3">
-        <v>8035500</v>
+        <v>5218700</v>
       </c>
       <c r="I43" s="3">
-        <v>7092800</v>
+        <v>8179100</v>
       </c>
       <c r="J43" s="3">
+        <v>7219500</v>
+      </c>
+      <c r="K43" s="3">
         <v>7230400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9334900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20488500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32414100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24880100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2992000</v>
+        <v>4529400</v>
       </c>
       <c r="E44" s="3">
-        <v>3453300</v>
+        <v>3045500</v>
       </c>
       <c r="F44" s="3">
-        <v>3353900</v>
+        <v>3515000</v>
       </c>
       <c r="G44" s="3">
-        <v>1725600</v>
+        <v>3413800</v>
       </c>
       <c r="H44" s="3">
-        <v>2035600</v>
+        <v>1756400</v>
       </c>
       <c r="I44" s="3">
-        <v>2082100</v>
+        <v>2072000</v>
       </c>
       <c r="J44" s="3">
+        <v>2119300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2072600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2434900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5710700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10333300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7845700</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>71374800</v>
+        <v>56994900</v>
       </c>
       <c r="E45" s="3">
-        <v>24771000</v>
+        <v>72649800</v>
       </c>
       <c r="F45" s="3">
-        <v>31042800</v>
+        <v>25213500</v>
       </c>
       <c r="G45" s="3">
-        <v>50682400</v>
+        <v>31597300</v>
       </c>
       <c r="H45" s="3">
-        <v>5311200</v>
+        <v>51587800</v>
       </c>
       <c r="I45" s="3">
-        <v>7848200</v>
+        <v>5406000</v>
       </c>
       <c r="J45" s="3">
+        <v>7988400</v>
+      </c>
+      <c r="K45" s="3">
         <v>9658500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14969500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16431000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19849600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19187100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>109446000</v>
+        <v>103665000</v>
       </c>
       <c r="E46" s="3">
-        <v>28803000</v>
+        <v>111401000</v>
       </c>
       <c r="F46" s="3">
-        <v>29879000</v>
+        <v>29317500</v>
       </c>
       <c r="G46" s="3">
-        <v>65080800</v>
+        <v>30412700</v>
       </c>
       <c r="H46" s="3">
-        <v>24720200</v>
+        <v>66243300</v>
       </c>
       <c r="I46" s="3">
-        <v>32259500</v>
+        <v>25161800</v>
       </c>
       <c r="J46" s="3">
+        <v>32835800</v>
+      </c>
+      <c r="K46" s="3">
         <v>29498100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35009500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29278200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27423600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34177800</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9354800</v>
+        <v>9068600</v>
       </c>
       <c r="E47" s="3">
-        <v>8237600</v>
+        <v>9521900</v>
       </c>
       <c r="F47" s="3">
-        <v>8474600</v>
+        <v>8384700</v>
       </c>
       <c r="G47" s="3">
-        <v>2351900</v>
+        <v>8626000</v>
       </c>
       <c r="H47" s="3">
-        <v>4813900</v>
+        <v>2393900</v>
       </c>
       <c r="I47" s="3">
-        <v>4850900</v>
+        <v>4899900</v>
       </c>
       <c r="J47" s="3">
+        <v>4937600</v>
+      </c>
+      <c r="K47" s="3">
         <v>4795900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5536400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6894900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13053000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16227900</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21143100</v>
+        <v>25575300</v>
       </c>
       <c r="E48" s="3">
-        <v>37881700</v>
+        <v>21520800</v>
       </c>
       <c r="F48" s="3">
-        <v>40182800</v>
+        <v>38558400</v>
       </c>
       <c r="G48" s="3">
-        <v>13128700</v>
+        <v>40900700</v>
       </c>
       <c r="H48" s="3">
-        <v>26393900</v>
+        <v>13363300</v>
       </c>
       <c r="I48" s="3">
-        <v>25940000</v>
+        <v>26865400</v>
       </c>
       <c r="J48" s="3">
+        <v>26403400</v>
+      </c>
+      <c r="K48" s="3">
         <v>31135900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33973100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>89657600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>120179000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>82126800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6195600</v>
+        <v>6085600</v>
       </c>
       <c r="E49" s="3">
-        <v>10370500</v>
+        <v>6306300</v>
       </c>
       <c r="F49" s="3">
-        <v>10191700</v>
+        <v>10555800</v>
       </c>
       <c r="G49" s="3">
-        <v>2310700</v>
+        <v>10373800</v>
       </c>
       <c r="H49" s="3">
-        <v>13068400</v>
+        <v>2351900</v>
       </c>
       <c r="I49" s="3">
-        <v>13482100</v>
+        <v>13301900</v>
       </c>
       <c r="J49" s="3">
+        <v>13722900</v>
+      </c>
+      <c r="K49" s="3">
         <v>13975100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13959300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45685300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>53012500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39782800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4423500</v>
+        <v>4808400</v>
       </c>
       <c r="E52" s="3">
-        <v>7985800</v>
+        <v>4502500</v>
       </c>
       <c r="F52" s="3">
-        <v>8083100</v>
+        <v>8128400</v>
       </c>
       <c r="G52" s="3">
-        <v>1882200</v>
+        <v>8227500</v>
       </c>
       <c r="H52" s="3">
-        <v>4068000</v>
+        <v>1915800</v>
       </c>
       <c r="I52" s="3">
-        <v>4300800</v>
+        <v>4140700</v>
       </c>
       <c r="J52" s="3">
+        <v>4377600</v>
+      </c>
+      <c r="K52" s="3">
         <v>4530400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5684700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7292000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12964100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10999800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>150563000</v>
+        <v>149202000</v>
       </c>
       <c r="E54" s="3">
-        <v>65217200</v>
+        <v>153253000</v>
       </c>
       <c r="F54" s="3">
-        <v>67721500</v>
+        <v>66382300</v>
       </c>
       <c r="G54" s="3">
-        <v>84754300</v>
+        <v>68931300</v>
       </c>
       <c r="H54" s="3">
-        <v>73064400</v>
+        <v>86268300</v>
       </c>
       <c r="I54" s="3">
-        <v>80833300</v>
+        <v>74369600</v>
       </c>
       <c r="J54" s="3">
+        <v>82277300</v>
+      </c>
+      <c r="K54" s="3">
         <v>83935400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>94163000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97348000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>97097200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>108732000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4684800</v>
+        <v>8038000</v>
       </c>
       <c r="E57" s="3">
-        <v>2525400</v>
+        <v>4768500</v>
       </c>
       <c r="F57" s="3">
-        <v>3160200</v>
+        <v>2570600</v>
       </c>
       <c r="G57" s="3">
-        <v>2569900</v>
+        <v>3216700</v>
       </c>
       <c r="H57" s="3">
-        <v>5371500</v>
+        <v>2615800</v>
       </c>
       <c r="I57" s="3">
-        <v>5746000</v>
+        <v>5467400</v>
       </c>
       <c r="J57" s="3">
+        <v>5848600</v>
+      </c>
+      <c r="K57" s="3">
         <v>6477100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6882600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7703500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16086800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18513300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6734200</v>
+        <v>9343200</v>
       </c>
       <c r="E58" s="3">
-        <v>1498100</v>
+        <v>6854500</v>
       </c>
       <c r="F58" s="3">
-        <v>2288500</v>
+        <v>1524900</v>
       </c>
       <c r="G58" s="3">
-        <v>96300</v>
+        <v>2329300</v>
       </c>
       <c r="H58" s="3">
-        <v>1817600</v>
+        <v>98000</v>
       </c>
       <c r="I58" s="3">
-        <v>934200</v>
+        <v>1850100</v>
       </c>
       <c r="J58" s="3">
+        <v>950900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1298200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2391300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3765600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12557800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15247800</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>91214400</v>
+        <v>68431600</v>
       </c>
       <c r="E59" s="3">
-        <v>24574200</v>
+        <v>92843900</v>
       </c>
       <c r="F59" s="3">
-        <v>31047000</v>
+        <v>25013200</v>
       </c>
       <c r="G59" s="3">
-        <v>45836800</v>
+        <v>31601600</v>
       </c>
       <c r="H59" s="3">
-        <v>14281900</v>
+        <v>46655600</v>
       </c>
       <c r="I59" s="3">
-        <v>23754200</v>
+        <v>14537100</v>
       </c>
       <c r="J59" s="3">
+        <v>24178600</v>
+      </c>
+      <c r="K59" s="3">
         <v>18807000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21511700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34417100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42894500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39444700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>102633000</v>
+        <v>85812800</v>
       </c>
       <c r="E60" s="3">
-        <v>17458100</v>
+        <v>104467000</v>
       </c>
       <c r="F60" s="3">
-        <v>20742100</v>
+        <v>17769900</v>
       </c>
       <c r="G60" s="3">
-        <v>48503000</v>
+        <v>21112600</v>
       </c>
       <c r="H60" s="3">
-        <v>21471100</v>
+        <v>49369400</v>
       </c>
       <c r="I60" s="3">
-        <v>30434400</v>
+        <v>21854600</v>
       </c>
       <c r="J60" s="3">
+        <v>30978100</v>
+      </c>
+      <c r="K60" s="3">
         <v>26582300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30785500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26150100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26651800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36602900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6093000</v>
+        <v>9190300</v>
       </c>
       <c r="E61" s="3">
-        <v>3488200</v>
+        <v>6201900</v>
       </c>
       <c r="F61" s="3">
-        <v>3283000</v>
+        <v>3550500</v>
       </c>
       <c r="G61" s="3">
-        <v>1911800</v>
+        <v>3341600</v>
       </c>
       <c r="H61" s="3">
-        <v>14419500</v>
+        <v>1946000</v>
       </c>
       <c r="I61" s="3">
-        <v>16176800</v>
+        <v>14677100</v>
       </c>
       <c r="J61" s="3">
+        <v>16465800</v>
+      </c>
+      <c r="K61" s="3">
         <v>16969300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15528000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18527900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16927900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18109500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23854700</v>
+        <v>22668700</v>
       </c>
       <c r="E62" s="3">
-        <v>48414100</v>
+        <v>24280900</v>
       </c>
       <c r="F62" s="3">
-        <v>49230900</v>
+        <v>49278900</v>
       </c>
       <c r="G62" s="3">
-        <v>19255600</v>
+        <v>50110300</v>
       </c>
       <c r="H62" s="3">
-        <v>24487400</v>
+        <v>19599600</v>
       </c>
       <c r="I62" s="3">
-        <v>25768600</v>
+        <v>24924900</v>
       </c>
       <c r="J62" s="3">
+        <v>26229000</v>
+      </c>
+      <c r="K62" s="3">
         <v>30974000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35007300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73540000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>104377000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>67904900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>134424000</v>
+        <v>119506000</v>
       </c>
       <c r="E66" s="3">
-        <v>47320100</v>
+        <v>136826000</v>
       </c>
       <c r="F66" s="3">
-        <v>49773600</v>
+        <v>48165400</v>
       </c>
       <c r="G66" s="3">
-        <v>75511600</v>
+        <v>50662800</v>
       </c>
       <c r="H66" s="3">
-        <v>65913400</v>
+        <v>76860500</v>
       </c>
       <c r="I66" s="3">
-        <v>77919600</v>
+        <v>67090900</v>
       </c>
       <c r="J66" s="3">
+        <v>79311500</v>
+      </c>
+      <c r="K66" s="3">
         <v>77749200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86103300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88091800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>83733500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>92266200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2918,14 +3085,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>109800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>117400</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11325900</v>
+        <v>16942900</v>
       </c>
       <c r="E72" s="3">
-        <v>8784600</v>
+        <v>11528200</v>
       </c>
       <c r="F72" s="3">
-        <v>9424700</v>
+        <v>8941500</v>
       </c>
       <c r="G72" s="3">
-        <v>1205100</v>
+        <v>9593000</v>
       </c>
       <c r="H72" s="3">
-        <v>2504300</v>
+        <v>1226600</v>
       </c>
       <c r="I72" s="3">
-        <v>-689800</v>
+        <v>2549000</v>
       </c>
       <c r="J72" s="3">
+        <v>-702100</v>
+      </c>
+      <c r="K72" s="3">
         <v>3821500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5463300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8908100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24317400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15423900</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16138700</v>
+        <v>29696600</v>
       </c>
       <c r="E76" s="3">
-        <v>17897100</v>
+        <v>16427000</v>
       </c>
       <c r="F76" s="3">
-        <v>17947900</v>
+        <v>18216800</v>
       </c>
       <c r="G76" s="3">
-        <v>9242700</v>
+        <v>18268500</v>
       </c>
       <c r="H76" s="3">
-        <v>7151000</v>
+        <v>9407800</v>
       </c>
       <c r="I76" s="3">
-        <v>2913700</v>
+        <v>7278800</v>
       </c>
       <c r="J76" s="3">
+        <v>2965800</v>
+      </c>
+      <c r="K76" s="3">
         <v>6186100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8059600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9256200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13254000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16348800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>762800</v>
+        <v>2925900</v>
       </c>
       <c r="E81" s="3">
-        <v>1112000</v>
+        <v>776400</v>
       </c>
       <c r="F81" s="3">
-        <v>8990900</v>
+        <v>1131800</v>
       </c>
       <c r="G81" s="3">
-        <v>354400</v>
+        <v>9151500</v>
       </c>
       <c r="H81" s="3">
-        <v>2010200</v>
+        <v>360800</v>
       </c>
       <c r="I81" s="3">
-        <v>-6041200</v>
+        <v>2046100</v>
       </c>
       <c r="J81" s="3">
+        <v>-6149100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-179900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1858900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3297900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1434000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2119900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2239800</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>3363400</v>
+        <v>2279800</v>
       </c>
       <c r="F83" s="3">
-        <v>2913700</v>
+        <v>3423500</v>
       </c>
       <c r="G83" s="3">
-        <v>1013600</v>
+        <v>2965800</v>
       </c>
       <c r="H83" s="3">
-        <v>1024100</v>
+        <v>1031700</v>
       </c>
       <c r="I83" s="3">
-        <v>7056900</v>
+        <v>1042400</v>
       </c>
       <c r="J83" s="3">
+        <v>7182900</v>
+      </c>
+      <c r="K83" s="3">
         <v>5954400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3363300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8745400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5880900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4041400</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7695900</v>
+        <v>2591000</v>
       </c>
       <c r="E89" s="3">
-        <v>4417200</v>
+        <v>7833400</v>
       </c>
       <c r="F89" s="3">
-        <v>-1611300</v>
+        <v>4496100</v>
       </c>
       <c r="G89" s="3">
-        <v>7033600</v>
+        <v>-1640100</v>
       </c>
       <c r="H89" s="3">
-        <v>-1855700</v>
+        <v>7159200</v>
       </c>
       <c r="I89" s="3">
-        <v>2488400</v>
+        <v>-1888900</v>
       </c>
       <c r="J89" s="3">
+        <v>2532900</v>
+      </c>
+      <c r="K89" s="3">
         <v>3400400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6946900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6670000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4825700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6467700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3987600</v>
+        <v>-4828800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3552800</v>
+        <v>-4058800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1873700</v>
+        <v>-3616200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1318300</v>
+        <v>-1907200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3318900</v>
+        <v>-1341800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2441900</v>
+        <v>-3378200</v>
       </c>
       <c r="J91" s="3">
+        <v>-2485500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3357000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3654500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4696300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5578900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7457200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8186800</v>
+        <v>-10652700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4606500</v>
+        <v>-8333100</v>
       </c>
       <c r="F94" s="3">
-        <v>-771300</v>
+        <v>-4688800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4659400</v>
+        <v>-785100</v>
       </c>
       <c r="H94" s="3">
-        <v>2847100</v>
+        <v>-4742700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4835100</v>
+        <v>2897900</v>
       </c>
       <c r="J94" s="3">
+        <v>-4921400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2016500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5311600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2796700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1410900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9115800</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-772300</v>
+        <v>-983200</v>
       </c>
       <c r="E96" s="3">
-        <v>-552300</v>
+        <v>-786100</v>
       </c>
       <c r="F96" s="3">
-        <v>-592500</v>
+        <v>-562100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1084500</v>
+        <v>-603100</v>
       </c>
       <c r="H96" s="3">
-        <v>-168200</v>
+        <v>-1103800</v>
       </c>
       <c r="I96" s="3">
-        <v>-430600</v>
+        <v>-171200</v>
       </c>
       <c r="J96" s="3">
+        <v>-438300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1132100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1157500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1927100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1708500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2700900</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1541500</v>
+        <v>9277500</v>
       </c>
       <c r="E100" s="3">
-        <v>1878000</v>
+        <v>1569000</v>
       </c>
       <c r="F100" s="3">
-        <v>237000</v>
+        <v>1911500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1047400</v>
+        <v>241200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1625100</v>
+        <v>-1066100</v>
       </c>
       <c r="I100" s="3">
-        <v>4530400</v>
+        <v>-1654100</v>
       </c>
       <c r="J100" s="3">
+        <v>4611300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2161500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2400000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2385200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2704400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2044800</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>61400</v>
+        <v>36600</v>
       </c>
       <c r="E101" s="3">
-        <v>-36000</v>
+        <v>62500</v>
       </c>
       <c r="F101" s="3">
-        <v>15900</v>
+        <v>-36600</v>
       </c>
       <c r="G101" s="3">
-        <v>13800</v>
+        <v>16200</v>
       </c>
       <c r="H101" s="3">
-        <v>-20100</v>
+        <v>14000</v>
       </c>
       <c r="I101" s="3">
-        <v>-25400</v>
+        <v>-20500</v>
       </c>
       <c r="J101" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K101" s="3">
         <v>14800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-21500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1112000</v>
+        <v>1252400</v>
       </c>
       <c r="E102" s="3">
-        <v>1652600</v>
+        <v>1131800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2129800</v>
+        <v>1682100</v>
       </c>
       <c r="G102" s="3">
-        <v>1340500</v>
+        <v>-2167800</v>
       </c>
       <c r="H102" s="3">
-        <v>-653800</v>
+        <v>1364400</v>
       </c>
       <c r="I102" s="3">
-        <v>2158300</v>
+        <v>-665500</v>
       </c>
       <c r="J102" s="3">
+        <v>2196900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-762800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-756000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1466500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>728000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-617400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>41316300</v>
+        <v>41592600</v>
       </c>
       <c r="E8" s="3">
-        <v>26460500</v>
+        <v>26637400</v>
       </c>
       <c r="F8" s="3">
-        <v>14740600</v>
+        <v>14839200</v>
       </c>
       <c r="G8" s="3">
-        <v>14134300</v>
+        <v>14228800</v>
       </c>
       <c r="H8" s="3">
-        <v>14436900</v>
+        <v>14533400</v>
       </c>
       <c r="I8" s="3">
-        <v>14884900</v>
+        <v>14984400</v>
       </c>
       <c r="J8" s="3">
-        <v>46942100</v>
+        <v>47255900</v>
       </c>
       <c r="K8" s="3">
         <v>48507200</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>33655300</v>
+        <v>33880300</v>
       </c>
       <c r="E9" s="3">
-        <v>19051400</v>
+        <v>19178800</v>
       </c>
       <c r="F9" s="3">
-        <v>10467500</v>
+        <v>10537500</v>
       </c>
       <c r="G9" s="3">
-        <v>9671600</v>
+        <v>9736300</v>
       </c>
       <c r="H9" s="3">
-        <v>10718400</v>
+        <v>10790000</v>
       </c>
       <c r="I9" s="3">
-        <v>10733500</v>
+        <v>10805200</v>
       </c>
       <c r="J9" s="3">
-        <v>35682000</v>
+        <v>35920600</v>
       </c>
       <c r="K9" s="3">
         <v>35441900</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7661100</v>
+        <v>7712300</v>
       </c>
       <c r="E10" s="3">
-        <v>7409100</v>
+        <v>7458600</v>
       </c>
       <c r="F10" s="3">
-        <v>4273100</v>
+        <v>4301700</v>
       </c>
       <c r="G10" s="3">
-        <v>4462700</v>
+        <v>4492500</v>
       </c>
       <c r="H10" s="3">
-        <v>3718500</v>
+        <v>3743400</v>
       </c>
       <c r="I10" s="3">
-        <v>4151400</v>
+        <v>4179200</v>
       </c>
       <c r="J10" s="3">
-        <v>11260100</v>
+        <v>11335300</v>
       </c>
       <c r="K10" s="3">
         <v>13065200</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2002000</v>
+        <v>-2015300</v>
       </c>
       <c r="E14" s="3">
-        <v>589100</v>
+        <v>593000</v>
       </c>
       <c r="F14" s="3">
-        <v>1740300</v>
+        <v>1751900</v>
       </c>
       <c r="G14" s="3">
-        <v>1579800</v>
+        <v>1590400</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>420000</v>
+        <v>422800</v>
       </c>
       <c r="J14" s="3">
-        <v>4461600</v>
+        <v>4491400</v>
       </c>
       <c r="K14" s="3">
         <v>2880900</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1755300</v>
+        <v>1767100</v>
       </c>
       <c r="E15" s="3">
-        <v>1530300</v>
+        <v>1540500</v>
       </c>
       <c r="F15" s="3">
-        <v>1533500</v>
+        <v>1543800</v>
       </c>
       <c r="G15" s="3">
-        <v>1290100</v>
+        <v>1298800</v>
       </c>
       <c r="H15" s="3">
-        <v>970300</v>
+        <v>976800</v>
       </c>
       <c r="I15" s="3">
-        <v>1025200</v>
+        <v>1032100</v>
       </c>
       <c r="J15" s="3">
-        <v>2441300</v>
+        <v>2457700</v>
       </c>
       <c r="K15" s="3">
         <v>2551900</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41723400</v>
+        <v>42002400</v>
       </c>
       <c r="E17" s="3">
-        <v>25260800</v>
+        <v>25429700</v>
       </c>
       <c r="F17" s="3">
-        <v>13232900</v>
+        <v>13321400</v>
       </c>
       <c r="G17" s="3">
-        <v>14288300</v>
+        <v>14383800</v>
       </c>
       <c r="H17" s="3">
-        <v>14125700</v>
+        <v>14220100</v>
       </c>
       <c r="I17" s="3">
-        <v>12772000</v>
+        <v>12857400</v>
       </c>
       <c r="J17" s="3">
-        <v>51377800</v>
+        <v>51721300</v>
       </c>
       <c r="K17" s="3">
         <v>48012000</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-407100</v>
+        <v>-409800</v>
       </c>
       <c r="E18" s="3">
-        <v>1199700</v>
+        <v>1207700</v>
       </c>
       <c r="F18" s="3">
-        <v>1507700</v>
+        <v>1517700</v>
       </c>
       <c r="G18" s="3">
-        <v>-154000</v>
+        <v>-155000</v>
       </c>
       <c r="H18" s="3">
-        <v>311200</v>
+        <v>313300</v>
       </c>
       <c r="I18" s="3">
-        <v>2112900</v>
+        <v>2127000</v>
       </c>
       <c r="J18" s="3">
-        <v>-4435800</v>
+        <v>-4465400</v>
       </c>
       <c r="K18" s="3">
         <v>495100</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2055800</v>
+        <v>2069500</v>
       </c>
       <c r="E20" s="3">
-        <v>805500</v>
+        <v>810900</v>
       </c>
       <c r="F20" s="3">
-        <v>173400</v>
+        <v>174500</v>
       </c>
       <c r="G20" s="3">
-        <v>-378000</v>
+        <v>-380500</v>
       </c>
       <c r="H20" s="3">
-        <v>-64600</v>
+        <v>-65000</v>
       </c>
       <c r="I20" s="3">
-        <v>422100</v>
+        <v>425000</v>
       </c>
       <c r="J20" s="3">
-        <v>-833500</v>
+        <v>-839100</v>
       </c>
       <c r="K20" s="3">
         <v>-38100</v>
@@ -1202,22 +1202,22 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>4299800</v>
+        <v>4313600</v>
       </c>
       <c r="F21" s="3">
-        <v>5126800</v>
+        <v>5138600</v>
       </c>
       <c r="G21" s="3">
-        <v>2453100</v>
+        <v>2450100</v>
       </c>
       <c r="H21" s="3">
-        <v>1285000</v>
+        <v>1286800</v>
       </c>
       <c r="I21" s="3">
-        <v>3584200</v>
+        <v>3601400</v>
       </c>
       <c r="J21" s="3">
-        <v>1960400</v>
+        <v>1926400</v>
       </c>
       <c r="K21" s="3">
         <v>6391200</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>878800</v>
+        <v>884600</v>
       </c>
       <c r="E22" s="3">
-        <v>366100</v>
+        <v>368600</v>
       </c>
       <c r="F22" s="3">
-        <v>318800</v>
+        <v>320900</v>
       </c>
       <c r="G22" s="3">
-        <v>277800</v>
+        <v>279700</v>
       </c>
       <c r="H22" s="3">
-        <v>193800</v>
+        <v>195100</v>
       </c>
       <c r="I22" s="3">
-        <v>320900</v>
+        <v>323100</v>
       </c>
       <c r="J22" s="3">
-        <v>984300</v>
+        <v>990900</v>
       </c>
       <c r="K22" s="3">
         <v>1131000</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>770000</v>
+        <v>775100</v>
       </c>
       <c r="E23" s="3">
-        <v>1639000</v>
+        <v>1650000</v>
       </c>
       <c r="F23" s="3">
-        <v>1362300</v>
+        <v>1371400</v>
       </c>
       <c r="G23" s="3">
-        <v>-809800</v>
+        <v>-815200</v>
       </c>
       <c r="H23" s="3">
-        <v>52800</v>
+        <v>53100</v>
       </c>
       <c r="I23" s="3">
-        <v>2214100</v>
+        <v>2228900</v>
       </c>
       <c r="J23" s="3">
-        <v>-6253600</v>
+        <v>-6295400</v>
       </c>
       <c r="K23" s="3">
         <v>-673900</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2452100</v>
+        <v>-2468500</v>
       </c>
       <c r="E24" s="3">
-        <v>743100</v>
+        <v>748000</v>
       </c>
       <c r="F24" s="3">
-        <v>404900</v>
+        <v>407600</v>
       </c>
       <c r="G24" s="3">
-        <v>-99100</v>
+        <v>-99700</v>
       </c>
       <c r="H24" s="3">
-        <v>110900</v>
+        <v>111700</v>
       </c>
       <c r="I24" s="3">
-        <v>358600</v>
+        <v>361000</v>
       </c>
       <c r="J24" s="3">
-        <v>-347800</v>
+        <v>-350200</v>
       </c>
       <c r="K24" s="3">
         <v>638000</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3222100</v>
+        <v>3243600</v>
       </c>
       <c r="E26" s="3">
-        <v>896000</v>
+        <v>902000</v>
       </c>
       <c r="F26" s="3">
-        <v>957400</v>
+        <v>963800</v>
       </c>
       <c r="G26" s="3">
-        <v>-710800</v>
+        <v>-715500</v>
       </c>
       <c r="H26" s="3">
-        <v>-58200</v>
+        <v>-58500</v>
       </c>
       <c r="I26" s="3">
-        <v>1855500</v>
+        <v>1867900</v>
       </c>
       <c r="J26" s="3">
-        <v>-5905700</v>
+        <v>-5945200</v>
       </c>
       <c r="K26" s="3">
         <v>-1311900</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2925900</v>
+        <v>2945500</v>
       </c>
       <c r="E27" s="3">
-        <v>776400</v>
+        <v>781600</v>
       </c>
       <c r="F27" s="3">
-        <v>893800</v>
+        <v>899800</v>
       </c>
       <c r="G27" s="3">
-        <v>-1419400</v>
+        <v>-1428800</v>
       </c>
       <c r="H27" s="3">
-        <v>-852900</v>
+        <v>-858600</v>
       </c>
       <c r="I27" s="3">
-        <v>1408600</v>
+        <v>1418000</v>
       </c>
       <c r="J27" s="3">
-        <v>-6149100</v>
+        <v>-6190200</v>
       </c>
       <c r="K27" s="3">
         <v>-1792300</v>
@@ -1541,16 +1541,16 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>238000</v>
+        <v>239600</v>
       </c>
       <c r="G29" s="3">
-        <v>10570900</v>
+        <v>10641500</v>
       </c>
       <c r="H29" s="3">
-        <v>1213700</v>
+        <v>1221800</v>
       </c>
       <c r="I29" s="3">
-        <v>637500</v>
+        <v>641800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2055800</v>
+        <v>-2069500</v>
       </c>
       <c r="E32" s="3">
-        <v>-805500</v>
+        <v>-810900</v>
       </c>
       <c r="F32" s="3">
-        <v>-173400</v>
+        <v>-174500</v>
       </c>
       <c r="G32" s="3">
-        <v>378000</v>
+        <v>380500</v>
       </c>
       <c r="H32" s="3">
-        <v>64600</v>
+        <v>65000</v>
       </c>
       <c r="I32" s="3">
-        <v>-422100</v>
+        <v>-425000</v>
       </c>
       <c r="J32" s="3">
-        <v>833500</v>
+        <v>839100</v>
       </c>
       <c r="K32" s="3">
         <v>38100</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2925900</v>
+        <v>2945500</v>
       </c>
       <c r="E33" s="3">
-        <v>776400</v>
+        <v>781600</v>
       </c>
       <c r="F33" s="3">
-        <v>1131800</v>
+        <v>1139400</v>
       </c>
       <c r="G33" s="3">
-        <v>9151500</v>
+        <v>9212700</v>
       </c>
       <c r="H33" s="3">
-        <v>360800</v>
+        <v>363200</v>
       </c>
       <c r="I33" s="3">
-        <v>2046100</v>
+        <v>2059800</v>
       </c>
       <c r="J33" s="3">
-        <v>-6149100</v>
+        <v>-6190200</v>
       </c>
       <c r="K33" s="3">
         <v>-179900</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2925900</v>
+        <v>2945500</v>
       </c>
       <c r="E35" s="3">
-        <v>776400</v>
+        <v>781600</v>
       </c>
       <c r="F35" s="3">
-        <v>1131800</v>
+        <v>1139400</v>
       </c>
       <c r="G35" s="3">
-        <v>9151500</v>
+        <v>9212700</v>
       </c>
       <c r="H35" s="3">
-        <v>360800</v>
+        <v>363200</v>
       </c>
       <c r="I35" s="3">
-        <v>2046100</v>
+        <v>2059800</v>
       </c>
       <c r="J35" s="3">
-        <v>-6149100</v>
+        <v>-6190200</v>
       </c>
       <c r="K35" s="3">
         <v>-179900</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7525400</v>
+        <v>7575700</v>
       </c>
       <c r="E41" s="3">
-        <v>6272900</v>
+        <v>6314900</v>
       </c>
       <c r="F41" s="3">
-        <v>5141100</v>
+        <v>5175500</v>
       </c>
       <c r="G41" s="3">
-        <v>6874900</v>
+        <v>6920900</v>
       </c>
       <c r="H41" s="3">
-        <v>3793900</v>
+        <v>3819300</v>
       </c>
       <c r="I41" s="3">
-        <v>4235400</v>
+        <v>4263800</v>
       </c>
       <c r="J41" s="3">
-        <v>4927900</v>
+        <v>4960800</v>
       </c>
       <c r="K41" s="3">
         <v>2668300</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14503700</v>
+        <v>14600700</v>
       </c>
       <c r="E42" s="3">
-        <v>8658300</v>
+        <v>8716200</v>
       </c>
       <c r="F42" s="3">
-        <v>4543400</v>
+        <v>4573800</v>
       </c>
       <c r="G42" s="3">
-        <v>3508500</v>
+        <v>3532000</v>
       </c>
       <c r="H42" s="3">
-        <v>3886500</v>
+        <v>3912500</v>
       </c>
       <c r="I42" s="3">
-        <v>5269300</v>
+        <v>5304500</v>
       </c>
       <c r="J42" s="3">
-        <v>10580500</v>
+        <v>10651300</v>
       </c>
       <c r="K42" s="3">
         <v>7868300</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20111100</v>
+        <v>20245600</v>
       </c>
       <c r="E43" s="3">
-        <v>20774500</v>
+        <v>20913400</v>
       </c>
       <c r="F43" s="3">
-        <v>9394900</v>
+        <v>9457700</v>
       </c>
       <c r="G43" s="3">
-        <v>10550400</v>
+        <v>10620900</v>
       </c>
       <c r="H43" s="3">
-        <v>5218700</v>
+        <v>5253500</v>
       </c>
       <c r="I43" s="3">
-        <v>8179100</v>
+        <v>8233700</v>
       </c>
       <c r="J43" s="3">
-        <v>7219500</v>
+        <v>7267800</v>
       </c>
       <c r="K43" s="3">
         <v>7230400</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4529400</v>
+        <v>4559700</v>
       </c>
       <c r="E44" s="3">
-        <v>3045500</v>
+        <v>3065800</v>
       </c>
       <c r="F44" s="3">
-        <v>3515000</v>
+        <v>3538500</v>
       </c>
       <c r="G44" s="3">
-        <v>3413800</v>
+        <v>3436600</v>
       </c>
       <c r="H44" s="3">
-        <v>1756400</v>
+        <v>1768200</v>
       </c>
       <c r="I44" s="3">
-        <v>2072000</v>
+        <v>2085800</v>
       </c>
       <c r="J44" s="3">
-        <v>2119300</v>
+        <v>2133500</v>
       </c>
       <c r="K44" s="3">
         <v>2072600</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56994900</v>
+        <v>57376000</v>
       </c>
       <c r="E45" s="3">
-        <v>72649800</v>
+        <v>73135600</v>
       </c>
       <c r="F45" s="3">
-        <v>25213500</v>
+        <v>25382000</v>
       </c>
       <c r="G45" s="3">
-        <v>31597300</v>
+        <v>31808600</v>
       </c>
       <c r="H45" s="3">
-        <v>51587800</v>
+        <v>51932700</v>
       </c>
       <c r="I45" s="3">
-        <v>5406000</v>
+        <v>5442200</v>
       </c>
       <c r="J45" s="3">
-        <v>7988400</v>
+        <v>8041900</v>
       </c>
       <c r="K45" s="3">
         <v>9658500</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>103665000</v>
+        <v>104358000</v>
       </c>
       <c r="E46" s="3">
-        <v>111401000</v>
+        <v>112146000</v>
       </c>
       <c r="F46" s="3">
-        <v>29317500</v>
+        <v>29513500</v>
       </c>
       <c r="G46" s="3">
-        <v>30412700</v>
+        <v>30616100</v>
       </c>
       <c r="H46" s="3">
-        <v>66243300</v>
+        <v>66686200</v>
       </c>
       <c r="I46" s="3">
-        <v>25161800</v>
+        <v>25330000</v>
       </c>
       <c r="J46" s="3">
-        <v>32835800</v>
+        <v>33055300</v>
       </c>
       <c r="K46" s="3">
         <v>29498100</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9068600</v>
+        <v>9129200</v>
       </c>
       <c r="E47" s="3">
-        <v>9521900</v>
+        <v>9585600</v>
       </c>
       <c r="F47" s="3">
-        <v>8384700</v>
+        <v>8440800</v>
       </c>
       <c r="G47" s="3">
-        <v>8626000</v>
+        <v>8683600</v>
       </c>
       <c r="H47" s="3">
-        <v>2393900</v>
+        <v>2410000</v>
       </c>
       <c r="I47" s="3">
-        <v>4899900</v>
+        <v>4932700</v>
       </c>
       <c r="J47" s="3">
-        <v>4937600</v>
+        <v>4970600</v>
       </c>
       <c r="K47" s="3">
         <v>4795900</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25575300</v>
+        <v>25746300</v>
       </c>
       <c r="E48" s="3">
-        <v>21520800</v>
+        <v>21664700</v>
       </c>
       <c r="F48" s="3">
-        <v>38558400</v>
+        <v>38816200</v>
       </c>
       <c r="G48" s="3">
-        <v>40900700</v>
+        <v>41174100</v>
       </c>
       <c r="H48" s="3">
-        <v>13363300</v>
+        <v>13452600</v>
       </c>
       <c r="I48" s="3">
-        <v>26865400</v>
+        <v>27045000</v>
       </c>
       <c r="J48" s="3">
-        <v>26403400</v>
+        <v>26580000</v>
       </c>
       <c r="K48" s="3">
         <v>31135900</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6085600</v>
+        <v>6126200</v>
       </c>
       <c r="E49" s="3">
-        <v>6306300</v>
+        <v>6348500</v>
       </c>
       <c r="F49" s="3">
-        <v>10555800</v>
+        <v>10626300</v>
       </c>
       <c r="G49" s="3">
-        <v>10373800</v>
+        <v>10443100</v>
       </c>
       <c r="H49" s="3">
-        <v>2351900</v>
+        <v>2367700</v>
       </c>
       <c r="I49" s="3">
-        <v>13301900</v>
+        <v>13390800</v>
       </c>
       <c r="J49" s="3">
-        <v>13722900</v>
+        <v>13814700</v>
       </c>
       <c r="K49" s="3">
         <v>13975100</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4808400</v>
+        <v>4840500</v>
       </c>
       <c r="E52" s="3">
-        <v>4502500</v>
+        <v>4532600</v>
       </c>
       <c r="F52" s="3">
-        <v>8128400</v>
+        <v>8182800</v>
       </c>
       <c r="G52" s="3">
-        <v>8227500</v>
+        <v>8282500</v>
       </c>
       <c r="H52" s="3">
-        <v>1915800</v>
+        <v>1928600</v>
       </c>
       <c r="I52" s="3">
-        <v>4140700</v>
+        <v>4168400</v>
       </c>
       <c r="J52" s="3">
-        <v>4377600</v>
+        <v>4406900</v>
       </c>
       <c r="K52" s="3">
         <v>4530400</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>149202000</v>
+        <v>150200000</v>
       </c>
       <c r="E54" s="3">
-        <v>153253000</v>
+        <v>154277000</v>
       </c>
       <c r="F54" s="3">
-        <v>66382300</v>
+        <v>66826100</v>
       </c>
       <c r="G54" s="3">
-        <v>68931300</v>
+        <v>69392200</v>
       </c>
       <c r="H54" s="3">
-        <v>86268300</v>
+        <v>86845100</v>
       </c>
       <c r="I54" s="3">
-        <v>74369600</v>
+        <v>74866900</v>
       </c>
       <c r="J54" s="3">
-        <v>82277300</v>
+        <v>82827400</v>
       </c>
       <c r="K54" s="3">
         <v>83935400</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8038000</v>
+        <v>8091700</v>
       </c>
       <c r="E57" s="3">
-        <v>4768500</v>
+        <v>4800400</v>
       </c>
       <c r="F57" s="3">
-        <v>2570600</v>
+        <v>2587700</v>
       </c>
       <c r="G57" s="3">
-        <v>3216700</v>
+        <v>3238200</v>
       </c>
       <c r="H57" s="3">
-        <v>2615800</v>
+        <v>2633300</v>
       </c>
       <c r="I57" s="3">
-        <v>5467400</v>
+        <v>5504000</v>
       </c>
       <c r="J57" s="3">
-        <v>5848600</v>
+        <v>5887700</v>
       </c>
       <c r="K57" s="3">
         <v>6477100</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9343200</v>
+        <v>9405700</v>
       </c>
       <c r="E58" s="3">
-        <v>6854500</v>
+        <v>6900300</v>
       </c>
       <c r="F58" s="3">
-        <v>1524900</v>
+        <v>1535100</v>
       </c>
       <c r="G58" s="3">
-        <v>2329300</v>
+        <v>2344900</v>
       </c>
       <c r="H58" s="3">
-        <v>98000</v>
+        <v>98700</v>
       </c>
       <c r="I58" s="3">
-        <v>1850100</v>
+        <v>1862500</v>
       </c>
       <c r="J58" s="3">
-        <v>950900</v>
+        <v>957300</v>
       </c>
       <c r="K58" s="3">
         <v>1298200</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>68431600</v>
+        <v>68889100</v>
       </c>
       <c r="E59" s="3">
-        <v>92843900</v>
+        <v>93464600</v>
       </c>
       <c r="F59" s="3">
-        <v>25013200</v>
+        <v>25180400</v>
       </c>
       <c r="G59" s="3">
-        <v>31601600</v>
+        <v>31812900</v>
       </c>
       <c r="H59" s="3">
-        <v>46655600</v>
+        <v>46967500</v>
       </c>
       <c r="I59" s="3">
-        <v>14537100</v>
+        <v>14634300</v>
       </c>
       <c r="J59" s="3">
-        <v>24178600</v>
+        <v>24340200</v>
       </c>
       <c r="K59" s="3">
         <v>18807000</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>85812800</v>
+        <v>86386500</v>
       </c>
       <c r="E60" s="3">
-        <v>104467000</v>
+        <v>105165000</v>
       </c>
       <c r="F60" s="3">
-        <v>17769900</v>
+        <v>17888700</v>
       </c>
       <c r="G60" s="3">
-        <v>21112600</v>
+        <v>21253800</v>
       </c>
       <c r="H60" s="3">
-        <v>49369400</v>
+        <v>49699500</v>
       </c>
       <c r="I60" s="3">
-        <v>21854600</v>
+        <v>22000700</v>
       </c>
       <c r="J60" s="3">
-        <v>30978100</v>
+        <v>31185200</v>
       </c>
       <c r="K60" s="3">
         <v>26582300</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9190300</v>
+        <v>9251700</v>
       </c>
       <c r="E61" s="3">
-        <v>6201900</v>
+        <v>6243300</v>
       </c>
       <c r="F61" s="3">
-        <v>3550500</v>
+        <v>3574300</v>
       </c>
       <c r="G61" s="3">
-        <v>3341600</v>
+        <v>3364000</v>
       </c>
       <c r="H61" s="3">
-        <v>1946000</v>
+        <v>1959000</v>
       </c>
       <c r="I61" s="3">
-        <v>14677100</v>
+        <v>14775200</v>
       </c>
       <c r="J61" s="3">
-        <v>16465800</v>
+        <v>16575900</v>
       </c>
       <c r="K61" s="3">
         <v>16969300</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22668700</v>
+        <v>22820300</v>
       </c>
       <c r="E62" s="3">
-        <v>24280900</v>
+        <v>24443200</v>
       </c>
       <c r="F62" s="3">
-        <v>49278900</v>
+        <v>49608400</v>
       </c>
       <c r="G62" s="3">
-        <v>50110300</v>
+        <v>50445300</v>
       </c>
       <c r="H62" s="3">
-        <v>19599600</v>
+        <v>19730600</v>
       </c>
       <c r="I62" s="3">
-        <v>24924900</v>
+        <v>25091500</v>
       </c>
       <c r="J62" s="3">
-        <v>26229000</v>
+        <v>26404300</v>
       </c>
       <c r="K62" s="3">
         <v>30974000</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>119506000</v>
+        <v>120305000</v>
       </c>
       <c r="E66" s="3">
-        <v>136826000</v>
+        <v>137740000</v>
       </c>
       <c r="F66" s="3">
-        <v>48165400</v>
+        <v>48487500</v>
       </c>
       <c r="G66" s="3">
-        <v>50662800</v>
+        <v>51001500</v>
       </c>
       <c r="H66" s="3">
-        <v>76860500</v>
+        <v>77374400</v>
       </c>
       <c r="I66" s="3">
-        <v>67090900</v>
+        <v>67539400</v>
       </c>
       <c r="J66" s="3">
-        <v>79311500</v>
+        <v>79841800</v>
       </c>
       <c r="K66" s="3">
         <v>77749200</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16942900</v>
+        <v>17056100</v>
       </c>
       <c r="E72" s="3">
-        <v>11528200</v>
+        <v>11605300</v>
       </c>
       <c r="F72" s="3">
-        <v>8941500</v>
+        <v>9001300</v>
       </c>
       <c r="G72" s="3">
-        <v>9593000</v>
+        <v>9657200</v>
       </c>
       <c r="H72" s="3">
-        <v>1226600</v>
+        <v>1234800</v>
       </c>
       <c r="I72" s="3">
-        <v>2549000</v>
+        <v>2566100</v>
       </c>
       <c r="J72" s="3">
-        <v>-702100</v>
+        <v>-706800</v>
       </c>
       <c r="K72" s="3">
         <v>3821500</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29696600</v>
+        <v>29895100</v>
       </c>
       <c r="E76" s="3">
-        <v>16427000</v>
+        <v>16536900</v>
       </c>
       <c r="F76" s="3">
-        <v>18216800</v>
+        <v>18338600</v>
       </c>
       <c r="G76" s="3">
-        <v>18268500</v>
+        <v>18390700</v>
       </c>
       <c r="H76" s="3">
-        <v>9407800</v>
+        <v>9470700</v>
       </c>
       <c r="I76" s="3">
-        <v>7278800</v>
+        <v>7327400</v>
       </c>
       <c r="J76" s="3">
-        <v>2965800</v>
+        <v>2985600</v>
       </c>
       <c r="K76" s="3">
         <v>6186100</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2925900</v>
+        <v>2945500</v>
       </c>
       <c r="E81" s="3">
-        <v>776400</v>
+        <v>781600</v>
       </c>
       <c r="F81" s="3">
-        <v>1131800</v>
+        <v>1139400</v>
       </c>
       <c r="G81" s="3">
-        <v>9151500</v>
+        <v>9212700</v>
       </c>
       <c r="H81" s="3">
-        <v>360800</v>
+        <v>363200</v>
       </c>
       <c r="I81" s="3">
-        <v>2046100</v>
+        <v>2059800</v>
       </c>
       <c r="J81" s="3">
-        <v>-6149100</v>
+        <v>-6190200</v>
       </c>
       <c r="K81" s="3">
         <v>-179900</v>
@@ -3504,22 +3504,22 @@
         <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>2279800</v>
+        <v>2295000</v>
       </c>
       <c r="F83" s="3">
-        <v>3423500</v>
+        <v>3446400</v>
       </c>
       <c r="G83" s="3">
-        <v>2965800</v>
+        <v>2985600</v>
       </c>
       <c r="H83" s="3">
-        <v>1031700</v>
+        <v>1038600</v>
       </c>
       <c r="I83" s="3">
-        <v>1042400</v>
+        <v>1049400</v>
       </c>
       <c r="J83" s="3">
-        <v>7182900</v>
+        <v>7230900</v>
       </c>
       <c r="K83" s="3">
         <v>5954400</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2591000</v>
+        <v>2608300</v>
       </c>
       <c r="E89" s="3">
-        <v>7833400</v>
+        <v>7885700</v>
       </c>
       <c r="F89" s="3">
-        <v>4496100</v>
+        <v>4526100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1640100</v>
+        <v>-1651100</v>
       </c>
       <c r="H89" s="3">
-        <v>7159200</v>
+        <v>7207100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1888900</v>
+        <v>-1901500</v>
       </c>
       <c r="J89" s="3">
-        <v>2532900</v>
+        <v>2549800</v>
       </c>
       <c r="K89" s="3">
         <v>3400400</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4828800</v>
+        <v>-4861100</v>
       </c>
       <c r="E91" s="3">
-        <v>-4058800</v>
+        <v>-4086000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3616200</v>
+        <v>-3640400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1907200</v>
+        <v>-1919900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1341800</v>
+        <v>-1350800</v>
       </c>
       <c r="I91" s="3">
-        <v>-3378200</v>
+        <v>-3400800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2485500</v>
+        <v>-2502100</v>
       </c>
       <c r="K91" s="3">
         <v>-3357000</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10652700</v>
+        <v>-10723900</v>
       </c>
       <c r="E94" s="3">
-        <v>-8333100</v>
+        <v>-8388800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4688800</v>
+        <v>-4720200</v>
       </c>
       <c r="G94" s="3">
-        <v>-785100</v>
+        <v>-790300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4742700</v>
+        <v>-4774400</v>
       </c>
       <c r="I94" s="3">
-        <v>2897900</v>
+        <v>2917300</v>
       </c>
       <c r="J94" s="3">
-        <v>-4921400</v>
+        <v>-4954300</v>
       </c>
       <c r="K94" s="3">
         <v>-2016500</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-983200</v>
+        <v>-989800</v>
       </c>
       <c r="E96" s="3">
-        <v>-786100</v>
+        <v>-791400</v>
       </c>
       <c r="F96" s="3">
-        <v>-562100</v>
+        <v>-565900</v>
       </c>
       <c r="G96" s="3">
-        <v>-603100</v>
+        <v>-607100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1103800</v>
+        <v>-1111200</v>
       </c>
       <c r="I96" s="3">
-        <v>-171200</v>
+        <v>-172400</v>
       </c>
       <c r="J96" s="3">
-        <v>-438300</v>
+        <v>-441200</v>
       </c>
       <c r="K96" s="3">
         <v>-1132100</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9277500</v>
+        <v>9339500</v>
       </c>
       <c r="E100" s="3">
-        <v>1569000</v>
+        <v>1579500</v>
       </c>
       <c r="F100" s="3">
-        <v>1911500</v>
+        <v>1924300</v>
       </c>
       <c r="G100" s="3">
-        <v>241200</v>
+        <v>242800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1066100</v>
+        <v>-1073300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1654100</v>
+        <v>-1665200</v>
       </c>
       <c r="J100" s="3">
-        <v>4611300</v>
+        <v>4642100</v>
       </c>
       <c r="K100" s="3">
         <v>-2161500</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="E101" s="3">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="F101" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="G101" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="H101" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="I101" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="J101" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="K101" s="3">
         <v>14800</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1252400</v>
+        <v>1260800</v>
       </c>
       <c r="E102" s="3">
-        <v>1131800</v>
+        <v>1139400</v>
       </c>
       <c r="F102" s="3">
-        <v>1682100</v>
+        <v>1693400</v>
       </c>
       <c r="G102" s="3">
-        <v>-2167800</v>
+        <v>-2182300</v>
       </c>
       <c r="H102" s="3">
-        <v>1364400</v>
+        <v>1373600</v>
       </c>
       <c r="I102" s="3">
-        <v>-665500</v>
+        <v>-670000</v>
       </c>
       <c r="J102" s="3">
-        <v>2196900</v>
+        <v>2211600</v>
       </c>
       <c r="K102" s="3">
         <v>-762800</v>

--- a/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RWEOY_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>41592600</v>
+        <v>41627100</v>
       </c>
       <c r="E8" s="3">
-        <v>26637400</v>
+        <v>26659500</v>
       </c>
       <c r="F8" s="3">
-        <v>14839200</v>
+        <v>14851500</v>
       </c>
       <c r="G8" s="3">
-        <v>14228800</v>
+        <v>14240600</v>
       </c>
       <c r="H8" s="3">
-        <v>14533400</v>
+        <v>14545500</v>
       </c>
       <c r="I8" s="3">
-        <v>14984400</v>
+        <v>14996900</v>
       </c>
       <c r="J8" s="3">
-        <v>47255900</v>
+        <v>47295200</v>
       </c>
       <c r="K8" s="3">
         <v>48507200</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>33880300</v>
+        <v>33908400</v>
       </c>
       <c r="E9" s="3">
-        <v>19178800</v>
+        <v>19194700</v>
       </c>
       <c r="F9" s="3">
-        <v>10537500</v>
+        <v>10546200</v>
       </c>
       <c r="G9" s="3">
-        <v>9736300</v>
+        <v>9744400</v>
       </c>
       <c r="H9" s="3">
-        <v>10790000</v>
+        <v>10799000</v>
       </c>
       <c r="I9" s="3">
-        <v>10805200</v>
+        <v>10814200</v>
       </c>
       <c r="J9" s="3">
-        <v>35920600</v>
+        <v>35950400</v>
       </c>
       <c r="K9" s="3">
         <v>35441900</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7712300</v>
+        <v>7718700</v>
       </c>
       <c r="E10" s="3">
-        <v>7458600</v>
+        <v>7464800</v>
       </c>
       <c r="F10" s="3">
-        <v>4301700</v>
+        <v>4305300</v>
       </c>
       <c r="G10" s="3">
-        <v>4492500</v>
+        <v>4496200</v>
       </c>
       <c r="H10" s="3">
-        <v>3743400</v>
+        <v>3746500</v>
       </c>
       <c r="I10" s="3">
-        <v>4179200</v>
+        <v>4182700</v>
       </c>
       <c r="J10" s="3">
-        <v>11335300</v>
+        <v>11344800</v>
       </c>
       <c r="K10" s="3">
         <v>13065200</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2015300</v>
+        <v>-2017000</v>
       </c>
       <c r="E14" s="3">
-        <v>593000</v>
+        <v>593500</v>
       </c>
       <c r="F14" s="3">
-        <v>1751900</v>
+        <v>1753400</v>
       </c>
       <c r="G14" s="3">
-        <v>1590400</v>
+        <v>1591700</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>422800</v>
+        <v>423200</v>
       </c>
       <c r="J14" s="3">
-        <v>4491400</v>
+        <v>4495200</v>
       </c>
       <c r="K14" s="3">
         <v>2880900</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1767100</v>
+        <v>1768600</v>
       </c>
       <c r="E15" s="3">
-        <v>1540500</v>
+        <v>1541800</v>
       </c>
       <c r="F15" s="3">
-        <v>1543800</v>
+        <v>1545000</v>
       </c>
       <c r="G15" s="3">
-        <v>1298800</v>
+        <v>1299800</v>
       </c>
       <c r="H15" s="3">
-        <v>976800</v>
+        <v>977600</v>
       </c>
       <c r="I15" s="3">
-        <v>1032100</v>
+        <v>1032900</v>
       </c>
       <c r="J15" s="3">
-        <v>2457700</v>
+        <v>2459700</v>
       </c>
       <c r="K15" s="3">
         <v>2551900</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42002400</v>
+        <v>42037200</v>
       </c>
       <c r="E17" s="3">
-        <v>25429700</v>
+        <v>25450800</v>
       </c>
       <c r="F17" s="3">
-        <v>13321400</v>
+        <v>13332500</v>
       </c>
       <c r="G17" s="3">
-        <v>14383800</v>
+        <v>14395800</v>
       </c>
       <c r="H17" s="3">
-        <v>14220100</v>
+        <v>14231900</v>
       </c>
       <c r="I17" s="3">
-        <v>12857400</v>
+        <v>12868100</v>
       </c>
       <c r="J17" s="3">
-        <v>51721300</v>
+        <v>51764300</v>
       </c>
       <c r="K17" s="3">
         <v>48012000</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-409800</v>
+        <v>-410100</v>
       </c>
       <c r="E18" s="3">
-        <v>1207700</v>
+        <v>1208700</v>
       </c>
       <c r="F18" s="3">
-        <v>1517700</v>
+        <v>1519000</v>
       </c>
       <c r="G18" s="3">
-        <v>-155000</v>
+        <v>-155200</v>
       </c>
       <c r="H18" s="3">
-        <v>313300</v>
+        <v>313600</v>
       </c>
       <c r="I18" s="3">
-        <v>2127000</v>
+        <v>2128800</v>
       </c>
       <c r="J18" s="3">
-        <v>-4465400</v>
+        <v>-4469100</v>
       </c>
       <c r="K18" s="3">
         <v>495100</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2069500</v>
+        <v>2071300</v>
       </c>
       <c r="E20" s="3">
-        <v>810900</v>
+        <v>811600</v>
       </c>
       <c r="F20" s="3">
-        <v>174500</v>
+        <v>174700</v>
       </c>
       <c r="G20" s="3">
-        <v>-380500</v>
+        <v>-380800</v>
       </c>
       <c r="H20" s="3">
-        <v>-65000</v>
+        <v>-65100</v>
       </c>
       <c r="I20" s="3">
-        <v>425000</v>
+        <v>425300</v>
       </c>
       <c r="J20" s="3">
-        <v>-839100</v>
+        <v>-839800</v>
       </c>
       <c r="K20" s="3">
         <v>-38100</v>
@@ -1202,22 +1202,22 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>4313600</v>
+        <v>4316400</v>
       </c>
       <c r="F21" s="3">
-        <v>5138600</v>
+        <v>5141600</v>
       </c>
       <c r="G21" s="3">
-        <v>2450100</v>
+        <v>2451000</v>
       </c>
       <c r="H21" s="3">
-        <v>1286800</v>
+        <v>1287500</v>
       </c>
       <c r="I21" s="3">
-        <v>3601400</v>
+        <v>3604000</v>
       </c>
       <c r="J21" s="3">
-        <v>1926400</v>
+        <v>1925400</v>
       </c>
       <c r="K21" s="3">
         <v>6391200</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>884600</v>
+        <v>885400</v>
       </c>
       <c r="E22" s="3">
-        <v>368600</v>
+        <v>368900</v>
       </c>
       <c r="F22" s="3">
-        <v>320900</v>
+        <v>321200</v>
       </c>
       <c r="G22" s="3">
-        <v>279700</v>
+        <v>279900</v>
       </c>
       <c r="H22" s="3">
-        <v>195100</v>
+        <v>195300</v>
       </c>
       <c r="I22" s="3">
-        <v>323100</v>
+        <v>323300</v>
       </c>
       <c r="J22" s="3">
-        <v>990900</v>
+        <v>991700</v>
       </c>
       <c r="K22" s="3">
         <v>1131000</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>775100</v>
+        <v>775800</v>
       </c>
       <c r="E23" s="3">
-        <v>1650000</v>
+        <v>1651400</v>
       </c>
       <c r="F23" s="3">
-        <v>1371400</v>
+        <v>1372500</v>
       </c>
       <c r="G23" s="3">
-        <v>-815200</v>
+        <v>-815900</v>
       </c>
       <c r="H23" s="3">
-        <v>53100</v>
+        <v>53200</v>
       </c>
       <c r="I23" s="3">
-        <v>2228900</v>
+        <v>2230800</v>
       </c>
       <c r="J23" s="3">
-        <v>-6295400</v>
+        <v>-6300600</v>
       </c>
       <c r="K23" s="3">
         <v>-673900</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2468500</v>
+        <v>-2470500</v>
       </c>
       <c r="E24" s="3">
-        <v>748000</v>
+        <v>748700</v>
       </c>
       <c r="F24" s="3">
-        <v>407600</v>
+        <v>408000</v>
       </c>
       <c r="G24" s="3">
-        <v>-99700</v>
+        <v>-99800</v>
       </c>
       <c r="H24" s="3">
-        <v>111700</v>
+        <v>111800</v>
       </c>
       <c r="I24" s="3">
-        <v>361000</v>
+        <v>361300</v>
       </c>
       <c r="J24" s="3">
-        <v>-350200</v>
+        <v>-350500</v>
       </c>
       <c r="K24" s="3">
         <v>638000</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3243600</v>
+        <v>3246300</v>
       </c>
       <c r="E26" s="3">
-        <v>902000</v>
+        <v>902700</v>
       </c>
       <c r="F26" s="3">
-        <v>963800</v>
+        <v>964600</v>
       </c>
       <c r="G26" s="3">
-        <v>-715500</v>
+        <v>-716100</v>
       </c>
       <c r="H26" s="3">
-        <v>-58500</v>
+        <v>-58600</v>
       </c>
       <c r="I26" s="3">
-        <v>1867900</v>
+        <v>1869500</v>
       </c>
       <c r="J26" s="3">
-        <v>-5945200</v>
+        <v>-5950100</v>
       </c>
       <c r="K26" s="3">
         <v>-1311900</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2945500</v>
+        <v>2947900</v>
       </c>
       <c r="E27" s="3">
-        <v>781600</v>
+        <v>782300</v>
       </c>
       <c r="F27" s="3">
-        <v>899800</v>
+        <v>900600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1428800</v>
+        <v>-1430000</v>
       </c>
       <c r="H27" s="3">
-        <v>-858600</v>
+        <v>-859300</v>
       </c>
       <c r="I27" s="3">
-        <v>1418000</v>
+        <v>1419200</v>
       </c>
       <c r="J27" s="3">
-        <v>-6190200</v>
+        <v>-6195400</v>
       </c>
       <c r="K27" s="3">
         <v>-1792300</v>
@@ -1541,16 +1541,16 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>239600</v>
+        <v>239800</v>
       </c>
       <c r="G29" s="3">
-        <v>10641500</v>
+        <v>10650400</v>
       </c>
       <c r="H29" s="3">
-        <v>1221800</v>
+        <v>1222800</v>
       </c>
       <c r="I29" s="3">
-        <v>641800</v>
+        <v>642300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2069500</v>
+        <v>-2071300</v>
       </c>
       <c r="E32" s="3">
-        <v>-810900</v>
+        <v>-811600</v>
       </c>
       <c r="F32" s="3">
-        <v>-174500</v>
+        <v>-174700</v>
       </c>
       <c r="G32" s="3">
-        <v>380500</v>
+        <v>380800</v>
       </c>
       <c r="H32" s="3">
-        <v>65000</v>
+        <v>65100</v>
       </c>
       <c r="I32" s="3">
-        <v>-425000</v>
+        <v>-425300</v>
       </c>
       <c r="J32" s="3">
-        <v>839100</v>
+        <v>839800</v>
       </c>
       <c r="K32" s="3">
         <v>38100</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2945500</v>
+        <v>2947900</v>
       </c>
       <c r="E33" s="3">
-        <v>781600</v>
+        <v>782300</v>
       </c>
       <c r="F33" s="3">
-        <v>1139400</v>
+        <v>1140300</v>
       </c>
       <c r="G33" s="3">
-        <v>9212700</v>
+        <v>9220300</v>
       </c>
       <c r="H33" s="3">
-        <v>363200</v>
+        <v>363500</v>
       </c>
       <c r="I33" s="3">
-        <v>2059800</v>
+        <v>2061500</v>
       </c>
       <c r="J33" s="3">
-        <v>-6190200</v>
+        <v>-6195400</v>
       </c>
       <c r="K33" s="3">
         <v>-179900</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2945500</v>
+        <v>2947900</v>
       </c>
       <c r="E35" s="3">
-        <v>781600</v>
+        <v>782300</v>
       </c>
       <c r="F35" s="3">
-        <v>1139400</v>
+        <v>1140300</v>
       </c>
       <c r="G35" s="3">
-        <v>9212700</v>
+        <v>9220300</v>
       </c>
       <c r="H35" s="3">
-        <v>363200</v>
+        <v>363500</v>
       </c>
       <c r="I35" s="3">
-        <v>2059800</v>
+        <v>2061500</v>
       </c>
       <c r="J35" s="3">
-        <v>-6190200</v>
+        <v>-6195400</v>
       </c>
       <c r="K35" s="3">
         <v>-179900</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7575700</v>
+        <v>7582000</v>
       </c>
       <c r="E41" s="3">
-        <v>6314900</v>
+        <v>6320100</v>
       </c>
       <c r="F41" s="3">
-        <v>5175500</v>
+        <v>5179800</v>
       </c>
       <c r="G41" s="3">
-        <v>6920900</v>
+        <v>6926600</v>
       </c>
       <c r="H41" s="3">
-        <v>3819300</v>
+        <v>3822500</v>
       </c>
       <c r="I41" s="3">
-        <v>4263800</v>
+        <v>4267300</v>
       </c>
       <c r="J41" s="3">
-        <v>4960800</v>
+        <v>4965000</v>
       </c>
       <c r="K41" s="3">
         <v>2668300</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14600700</v>
+        <v>14612800</v>
       </c>
       <c r="E42" s="3">
-        <v>8716200</v>
+        <v>8723400</v>
       </c>
       <c r="F42" s="3">
-        <v>4573800</v>
+        <v>4577600</v>
       </c>
       <c r="G42" s="3">
-        <v>3532000</v>
+        <v>3534900</v>
       </c>
       <c r="H42" s="3">
-        <v>3912500</v>
+        <v>3915800</v>
       </c>
       <c r="I42" s="3">
-        <v>5304500</v>
+        <v>5308900</v>
       </c>
       <c r="J42" s="3">
-        <v>10651300</v>
+        <v>10660100</v>
       </c>
       <c r="K42" s="3">
         <v>7868300</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20245600</v>
+        <v>20262400</v>
       </c>
       <c r="E43" s="3">
-        <v>20913400</v>
+        <v>20930700</v>
       </c>
       <c r="F43" s="3">
-        <v>9457700</v>
+        <v>9465500</v>
       </c>
       <c r="G43" s="3">
-        <v>10620900</v>
+        <v>10629700</v>
       </c>
       <c r="H43" s="3">
-        <v>5253500</v>
+        <v>5257900</v>
       </c>
       <c r="I43" s="3">
-        <v>8233700</v>
+        <v>8240600</v>
       </c>
       <c r="J43" s="3">
-        <v>7267800</v>
+        <v>7273800</v>
       </c>
       <c r="K43" s="3">
         <v>7230400</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4559700</v>
+        <v>4563500</v>
       </c>
       <c r="E44" s="3">
-        <v>3065800</v>
+        <v>3068400</v>
       </c>
       <c r="F44" s="3">
-        <v>3538500</v>
+        <v>3541400</v>
       </c>
       <c r="G44" s="3">
-        <v>3436600</v>
+        <v>3439400</v>
       </c>
       <c r="H44" s="3">
-        <v>1768200</v>
+        <v>1769600</v>
       </c>
       <c r="I44" s="3">
-        <v>2085800</v>
+        <v>2087500</v>
       </c>
       <c r="J44" s="3">
-        <v>2133500</v>
+        <v>2135300</v>
       </c>
       <c r="K44" s="3">
         <v>2072600</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>57376000</v>
+        <v>57423600</v>
       </c>
       <c r="E45" s="3">
-        <v>73135600</v>
+        <v>73196300</v>
       </c>
       <c r="F45" s="3">
-        <v>25382000</v>
+        <v>25403100</v>
       </c>
       <c r="G45" s="3">
-        <v>31808600</v>
+        <v>31835000</v>
       </c>
       <c r="H45" s="3">
-        <v>51932700</v>
+        <v>51975800</v>
       </c>
       <c r="I45" s="3">
-        <v>5442200</v>
+        <v>5446700</v>
       </c>
       <c r="J45" s="3">
-        <v>8041900</v>
+        <v>8048500</v>
       </c>
       <c r="K45" s="3">
         <v>9658500</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>104358000</v>
+        <v>104444000</v>
       </c>
       <c r="E46" s="3">
-        <v>112146000</v>
+        <v>112239000</v>
       </c>
       <c r="F46" s="3">
-        <v>29513500</v>
+        <v>29538000</v>
       </c>
       <c r="G46" s="3">
-        <v>30616100</v>
+        <v>30641500</v>
       </c>
       <c r="H46" s="3">
-        <v>66686200</v>
+        <v>66741600</v>
       </c>
       <c r="I46" s="3">
-        <v>25330000</v>
+        <v>25351000</v>
       </c>
       <c r="J46" s="3">
-        <v>33055300</v>
+        <v>33082700</v>
       </c>
       <c r="K46" s="3">
         <v>29498100</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9129200</v>
+        <v>9136800</v>
       </c>
       <c r="E47" s="3">
-        <v>9585600</v>
+        <v>9593600</v>
       </c>
       <c r="F47" s="3">
-        <v>8440800</v>
+        <v>8447800</v>
       </c>
       <c r="G47" s="3">
-        <v>8683600</v>
+        <v>8690900</v>
       </c>
       <c r="H47" s="3">
-        <v>2410000</v>
+        <v>2412000</v>
       </c>
       <c r="I47" s="3">
-        <v>4932700</v>
+        <v>4936800</v>
       </c>
       <c r="J47" s="3">
-        <v>4970600</v>
+        <v>4974700</v>
       </c>
       <c r="K47" s="3">
         <v>4795900</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25746300</v>
+        <v>25767700</v>
       </c>
       <c r="E48" s="3">
-        <v>21664700</v>
+        <v>21682600</v>
       </c>
       <c r="F48" s="3">
-        <v>38816200</v>
+        <v>38848400</v>
       </c>
       <c r="G48" s="3">
-        <v>41174100</v>
+        <v>41208300</v>
       </c>
       <c r="H48" s="3">
-        <v>13452600</v>
+        <v>13463800</v>
       </c>
       <c r="I48" s="3">
-        <v>27045000</v>
+        <v>27067500</v>
       </c>
       <c r="J48" s="3">
-        <v>26580000</v>
+        <v>26602000</v>
       </c>
       <c r="K48" s="3">
         <v>31135900</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6126200</v>
+        <v>6131300</v>
       </c>
       <c r="E49" s="3">
-        <v>6348500</v>
+        <v>6353800</v>
       </c>
       <c r="F49" s="3">
-        <v>10626300</v>
+        <v>10635200</v>
       </c>
       <c r="G49" s="3">
-        <v>10443100</v>
+        <v>10451800</v>
       </c>
       <c r="H49" s="3">
-        <v>2367700</v>
+        <v>2369600</v>
       </c>
       <c r="I49" s="3">
-        <v>13390800</v>
+        <v>13401900</v>
       </c>
       <c r="J49" s="3">
-        <v>13814700</v>
+        <v>13826200</v>
       </c>
       <c r="K49" s="3">
         <v>13975100</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4840500</v>
+        <v>4844500</v>
       </c>
       <c r="E52" s="3">
-        <v>4532600</v>
+        <v>4536400</v>
       </c>
       <c r="F52" s="3">
-        <v>8182800</v>
+        <v>8189600</v>
       </c>
       <c r="G52" s="3">
-        <v>8282500</v>
+        <v>8289400</v>
       </c>
       <c r="H52" s="3">
-        <v>1928600</v>
+        <v>1930200</v>
       </c>
       <c r="I52" s="3">
-        <v>4168400</v>
+        <v>4171800</v>
       </c>
       <c r="J52" s="3">
-        <v>4406900</v>
+        <v>4410500</v>
       </c>
       <c r="K52" s="3">
         <v>4530400</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>150200000</v>
+        <v>150325000</v>
       </c>
       <c r="E54" s="3">
-        <v>154277000</v>
+        <v>154405000</v>
       </c>
       <c r="F54" s="3">
-        <v>66826100</v>
+        <v>66881600</v>
       </c>
       <c r="G54" s="3">
-        <v>69392200</v>
+        <v>69449800</v>
       </c>
       <c r="H54" s="3">
-        <v>86845100</v>
+        <v>86917200</v>
       </c>
       <c r="I54" s="3">
-        <v>74866900</v>
+        <v>74929000</v>
       </c>
       <c r="J54" s="3">
-        <v>82827400</v>
+        <v>82896200</v>
       </c>
       <c r="K54" s="3">
         <v>83935400</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8091700</v>
+        <v>8098400</v>
       </c>
       <c r="E57" s="3">
-        <v>4800400</v>
+        <v>4804400</v>
       </c>
       <c r="F57" s="3">
-        <v>2587700</v>
+        <v>2589900</v>
       </c>
       <c r="G57" s="3">
-        <v>3238200</v>
+        <v>3240900</v>
       </c>
       <c r="H57" s="3">
-        <v>2633300</v>
+        <v>2635500</v>
       </c>
       <c r="I57" s="3">
-        <v>5504000</v>
+        <v>5508500</v>
       </c>
       <c r="J57" s="3">
-        <v>5887700</v>
+        <v>5892600</v>
       </c>
       <c r="K57" s="3">
         <v>6477100</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9405700</v>
+        <v>9413500</v>
       </c>
       <c r="E58" s="3">
-        <v>6900300</v>
+        <v>6906000</v>
       </c>
       <c r="F58" s="3">
-        <v>1535100</v>
+        <v>1536400</v>
       </c>
       <c r="G58" s="3">
-        <v>2344900</v>
+        <v>2346900</v>
       </c>
       <c r="H58" s="3">
         <v>98700</v>
       </c>
       <c r="I58" s="3">
-        <v>1862500</v>
+        <v>1864000</v>
       </c>
       <c r="J58" s="3">
-        <v>957300</v>
+        <v>958100</v>
       </c>
       <c r="K58" s="3">
         <v>1298200</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>68889100</v>
+        <v>68946300</v>
       </c>
       <c r="E59" s="3">
-        <v>93464600</v>
+        <v>93542200</v>
       </c>
       <c r="F59" s="3">
-        <v>25180400</v>
+        <v>25201300</v>
       </c>
       <c r="G59" s="3">
-        <v>31812900</v>
+        <v>31839300</v>
       </c>
       <c r="H59" s="3">
-        <v>46967500</v>
+        <v>47006500</v>
       </c>
       <c r="I59" s="3">
-        <v>14634300</v>
+        <v>14646400</v>
       </c>
       <c r="J59" s="3">
-        <v>24340200</v>
+        <v>24360400</v>
       </c>
       <c r="K59" s="3">
         <v>18807000</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>86386500</v>
+        <v>86458200</v>
       </c>
       <c r="E60" s="3">
-        <v>105165000</v>
+        <v>105253000</v>
       </c>
       <c r="F60" s="3">
-        <v>17888700</v>
+        <v>17903600</v>
       </c>
       <c r="G60" s="3">
-        <v>21253800</v>
+        <v>21271400</v>
       </c>
       <c r="H60" s="3">
-        <v>49699500</v>
+        <v>49740700</v>
       </c>
       <c r="I60" s="3">
-        <v>22000700</v>
+        <v>22019000</v>
       </c>
       <c r="J60" s="3">
-        <v>31185200</v>
+        <v>31211100</v>
       </c>
       <c r="K60" s="3">
         <v>26582300</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9251700</v>
+        <v>9259400</v>
       </c>
       <c r="E61" s="3">
-        <v>6243300</v>
+        <v>6248500</v>
       </c>
       <c r="F61" s="3">
-        <v>3574300</v>
+        <v>3577200</v>
       </c>
       <c r="G61" s="3">
-        <v>3364000</v>
+        <v>3366800</v>
       </c>
       <c r="H61" s="3">
-        <v>1959000</v>
+        <v>1960600</v>
       </c>
       <c r="I61" s="3">
-        <v>14775200</v>
+        <v>14787500</v>
       </c>
       <c r="J61" s="3">
-        <v>16575900</v>
+        <v>16589600</v>
       </c>
       <c r="K61" s="3">
         <v>16969300</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22820300</v>
+        <v>22839300</v>
       </c>
       <c r="E62" s="3">
-        <v>24443200</v>
+        <v>24463500</v>
       </c>
       <c r="F62" s="3">
-        <v>49608400</v>
+        <v>49649600</v>
       </c>
       <c r="G62" s="3">
-        <v>50445300</v>
+        <v>50487200</v>
       </c>
       <c r="H62" s="3">
-        <v>19730600</v>
+        <v>19747000</v>
       </c>
       <c r="I62" s="3">
-        <v>25091500</v>
+        <v>25112300</v>
       </c>
       <c r="J62" s="3">
-        <v>26404300</v>
+        <v>26426300</v>
       </c>
       <c r="K62" s="3">
         <v>30974000</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>120305000</v>
+        <v>120405000</v>
       </c>
       <c r="E66" s="3">
-        <v>137740000</v>
+        <v>137855000</v>
       </c>
       <c r="F66" s="3">
-        <v>48487500</v>
+        <v>48527700</v>
       </c>
       <c r="G66" s="3">
-        <v>51001500</v>
+        <v>51043800</v>
       </c>
       <c r="H66" s="3">
-        <v>77374400</v>
+        <v>77438600</v>
       </c>
       <c r="I66" s="3">
-        <v>67539400</v>
+        <v>67595500</v>
       </c>
       <c r="J66" s="3">
-        <v>79841800</v>
+        <v>79908100</v>
       </c>
       <c r="K66" s="3">
         <v>77749200</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17056100</v>
+        <v>17070300</v>
       </c>
       <c r="E72" s="3">
-        <v>11605300</v>
+        <v>11614900</v>
       </c>
       <c r="F72" s="3">
-        <v>9001300</v>
+        <v>9008800</v>
       </c>
       <c r="G72" s="3">
-        <v>9657200</v>
+        <v>9665200</v>
       </c>
       <c r="H72" s="3">
-        <v>1234800</v>
+        <v>1235800</v>
       </c>
       <c r="I72" s="3">
-        <v>2566100</v>
+        <v>2568200</v>
       </c>
       <c r="J72" s="3">
-        <v>-706800</v>
+        <v>-707400</v>
       </c>
       <c r="K72" s="3">
         <v>3821500</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29895100</v>
+        <v>29920000</v>
       </c>
       <c r="E76" s="3">
-        <v>16536900</v>
+        <v>16550600</v>
       </c>
       <c r="F76" s="3">
-        <v>18338600</v>
+        <v>18353900</v>
       </c>
       <c r="G76" s="3">
-        <v>18390700</v>
+        <v>18405900</v>
       </c>
       <c r="H76" s="3">
-        <v>9470700</v>
+        <v>9478600</v>
       </c>
       <c r="I76" s="3">
-        <v>7327400</v>
+        <v>7333500</v>
       </c>
       <c r="J76" s="3">
-        <v>2985600</v>
+        <v>2988100</v>
       </c>
       <c r="K76" s="3">
         <v>6186100</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2945500</v>
+        <v>2947900</v>
       </c>
       <c r="E81" s="3">
-        <v>781600</v>
+        <v>782300</v>
       </c>
       <c r="F81" s="3">
-        <v>1139400</v>
+        <v>1140300</v>
       </c>
       <c r="G81" s="3">
-        <v>9212700</v>
+        <v>9220300</v>
       </c>
       <c r="H81" s="3">
-        <v>363200</v>
+        <v>363500</v>
       </c>
       <c r="I81" s="3">
-        <v>2059800</v>
+        <v>2061500</v>
       </c>
       <c r="J81" s="3">
-        <v>-6190200</v>
+        <v>-6195400</v>
       </c>
       <c r="K81" s="3">
         <v>-179900</v>
@@ -3504,22 +3504,22 @@
         <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>2295000</v>
+        <v>2296900</v>
       </c>
       <c r="F83" s="3">
-        <v>3446400</v>
+        <v>3449200</v>
       </c>
       <c r="G83" s="3">
-        <v>2985600</v>
+        <v>2988100</v>
       </c>
       <c r="H83" s="3">
-        <v>1038600</v>
+        <v>1039400</v>
       </c>
       <c r="I83" s="3">
-        <v>1049400</v>
+        <v>1050300</v>
       </c>
       <c r="J83" s="3">
-        <v>7230900</v>
+        <v>7237000</v>
       </c>
       <c r="K83" s="3">
         <v>5954400</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2608300</v>
+        <v>2610500</v>
       </c>
       <c r="E89" s="3">
-        <v>7885700</v>
+        <v>7892300</v>
       </c>
       <c r="F89" s="3">
-        <v>4526100</v>
+        <v>4529900</v>
       </c>
       <c r="G89" s="3">
-        <v>-1651100</v>
+        <v>-1652500</v>
       </c>
       <c r="H89" s="3">
-        <v>7207100</v>
+        <v>7213100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1901500</v>
+        <v>-1903100</v>
       </c>
       <c r="J89" s="3">
-        <v>2549800</v>
+        <v>2551900</v>
       </c>
       <c r="K89" s="3">
         <v>3400400</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4861100</v>
+        <v>-4865100</v>
       </c>
       <c r="E91" s="3">
-        <v>-4086000</v>
+        <v>-4089400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3640400</v>
+        <v>-3643400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1919900</v>
+        <v>-1921500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1350800</v>
+        <v>-1351900</v>
       </c>
       <c r="I91" s="3">
-        <v>-3400800</v>
+        <v>-3403600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2502100</v>
+        <v>-2504200</v>
       </c>
       <c r="K91" s="3">
         <v>-3357000</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10723900</v>
+        <v>-10732800</v>
       </c>
       <c r="E94" s="3">
-        <v>-8388800</v>
+        <v>-8395700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4720200</v>
+        <v>-4724100</v>
       </c>
       <c r="G94" s="3">
-        <v>-790300</v>
+        <v>-791000</v>
       </c>
       <c r="H94" s="3">
-        <v>-4774400</v>
+        <v>-4778300</v>
       </c>
       <c r="I94" s="3">
-        <v>2917300</v>
+        <v>2919700</v>
       </c>
       <c r="J94" s="3">
-        <v>-4954300</v>
+        <v>-4958500</v>
       </c>
       <c r="K94" s="3">
         <v>-2016500</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-989800</v>
+        <v>-990600</v>
       </c>
       <c r="E96" s="3">
-        <v>-791400</v>
+        <v>-792100</v>
       </c>
       <c r="F96" s="3">
-        <v>-565900</v>
+        <v>-566400</v>
       </c>
       <c r="G96" s="3">
-        <v>-607100</v>
+        <v>-607600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1111200</v>
+        <v>-1112100</v>
       </c>
       <c r="I96" s="3">
-        <v>-172400</v>
+        <v>-172500</v>
       </c>
       <c r="J96" s="3">
-        <v>-441200</v>
+        <v>-441600</v>
       </c>
       <c r="K96" s="3">
         <v>-1132100</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9339500</v>
+        <v>9347300</v>
       </c>
       <c r="E100" s="3">
-        <v>1579500</v>
+        <v>1580800</v>
       </c>
       <c r="F100" s="3">
-        <v>1924300</v>
+        <v>1925900</v>
       </c>
       <c r="G100" s="3">
-        <v>242800</v>
+        <v>243000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1073300</v>
+        <v>-1074200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1665200</v>
+        <v>-1666600</v>
       </c>
       <c r="J100" s="3">
-        <v>4642100</v>
+        <v>4646000</v>
       </c>
       <c r="K100" s="3">
         <v>-2161500</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1260800</v>
+        <v>1261900</v>
       </c>
       <c r="E102" s="3">
-        <v>1139400</v>
+        <v>1140300</v>
       </c>
       <c r="F102" s="3">
-        <v>1693400</v>
+        <v>1694800</v>
       </c>
       <c r="G102" s="3">
-        <v>-2182300</v>
+        <v>-2184100</v>
       </c>
       <c r="H102" s="3">
-        <v>1373600</v>
+        <v>1374700</v>
       </c>
       <c r="I102" s="3">
-        <v>-670000</v>
+        <v>-670500</v>
       </c>
       <c r="J102" s="3">
-        <v>2211600</v>
+        <v>2213400</v>
       </c>
       <c r="K102" s="3">
         <v>-762800</v>
